--- a/04.Development/Project Management.xlsx
+++ b/04.Development/Project Management.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/codigoteam/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/linnkoko/Desktop/Web Developer Class/Web Developer I + II B7/Project/04.Development/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78EFE0E9-6E3A-7648-BA70-2D74C986055B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3268099-0D02-7E4F-9E10-E0D92D76D86B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16380" activeTab="2" xr2:uid="{7BA0B221-245C-954E-96F6-3D960DADD312}"/>
+    <workbookView xWindow="1100" yWindow="-18920" windowWidth="27740" windowHeight="16380" activeTab="2" xr2:uid="{7BA0B221-245C-954E-96F6-3D960DADD312}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="3" r:id="rId1"/>
@@ -32,6 +32,14 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -2798,7 +2806,7 @@
       </c>
       <c r="P3" s="135">
         <f ca="1">NOW()</f>
-        <v>44748.691176388886</v>
+        <v>44750.774495949074</v>
       </c>
       <c r="Q3" s="136"/>
     </row>
@@ -3810,11 +3818,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0F39F5A-DF39-F541-B8C2-02BEDD153576}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:O56"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="120" zoomScaleNormal="140" zoomScaleSheetLayoutView="120" workbookViewId="0">
-      <selection activeCell="J61" sqref="J61"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3911,7 +3918,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" ht="21" x14ac:dyDescent="0.25">
       <c r="A6" s="58">
         <v>1</v>
       </c>
@@ -3944,7 +3951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" ht="21" x14ac:dyDescent="0.25">
       <c r="A7" s="58">
         <v>2</v>
       </c>
@@ -3975,7 +3982,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" ht="21" x14ac:dyDescent="0.25">
       <c r="A8" s="58">
         <v>3</v>
       </c>
@@ -4009,7 +4016,7 @@
         <v>0.17083333333333331</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" ht="21" x14ac:dyDescent="0.25">
       <c r="A9" s="58"/>
       <c r="B9" s="59">
         <v>1</v>
@@ -4042,7 +4049,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" ht="21" x14ac:dyDescent="0.25">
       <c r="A10" s="58"/>
       <c r="B10" s="59">
         <v>2</v>
@@ -4075,7 +4082,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" ht="21" x14ac:dyDescent="0.25">
       <c r="A11" s="58"/>
       <c r="B11" s="59">
         <v>3</v>
@@ -4106,7 +4113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" ht="21" x14ac:dyDescent="0.25">
       <c r="A12" s="58"/>
       <c r="B12" s="59">
         <v>4</v>
@@ -4172,7 +4179,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" ht="21" x14ac:dyDescent="0.25">
       <c r="A14" s="58"/>
       <c r="B14" s="59">
         <v>6</v>
@@ -4203,7 +4210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" ht="21" x14ac:dyDescent="0.25">
       <c r="A15" s="58"/>
       <c r="B15" s="59">
         <v>7</v>
@@ -4234,7 +4241,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" ht="21" x14ac:dyDescent="0.25">
       <c r="A16" s="58"/>
       <c r="B16" s="59">
         <v>8</v>
@@ -4265,7 +4272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" ht="21" x14ac:dyDescent="0.25">
       <c r="A17" s="58"/>
       <c r="B17" s="59">
         <v>9</v>
@@ -4296,7 +4303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" ht="21" x14ac:dyDescent="0.25">
       <c r="A18" s="58"/>
       <c r="B18" s="59">
         <v>10</v>
@@ -4327,7 +4334,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" ht="21" x14ac:dyDescent="0.25">
       <c r="A19" s="58"/>
       <c r="B19" s="59">
         <v>11</v>
@@ -4358,7 +4365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" ht="21" x14ac:dyDescent="0.25">
       <c r="A20" s="58"/>
       <c r="B20" s="59">
         <v>12</v>
@@ -4389,7 +4396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" ht="21" x14ac:dyDescent="0.25">
       <c r="A21" s="58"/>
       <c r="B21" s="59">
         <v>13</v>
@@ -4420,7 +4427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" ht="21" x14ac:dyDescent="0.25">
       <c r="A22" s="58"/>
       <c r="B22" s="59">
         <v>14</v>
@@ -4451,7 +4458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" ht="21" x14ac:dyDescent="0.25">
       <c r="A23" s="58"/>
       <c r="B23" s="59">
         <v>15</v>
@@ -4552,7 +4559,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" ht="21" x14ac:dyDescent="0.25">
       <c r="A26" s="58"/>
       <c r="B26" s="59">
         <v>18</v>
@@ -4583,7 +4590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" ht="21" x14ac:dyDescent="0.25">
       <c r="A27" s="58"/>
       <c r="B27" s="59">
         <v>19</v>
@@ -4614,7 +4621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:11" ht="21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" ht="21" x14ac:dyDescent="0.25">
       <c r="A28" s="58"/>
       <c r="B28" s="59">
         <v>20</v>
@@ -4645,7 +4652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:11" ht="21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" ht="21" x14ac:dyDescent="0.25">
       <c r="A29" s="58"/>
       <c r="B29" s="59">
         <v>21</v>
@@ -4676,7 +4683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:11" ht="21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" ht="21" x14ac:dyDescent="0.25">
       <c r="A30" s="58"/>
       <c r="B30" s="59">
         <v>22</v>
@@ -4707,7 +4714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:11" ht="21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" ht="21" x14ac:dyDescent="0.25">
       <c r="A31" s="58"/>
       <c r="B31" s="59">
         <v>23</v>
@@ -4738,7 +4745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:11" ht="21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" ht="21" x14ac:dyDescent="0.25">
       <c r="A32" s="58"/>
       <c r="B32" s="59">
         <v>24</v>
@@ -4769,7 +4776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:11" ht="21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" ht="21" x14ac:dyDescent="0.25">
       <c r="A33" s="58"/>
       <c r="B33" s="59">
         <v>25</v>
@@ -4802,7 +4809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:11" ht="21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" ht="21" x14ac:dyDescent="0.25">
       <c r="A34" s="58"/>
       <c r="B34" s="59">
         <v>26</v>
@@ -4819,7 +4826,7 @@
       <c r="J34" s="62"/>
       <c r="K34" s="63"/>
     </row>
-    <row r="35" spans="1:11" ht="21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" ht="21" x14ac:dyDescent="0.25">
       <c r="A35" s="58">
         <v>4</v>
       </c>
@@ -4848,7 +4855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:11" ht="21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" ht="21" x14ac:dyDescent="0.25">
       <c r="A36" s="58">
         <v>5</v>
       </c>
@@ -4873,7 +4880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:11" ht="21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" ht="21" x14ac:dyDescent="0.25">
       <c r="A37" s="58"/>
       <c r="B37" s="59">
         <v>1</v>
@@ -4893,7 +4900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:11" ht="21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" ht="21" x14ac:dyDescent="0.25">
       <c r="A38" s="58"/>
       <c r="B38" s="59">
         <v>2</v>
@@ -4911,7 +4918,7 @@
       </c>
       <c r="K38" s="63"/>
     </row>
-    <row r="39" spans="1:11" ht="21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" ht="21" x14ac:dyDescent="0.25">
       <c r="A39" s="58"/>
       <c r="B39" s="59">
         <v>3</v>
@@ -4926,7 +4933,7 @@
       <c r="J39" s="62"/>
       <c r="K39" s="63"/>
     </row>
-    <row r="40" spans="1:11" ht="21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" ht="21" x14ac:dyDescent="0.25">
       <c r="A40" s="58"/>
       <c r="B40" s="59">
         <v>4</v>
@@ -4941,7 +4948,7 @@
       <c r="J40" s="62"/>
       <c r="K40" s="63"/>
     </row>
-    <row r="41" spans="1:11" ht="21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" ht="21" x14ac:dyDescent="0.25">
       <c r="A41" s="58"/>
       <c r="B41" s="59">
         <v>5</v>
@@ -4956,7 +4963,7 @@
       <c r="J41" s="62"/>
       <c r="K41" s="63"/>
     </row>
-    <row r="42" spans="1:11" ht="21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" ht="21" x14ac:dyDescent="0.25">
       <c r="A42" s="58"/>
       <c r="B42" s="59">
         <v>6</v>
@@ -4971,7 +4978,7 @@
       <c r="J42" s="62"/>
       <c r="K42" s="63"/>
     </row>
-    <row r="43" spans="1:11" ht="21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" ht="21" x14ac:dyDescent="0.25">
       <c r="A43" s="58">
         <v>6</v>
       </c>
@@ -4996,7 +5003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:11" ht="21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" ht="21" x14ac:dyDescent="0.25">
       <c r="A44" s="58">
         <v>7</v>
       </c>
@@ -5021,7 +5028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:11" ht="22" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" ht="22" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="64"/>
       <c r="B45" s="65"/>
       <c r="C45" s="66"/>
@@ -5037,7 +5044,7 @@
       </c>
       <c r="K45" s="69"/>
     </row>
-    <row r="46" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
       <c r="E46" s="1"/>
       <c r="F46" s="1"/>
       <c r="G46">
@@ -5047,7 +5054,7 @@
       <c r="H46" s="1"/>
       <c r="I46" s="1"/>
     </row>
-    <row r="47" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
       <c r="E47" s="1"/>
       <c r="F47" s="1" t="s">
         <v>11</v>
@@ -5124,13 +5131,7 @@
       <c r="J56" s="1"/>
     </row>
   </sheetData>
-  <autoFilter ref="A5:K47" xr:uid="{F0F39F5A-DF39-F541-B8C2-02BEDD153576}">
-    <filterColumn colId="3">
-      <filters>
-        <filter val="PTH"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A5:K47" xr:uid="{F0F39F5A-DF39-F541-B8C2-02BEDD153576}"/>
   <mergeCells count="4">
     <mergeCell ref="A2:B3"/>
     <mergeCell ref="C2:L3"/>

--- a/04.Development/Project Management.xlsx
+++ b/04.Development/Project Management.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/linnkoko/Desktop/Web Developer Class/Web Developer I + II B7/Project/04.Development/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3268099-0D02-7E4F-9E10-E0D92D76D86B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42E8F9B7-7471-D246-A0CD-609D4C81864A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1100" yWindow="-18920" windowWidth="27740" windowHeight="16380" activeTab="2" xr2:uid="{7BA0B221-245C-954E-96F6-3D960DADD312}"/>
+    <workbookView xWindow="680" yWindow="-20340" windowWidth="30800" windowHeight="19020" activeTab="2" xr2:uid="{7BA0B221-245C-954E-96F6-3D960DADD312}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="3" r:id="rId1"/>
@@ -22,11 +22,11 @@
     <sheet name="Assign" sheetId="10" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Schedule!$A$5:$K$47</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Schedule!$A$5:$K$143</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Cover!$A$1:$N$51</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'Customer Requirement'!$A$1:$Q$46</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="5">'DB Design'!$A$1:$O$43</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">Schedule!$A$1:$O$48</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">Schedule!$A$1:$O$144</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,6 @@
         <xcalcf:feature name="microsoft.com:RD"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -46,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="178">
   <si>
     <t>No</t>
   </si>
@@ -497,6 +496,123 @@
   <si>
     <t>Apply Instructor</t>
   </si>
+  <si>
+    <t>Login</t>
+  </si>
+  <si>
+    <t>IN:Edit Profile</t>
+  </si>
+  <si>
+    <t>IN:Course List</t>
+  </si>
+  <si>
+    <t>IN:Appeal</t>
+  </si>
+  <si>
+    <t>IN:Video List</t>
+  </si>
+  <si>
+    <t>IN:Video Upload</t>
+  </si>
+  <si>
+    <t>IN:Video Info</t>
+  </si>
+  <si>
+    <t>IN:Edit Video</t>
+  </si>
+  <si>
+    <t>IN:Quizz List</t>
+  </si>
+  <si>
+    <t>IN:Quiz Update</t>
+  </si>
+  <si>
+    <t>IN:Quiz View</t>
+  </si>
+  <si>
+    <t>IN:Script Update</t>
+  </si>
+  <si>
+    <t>AD: Review Appeal</t>
+  </si>
+  <si>
+    <t>AD: Instructor List</t>
+  </si>
+  <si>
+    <t>IN:Profile ( Edit mode)</t>
+  </si>
+  <si>
+    <t>AD:Profile ( View mode)</t>
+  </si>
+  <si>
+    <t>AD:Video List</t>
+  </si>
+  <si>
+    <t>AD:Video View</t>
+  </si>
+  <si>
+    <t>AD:Review Instuctor</t>
+  </si>
+  <si>
+    <t>AD:Admin List</t>
+  </si>
+  <si>
+    <t>AD:Admin Add</t>
+  </si>
+  <si>
+    <t>AD:Admin Update</t>
+  </si>
+  <si>
+    <t>AD:Contact</t>
+  </si>
+  <si>
+    <t>AD:Services</t>
+  </si>
+  <si>
+    <t>AD:Privacy Policy</t>
+  </si>
+  <si>
+    <t>AD:Guide</t>
+  </si>
+  <si>
+    <t>AD:About Us</t>
+  </si>
+  <si>
+    <t>Move to Dashboard</t>
+  </si>
+  <si>
+    <t>IN:Community(Rate &amp; Review)</t>
+  </si>
+  <si>
+    <t>AD:Request Instuctor List</t>
+  </si>
+  <si>
+    <t>AD:Course List</t>
+  </si>
+  <si>
+    <t>AD:Course Detail</t>
+  </si>
+  <si>
+    <t>SSS</t>
+  </si>
+  <si>
+    <t>AD:Order List</t>
+  </si>
+  <si>
+    <t>AD:Orde Detail</t>
+  </si>
+  <si>
+    <t>IN:Order List</t>
+  </si>
+  <si>
+    <t>IN:Orde Detail</t>
+  </si>
+  <si>
+    <t>IN:Course Upload</t>
+  </si>
+  <si>
+    <t>IN:Course Edit</t>
+  </si>
 </sst>
 </file>
 
@@ -506,7 +622,7 @@
     <numFmt numFmtId="164" formatCode="yyyy/mm/dd"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="23" x14ac:knownFonts="1">
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -668,8 +784,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="14">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -745,6 +868,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1290,7 +1431,7 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="155">
+  <cellXfs count="166">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1436,6 +1577,17 @@
     <xf numFmtId="164" fontId="22" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="3" fillId="13" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="22" fillId="15" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="15" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="3" fillId="15" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="3" fillId="15" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2164,22 +2316,22 @@
       <c r="N18" s="14"/>
     </row>
     <row r="19" spans="1:14" ht="92" x14ac:dyDescent="0.2">
-      <c r="A19" s="122" t="s">
+      <c r="A19" s="133" t="s">
         <v>22</v>
       </c>
-      <c r="B19" s="123"/>
-      <c r="C19" s="123"/>
-      <c r="D19" s="123"/>
-      <c r="E19" s="123"/>
-      <c r="F19" s="123"/>
-      <c r="G19" s="123"/>
-      <c r="H19" s="123"/>
-      <c r="I19" s="123"/>
-      <c r="J19" s="123"/>
-      <c r="K19" s="123"/>
-      <c r="L19" s="123"/>
-      <c r="M19" s="123"/>
-      <c r="N19" s="124"/>
+      <c r="B19" s="134"/>
+      <c r="C19" s="134"/>
+      <c r="D19" s="134"/>
+      <c r="E19" s="134"/>
+      <c r="F19" s="134"/>
+      <c r="G19" s="134"/>
+      <c r="H19" s="134"/>
+      <c r="I19" s="134"/>
+      <c r="J19" s="134"/>
+      <c r="K19" s="134"/>
+      <c r="L19" s="134"/>
+      <c r="M19" s="134"/>
+      <c r="N19" s="135"/>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" s="13"/>
@@ -2214,22 +2366,22 @@
       <c r="N21" s="14"/>
     </row>
     <row r="22" spans="1:14" ht="47" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" s="119" t="s">
+      <c r="A22" s="130" t="s">
         <v>45</v>
       </c>
-      <c r="B22" s="120"/>
-      <c r="C22" s="120"/>
-      <c r="D22" s="120"/>
-      <c r="E22" s="120"/>
-      <c r="F22" s="120"/>
-      <c r="G22" s="120"/>
-      <c r="H22" s="120"/>
-      <c r="I22" s="120"/>
-      <c r="J22" s="120"/>
-      <c r="K22" s="120"/>
-      <c r="L22" s="120"/>
-      <c r="M22" s="120"/>
-      <c r="N22" s="121"/>
+      <c r="B22" s="131"/>
+      <c r="C22" s="131"/>
+      <c r="D22" s="131"/>
+      <c r="E22" s="131"/>
+      <c r="F22" s="131"/>
+      <c r="G22" s="131"/>
+      <c r="H22" s="131"/>
+      <c r="I22" s="131"/>
+      <c r="J22" s="131"/>
+      <c r="K22" s="131"/>
+      <c r="L22" s="131"/>
+      <c r="M22" s="131"/>
+      <c r="N22" s="132"/>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23" s="13"/>
@@ -2539,10 +2691,10 @@
     </row>
     <row r="42" spans="1:14" ht="24" x14ac:dyDescent="0.3">
       <c r="A42" s="13"/>
-      <c r="B42" s="117" t="s">
+      <c r="B42" s="128" t="s">
         <v>19</v>
       </c>
-      <c r="C42" s="117"/>
+      <c r="C42" s="128"/>
       <c r="D42" s="20">
         <v>1</v>
       </c>
@@ -2670,10 +2822,10 @@
       <c r="H48" s="6"/>
       <c r="I48" s="6"/>
       <c r="J48" s="6"/>
-      <c r="K48" s="118" t="s">
+      <c r="K48" s="129" t="s">
         <v>21</v>
       </c>
-      <c r="L48" s="118"/>
+      <c r="L48" s="129"/>
       <c r="M48" s="19">
         <v>44740</v>
       </c>
@@ -2690,10 +2842,10 @@
       <c r="H49" s="6"/>
       <c r="I49" s="6"/>
       <c r="J49" s="6"/>
-      <c r="K49" s="118" t="s">
+      <c r="K49" s="129" t="s">
         <v>20</v>
       </c>
-      <c r="L49" s="118"/>
+      <c r="L49" s="129"/>
       <c r="M49" s="19"/>
       <c r="N49" s="14"/>
     </row>
@@ -2759,56 +2911,56 @@
   <sheetData>
     <row r="1" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:17" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="125" t="s">
+      <c r="A2" s="136" t="s">
         <v>44</v>
       </c>
-      <c r="B2" s="126"/>
-      <c r="C2" s="129" t="str">
+      <c r="B2" s="137"/>
+      <c r="C2" s="140" t="str">
         <f>Cover!E40</f>
         <v xml:space="preserve">Level Up </v>
       </c>
-      <c r="D2" s="130"/>
-      <c r="E2" s="130"/>
-      <c r="F2" s="130"/>
-      <c r="G2" s="130"/>
-      <c r="H2" s="130"/>
-      <c r="I2" s="130"/>
-      <c r="J2" s="130"/>
-      <c r="K2" s="130"/>
-      <c r="L2" s="130"/>
-      <c r="M2" s="130"/>
-      <c r="N2" s="130"/>
+      <c r="D2" s="141"/>
+      <c r="E2" s="141"/>
+      <c r="F2" s="141"/>
+      <c r="G2" s="141"/>
+      <c r="H2" s="141"/>
+      <c r="I2" s="141"/>
+      <c r="J2" s="141"/>
+      <c r="K2" s="141"/>
+      <c r="L2" s="141"/>
+      <c r="M2" s="141"/>
+      <c r="N2" s="141"/>
       <c r="O2" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="P2" s="133">
+      <c r="P2" s="144">
         <v>44740</v>
       </c>
-      <c r="Q2" s="134"/>
+      <c r="Q2" s="145"/>
     </row>
     <row r="3" spans="1:17" ht="34" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="127"/>
-      <c r="B3" s="128"/>
-      <c r="C3" s="131"/>
-      <c r="D3" s="132"/>
-      <c r="E3" s="132"/>
-      <c r="F3" s="132"/>
-      <c r="G3" s="132"/>
-      <c r="H3" s="132"/>
-      <c r="I3" s="132"/>
-      <c r="J3" s="132"/>
-      <c r="K3" s="132"/>
-      <c r="L3" s="132"/>
-      <c r="M3" s="132"/>
-      <c r="N3" s="132"/>
+      <c r="A3" s="138"/>
+      <c r="B3" s="139"/>
+      <c r="C3" s="142"/>
+      <c r="D3" s="143"/>
+      <c r="E3" s="143"/>
+      <c r="F3" s="143"/>
+      <c r="G3" s="143"/>
+      <c r="H3" s="143"/>
+      <c r="I3" s="143"/>
+      <c r="J3" s="143"/>
+      <c r="K3" s="143"/>
+      <c r="L3" s="143"/>
+      <c r="M3" s="143"/>
+      <c r="N3" s="143"/>
       <c r="O3" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="P3" s="135">
+      <c r="P3" s="146">
         <f ca="1">NOW()</f>
-        <v>44750.774495949074</v>
-      </c>
-      <c r="Q3" s="136"/>
+        <v>44750.820998726849</v>
+      </c>
+      <c r="Q3" s="147"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" s="13"/>
@@ -3818,11 +3970,9 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0F39F5A-DF39-F541-B8C2-02BEDD153576}">
-  <dimension ref="A1:O56"/>
+  <dimension ref="A1:O152"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="120" zoomScaleNormal="140" zoomScaleSheetLayoutView="120" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="140" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -3840,47 +3990,47 @@
   <sheetData>
     <row r="1" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:15" ht="21" x14ac:dyDescent="0.2">
-      <c r="A2" s="125" t="s">
+      <c r="A2" s="136" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="126"/>
-      <c r="C2" s="129" t="str">
+      <c r="B2" s="137"/>
+      <c r="C2" s="140" t="str">
         <f>Cover!E40</f>
         <v xml:space="preserve">Level Up </v>
       </c>
-      <c r="D2" s="130"/>
-      <c r="E2" s="130"/>
-      <c r="F2" s="130"/>
-      <c r="G2" s="130"/>
-      <c r="H2" s="130"/>
-      <c r="I2" s="130"/>
-      <c r="J2" s="130"/>
-      <c r="K2" s="130"/>
-      <c r="L2" s="130"/>
+      <c r="D2" s="141"/>
+      <c r="E2" s="141"/>
+      <c r="F2" s="141"/>
+      <c r="G2" s="141"/>
+      <c r="H2" s="141"/>
+      <c r="I2" s="141"/>
+      <c r="J2" s="141"/>
+      <c r="K2" s="141"/>
+      <c r="L2" s="141"/>
       <c r="M2" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="N2" s="133"/>
-      <c r="O2" s="134"/>
+      <c r="N2" s="144"/>
+      <c r="O2" s="145"/>
     </row>
     <row r="3" spans="1:15" ht="22" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="127"/>
-      <c r="B3" s="128"/>
-      <c r="C3" s="131"/>
-      <c r="D3" s="132"/>
-      <c r="E3" s="132"/>
-      <c r="F3" s="132"/>
-      <c r="G3" s="132"/>
-      <c r="H3" s="132"/>
-      <c r="I3" s="132"/>
-      <c r="J3" s="132"/>
-      <c r="K3" s="132"/>
-      <c r="L3" s="132"/>
+      <c r="A3" s="138"/>
+      <c r="B3" s="139"/>
+      <c r="C3" s="142"/>
+      <c r="D3" s="143"/>
+      <c r="E3" s="143"/>
+      <c r="F3" s="143"/>
+      <c r="G3" s="143"/>
+      <c r="H3" s="143"/>
+      <c r="I3" s="143"/>
+      <c r="J3" s="143"/>
+      <c r="K3" s="143"/>
+      <c r="L3" s="143"/>
       <c r="M3" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="N3" s="135"/>
-      <c r="O3" s="136"/>
+      <c r="N3" s="146"/>
+      <c r="O3" s="147"/>
     </row>
     <row r="4" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="5" spans="1:15" ht="21" x14ac:dyDescent="0.25">
@@ -3969,13 +4119,13 @@
         <v>44747</v>
       </c>
       <c r="G7" s="60">
-        <f t="shared" ref="G7:G36" si="0">F7-E7</f>
+        <f t="shared" ref="G7:G74" si="0">F7-E7</f>
         <v>2</v>
       </c>
       <c r="H7" s="61"/>
       <c r="I7" s="61"/>
       <c r="J7" s="62">
-        <f t="shared" ref="J7:J44" si="1">I7-H7</f>
+        <f t="shared" ref="J7:J140" si="1">I7-H7</f>
         <v>0</v>
       </c>
       <c r="K7" s="63">
@@ -3997,11 +4147,11 @@
         <v>44743</v>
       </c>
       <c r="F8" s="61">
-        <v>44753</v>
+        <v>44756</v>
       </c>
       <c r="G8" s="60">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H8" s="61">
         <v>44746</v>
@@ -4012,13 +4162,13 @@
         <v>-44746</v>
       </c>
       <c r="K8" s="115">
-        <f>AVERAGE(K9:K32)</f>
-        <v>0.17083333333333331</v>
+        <f>AVERAGE(K9:K72)</f>
+        <v>0.32187499999999997</v>
       </c>
     </row>
     <row r="9" spans="1:15" ht="21" x14ac:dyDescent="0.25">
       <c r="A9" s="58"/>
-      <c r="B9" s="59">
+      <c r="B9" s="118">
         <v>1</v>
       </c>
       <c r="C9" s="60" t="s">
@@ -4040,18 +4190,20 @@
       <c r="H9" s="61">
         <v>44746</v>
       </c>
-      <c r="I9" s="61"/>
+      <c r="I9" s="61">
+        <v>44748</v>
+      </c>
       <c r="J9" s="62">
         <f t="shared" ref="J9:J10" si="3">I9-H9</f>
-        <v>-44746</v>
+        <v>2</v>
       </c>
       <c r="K9" s="63">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="10" spans="1:15" ht="21" x14ac:dyDescent="0.25">
       <c r="A10" s="58"/>
-      <c r="B10" s="59">
+      <c r="B10" s="118">
         <v>2</v>
       </c>
       <c r="C10" s="60" t="s">
@@ -4073,18 +4225,20 @@
       <c r="H10" s="61">
         <v>44746</v>
       </c>
-      <c r="I10" s="61"/>
+      <c r="I10" s="61">
+        <v>44748</v>
+      </c>
       <c r="J10" s="62">
         <f t="shared" si="3"/>
-        <v>-44746</v>
+        <v>2</v>
       </c>
       <c r="K10" s="63">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="11" spans="1:15" ht="21" x14ac:dyDescent="0.25">
       <c r="A11" s="58"/>
-      <c r="B11" s="59">
+      <c r="B11" s="118">
         <v>3</v>
       </c>
       <c r="C11" s="60" t="s">
@@ -4103,19 +4257,21 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="H11" s="61"/>
+      <c r="H11" s="61">
+        <v>44747</v>
+      </c>
       <c r="I11" s="61"/>
       <c r="J11" s="62">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>-44747</v>
       </c>
       <c r="K11" s="63">
-        <v>0</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="12" spans="1:15" ht="21" x14ac:dyDescent="0.25">
       <c r="A12" s="58"/>
-      <c r="B12" s="59">
+      <c r="B12" s="118">
         <v>4</v>
       </c>
       <c r="C12" s="116" t="s">
@@ -4134,19 +4290,21 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="H12" s="61"/>
+      <c r="H12" s="61">
+        <v>44748</v>
+      </c>
       <c r="I12" s="61"/>
       <c r="J12" s="62">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>-44748</v>
       </c>
       <c r="K12" s="63">
-        <v>0</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="13" spans="1:15" ht="21" x14ac:dyDescent="0.25">
       <c r="A13" s="58"/>
-      <c r="B13" s="59">
+      <c r="B13" s="118">
         <v>5</v>
       </c>
       <c r="C13" s="60" t="s">
@@ -4169,11 +4327,11 @@
         <v>44747</v>
       </c>
       <c r="I13" s="61">
-        <v>44748</v>
+        <v>44750</v>
       </c>
       <c r="J13" s="62">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K13" s="63">
         <v>0.9</v>
@@ -4181,7 +4339,7 @@
     </row>
     <row r="14" spans="1:15" ht="21" x14ac:dyDescent="0.25">
       <c r="A14" s="58"/>
-      <c r="B14" s="59">
+      <c r="B14" s="118">
         <v>6</v>
       </c>
       <c r="C14" s="60" t="s">
@@ -4200,19 +4358,21 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="H14" s="61"/>
+      <c r="H14" s="61">
+        <v>44748</v>
+      </c>
       <c r="I14" s="61"/>
       <c r="J14" s="62">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>-44748</v>
       </c>
       <c r="K14" s="63">
-        <v>0</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="15" spans="1:15" ht="21" x14ac:dyDescent="0.25">
       <c r="A15" s="58"/>
-      <c r="B15" s="59">
+      <c r="B15" s="118">
         <v>7</v>
       </c>
       <c r="C15" s="60" t="s">
@@ -4231,19 +4391,23 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="H15" s="61"/>
-      <c r="I15" s="61"/>
+      <c r="H15" s="114">
+        <v>44749</v>
+      </c>
+      <c r="I15" s="61">
+        <v>44750</v>
+      </c>
       <c r="J15" s="62">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K15" s="63">
-        <v>0</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="16" spans="1:15" ht="21" x14ac:dyDescent="0.25">
       <c r="A16" s="58"/>
-      <c r="B16" s="59">
+      <c r="B16" s="118">
         <v>8</v>
       </c>
       <c r="C16" s="60" t="s">
@@ -4262,19 +4426,23 @@
         <f t="shared" ref="G16:G27" si="4">F16-E16</f>
         <v>1</v>
       </c>
-      <c r="H16" s="61"/>
-      <c r="I16" s="61"/>
+      <c r="H16" s="61">
+        <v>44747</v>
+      </c>
+      <c r="I16" s="61">
+        <v>44748</v>
+      </c>
       <c r="J16" s="62">
         <f t="shared" ref="J16:J27" si="5">I16-H16</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K16" s="63">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" ht="21" x14ac:dyDescent="0.25">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="21" x14ac:dyDescent="0.25">
       <c r="A17" s="58"/>
-      <c r="B17" s="59">
+      <c r="B17" s="118">
         <v>9</v>
       </c>
       <c r="C17" s="60" t="s">
@@ -4293,19 +4461,21 @@
         <f t="shared" ref="G17" si="6">F17-E17</f>
         <v>1</v>
       </c>
-      <c r="H17" s="61"/>
+      <c r="H17" s="61">
+        <v>44747</v>
+      </c>
       <c r="I17" s="61"/>
       <c r="J17" s="62">
         <f t="shared" ref="J17" si="7">I17-H17</f>
-        <v>0</v>
+        <v>-44747</v>
       </c>
       <c r="K17" s="63">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" ht="21" x14ac:dyDescent="0.25">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="21" x14ac:dyDescent="0.25">
       <c r="A18" s="58"/>
-      <c r="B18" s="59">
+      <c r="B18" s="118">
         <v>10</v>
       </c>
       <c r="C18" s="60" t="s">
@@ -4324,19 +4494,23 @@
         <f t="shared" ref="G18" si="8">F18-E18</f>
         <v>2</v>
       </c>
-      <c r="H18" s="61"/>
-      <c r="I18" s="61"/>
+      <c r="H18" s="61">
+        <v>44747</v>
+      </c>
+      <c r="I18" s="61">
+        <v>44749</v>
+      </c>
       <c r="J18" s="62">
         <f t="shared" ref="J18" si="9">I18-H18</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K18" s="63">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" ht="21" x14ac:dyDescent="0.25">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="21" x14ac:dyDescent="0.25">
       <c r="A19" s="58"/>
-      <c r="B19" s="59">
+      <c r="B19" s="118">
         <v>11</v>
       </c>
       <c r="C19" s="60" t="s">
@@ -4355,19 +4529,23 @@
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="H19" s="61"/>
-      <c r="I19" s="61"/>
+      <c r="H19" s="61">
+        <v>44747</v>
+      </c>
+      <c r="I19" s="61">
+        <v>44749</v>
+      </c>
       <c r="J19" s="62">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K19" s="63">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" ht="21" x14ac:dyDescent="0.25">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="21" x14ac:dyDescent="0.25">
       <c r="A20" s="58"/>
-      <c r="B20" s="59">
+      <c r="B20" s="118">
         <v>12</v>
       </c>
       <c r="C20" s="60" t="s">
@@ -4386,19 +4564,21 @@
         <f t="shared" ref="G20:G26" si="10">F20-E20</f>
         <v>1</v>
       </c>
-      <c r="H20" s="61"/>
+      <c r="H20" s="61">
+        <v>44747</v>
+      </c>
       <c r="I20" s="61"/>
       <c r="J20" s="62">
         <f t="shared" ref="J20:J26" si="11">I20-H20</f>
-        <v>0</v>
+        <v>-44747</v>
       </c>
       <c r="K20" s="63">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" ht="21" x14ac:dyDescent="0.25">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="21" x14ac:dyDescent="0.25">
       <c r="A21" s="58"/>
-      <c r="B21" s="59">
+      <c r="B21" s="118">
         <v>13</v>
       </c>
       <c r="C21" s="60" t="s">
@@ -4417,19 +4597,21 @@
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="H21" s="61"/>
-      <c r="I21" s="61"/>
+      <c r="H21" s="61">
+        <v>44749</v>
+      </c>
+      <c r="I21" s="113"/>
       <c r="J21" s="62">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>-44749</v>
       </c>
       <c r="K21" s="63">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" ht="21" x14ac:dyDescent="0.25">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="21" x14ac:dyDescent="0.25">
       <c r="A22" s="58"/>
-      <c r="B22" s="59">
+      <c r="B22" s="118">
         <v>14</v>
       </c>
       <c r="C22" s="60" t="s">
@@ -4448,19 +4630,23 @@
         <f t="shared" si="10"/>
         <v>2</v>
       </c>
-      <c r="H22" s="61"/>
-      <c r="I22" s="61"/>
+      <c r="H22" s="61">
+        <v>44748</v>
+      </c>
+      <c r="I22" s="61">
+        <v>44750</v>
+      </c>
       <c r="J22" s="62">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K22" s="63">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" ht="21" x14ac:dyDescent="0.25">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" ht="21" x14ac:dyDescent="0.25">
       <c r="A23" s="58"/>
-      <c r="B23" s="59">
+      <c r="B23" s="118">
         <v>15</v>
       </c>
       <c r="C23" s="60" t="s">
@@ -4479,19 +4665,23 @@
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="H23" s="61"/>
-      <c r="I23" s="61"/>
+      <c r="H23" s="61">
+        <v>44749</v>
+      </c>
+      <c r="I23" s="61">
+        <v>44750</v>
+      </c>
       <c r="J23" s="62">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K23" s="63">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" ht="21" x14ac:dyDescent="0.25">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" ht="21" x14ac:dyDescent="0.25">
       <c r="A24" s="58"/>
-      <c r="B24" s="59">
+      <c r="B24" s="118">
         <v>16</v>
       </c>
       <c r="C24" s="60" t="s">
@@ -4514,19 +4704,19 @@
         <v>44747</v>
       </c>
       <c r="I24" s="61">
-        <v>44748</v>
+        <v>44749</v>
       </c>
       <c r="J24" s="62">
         <f t="shared" si="11"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K24" s="63">
         <v>0.9</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="21" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" ht="21" x14ac:dyDescent="0.25">
       <c r="A25" s="58"/>
-      <c r="B25" s="59">
+      <c r="B25" s="118">
         <v>17</v>
       </c>
       <c r="C25" s="60" t="s">
@@ -4549,50 +4739,53 @@
         <v>44747</v>
       </c>
       <c r="I25" s="61">
-        <v>44748</v>
+        <v>44749</v>
       </c>
       <c r="J25" s="62">
         <f>I25-H25</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K25" s="63">
         <v>0.9</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="21" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" ht="21" x14ac:dyDescent="0.25">
       <c r="A26" s="58"/>
-      <c r="B26" s="59">
+      <c r="B26" s="119">
         <v>18</v>
       </c>
-      <c r="C26" s="60" t="s">
+      <c r="C26" s="120" t="s">
         <v>115</v>
       </c>
-      <c r="D26" s="60" t="s">
+      <c r="D26" s="120" t="s">
         <v>135</v>
       </c>
-      <c r="E26" s="113">
+      <c r="E26" s="121">
         <v>44750</v>
       </c>
-      <c r="F26" s="61">
+      <c r="F26" s="122">
         <v>44751</v>
       </c>
-      <c r="G26" s="60">
+      <c r="G26" s="120">
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="H26" s="61"/>
-      <c r="I26" s="61"/>
-      <c r="J26" s="62">
+      <c r="H26" s="122"/>
+      <c r="I26" s="122"/>
+      <c r="J26" s="123">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="K26" s="63">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" ht="21" x14ac:dyDescent="0.25">
+      <c r="K26" s="124">
+        <v>0</v>
+      </c>
+      <c r="L26" s="125" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" ht="21" x14ac:dyDescent="0.25">
       <c r="A27" s="58"/>
-      <c r="B27" s="59">
+      <c r="B27" s="118">
         <v>19</v>
       </c>
       <c r="C27" s="60" t="s">
@@ -4611,19 +4804,23 @@
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="H27" s="61"/>
-      <c r="I27" s="61"/>
+      <c r="H27" s="61">
+        <v>44749</v>
+      </c>
+      <c r="I27" s="61">
+        <v>44750</v>
+      </c>
       <c r="J27" s="62">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K27" s="63">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" ht="21" x14ac:dyDescent="0.25">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" ht="21" x14ac:dyDescent="0.25">
       <c r="A28" s="58"/>
-      <c r="B28" s="59">
+      <c r="B28" s="118">
         <v>20</v>
       </c>
       <c r="C28" s="60" t="s">
@@ -4642,19 +4839,21 @@
         <f t="shared" ref="G28:G33" si="12">F28-E28</f>
         <v>1</v>
       </c>
-      <c r="H28" s="61"/>
+      <c r="H28" s="61">
+        <v>44749</v>
+      </c>
       <c r="I28" s="61"/>
       <c r="J28" s="62">
         <f t="shared" ref="J28:J32" si="13">I28-H28</f>
-        <v>0</v>
+        <v>-44749</v>
       </c>
       <c r="K28" s="63">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" ht="21" x14ac:dyDescent="0.25">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" ht="21" x14ac:dyDescent="0.25">
       <c r="A29" s="58"/>
-      <c r="B29" s="59">
+      <c r="B29" s="118">
         <v>21</v>
       </c>
       <c r="C29" s="60" t="s">
@@ -4683,9 +4882,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:11" ht="21" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" ht="21" x14ac:dyDescent="0.25">
       <c r="A30" s="58"/>
-      <c r="B30" s="59">
+      <c r="B30" s="118">
         <v>22</v>
       </c>
       <c r="C30" s="60" t="s">
@@ -4714,9 +4913,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:11" ht="21" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" ht="21" x14ac:dyDescent="0.25">
       <c r="A31" s="58"/>
-      <c r="B31" s="59">
+      <c r="B31" s="118">
         <v>23</v>
       </c>
       <c r="C31" s="60" t="s">
@@ -4745,9 +4944,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:11" ht="21" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" ht="21" x14ac:dyDescent="0.25">
       <c r="A32" s="58"/>
-      <c r="B32" s="59">
+      <c r="B32" s="118">
         <v>24</v>
       </c>
       <c r="C32" s="60" t="s">
@@ -4766,19 +4965,23 @@
         <f t="shared" si="12"/>
         <v>1</v>
       </c>
-      <c r="H32" s="61"/>
-      <c r="I32" s="61"/>
+      <c r="H32" s="61">
+        <v>44748</v>
+      </c>
+      <c r="I32" s="61">
+        <v>44749</v>
+      </c>
       <c r="J32" s="62">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K32" s="63">
-        <v>0</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="33" spans="1:11" ht="21" x14ac:dyDescent="0.25">
       <c r="A33" s="58"/>
-      <c r="B33" s="59">
+      <c r="B33" s="118">
         <v>25</v>
       </c>
       <c r="C33" s="60" t="s">
@@ -4800,18 +5003,20 @@
       <c r="H33" s="61">
         <v>44746</v>
       </c>
-      <c r="I33" s="61"/>
+      <c r="I33" s="61">
+        <v>44748</v>
+      </c>
       <c r="J33" s="62">
-        <f t="shared" ref="J33" si="14">I33-H33</f>
-        <v>-44746</v>
+        <f t="shared" ref="J33:J35" si="14">I33-H33</f>
+        <v>2</v>
       </c>
       <c r="K33" s="63">
-        <v>0</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="34" spans="1:11" ht="21" x14ac:dyDescent="0.25">
       <c r="A34" s="58"/>
-      <c r="B34" s="59">
+      <c r="B34" s="118">
         <v>26</v>
       </c>
       <c r="C34" s="60" t="s">
@@ -4823,77 +5028,109 @@
       <c r="G34" s="60"/>
       <c r="H34" s="61"/>
       <c r="I34" s="61"/>
-      <c r="J34" s="62"/>
-      <c r="K34" s="63"/>
+      <c r="J34" s="62">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="K34" s="63">
+        <v>0</v>
+      </c>
     </row>
     <row r="35" spans="1:11" ht="21" x14ac:dyDescent="0.25">
-      <c r="A35" s="58">
-        <v>4</v>
-      </c>
-      <c r="B35" s="59"/>
+      <c r="A35" s="58"/>
+      <c r="B35" s="117">
+        <v>27</v>
+      </c>
       <c r="C35" s="60" t="s">
-        <v>15</v>
-      </c>
-      <c r="D35" s="60"/>
+        <v>139</v>
+      </c>
+      <c r="D35" s="60" t="s">
+        <v>132</v>
+      </c>
       <c r="E35" s="61">
-        <v>44748</v>
+        <v>44749</v>
       </c>
       <c r="F35" s="61">
-        <v>44753</v>
+        <v>44750</v>
       </c>
       <c r="G35" s="60">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="H35" s="61"/>
-      <c r="I35" s="61"/>
+        <f t="shared" ref="G35:G70" si="15">F35-E35</f>
+        <v>1</v>
+      </c>
+      <c r="H35" s="61">
+        <v>44749</v>
+      </c>
+      <c r="I35" s="61">
+        <v>44750</v>
+      </c>
       <c r="J35" s="62">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="14"/>
+        <v>1</v>
       </c>
       <c r="K35" s="63">
-        <v>0</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="36" spans="1:11" ht="21" x14ac:dyDescent="0.25">
-      <c r="A36" s="58">
-        <v>5</v>
-      </c>
-      <c r="B36" s="59"/>
+      <c r="A36" s="58"/>
+      <c r="B36" s="117">
+        <v>28</v>
+      </c>
       <c r="C36" s="60" t="s">
-        <v>16</v>
-      </c>
-      <c r="D36" s="60"/>
-      <c r="E36" s="61"/>
-      <c r="F36" s="61"/>
+        <v>109</v>
+      </c>
+      <c r="D36" s="60" t="s">
+        <v>132</v>
+      </c>
+      <c r="E36" s="61">
+        <v>44749</v>
+      </c>
+      <c r="F36" s="61">
+        <v>44750</v>
+      </c>
       <c r="G36" s="60">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H36" s="61"/>
-      <c r="I36" s="61"/>
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="H36" s="61">
+        <v>44749</v>
+      </c>
+      <c r="I36" s="61">
+        <v>44750</v>
+      </c>
       <c r="J36" s="62">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" ref="J36:J72" si="16">I36-H36</f>
+        <v>1</v>
       </c>
       <c r="K36" s="63">
-        <v>0</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="37" spans="1:11" ht="21" x14ac:dyDescent="0.25">
       <c r="A37" s="58"/>
-      <c r="B37" s="59">
+      <c r="B37" s="117">
+        <v>29</v>
+      </c>
+      <c r="C37" s="60" t="s">
+        <v>153</v>
+      </c>
+      <c r="D37" s="60" t="s">
+        <v>132</v>
+      </c>
+      <c r="E37" s="61">
+        <v>44750</v>
+      </c>
+      <c r="F37" s="61">
+        <v>44751</v>
+      </c>
+      <c r="G37" s="60">
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
-      <c r="C37" s="60"/>
-      <c r="D37" s="60"/>
-      <c r="E37" s="61"/>
-      <c r="F37" s="61"/>
-      <c r="G37" s="60"/>
       <c r="H37" s="61"/>
       <c r="I37" s="61"/>
       <c r="J37" s="62">
-        <f t="shared" si="1"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="K37" s="63">
@@ -4902,101 +5139,186 @@
     </row>
     <row r="38" spans="1:11" ht="21" x14ac:dyDescent="0.25">
       <c r="A38" s="58"/>
-      <c r="B38" s="59">
-        <v>2</v>
-      </c>
-      <c r="C38" s="60"/>
-      <c r="D38" s="60"/>
-      <c r="E38" s="61"/>
-      <c r="F38" s="61"/>
-      <c r="G38" s="60"/>
-      <c r="H38" s="61"/>
+      <c r="B38" s="117">
+        <v>30</v>
+      </c>
+      <c r="C38" s="60" t="s">
+        <v>140</v>
+      </c>
+      <c r="D38" s="60" t="s">
+        <v>132</v>
+      </c>
+      <c r="E38" s="61">
+        <v>44750</v>
+      </c>
+      <c r="F38" s="61">
+        <v>44751</v>
+      </c>
+      <c r="G38" s="60">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="H38" s="61">
+        <v>44748</v>
+      </c>
       <c r="I38" s="61"/>
       <c r="J38" s="62">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K38" s="63"/>
+        <f t="shared" si="16"/>
+        <v>-44748</v>
+      </c>
+      <c r="K38" s="63">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="39" spans="1:11" ht="21" x14ac:dyDescent="0.25">
       <c r="A39" s="58"/>
-      <c r="B39" s="59">
-        <v>3</v>
-      </c>
-      <c r="C39" s="60"/>
-      <c r="D39" s="60"/>
-      <c r="E39" s="61"/>
-      <c r="F39" s="61"/>
-      <c r="G39" s="60"/>
+      <c r="B39" s="117">
+        <v>31</v>
+      </c>
+      <c r="C39" s="60" t="s">
+        <v>141</v>
+      </c>
+      <c r="D39" s="60" t="s">
+        <v>132</v>
+      </c>
+      <c r="E39" s="61">
+        <v>44751</v>
+      </c>
+      <c r="F39" s="61">
+        <v>44752</v>
+      </c>
+      <c r="G39" s="60">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
       <c r="H39" s="61"/>
       <c r="I39" s="61"/>
-      <c r="J39" s="62"/>
-      <c r="K39" s="63"/>
+      <c r="J39" s="62">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="K39" s="63">
+        <v>0</v>
+      </c>
     </row>
     <row r="40" spans="1:11" ht="21" x14ac:dyDescent="0.25">
       <c r="A40" s="58"/>
-      <c r="B40" s="59">
-        <v>4</v>
-      </c>
-      <c r="C40" s="60"/>
-      <c r="D40" s="60"/>
-      <c r="E40" s="61"/>
-      <c r="F40" s="61"/>
-      <c r="G40" s="60"/>
+      <c r="B40" s="117">
+        <v>32</v>
+      </c>
+      <c r="C40" s="60" t="s">
+        <v>176</v>
+      </c>
+      <c r="D40" s="60" t="s">
+        <v>132</v>
+      </c>
+      <c r="E40" s="61">
+        <v>44751</v>
+      </c>
+      <c r="F40" s="61">
+        <v>44752</v>
+      </c>
+      <c r="G40" s="60">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
       <c r="H40" s="61"/>
       <c r="I40" s="61"/>
-      <c r="J40" s="62"/>
-      <c r="K40" s="63"/>
+      <c r="J40" s="62">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="K40" s="63">
+        <v>0</v>
+      </c>
     </row>
     <row r="41" spans="1:11" ht="21" x14ac:dyDescent="0.25">
       <c r="A41" s="58"/>
-      <c r="B41" s="59">
-        <v>5</v>
-      </c>
-      <c r="C41" s="60"/>
-      <c r="D41" s="60"/>
-      <c r="E41" s="61"/>
-      <c r="F41" s="61"/>
-      <c r="G41" s="60"/>
+      <c r="B41" s="117">
+        <v>33</v>
+      </c>
+      <c r="C41" s="60" t="s">
+        <v>177</v>
+      </c>
+      <c r="D41" s="60" t="s">
+        <v>132</v>
+      </c>
+      <c r="E41" s="61">
+        <v>44751</v>
+      </c>
+      <c r="F41" s="61">
+        <v>44752</v>
+      </c>
+      <c r="G41" s="60">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
       <c r="H41" s="61"/>
       <c r="I41" s="61"/>
-      <c r="J41" s="62"/>
-      <c r="K41" s="63"/>
+      <c r="J41" s="62">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="K41" s="63">
+        <v>0</v>
+      </c>
     </row>
     <row r="42" spans="1:11" ht="21" x14ac:dyDescent="0.25">
       <c r="A42" s="58"/>
-      <c r="B42" s="59">
-        <v>6</v>
-      </c>
-      <c r="C42" s="60"/>
-      <c r="D42" s="60"/>
-      <c r="E42" s="61"/>
-      <c r="F42" s="61"/>
-      <c r="G42" s="60"/>
+      <c r="B42" s="117">
+        <v>34</v>
+      </c>
+      <c r="C42" s="60" t="s">
+        <v>142</v>
+      </c>
+      <c r="D42" s="61" t="s">
+        <v>134</v>
+      </c>
+      <c r="E42" s="61">
+        <v>44752</v>
+      </c>
+      <c r="F42" s="61">
+        <v>44753</v>
+      </c>
+      <c r="G42" s="60">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
       <c r="H42" s="61"/>
       <c r="I42" s="61"/>
-      <c r="J42" s="62"/>
-      <c r="K42" s="63"/>
+      <c r="J42" s="62">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="K42" s="63">
+        <v>0</v>
+      </c>
     </row>
     <row r="43" spans="1:11" ht="21" x14ac:dyDescent="0.25">
-      <c r="A43" s="58">
-        <v>6</v>
-      </c>
-      <c r="B43" s="59"/>
+      <c r="A43" s="58"/>
+      <c r="B43" s="117">
+        <v>35</v>
+      </c>
       <c r="C43" s="60" t="s">
-        <v>17</v>
-      </c>
-      <c r="D43" s="60"/>
-      <c r="E43" s="61"/>
-      <c r="F43" s="61"/>
+        <v>167</v>
+      </c>
+      <c r="D43" s="61" t="s">
+        <v>134</v>
+      </c>
+      <c r="E43" s="61">
+        <v>44752</v>
+      </c>
+      <c r="F43" s="61">
+        <v>44753</v>
+      </c>
       <c r="G43" s="60">
-        <f t="shared" ref="G43:G44" si="15">F43-E43</f>
-        <v>0</v>
+        <f t="shared" si="15"/>
+        <v>1</v>
       </c>
       <c r="H43" s="61"/>
       <c r="I43" s="61"/>
       <c r="J43" s="62">
-        <f t="shared" si="1"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="K43" s="63">
@@ -5004,134 +5326,2650 @@
       </c>
     </row>
     <row r="44" spans="1:11" ht="21" x14ac:dyDescent="0.25">
-      <c r="A44" s="58">
-        <v>7</v>
-      </c>
-      <c r="B44" s="59"/>
+      <c r="A44" s="58"/>
+      <c r="B44" s="117">
+        <v>36</v>
+      </c>
       <c r="C44" s="60" t="s">
-        <v>18</v>
-      </c>
-      <c r="D44" s="60"/>
-      <c r="E44" s="61"/>
-      <c r="F44" s="61"/>
+        <v>143</v>
+      </c>
+      <c r="D44" s="60" t="s">
+        <v>131</v>
+      </c>
+      <c r="E44" s="61">
+        <v>44750</v>
+      </c>
+      <c r="F44" s="61">
+        <v>44751</v>
+      </c>
       <c r="G44" s="60">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H44" s="61"/>
       <c r="I44" s="61"/>
       <c r="J44" s="62">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="K44" s="63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" ht="21" x14ac:dyDescent="0.25">
+      <c r="A45" s="58"/>
+      <c r="B45" s="117">
+        <v>37</v>
+      </c>
+      <c r="C45" s="60" t="s">
+        <v>144</v>
+      </c>
+      <c r="D45" s="60" t="s">
+        <v>131</v>
+      </c>
+      <c r="E45" s="61">
+        <v>44751</v>
+      </c>
+      <c r="F45" s="61">
+        <v>44752</v>
+      </c>
+      <c r="G45" s="60">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="H45" s="61"/>
+      <c r="I45" s="61"/>
+      <c r="J45" s="62">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="K45" s="63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" ht="21" x14ac:dyDescent="0.25">
+      <c r="A46" s="58"/>
+      <c r="B46" s="117">
+        <v>38</v>
+      </c>
+      <c r="C46" s="60" t="s">
+        <v>145</v>
+      </c>
+      <c r="D46" s="60" t="s">
+        <v>131</v>
+      </c>
+      <c r="E46" s="61">
+        <v>44752</v>
+      </c>
+      <c r="F46" s="61">
+        <v>44753</v>
+      </c>
+      <c r="G46" s="60">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="H46" s="61"/>
+      <c r="I46" s="61"/>
+      <c r="J46" s="62">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="K46" s="63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" ht="21" x14ac:dyDescent="0.25">
+      <c r="A47" s="58"/>
+      <c r="B47" s="117">
+        <v>39</v>
+      </c>
+      <c r="C47" s="60" t="s">
+        <v>146</v>
+      </c>
+      <c r="D47" s="60" t="s">
+        <v>131</v>
+      </c>
+      <c r="E47" s="61">
+        <v>44751</v>
+      </c>
+      <c r="F47" s="61">
+        <v>44752</v>
+      </c>
+      <c r="G47" s="60">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="H47" s="61"/>
+      <c r="I47" s="61"/>
+      <c r="J47" s="62">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="K47" s="63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" ht="21" x14ac:dyDescent="0.25">
+      <c r="A48" s="58"/>
+      <c r="B48" s="117">
+        <v>40</v>
+      </c>
+      <c r="C48" s="60" t="s">
+        <v>147</v>
+      </c>
+      <c r="D48" s="60" t="s">
+        <v>130</v>
+      </c>
+      <c r="E48" s="61">
+        <v>44752</v>
+      </c>
+      <c r="F48" s="61">
+        <v>44753</v>
+      </c>
+      <c r="G48" s="60">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="H48" s="61"/>
+      <c r="I48" s="61"/>
+      <c r="J48" s="62">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="K48" s="63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" ht="21" x14ac:dyDescent="0.25">
+      <c r="A49" s="58"/>
+      <c r="B49" s="117">
+        <v>41</v>
+      </c>
+      <c r="C49" s="60" t="s">
+        <v>148</v>
+      </c>
+      <c r="D49" s="60" t="s">
+        <v>130</v>
+      </c>
+      <c r="E49" s="61">
+        <v>44752</v>
+      </c>
+      <c r="F49" s="61">
+        <v>44753</v>
+      </c>
+      <c r="G49" s="60">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="H49" s="61"/>
+      <c r="I49" s="61"/>
+      <c r="J49" s="62">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="K49" s="63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" ht="21" x14ac:dyDescent="0.25">
+      <c r="A50" s="58"/>
+      <c r="B50" s="117">
+        <v>42</v>
+      </c>
+      <c r="C50" s="60" t="s">
+        <v>149</v>
+      </c>
+      <c r="D50" s="60" t="s">
+        <v>130</v>
+      </c>
+      <c r="E50" s="61">
+        <v>44752</v>
+      </c>
+      <c r="F50" s="61">
+        <v>44753</v>
+      </c>
+      <c r="G50" s="60">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="H50" s="61"/>
+      <c r="I50" s="61"/>
+      <c r="J50" s="62">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="K50" s="63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" ht="21" x14ac:dyDescent="0.25">
+      <c r="A51" s="58"/>
+      <c r="B51" s="117">
+        <v>43</v>
+      </c>
+      <c r="C51" s="60" t="s">
+        <v>150</v>
+      </c>
+      <c r="D51" s="60" t="s">
+        <v>130</v>
+      </c>
+      <c r="E51" s="61">
+        <v>44753</v>
+      </c>
+      <c r="F51" s="61">
+        <v>44754</v>
+      </c>
+      <c r="G51" s="60">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="H51" s="61"/>
+      <c r="I51" s="61"/>
+      <c r="J51" s="62">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="K51" s="63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" ht="21" x14ac:dyDescent="0.25">
+      <c r="A52" s="58"/>
+      <c r="B52" s="117">
+        <v>44</v>
+      </c>
+      <c r="C52" s="60" t="s">
+        <v>174</v>
+      </c>
+      <c r="D52" s="127" t="s">
+        <v>171</v>
+      </c>
+      <c r="E52" s="61"/>
+      <c r="F52" s="61"/>
+      <c r="G52" s="60"/>
+      <c r="H52" s="61"/>
+      <c r="I52" s="61"/>
+      <c r="J52" s="62">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="K52" s="63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" ht="21" x14ac:dyDescent="0.25">
+      <c r="A53" s="58"/>
+      <c r="B53" s="117">
+        <v>45</v>
+      </c>
+      <c r="C53" s="60" t="s">
+        <v>175</v>
+      </c>
+      <c r="D53" s="127" t="s">
+        <v>171</v>
+      </c>
+      <c r="E53" s="61"/>
+      <c r="F53" s="61"/>
+      <c r="G53" s="60"/>
+      <c r="H53" s="61"/>
+      <c r="I53" s="61"/>
+      <c r="J53" s="62">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="K53" s="63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" ht="21" x14ac:dyDescent="0.25">
+      <c r="A54" s="58"/>
+      <c r="B54" s="117">
+        <v>46</v>
+      </c>
+      <c r="C54" s="60" t="s">
+        <v>151</v>
+      </c>
+      <c r="D54" s="61" t="s">
+        <v>134</v>
+      </c>
+      <c r="E54" s="61">
+        <v>44753</v>
+      </c>
+      <c r="F54" s="61">
+        <v>44754</v>
+      </c>
+      <c r="G54" s="60">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="H54" s="61"/>
+      <c r="I54" s="61"/>
+      <c r="J54" s="62">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="K54" s="63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" ht="21" x14ac:dyDescent="0.25">
+      <c r="A55" s="58"/>
+      <c r="B55" s="117">
+        <v>47</v>
+      </c>
+      <c r="C55" s="60" t="s">
+        <v>152</v>
+      </c>
+      <c r="D55" s="126" t="s">
+        <v>133</v>
+      </c>
+      <c r="E55" s="61">
+        <v>44750</v>
+      </c>
+      <c r="F55" s="113">
+        <v>44751</v>
+      </c>
+      <c r="G55" s="60">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="H55" s="61"/>
+      <c r="I55" s="61"/>
+      <c r="J55" s="62">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="K55" s="63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" ht="21" x14ac:dyDescent="0.25">
+      <c r="A56" s="58"/>
+      <c r="B56" s="117">
+        <v>48</v>
+      </c>
+      <c r="C56" s="60" t="s">
+        <v>154</v>
+      </c>
+      <c r="D56" s="60" t="s">
+        <v>133</v>
+      </c>
+      <c r="E56" s="113">
+        <v>44751</v>
+      </c>
+      <c r="F56" s="113">
+        <v>44752</v>
+      </c>
+      <c r="G56" s="60">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="H56" s="61"/>
+      <c r="I56" s="61"/>
+      <c r="J56" s="62">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="K56" s="63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" ht="21" x14ac:dyDescent="0.25">
+      <c r="A57" s="58"/>
+      <c r="B57" s="117">
+        <v>49</v>
+      </c>
+      <c r="C57" s="60" t="s">
+        <v>169</v>
+      </c>
+      <c r="D57" s="127" t="s">
+        <v>171</v>
+      </c>
+      <c r="E57" s="61"/>
+      <c r="F57" s="61"/>
+      <c r="G57" s="60">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="H57" s="61"/>
+      <c r="I57" s="61"/>
+      <c r="J57" s="62">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="K57" s="63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" ht="21" x14ac:dyDescent="0.25">
+      <c r="A58" s="58"/>
+      <c r="B58" s="117">
+        <v>50</v>
+      </c>
+      <c r="C58" s="60" t="s">
+        <v>170</v>
+      </c>
+      <c r="D58" s="127" t="s">
+        <v>171</v>
+      </c>
+      <c r="E58" s="61"/>
+      <c r="F58" s="61"/>
+      <c r="G58" s="60">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="H58" s="61"/>
+      <c r="I58" s="61"/>
+      <c r="J58" s="62">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="K58" s="63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" ht="21" x14ac:dyDescent="0.25">
+      <c r="A59" s="58"/>
+      <c r="B59" s="117">
+        <v>51</v>
+      </c>
+      <c r="C59" s="60" t="s">
+        <v>155</v>
+      </c>
+      <c r="D59" s="127" t="s">
+        <v>171</v>
+      </c>
+      <c r="E59" s="61"/>
+      <c r="F59" s="61"/>
+      <c r="G59" s="60">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="H59" s="61"/>
+      <c r="I59" s="61"/>
+      <c r="J59" s="62">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="K59" s="63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" ht="21" x14ac:dyDescent="0.25">
+      <c r="A60" s="58"/>
+      <c r="B60" s="117">
+        <v>52</v>
+      </c>
+      <c r="C60" s="60" t="s">
+        <v>156</v>
+      </c>
+      <c r="D60" s="127" t="s">
+        <v>171</v>
+      </c>
+      <c r="E60" s="61"/>
+      <c r="F60" s="61"/>
+      <c r="G60" s="60">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="H60" s="61"/>
+      <c r="I60" s="61"/>
+      <c r="J60" s="62">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="K60" s="63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" ht="21" x14ac:dyDescent="0.25">
+      <c r="A61" s="58"/>
+      <c r="B61" s="117">
+        <v>53</v>
+      </c>
+      <c r="C61" s="60" t="s">
+        <v>168</v>
+      </c>
+      <c r="D61" s="61" t="s">
+        <v>134</v>
+      </c>
+      <c r="E61" s="61">
+        <v>44753</v>
+      </c>
+      <c r="F61" s="61">
+        <v>44754</v>
+      </c>
+      <c r="G61" s="60">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="H61" s="61"/>
+      <c r="I61" s="61"/>
+      <c r="J61" s="62">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="K61" s="63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" ht="21" x14ac:dyDescent="0.25">
+      <c r="A62" s="58"/>
+      <c r="B62" s="117">
+        <v>54</v>
+      </c>
+      <c r="C62" s="60" t="s">
+        <v>157</v>
+      </c>
+      <c r="D62" s="61" t="s">
+        <v>134</v>
+      </c>
+      <c r="E62" s="61">
+        <v>44753</v>
+      </c>
+      <c r="F62" s="61">
+        <v>44754</v>
+      </c>
+      <c r="G62" s="60">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="H62" s="61"/>
+      <c r="I62" s="61"/>
+      <c r="J62" s="62">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="K62" s="63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" ht="21" x14ac:dyDescent="0.25">
+      <c r="A63" s="58"/>
+      <c r="B63" s="117">
+        <v>55</v>
+      </c>
+      <c r="C63" s="60" t="s">
+        <v>158</v>
+      </c>
+      <c r="D63" s="127" t="s">
+        <v>171</v>
+      </c>
+      <c r="E63" s="61"/>
+      <c r="F63" s="61"/>
+      <c r="G63" s="60">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="H63" s="61"/>
+      <c r="I63" s="61"/>
+      <c r="J63" s="62">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="K63" s="63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" ht="21" x14ac:dyDescent="0.25">
+      <c r="A64" s="58"/>
+      <c r="B64" s="117">
+        <v>56</v>
+      </c>
+      <c r="C64" s="60" t="s">
+        <v>159</v>
+      </c>
+      <c r="D64" s="127" t="s">
+        <v>171</v>
+      </c>
+      <c r="E64" s="61"/>
+      <c r="F64" s="61"/>
+      <c r="G64" s="60">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="H64" s="61"/>
+      <c r="I64" s="61"/>
+      <c r="J64" s="62">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="K64" s="63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" ht="21" x14ac:dyDescent="0.25">
+      <c r="A65" s="58"/>
+      <c r="B65" s="117">
+        <v>57</v>
+      </c>
+      <c r="C65" s="60" t="s">
+        <v>160</v>
+      </c>
+      <c r="D65" s="127" t="s">
+        <v>171</v>
+      </c>
+      <c r="E65" s="61"/>
+      <c r="F65" s="61"/>
+      <c r="G65" s="60">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="H65" s="61"/>
+      <c r="I65" s="61"/>
+      <c r="J65" s="62">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="K65" s="63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" ht="21" x14ac:dyDescent="0.25">
+      <c r="A66" s="58"/>
+      <c r="B66" s="117">
+        <v>58</v>
+      </c>
+      <c r="C66" s="60" t="s">
+        <v>161</v>
+      </c>
+      <c r="D66" s="60" t="s">
+        <v>135</v>
+      </c>
+      <c r="E66" s="61">
+        <v>44752</v>
+      </c>
+      <c r="F66" s="61">
+        <v>44753</v>
+      </c>
+      <c r="G66" s="60">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="H66" s="61"/>
+      <c r="I66" s="61"/>
+      <c r="J66" s="62">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="K66" s="63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" ht="21" x14ac:dyDescent="0.25">
+      <c r="A67" s="58"/>
+      <c r="B67" s="117">
+        <v>59</v>
+      </c>
+      <c r="C67" s="60" t="s">
+        <v>162</v>
+      </c>
+      <c r="D67" s="60" t="s">
+        <v>135</v>
+      </c>
+      <c r="E67" s="61">
+        <v>44752</v>
+      </c>
+      <c r="F67" s="61">
+        <v>44753</v>
+      </c>
+      <c r="G67" s="60">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="H67" s="61"/>
+      <c r="I67" s="61"/>
+      <c r="J67" s="62">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="K67" s="63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" ht="21" x14ac:dyDescent="0.25">
+      <c r="A68" s="58"/>
+      <c r="B68" s="117">
+        <v>60</v>
+      </c>
+      <c r="C68" s="60" t="s">
+        <v>163</v>
+      </c>
+      <c r="D68" s="60" t="s">
+        <v>135</v>
+      </c>
+      <c r="E68" s="61">
+        <v>44753</v>
+      </c>
+      <c r="F68" s="61">
+        <v>44754</v>
+      </c>
+      <c r="G68" s="60">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="H68" s="61"/>
+      <c r="I68" s="61"/>
+      <c r="J68" s="62">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="K68" s="63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" ht="21" x14ac:dyDescent="0.25">
+      <c r="A69" s="58"/>
+      <c r="B69" s="117">
+        <v>61</v>
+      </c>
+      <c r="C69" s="60" t="s">
+        <v>164</v>
+      </c>
+      <c r="D69" s="60" t="s">
+        <v>135</v>
+      </c>
+      <c r="E69" s="61">
+        <v>44753</v>
+      </c>
+      <c r="F69" s="61">
+        <v>44754</v>
+      </c>
+      <c r="G69" s="60">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="H69" s="61"/>
+      <c r="I69" s="61"/>
+      <c r="J69" s="62">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="K69" s="63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" ht="21" x14ac:dyDescent="0.25">
+      <c r="A70" s="58"/>
+      <c r="B70" s="117">
+        <v>62</v>
+      </c>
+      <c r="C70" s="60" t="s">
+        <v>165</v>
+      </c>
+      <c r="D70" s="60" t="s">
+        <v>135</v>
+      </c>
+      <c r="E70" s="61">
+        <v>44754</v>
+      </c>
+      <c r="F70" s="61">
+        <v>44755</v>
+      </c>
+      <c r="G70" s="60">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="H70" s="61"/>
+      <c r="I70" s="61"/>
+      <c r="J70" s="62">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="K70" s="63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" ht="21" x14ac:dyDescent="0.25">
+      <c r="A71" s="58"/>
+      <c r="B71" s="117">
+        <v>63</v>
+      </c>
+      <c r="C71" s="60" t="s">
+        <v>172</v>
+      </c>
+      <c r="D71" s="127" t="s">
+        <v>171</v>
+      </c>
+      <c r="E71" s="61"/>
+      <c r="F71" s="61"/>
+      <c r="G71" s="60"/>
+      <c r="H71" s="61"/>
+      <c r="I71" s="61"/>
+      <c r="J71" s="62">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="K71" s="63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" ht="21" x14ac:dyDescent="0.25">
+      <c r="A72" s="58"/>
+      <c r="B72" s="117">
+        <v>64</v>
+      </c>
+      <c r="C72" s="60" t="s">
+        <v>173</v>
+      </c>
+      <c r="D72" s="127" t="s">
+        <v>171</v>
+      </c>
+      <c r="E72" s="61"/>
+      <c r="F72" s="61"/>
+      <c r="G72" s="60"/>
+      <c r="H72" s="61"/>
+      <c r="I72" s="61"/>
+      <c r="J72" s="62">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="K72" s="63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" ht="21" x14ac:dyDescent="0.25">
+      <c r="A73" s="58">
+        <v>4</v>
+      </c>
+      <c r="B73" s="59"/>
+      <c r="C73" s="60" t="s">
+        <v>15</v>
+      </c>
+      <c r="D73" s="60"/>
+      <c r="E73" s="61">
+        <v>44748</v>
+      </c>
+      <c r="F73" s="61">
+        <v>44753</v>
+      </c>
+      <c r="G73" s="60">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="H73" s="61"/>
+      <c r="I73" s="61"/>
+      <c r="J73" s="62">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K44" s="63">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="64"/>
-      <c r="B45" s="65"/>
-      <c r="C45" s="66"/>
-      <c r="D45" s="66"/>
-      <c r="E45" s="67"/>
-      <c r="F45" s="67"/>
-      <c r="G45" s="66"/>
-      <c r="H45" s="67"/>
-      <c r="I45" s="67"/>
-      <c r="J45" s="68" t="str">
-        <f>IF(I45="","",I45-H45)</f>
+      <c r="K73" s="63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" ht="21" x14ac:dyDescent="0.25">
+      <c r="A74" s="58">
+        <v>5</v>
+      </c>
+      <c r="B74" s="59"/>
+      <c r="C74" s="60" t="s">
+        <v>16</v>
+      </c>
+      <c r="D74" s="60"/>
+      <c r="E74" s="61"/>
+      <c r="F74" s="61"/>
+      <c r="G74" s="60">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H74" s="61"/>
+      <c r="I74" s="61"/>
+      <c r="J74" s="62">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K74" s="63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" ht="21" x14ac:dyDescent="0.25">
+      <c r="A75" s="58"/>
+      <c r="B75" s="118">
+        <v>1</v>
+      </c>
+      <c r="C75" s="60" t="s">
+        <v>125</v>
+      </c>
+      <c r="D75" s="60"/>
+      <c r="E75" s="61"/>
+      <c r="F75" s="61"/>
+      <c r="G75" s="60">
+        <f t="shared" ref="G75:G90" si="17">F75-E75</f>
+        <v>0</v>
+      </c>
+      <c r="H75" s="61"/>
+      <c r="I75" s="61"/>
+      <c r="J75" s="62">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K75" s="63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" ht="21" x14ac:dyDescent="0.25">
+      <c r="A76" s="58"/>
+      <c r="B76" s="118">
+        <v>2</v>
+      </c>
+      <c r="C76" s="60" t="s">
+        <v>126</v>
+      </c>
+      <c r="D76" s="60"/>
+      <c r="E76" s="61"/>
+      <c r="F76" s="61"/>
+      <c r="G76" s="60">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="H76" s="61"/>
+      <c r="I76" s="61"/>
+      <c r="J76" s="62">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K76" s="63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" ht="21" x14ac:dyDescent="0.25">
+      <c r="A77" s="58"/>
+      <c r="B77" s="118">
+        <v>3</v>
+      </c>
+      <c r="C77" s="60" t="s">
+        <v>120</v>
+      </c>
+      <c r="D77" s="60"/>
+      <c r="E77" s="61"/>
+      <c r="F77" s="61"/>
+      <c r="G77" s="60">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="H77" s="61"/>
+      <c r="I77" s="61"/>
+      <c r="J77" s="62">
+        <f t="shared" ref="J77:J90" si="18">I77-H77</f>
+        <v>0</v>
+      </c>
+      <c r="K77" s="63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" ht="21" x14ac:dyDescent="0.25">
+      <c r="A78" s="58"/>
+      <c r="B78" s="118">
+        <v>4</v>
+      </c>
+      <c r="C78" s="116" t="s">
+        <v>129</v>
+      </c>
+      <c r="D78" s="60"/>
+      <c r="E78" s="61"/>
+      <c r="F78" s="61"/>
+      <c r="G78" s="60">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="H78" s="61"/>
+      <c r="I78" s="61"/>
+      <c r="J78" s="62">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="K78" s="63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" ht="21" x14ac:dyDescent="0.25">
+      <c r="A79" s="58"/>
+      <c r="B79" s="118">
+        <v>5</v>
+      </c>
+      <c r="C79" s="60" t="s">
+        <v>109</v>
+      </c>
+      <c r="D79" s="60"/>
+      <c r="E79" s="61"/>
+      <c r="F79" s="61"/>
+      <c r="G79" s="60">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="H79" s="61"/>
+      <c r="I79" s="61"/>
+      <c r="J79" s="62">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="K79" s="63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" ht="21" x14ac:dyDescent="0.25">
+      <c r="A80" s="58"/>
+      <c r="B80" s="118">
+        <v>6</v>
+      </c>
+      <c r="C80" s="60" t="s">
+        <v>81</v>
+      </c>
+      <c r="D80" s="60"/>
+      <c r="E80" s="113"/>
+      <c r="F80" s="114"/>
+      <c r="G80" s="60">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="H80" s="61"/>
+      <c r="I80" s="61"/>
+      <c r="J80" s="62">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="K80" s="63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" ht="21" x14ac:dyDescent="0.25">
+      <c r="A81" s="58"/>
+      <c r="B81" s="118">
+        <v>7</v>
+      </c>
+      <c r="C81" s="60" t="s">
+        <v>110</v>
+      </c>
+      <c r="D81" s="60"/>
+      <c r="E81" s="114"/>
+      <c r="F81" s="61"/>
+      <c r="G81" s="60">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="H81" s="114"/>
+      <c r="I81" s="61"/>
+      <c r="J81" s="62">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="K81" s="63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" ht="21" x14ac:dyDescent="0.25">
+      <c r="A82" s="58"/>
+      <c r="B82" s="118">
+        <v>8</v>
+      </c>
+      <c r="C82" s="60" t="s">
+        <v>118</v>
+      </c>
+      <c r="D82" s="60"/>
+      <c r="E82" s="61"/>
+      <c r="F82" s="61"/>
+      <c r="G82" s="60">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="H82" s="61"/>
+      <c r="I82" s="61"/>
+      <c r="J82" s="62">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="K82" s="63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" ht="21" x14ac:dyDescent="0.25">
+      <c r="A83" s="58"/>
+      <c r="B83" s="118">
+        <v>9</v>
+      </c>
+      <c r="C83" s="60" t="s">
+        <v>119</v>
+      </c>
+      <c r="D83" s="60"/>
+      <c r="E83" s="61"/>
+      <c r="F83" s="61"/>
+      <c r="G83" s="60">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="H83" s="61"/>
+      <c r="I83" s="61"/>
+      <c r="J83" s="62">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="K83" s="63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" ht="21" x14ac:dyDescent="0.25">
+      <c r="A84" s="58"/>
+      <c r="B84" s="118">
+        <v>10</v>
+      </c>
+      <c r="C84" s="60" t="s">
+        <v>114</v>
+      </c>
+      <c r="D84" s="60"/>
+      <c r="E84" s="61"/>
+      <c r="F84" s="61"/>
+      <c r="G84" s="60">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="H84" s="61"/>
+      <c r="I84" s="61"/>
+      <c r="J84" s="62">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="K84" s="63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" ht="21" x14ac:dyDescent="0.25">
+      <c r="A85" s="58"/>
+      <c r="B85" s="118">
+        <v>11</v>
+      </c>
+      <c r="C85" s="60" t="s">
+        <v>113</v>
+      </c>
+      <c r="D85" s="60"/>
+      <c r="E85" s="61"/>
+      <c r="F85" s="61"/>
+      <c r="G85" s="60">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="H85" s="61"/>
+      <c r="I85" s="61"/>
+      <c r="J85" s="62">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="K85" s="63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" ht="21" x14ac:dyDescent="0.25">
+      <c r="A86" s="58"/>
+      <c r="B86" s="118">
+        <v>12</v>
+      </c>
+      <c r="C86" s="60" t="s">
+        <v>82</v>
+      </c>
+      <c r="D86" s="60"/>
+      <c r="E86" s="61"/>
+      <c r="F86" s="61"/>
+      <c r="G86" s="60">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="H86" s="61"/>
+      <c r="I86" s="61"/>
+      <c r="J86" s="62">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="K86" s="63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" ht="21" x14ac:dyDescent="0.25">
+      <c r="A87" s="58"/>
+      <c r="B87" s="118">
+        <v>13</v>
+      </c>
+      <c r="C87" s="60" t="s">
+        <v>111</v>
+      </c>
+      <c r="D87" s="60"/>
+      <c r="E87" s="61"/>
+      <c r="F87" s="113"/>
+      <c r="G87" s="60">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="H87" s="61"/>
+      <c r="I87" s="113"/>
+      <c r="J87" s="62">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="K87" s="63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" ht="21" x14ac:dyDescent="0.25">
+      <c r="A88" s="58"/>
+      <c r="B88" s="118">
+        <v>14</v>
+      </c>
+      <c r="C88" s="60" t="s">
+        <v>127</v>
+      </c>
+      <c r="D88" s="60"/>
+      <c r="E88" s="61"/>
+      <c r="F88" s="61"/>
+      <c r="G88" s="60">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="H88" s="61"/>
+      <c r="I88" s="61"/>
+      <c r="J88" s="62">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="K88" s="63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" ht="21" x14ac:dyDescent="0.25">
+      <c r="A89" s="58"/>
+      <c r="B89" s="118">
+        <v>15</v>
+      </c>
+      <c r="C89" s="60" t="s">
+        <v>112</v>
+      </c>
+      <c r="D89" s="60"/>
+      <c r="E89" s="61"/>
+      <c r="F89" s="61"/>
+      <c r="G89" s="60">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="H89" s="61"/>
+      <c r="I89" s="61"/>
+      <c r="J89" s="62">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="K89" s="63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" ht="21" x14ac:dyDescent="0.25">
+      <c r="A90" s="58"/>
+      <c r="B90" s="118">
+        <v>16</v>
+      </c>
+      <c r="C90" s="60" t="s">
+        <v>92</v>
+      </c>
+      <c r="D90" s="60"/>
+      <c r="E90" s="61"/>
+      <c r="F90" s="61"/>
+      <c r="G90" s="60">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="H90" s="61"/>
+      <c r="I90" s="61"/>
+      <c r="J90" s="62">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="K90" s="63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" ht="21" x14ac:dyDescent="0.25">
+      <c r="A91" s="58"/>
+      <c r="B91" s="118">
+        <v>17</v>
+      </c>
+      <c r="C91" s="60" t="s">
+        <v>128</v>
+      </c>
+      <c r="D91" s="60"/>
+      <c r="E91" s="61"/>
+      <c r="F91" s="61"/>
+      <c r="G91" s="60">
+        <f>F91-E91</f>
+        <v>0</v>
+      </c>
+      <c r="H91" s="61"/>
+      <c r="I91" s="61"/>
+      <c r="J91" s="62">
+        <f>I91-H91</f>
+        <v>0</v>
+      </c>
+      <c r="K91" s="63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" ht="21" x14ac:dyDescent="0.25">
+      <c r="A92" s="58"/>
+      <c r="B92" s="119">
+        <v>18</v>
+      </c>
+      <c r="C92" s="120" t="s">
+        <v>115</v>
+      </c>
+      <c r="D92" s="120"/>
+      <c r="E92" s="121"/>
+      <c r="F92" s="122"/>
+      <c r="G92" s="120">
+        <f t="shared" ref="G92:G99" si="19">F92-E92</f>
+        <v>0</v>
+      </c>
+      <c r="H92" s="122"/>
+      <c r="I92" s="122"/>
+      <c r="J92" s="123">
+        <f t="shared" ref="J92:J138" si="20">I92-H92</f>
+        <v>0</v>
+      </c>
+      <c r="K92" s="63">
+        <v>0</v>
+      </c>
+      <c r="L92" s="125" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12" ht="21" x14ac:dyDescent="0.25">
+      <c r="A93" s="58"/>
+      <c r="B93" s="118">
+        <v>19</v>
+      </c>
+      <c r="C93" s="60" t="s">
+        <v>116</v>
+      </c>
+      <c r="D93" s="60"/>
+      <c r="E93" s="113"/>
+      <c r="F93" s="61"/>
+      <c r="G93" s="60">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="H93" s="61"/>
+      <c r="I93" s="61"/>
+      <c r="J93" s="62">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="K93" s="63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12" ht="21" x14ac:dyDescent="0.25">
+      <c r="A94" s="58"/>
+      <c r="B94" s="118">
+        <v>20</v>
+      </c>
+      <c r="C94" s="60" t="s">
+        <v>117</v>
+      </c>
+      <c r="D94" s="60"/>
+      <c r="E94" s="61"/>
+      <c r="F94" s="61"/>
+      <c r="G94" s="60">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="H94" s="61"/>
+      <c r="I94" s="61"/>
+      <c r="J94" s="62">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="K94" s="63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12" ht="21" x14ac:dyDescent="0.25">
+      <c r="A95" s="58"/>
+      <c r="B95" s="118">
+        <v>21</v>
+      </c>
+      <c r="C95" s="60" t="s">
+        <v>121</v>
+      </c>
+      <c r="D95" s="60"/>
+      <c r="E95" s="61"/>
+      <c r="F95" s="61"/>
+      <c r="G95" s="60">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="H95" s="61"/>
+      <c r="I95" s="61"/>
+      <c r="J95" s="62">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="K95" s="63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12" ht="21" x14ac:dyDescent="0.25">
+      <c r="A96" s="58"/>
+      <c r="B96" s="118">
+        <v>22</v>
+      </c>
+      <c r="C96" s="60" t="s">
+        <v>122</v>
+      </c>
+      <c r="D96" s="60"/>
+      <c r="E96" s="61"/>
+      <c r="F96" s="61"/>
+      <c r="G96" s="60">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="H96" s="61"/>
+      <c r="I96" s="61"/>
+      <c r="J96" s="62">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="K96" s="63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" ht="21" x14ac:dyDescent="0.25">
+      <c r="A97" s="58"/>
+      <c r="B97" s="118">
+        <v>23</v>
+      </c>
+      <c r="C97" s="60" t="s">
+        <v>123</v>
+      </c>
+      <c r="D97" s="60"/>
+      <c r="E97" s="61"/>
+      <c r="F97" s="61"/>
+      <c r="G97" s="60">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="H97" s="61"/>
+      <c r="I97" s="61"/>
+      <c r="J97" s="62">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="K97" s="63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" ht="21" x14ac:dyDescent="0.25">
+      <c r="A98" s="58"/>
+      <c r="B98" s="118">
+        <v>24</v>
+      </c>
+      <c r="C98" s="60" t="s">
+        <v>124</v>
+      </c>
+      <c r="D98" s="60"/>
+      <c r="E98" s="61"/>
+      <c r="F98" s="61"/>
+      <c r="G98" s="60">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="H98" s="61"/>
+      <c r="I98" s="61"/>
+      <c r="J98" s="62">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="K98" s="63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" ht="21" x14ac:dyDescent="0.25">
+      <c r="A99" s="58"/>
+      <c r="B99" s="118">
+        <v>25</v>
+      </c>
+      <c r="C99" s="60" t="s">
+        <v>136</v>
+      </c>
+      <c r="D99" s="60"/>
+      <c r="E99" s="61"/>
+      <c r="F99" s="61"/>
+      <c r="G99" s="60">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="H99" s="61"/>
+      <c r="I99" s="61"/>
+      <c r="J99" s="62">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="K99" s="63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" ht="21" x14ac:dyDescent="0.25">
+      <c r="A100" s="58"/>
+      <c r="B100" s="118">
+        <v>26</v>
+      </c>
+      <c r="C100" s="60" t="s">
+        <v>138</v>
+      </c>
+      <c r="D100" s="60"/>
+      <c r="E100" s="61"/>
+      <c r="F100" s="61"/>
+      <c r="G100" s="60"/>
+      <c r="H100" s="61"/>
+      <c r="I100" s="61"/>
+      <c r="J100" s="62">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="K100" s="63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" ht="21" x14ac:dyDescent="0.25">
+      <c r="A101" s="58"/>
+      <c r="B101" s="117">
+        <v>27</v>
+      </c>
+      <c r="C101" s="60" t="s">
+        <v>139</v>
+      </c>
+      <c r="D101" s="60"/>
+      <c r="E101" s="61"/>
+      <c r="F101" s="61"/>
+      <c r="G101" s="60">
+        <f t="shared" ref="G101:G117" si="21">F101-E101</f>
+        <v>0</v>
+      </c>
+      <c r="H101" s="61"/>
+      <c r="I101" s="61"/>
+      <c r="J101" s="62">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="K101" s="63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" ht="21" x14ac:dyDescent="0.25">
+      <c r="A102" s="58"/>
+      <c r="B102" s="117">
+        <v>28</v>
+      </c>
+      <c r="C102" s="60" t="s">
+        <v>109</v>
+      </c>
+      <c r="D102" s="60"/>
+      <c r="E102" s="61"/>
+      <c r="F102" s="61"/>
+      <c r="G102" s="60">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="H102" s="61"/>
+      <c r="I102" s="61"/>
+      <c r="J102" s="62">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="K102" s="63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" ht="21" x14ac:dyDescent="0.25">
+      <c r="A103" s="58"/>
+      <c r="B103" s="117">
+        <v>29</v>
+      </c>
+      <c r="C103" s="60" t="s">
+        <v>153</v>
+      </c>
+      <c r="D103" s="60"/>
+      <c r="E103" s="61"/>
+      <c r="F103" s="61"/>
+      <c r="G103" s="60">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="H103" s="61"/>
+      <c r="I103" s="61"/>
+      <c r="J103" s="62">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="K103" s="63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" ht="21" x14ac:dyDescent="0.25">
+      <c r="A104" s="58"/>
+      <c r="B104" s="117">
+        <v>30</v>
+      </c>
+      <c r="C104" s="60" t="s">
+        <v>140</v>
+      </c>
+      <c r="D104" s="60"/>
+      <c r="E104" s="61"/>
+      <c r="F104" s="61"/>
+      <c r="G104" s="60">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="H104" s="61"/>
+      <c r="I104" s="61"/>
+      <c r="J104" s="62">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="K104" s="63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" ht="21" x14ac:dyDescent="0.25">
+      <c r="A105" s="58"/>
+      <c r="B105" s="117">
+        <v>31</v>
+      </c>
+      <c r="C105" s="60" t="s">
+        <v>141</v>
+      </c>
+      <c r="D105" s="60"/>
+      <c r="E105" s="61"/>
+      <c r="F105" s="61"/>
+      <c r="G105" s="60">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="H105" s="61"/>
+      <c r="I105" s="61"/>
+      <c r="J105" s="62">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="K105" s="63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" ht="21" x14ac:dyDescent="0.25">
+      <c r="A106" s="58"/>
+      <c r="B106" s="117">
+        <v>32</v>
+      </c>
+      <c r="C106" s="60" t="s">
+        <v>176</v>
+      </c>
+      <c r="D106" s="60"/>
+      <c r="E106" s="61"/>
+      <c r="F106" s="61"/>
+      <c r="G106" s="60">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="H106" s="61"/>
+      <c r="I106" s="61"/>
+      <c r="J106" s="62">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="K106" s="63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" ht="21" x14ac:dyDescent="0.25">
+      <c r="A107" s="58"/>
+      <c r="B107" s="117">
+        <v>33</v>
+      </c>
+      <c r="C107" s="60" t="s">
+        <v>177</v>
+      </c>
+      <c r="D107" s="60"/>
+      <c r="E107" s="61"/>
+      <c r="F107" s="61"/>
+      <c r="G107" s="60">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="H107" s="61"/>
+      <c r="I107" s="61"/>
+      <c r="J107" s="62">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="K107" s="63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" ht="21" x14ac:dyDescent="0.25">
+      <c r="A108" s="58"/>
+      <c r="B108" s="117">
+        <v>34</v>
+      </c>
+      <c r="C108" s="60" t="s">
+        <v>142</v>
+      </c>
+      <c r="D108" s="61"/>
+      <c r="E108" s="61"/>
+      <c r="F108" s="61"/>
+      <c r="G108" s="60">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="H108" s="61"/>
+      <c r="I108" s="61"/>
+      <c r="J108" s="62">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="K108" s="63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11" ht="21" x14ac:dyDescent="0.25">
+      <c r="A109" s="58"/>
+      <c r="B109" s="117">
+        <v>35</v>
+      </c>
+      <c r="C109" s="60" t="s">
+        <v>167</v>
+      </c>
+      <c r="D109" s="61"/>
+      <c r="E109" s="61"/>
+      <c r="F109" s="61"/>
+      <c r="G109" s="60">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="H109" s="61"/>
+      <c r="I109" s="61"/>
+      <c r="J109" s="62">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="K109" s="63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11" ht="21" x14ac:dyDescent="0.25">
+      <c r="A110" s="58"/>
+      <c r="B110" s="117">
+        <v>36</v>
+      </c>
+      <c r="C110" s="60" t="s">
+        <v>143</v>
+      </c>
+      <c r="D110" s="60"/>
+      <c r="E110" s="61"/>
+      <c r="F110" s="61"/>
+      <c r="G110" s="60">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="H110" s="61"/>
+      <c r="I110" s="61"/>
+      <c r="J110" s="62">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="K110" s="63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11" ht="21" x14ac:dyDescent="0.25">
+      <c r="A111" s="58"/>
+      <c r="B111" s="117">
+        <v>37</v>
+      </c>
+      <c r="C111" s="60" t="s">
+        <v>144</v>
+      </c>
+      <c r="D111" s="60"/>
+      <c r="E111" s="61"/>
+      <c r="F111" s="61"/>
+      <c r="G111" s="60">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="H111" s="61"/>
+      <c r="I111" s="61"/>
+      <c r="J111" s="62">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="K111" s="63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11" ht="21" x14ac:dyDescent="0.25">
+      <c r="A112" s="58"/>
+      <c r="B112" s="117">
+        <v>38</v>
+      </c>
+      <c r="C112" s="60" t="s">
+        <v>145</v>
+      </c>
+      <c r="D112" s="60"/>
+      <c r="E112" s="61"/>
+      <c r="F112" s="61"/>
+      <c r="G112" s="60">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="H112" s="61"/>
+      <c r="I112" s="61"/>
+      <c r="J112" s="62">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="K112" s="63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11" ht="21" x14ac:dyDescent="0.25">
+      <c r="A113" s="58"/>
+      <c r="B113" s="117">
+        <v>39</v>
+      </c>
+      <c r="C113" s="60" t="s">
+        <v>146</v>
+      </c>
+      <c r="D113" s="60"/>
+      <c r="E113" s="61"/>
+      <c r="F113" s="61"/>
+      <c r="G113" s="60">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="H113" s="61"/>
+      <c r="I113" s="61"/>
+      <c r="J113" s="62">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="K113" s="63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11" ht="21" x14ac:dyDescent="0.25">
+      <c r="A114" s="58"/>
+      <c r="B114" s="117">
+        <v>40</v>
+      </c>
+      <c r="C114" s="60" t="s">
+        <v>147</v>
+      </c>
+      <c r="D114" s="60"/>
+      <c r="E114" s="61"/>
+      <c r="F114" s="61"/>
+      <c r="G114" s="60">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="H114" s="61"/>
+      <c r="I114" s="61"/>
+      <c r="J114" s="62">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="K114" s="63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11" ht="21" x14ac:dyDescent="0.25">
+      <c r="A115" s="58"/>
+      <c r="B115" s="117">
+        <v>41</v>
+      </c>
+      <c r="C115" s="60" t="s">
+        <v>148</v>
+      </c>
+      <c r="D115" s="60"/>
+      <c r="E115" s="61"/>
+      <c r="F115" s="61"/>
+      <c r="G115" s="60">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="H115" s="61"/>
+      <c r="I115" s="61"/>
+      <c r="J115" s="62">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="K115" s="63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11" ht="21" x14ac:dyDescent="0.25">
+      <c r="A116" s="58"/>
+      <c r="B116" s="117">
+        <v>42</v>
+      </c>
+      <c r="C116" s="60" t="s">
+        <v>149</v>
+      </c>
+      <c r="D116" s="60"/>
+      <c r="E116" s="61"/>
+      <c r="F116" s="61"/>
+      <c r="G116" s="60">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="H116" s="61"/>
+      <c r="I116" s="61"/>
+      <c r="J116" s="62">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="K116" s="63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11" ht="21" x14ac:dyDescent="0.25">
+      <c r="A117" s="58"/>
+      <c r="B117" s="117">
+        <v>43</v>
+      </c>
+      <c r="C117" s="60" t="s">
+        <v>150</v>
+      </c>
+      <c r="D117" s="60"/>
+      <c r="E117" s="61"/>
+      <c r="F117" s="61"/>
+      <c r="G117" s="60">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="H117" s="61"/>
+      <c r="I117" s="61"/>
+      <c r="J117" s="62">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="K117" s="63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11" ht="21" x14ac:dyDescent="0.25">
+      <c r="A118" s="58"/>
+      <c r="B118" s="117">
+        <v>44</v>
+      </c>
+      <c r="C118" s="60" t="s">
+        <v>174</v>
+      </c>
+      <c r="D118" s="60"/>
+      <c r="E118" s="61"/>
+      <c r="F118" s="61"/>
+      <c r="G118" s="60"/>
+      <c r="H118" s="61"/>
+      <c r="I118" s="61"/>
+      <c r="J118" s="62">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="K118" s="63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11" ht="21" x14ac:dyDescent="0.25">
+      <c r="A119" s="58"/>
+      <c r="B119" s="117">
+        <v>45</v>
+      </c>
+      <c r="C119" s="60" t="s">
+        <v>175</v>
+      </c>
+      <c r="D119" s="60"/>
+      <c r="E119" s="61"/>
+      <c r="F119" s="61"/>
+      <c r="G119" s="60"/>
+      <c r="H119" s="61"/>
+      <c r="I119" s="61"/>
+      <c r="J119" s="62">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="K119" s="63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11" ht="21" x14ac:dyDescent="0.25">
+      <c r="A120" s="58"/>
+      <c r="B120" s="117">
+        <v>46</v>
+      </c>
+      <c r="C120" s="60" t="s">
+        <v>151</v>
+      </c>
+      <c r="D120" s="60"/>
+      <c r="E120" s="61"/>
+      <c r="F120" s="61"/>
+      <c r="G120" s="60">
+        <f t="shared" ref="G120:G138" si="22">F120-E120</f>
+        <v>0</v>
+      </c>
+      <c r="H120" s="61"/>
+      <c r="I120" s="61"/>
+      <c r="J120" s="62">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="K120" s="63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11" ht="21" x14ac:dyDescent="0.25">
+      <c r="A121" s="58"/>
+      <c r="B121" s="117">
+        <v>47</v>
+      </c>
+      <c r="C121" s="60" t="s">
+        <v>152</v>
+      </c>
+      <c r="D121" s="60"/>
+      <c r="E121" s="61"/>
+      <c r="F121" s="113"/>
+      <c r="G121" s="60">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="H121" s="61"/>
+      <c r="I121" s="61"/>
+      <c r="J121" s="62">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="K121" s="63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11" ht="21" x14ac:dyDescent="0.25">
+      <c r="A122" s="58"/>
+      <c r="B122" s="117">
+        <v>48</v>
+      </c>
+      <c r="C122" s="60" t="s">
+        <v>154</v>
+      </c>
+      <c r="D122" s="60"/>
+      <c r="E122" s="113"/>
+      <c r="F122" s="113"/>
+      <c r="G122" s="60">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="H122" s="61"/>
+      <c r="I122" s="61"/>
+      <c r="J122" s="62">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="K122" s="63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11" ht="21" x14ac:dyDescent="0.25">
+      <c r="A123" s="58"/>
+      <c r="B123" s="117">
+        <v>49</v>
+      </c>
+      <c r="C123" s="60" t="s">
+        <v>169</v>
+      </c>
+      <c r="D123" s="60"/>
+      <c r="E123" s="61"/>
+      <c r="F123" s="61"/>
+      <c r="G123" s="60">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="H123" s="61"/>
+      <c r="I123" s="61"/>
+      <c r="J123" s="62">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="K123" s="63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11" ht="21" x14ac:dyDescent="0.25">
+      <c r="A124" s="58"/>
+      <c r="B124" s="117">
+        <v>50</v>
+      </c>
+      <c r="C124" s="60" t="s">
+        <v>170</v>
+      </c>
+      <c r="D124" s="60"/>
+      <c r="E124" s="61"/>
+      <c r="F124" s="61"/>
+      <c r="G124" s="60">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="H124" s="61"/>
+      <c r="I124" s="61"/>
+      <c r="J124" s="62">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="K124" s="63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11" ht="21" x14ac:dyDescent="0.25">
+      <c r="A125" s="58"/>
+      <c r="B125" s="117">
+        <v>51</v>
+      </c>
+      <c r="C125" s="60" t="s">
+        <v>155</v>
+      </c>
+      <c r="D125" s="60"/>
+      <c r="E125" s="61"/>
+      <c r="F125" s="61"/>
+      <c r="G125" s="60">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="H125" s="61"/>
+      <c r="I125" s="61"/>
+      <c r="J125" s="62">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="K125" s="63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11" ht="21" x14ac:dyDescent="0.25">
+      <c r="A126" s="58"/>
+      <c r="B126" s="117">
+        <v>52</v>
+      </c>
+      <c r="C126" s="60" t="s">
+        <v>156</v>
+      </c>
+      <c r="D126" s="60"/>
+      <c r="E126" s="61"/>
+      <c r="F126" s="61"/>
+      <c r="G126" s="60">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="H126" s="61"/>
+      <c r="I126" s="61"/>
+      <c r="J126" s="62">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="K126" s="63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11" ht="21" x14ac:dyDescent="0.25">
+      <c r="A127" s="58"/>
+      <c r="B127" s="117">
+        <v>53</v>
+      </c>
+      <c r="C127" s="60" t="s">
+        <v>168</v>
+      </c>
+      <c r="D127" s="60"/>
+      <c r="E127" s="61"/>
+      <c r="F127" s="61"/>
+      <c r="G127" s="60">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="H127" s="61"/>
+      <c r="I127" s="61"/>
+      <c r="J127" s="62">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="K127" s="63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11" ht="21" x14ac:dyDescent="0.25">
+      <c r="A128" s="58"/>
+      <c r="B128" s="117">
+        <v>54</v>
+      </c>
+      <c r="C128" s="60" t="s">
+        <v>157</v>
+      </c>
+      <c r="D128" s="60"/>
+      <c r="E128" s="61"/>
+      <c r="F128" s="61"/>
+      <c r="G128" s="60">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="H128" s="61"/>
+      <c r="I128" s="61"/>
+      <c r="J128" s="62">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="K128" s="63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11" ht="21" x14ac:dyDescent="0.25">
+      <c r="A129" s="58"/>
+      <c r="B129" s="117">
+        <v>55</v>
+      </c>
+      <c r="C129" s="60" t="s">
+        <v>158</v>
+      </c>
+      <c r="D129" s="60"/>
+      <c r="E129" s="61"/>
+      <c r="F129" s="61"/>
+      <c r="G129" s="60">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="H129" s="61"/>
+      <c r="I129" s="61"/>
+      <c r="J129" s="62">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="K129" s="63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:11" ht="21" x14ac:dyDescent="0.25">
+      <c r="A130" s="58"/>
+      <c r="B130" s="117">
+        <v>56</v>
+      </c>
+      <c r="C130" s="60" t="s">
+        <v>159</v>
+      </c>
+      <c r="D130" s="60"/>
+      <c r="E130" s="61"/>
+      <c r="F130" s="61"/>
+      <c r="G130" s="60">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="H130" s="61"/>
+      <c r="I130" s="61"/>
+      <c r="J130" s="62">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="K130" s="63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:11" ht="21" x14ac:dyDescent="0.25">
+      <c r="A131" s="58"/>
+      <c r="B131" s="117">
+        <v>57</v>
+      </c>
+      <c r="C131" s="60" t="s">
+        <v>160</v>
+      </c>
+      <c r="D131" s="60"/>
+      <c r="E131" s="61"/>
+      <c r="F131" s="61"/>
+      <c r="G131" s="60">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="H131" s="61"/>
+      <c r="I131" s="61"/>
+      <c r="J131" s="62">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="K131" s="63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:11" ht="21" x14ac:dyDescent="0.25">
+      <c r="A132" s="58"/>
+      <c r="B132" s="117">
+        <v>58</v>
+      </c>
+      <c r="C132" s="60" t="s">
+        <v>161</v>
+      </c>
+      <c r="D132" s="60"/>
+      <c r="E132" s="61"/>
+      <c r="F132" s="61"/>
+      <c r="G132" s="60">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="H132" s="61"/>
+      <c r="I132" s="61"/>
+      <c r="J132" s="62">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="K132" s="63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:11" ht="21" x14ac:dyDescent="0.25">
+      <c r="A133" s="58"/>
+      <c r="B133" s="117">
+        <v>59</v>
+      </c>
+      <c r="C133" s="60" t="s">
+        <v>162</v>
+      </c>
+      <c r="D133" s="60"/>
+      <c r="E133" s="61"/>
+      <c r="F133" s="61"/>
+      <c r="G133" s="60">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="H133" s="61"/>
+      <c r="I133" s="61"/>
+      <c r="J133" s="62">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="K133" s="63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:11" ht="21" x14ac:dyDescent="0.25">
+      <c r="A134" s="58"/>
+      <c r="B134" s="117">
+        <v>60</v>
+      </c>
+      <c r="C134" s="60" t="s">
+        <v>163</v>
+      </c>
+      <c r="D134" s="60"/>
+      <c r="E134" s="61"/>
+      <c r="F134" s="61"/>
+      <c r="G134" s="60">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="H134" s="61"/>
+      <c r="I134" s="61"/>
+      <c r="J134" s="62">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="K134" s="63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:11" ht="21" x14ac:dyDescent="0.25">
+      <c r="A135" s="58"/>
+      <c r="B135" s="117">
+        <v>61</v>
+      </c>
+      <c r="C135" s="60" t="s">
+        <v>164</v>
+      </c>
+      <c r="D135" s="60"/>
+      <c r="E135" s="61"/>
+      <c r="F135" s="61"/>
+      <c r="G135" s="60">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="H135" s="61"/>
+      <c r="I135" s="61"/>
+      <c r="J135" s="62">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="K135" s="63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:11" ht="21" x14ac:dyDescent="0.25">
+      <c r="A136" s="58"/>
+      <c r="B136" s="117">
+        <v>62</v>
+      </c>
+      <c r="C136" s="60" t="s">
+        <v>165</v>
+      </c>
+      <c r="D136" s="60"/>
+      <c r="E136" s="61"/>
+      <c r="F136" s="61"/>
+      <c r="G136" s="60">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="H136" s="61"/>
+      <c r="I136" s="61"/>
+      <c r="J136" s="62">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="K136" s="63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:11" ht="21" x14ac:dyDescent="0.25">
+      <c r="A137" s="58"/>
+      <c r="B137" s="117">
+        <v>63</v>
+      </c>
+      <c r="C137" s="60" t="s">
+        <v>172</v>
+      </c>
+      <c r="D137" s="60"/>
+      <c r="E137" s="61"/>
+      <c r="F137" s="61"/>
+      <c r="G137" s="60">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="H137" s="61"/>
+      <c r="I137" s="61"/>
+      <c r="J137" s="62">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="K137" s="63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:11" ht="21" x14ac:dyDescent="0.25">
+      <c r="A138" s="58"/>
+      <c r="B138" s="117">
+        <v>64</v>
+      </c>
+      <c r="C138" s="60" t="s">
+        <v>173</v>
+      </c>
+      <c r="D138" s="60"/>
+      <c r="E138" s="61"/>
+      <c r="F138" s="61"/>
+      <c r="G138" s="60">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="H138" s="61"/>
+      <c r="I138" s="61"/>
+      <c r="J138" s="62">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="K138" s="63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:11" ht="21" x14ac:dyDescent="0.25">
+      <c r="A139" s="58">
+        <v>6</v>
+      </c>
+      <c r="B139" s="59"/>
+      <c r="C139" s="60" t="s">
+        <v>17</v>
+      </c>
+      <c r="D139" s="60"/>
+      <c r="E139" s="61"/>
+      <c r="F139" s="61"/>
+      <c r="G139" s="60">
+        <f t="shared" ref="G139:G140" si="23">F139-E139</f>
+        <v>0</v>
+      </c>
+      <c r="H139" s="61"/>
+      <c r="I139" s="61"/>
+      <c r="J139" s="62">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K139" s="63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:11" ht="21" x14ac:dyDescent="0.25">
+      <c r="A140" s="58">
+        <v>7</v>
+      </c>
+      <c r="B140" s="59"/>
+      <c r="C140" s="60" t="s">
+        <v>18</v>
+      </c>
+      <c r="D140" s="60"/>
+      <c r="E140" s="61"/>
+      <c r="F140" s="61"/>
+      <c r="G140" s="60">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="H140" s="61"/>
+      <c r="I140" s="61"/>
+      <c r="J140" s="62">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K140" s="63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:11" ht="22" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A141" s="64"/>
+      <c r="B141" s="65"/>
+      <c r="C141" s="66"/>
+      <c r="D141" s="66"/>
+      <c r="E141" s="67"/>
+      <c r="F141" s="67"/>
+      <c r="G141" s="66"/>
+      <c r="H141" s="67"/>
+      <c r="I141" s="67"/>
+      <c r="J141" s="68" t="str">
+        <f>IF(I141="","",I141-H141)</f>
         <v/>
       </c>
-      <c r="K45" s="69"/>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="E46" s="1"/>
-      <c r="F46" s="1"/>
-      <c r="G46">
-        <f>SUM(G6:G45)</f>
-        <v>81</v>
-      </c>
-      <c r="H46" s="1"/>
-      <c r="I46" s="1"/>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="E47" s="1"/>
-      <c r="F47" s="1" t="s">
+      <c r="K141" s="69"/>
+    </row>
+    <row r="142" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="E142" s="1"/>
+      <c r="F142" s="1"/>
+      <c r="G142">
+        <f>SUM(G6:G141)</f>
+        <v>111</v>
+      </c>
+      <c r="H142" s="1"/>
+      <c r="I142" s="1"/>
+    </row>
+    <row r="143" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="E143" s="1"/>
+      <c r="F143" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G47" s="2">
-        <f>G46/30</f>
-        <v>2.7</v>
-      </c>
-      <c r="H47" s="1"/>
-      <c r="I47" s="1"/>
-      <c r="J47" s="1"/>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="E48" s="1"/>
-      <c r="F48" s="1"/>
-      <c r="H48" s="1"/>
-      <c r="I48" s="1"/>
-      <c r="J48" s="1"/>
-    </row>
-    <row r="49" spans="5:10" x14ac:dyDescent="0.2">
-      <c r="E49" s="1"/>
-      <c r="F49" s="1"/>
-      <c r="H49" s="1"/>
-      <c r="I49" s="1"/>
-      <c r="J49" s="1"/>
-    </row>
-    <row r="50" spans="5:10" x14ac:dyDescent="0.2">
-      <c r="E50" s="1"/>
-      <c r="F50" s="1"/>
-      <c r="H50" s="1"/>
-      <c r="I50" s="1"/>
-      <c r="J50" s="1"/>
-    </row>
-    <row r="51" spans="5:10" x14ac:dyDescent="0.2">
-      <c r="E51" s="1"/>
-      <c r="F51" s="1"/>
-      <c r="H51" s="1"/>
-      <c r="I51" s="1"/>
-      <c r="J51" s="1"/>
-    </row>
-    <row r="52" spans="5:10" x14ac:dyDescent="0.2">
-      <c r="E52" s="1"/>
-      <c r="F52" s="1"/>
-      <c r="H52" s="1"/>
-      <c r="I52" s="1"/>
-      <c r="J52" s="1"/>
-    </row>
-    <row r="53" spans="5:10" x14ac:dyDescent="0.2">
-      <c r="E53" s="1"/>
-      <c r="F53" s="1"/>
-      <c r="H53" s="1"/>
-      <c r="I53" s="1"/>
-      <c r="J53" s="1"/>
-    </row>
-    <row r="54" spans="5:10" x14ac:dyDescent="0.2">
-      <c r="E54" s="1"/>
-      <c r="F54" s="1"/>
-      <c r="H54" s="1"/>
-      <c r="I54" s="1"/>
-      <c r="J54" s="1"/>
-    </row>
-    <row r="55" spans="5:10" x14ac:dyDescent="0.2">
-      <c r="E55" s="1"/>
-      <c r="F55" s="1"/>
-      <c r="H55" s="1"/>
-      <c r="I55" s="1"/>
-      <c r="J55" s="1"/>
-    </row>
-    <row r="56" spans="5:10" x14ac:dyDescent="0.2">
-      <c r="E56" s="1"/>
-      <c r="F56" s="1"/>
-      <c r="H56" s="1"/>
-      <c r="I56" s="1"/>
-      <c r="J56" s="1"/>
+      <c r="G143" s="2">
+        <f>G142/30</f>
+        <v>3.7</v>
+      </c>
+      <c r="H143" s="1"/>
+      <c r="I143" s="1"/>
+      <c r="J143" s="1"/>
+    </row>
+    <row r="144" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="E144" s="1"/>
+      <c r="F144" s="1"/>
+      <c r="H144" s="1"/>
+      <c r="I144" s="1"/>
+      <c r="J144" s="1"/>
+    </row>
+    <row r="145" spans="5:10" x14ac:dyDescent="0.2">
+      <c r="E145" s="1"/>
+      <c r="F145" s="1"/>
+      <c r="H145" s="1"/>
+      <c r="I145" s="1"/>
+      <c r="J145" s="1"/>
+    </row>
+    <row r="146" spans="5:10" x14ac:dyDescent="0.2">
+      <c r="E146" s="1"/>
+      <c r="F146" s="1"/>
+      <c r="H146" s="1"/>
+      <c r="I146" s="1"/>
+      <c r="J146" s="1"/>
+    </row>
+    <row r="147" spans="5:10" x14ac:dyDescent="0.2">
+      <c r="E147" s="1"/>
+      <c r="F147" s="1"/>
+      <c r="H147" s="1"/>
+      <c r="I147" s="1"/>
+      <c r="J147" s="1"/>
+    </row>
+    <row r="148" spans="5:10" x14ac:dyDescent="0.2">
+      <c r="E148" s="1"/>
+      <c r="F148" s="1"/>
+      <c r="H148" s="1"/>
+      <c r="I148" s="1"/>
+      <c r="J148" s="1"/>
+    </row>
+    <row r="149" spans="5:10" x14ac:dyDescent="0.2">
+      <c r="E149" s="1"/>
+      <c r="F149" s="1"/>
+      <c r="H149" s="1"/>
+      <c r="I149" s="1"/>
+      <c r="J149" s="1"/>
+    </row>
+    <row r="150" spans="5:10" x14ac:dyDescent="0.2">
+      <c r="E150" s="1"/>
+      <c r="F150" s="1"/>
+      <c r="H150" s="1"/>
+      <c r="I150" s="1"/>
+      <c r="J150" s="1"/>
+    </row>
+    <row r="151" spans="5:10" x14ac:dyDescent="0.2">
+      <c r="E151" s="1"/>
+      <c r="F151" s="1"/>
+      <c r="H151" s="1"/>
+      <c r="I151" s="1"/>
+      <c r="J151" s="1"/>
+    </row>
+    <row r="152" spans="5:10" x14ac:dyDescent="0.2">
+      <c r="E152" s="1"/>
+      <c r="F152" s="1"/>
+      <c r="H152" s="1"/>
+      <c r="I152" s="1"/>
+      <c r="J152" s="1"/>
     </row>
   </sheetData>
-  <autoFilter ref="A5:K47" xr:uid="{F0F39F5A-DF39-F541-B8C2-02BEDD153576}"/>
+  <autoFilter ref="A5:K143" xr:uid="{F0F39F5A-DF39-F541-B8C2-02BEDD153576}"/>
   <mergeCells count="4">
     <mergeCell ref="A2:B3"/>
     <mergeCell ref="C2:L3"/>
@@ -5148,7 +7986,7 @@
   <dimension ref="A1:Q80"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="L35" sqref="L35"/>
+      <selection activeCell="M42" sqref="M42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5159,51 +7997,51 @@
   <sheetData>
     <row r="1" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:17" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="125" t="s">
+      <c r="A2" s="136" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="126"/>
-      <c r="C2" s="129" t="str">
+      <c r="B2" s="137"/>
+      <c r="C2" s="140" t="str">
         <f>Cover!E40</f>
         <v xml:space="preserve">Level Up </v>
       </c>
-      <c r="D2" s="130"/>
-      <c r="E2" s="130"/>
-      <c r="F2" s="130"/>
-      <c r="G2" s="130"/>
-      <c r="H2" s="130"/>
-      <c r="I2" s="130"/>
-      <c r="J2" s="130"/>
-      <c r="K2" s="130"/>
-      <c r="L2" s="130"/>
-      <c r="M2" s="130"/>
-      <c r="N2" s="130"/>
+      <c r="D2" s="141"/>
+      <c r="E2" s="141"/>
+      <c r="F2" s="141"/>
+      <c r="G2" s="141"/>
+      <c r="H2" s="141"/>
+      <c r="I2" s="141"/>
+      <c r="J2" s="141"/>
+      <c r="K2" s="141"/>
+      <c r="L2" s="141"/>
+      <c r="M2" s="141"/>
+      <c r="N2" s="141"/>
       <c r="O2" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="P2" s="133"/>
-      <c r="Q2" s="134"/>
+      <c r="P2" s="144"/>
+      <c r="Q2" s="145"/>
     </row>
     <row r="3" spans="1:17" ht="34" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="127"/>
-      <c r="B3" s="128"/>
-      <c r="C3" s="131"/>
-      <c r="D3" s="132"/>
-      <c r="E3" s="132"/>
-      <c r="F3" s="132"/>
-      <c r="G3" s="132"/>
-      <c r="H3" s="132"/>
-      <c r="I3" s="132"/>
-      <c r="J3" s="132"/>
-      <c r="K3" s="132"/>
-      <c r="L3" s="132"/>
-      <c r="M3" s="132"/>
-      <c r="N3" s="132"/>
+      <c r="A3" s="138"/>
+      <c r="B3" s="139"/>
+      <c r="C3" s="142"/>
+      <c r="D3" s="143"/>
+      <c r="E3" s="143"/>
+      <c r="F3" s="143"/>
+      <c r="G3" s="143"/>
+      <c r="H3" s="143"/>
+      <c r="I3" s="143"/>
+      <c r="J3" s="143"/>
+      <c r="K3" s="143"/>
+      <c r="L3" s="143"/>
+      <c r="M3" s="143"/>
+      <c r="N3" s="143"/>
       <c r="O3" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="P3" s="135"/>
-      <c r="Q3" s="136"/>
+      <c r="P3" s="146"/>
+      <c r="Q3" s="147"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" s="13"/>
@@ -5230,19 +8068,19 @@
       </c>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
-      <c r="D5" s="143"/>
-      <c r="E5" s="144"/>
-      <c r="F5" s="144"/>
-      <c r="G5" s="144"/>
-      <c r="H5" s="144"/>
-      <c r="I5" s="144"/>
-      <c r="J5" s="144"/>
-      <c r="K5" s="144"/>
-      <c r="L5" s="144"/>
-      <c r="M5" s="144"/>
-      <c r="N5" s="144"/>
-      <c r="O5" s="144"/>
-      <c r="P5" s="145"/>
+      <c r="D5" s="154"/>
+      <c r="E5" s="155"/>
+      <c r="F5" s="155"/>
+      <c r="G5" s="155"/>
+      <c r="H5" s="155"/>
+      <c r="I5" s="155"/>
+      <c r="J5" s="155"/>
+      <c r="K5" s="155"/>
+      <c r="L5" s="155"/>
+      <c r="M5" s="155"/>
+      <c r="N5" s="155"/>
+      <c r="O5" s="155"/>
+      <c r="P5" s="156"/>
       <c r="Q5" s="14"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.2">
@@ -5251,76 +8089,76 @@
       </c>
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
-      <c r="D6" s="146"/>
-      <c r="E6" s="147"/>
-      <c r="F6" s="147"/>
-      <c r="G6" s="147"/>
-      <c r="H6" s="147"/>
-      <c r="I6" s="147"/>
-      <c r="J6" s="147"/>
-      <c r="K6" s="147"/>
-      <c r="L6" s="147"/>
-      <c r="M6" s="147"/>
-      <c r="N6" s="147"/>
-      <c r="O6" s="147"/>
-      <c r="P6" s="148"/>
+      <c r="D6" s="157"/>
+      <c r="E6" s="158"/>
+      <c r="F6" s="158"/>
+      <c r="G6" s="158"/>
+      <c r="H6" s="158"/>
+      <c r="I6" s="158"/>
+      <c r="J6" s="158"/>
+      <c r="K6" s="158"/>
+      <c r="L6" s="158"/>
+      <c r="M6" s="158"/>
+      <c r="N6" s="158"/>
+      <c r="O6" s="158"/>
+      <c r="P6" s="159"/>
       <c r="Q6" s="14"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" s="13"/>
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
-      <c r="D7" s="146"/>
-      <c r="E7" s="147"/>
-      <c r="F7" s="147"/>
-      <c r="G7" s="147"/>
-      <c r="H7" s="147"/>
-      <c r="I7" s="147"/>
-      <c r="J7" s="147"/>
-      <c r="K7" s="147"/>
-      <c r="L7" s="147"/>
-      <c r="M7" s="147"/>
-      <c r="N7" s="147"/>
-      <c r="O7" s="147"/>
-      <c r="P7" s="148"/>
+      <c r="D7" s="157"/>
+      <c r="E7" s="158"/>
+      <c r="F7" s="158"/>
+      <c r="G7" s="158"/>
+      <c r="H7" s="158"/>
+      <c r="I7" s="158"/>
+      <c r="J7" s="158"/>
+      <c r="K7" s="158"/>
+      <c r="L7" s="158"/>
+      <c r="M7" s="158"/>
+      <c r="N7" s="158"/>
+      <c r="O7" s="158"/>
+      <c r="P7" s="159"/>
       <c r="Q7" s="14"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" s="13"/>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
-      <c r="D8" s="146"/>
-      <c r="E8" s="147"/>
-      <c r="F8" s="147"/>
-      <c r="G8" s="147"/>
-      <c r="H8" s="147"/>
-      <c r="I8" s="147"/>
-      <c r="J8" s="147"/>
-      <c r="K8" s="147"/>
-      <c r="L8" s="147"/>
-      <c r="M8" s="147"/>
-      <c r="N8" s="147"/>
-      <c r="O8" s="147"/>
-      <c r="P8" s="148"/>
+      <c r="D8" s="157"/>
+      <c r="E8" s="158"/>
+      <c r="F8" s="158"/>
+      <c r="G8" s="158"/>
+      <c r="H8" s="158"/>
+      <c r="I8" s="158"/>
+      <c r="J8" s="158"/>
+      <c r="K8" s="158"/>
+      <c r="L8" s="158"/>
+      <c r="M8" s="158"/>
+      <c r="N8" s="158"/>
+      <c r="O8" s="158"/>
+      <c r="P8" s="159"/>
       <c r="Q8" s="14"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9" s="13"/>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
-      <c r="D9" s="149"/>
-      <c r="E9" s="150"/>
-      <c r="F9" s="150"/>
-      <c r="G9" s="150"/>
-      <c r="H9" s="150"/>
-      <c r="I9" s="150"/>
-      <c r="J9" s="150"/>
-      <c r="K9" s="150"/>
-      <c r="L9" s="150"/>
-      <c r="M9" s="150"/>
-      <c r="N9" s="150"/>
-      <c r="O9" s="150"/>
-      <c r="P9" s="151"/>
+      <c r="D9" s="160"/>
+      <c r="E9" s="161"/>
+      <c r="F9" s="161"/>
+      <c r="G9" s="161"/>
+      <c r="H9" s="161"/>
+      <c r="I9" s="161"/>
+      <c r="J9" s="161"/>
+      <c r="K9" s="161"/>
+      <c r="L9" s="161"/>
+      <c r="M9" s="161"/>
+      <c r="N9" s="161"/>
+      <c r="O9" s="161"/>
+      <c r="P9" s="162"/>
       <c r="Q9" s="14"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.2">
@@ -5343,44 +8181,44 @@
       <c r="Q10" s="14"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A11" s="137" t="s">
+      <c r="A11" s="148" t="s">
         <v>26</v>
       </c>
-      <c r="B11" s="138"/>
-      <c r="C11" s="138"/>
-      <c r="D11" s="138"/>
-      <c r="E11" s="138"/>
-      <c r="F11" s="138"/>
-      <c r="G11" s="138"/>
-      <c r="H11" s="138"/>
-      <c r="I11" s="138"/>
-      <c r="J11" s="138"/>
-      <c r="K11" s="138"/>
-      <c r="L11" s="138"/>
-      <c r="M11" s="138"/>
-      <c r="N11" s="138"/>
-      <c r="O11" s="138"/>
-      <c r="P11" s="138"/>
-      <c r="Q11" s="139"/>
+      <c r="B11" s="149"/>
+      <c r="C11" s="149"/>
+      <c r="D11" s="149"/>
+      <c r="E11" s="149"/>
+      <c r="F11" s="149"/>
+      <c r="G11" s="149"/>
+      <c r="H11" s="149"/>
+      <c r="I11" s="149"/>
+      <c r="J11" s="149"/>
+      <c r="K11" s="149"/>
+      <c r="L11" s="149"/>
+      <c r="M11" s="149"/>
+      <c r="N11" s="149"/>
+      <c r="O11" s="149"/>
+      <c r="P11" s="149"/>
+      <c r="Q11" s="150"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A12" s="140"/>
-      <c r="B12" s="141"/>
-      <c r="C12" s="141"/>
-      <c r="D12" s="141"/>
-      <c r="E12" s="141"/>
-      <c r="F12" s="141"/>
-      <c r="G12" s="141"/>
-      <c r="H12" s="141"/>
-      <c r="I12" s="141"/>
-      <c r="J12" s="141"/>
-      <c r="K12" s="141"/>
-      <c r="L12" s="141"/>
-      <c r="M12" s="141"/>
-      <c r="N12" s="141"/>
-      <c r="O12" s="141"/>
-      <c r="P12" s="141"/>
-      <c r="Q12" s="142"/>
+      <c r="A12" s="151"/>
+      <c r="B12" s="152"/>
+      <c r="C12" s="152"/>
+      <c r="D12" s="152"/>
+      <c r="E12" s="152"/>
+      <c r="F12" s="152"/>
+      <c r="G12" s="152"/>
+      <c r="H12" s="152"/>
+      <c r="I12" s="152"/>
+      <c r="J12" s="152"/>
+      <c r="K12" s="152"/>
+      <c r="L12" s="152"/>
+      <c r="M12" s="152"/>
+      <c r="N12" s="152"/>
+      <c r="O12" s="152"/>
+      <c r="P12" s="152"/>
+      <c r="Q12" s="153"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13" s="29"/>
@@ -6708,51 +9546,51 @@
   <sheetData>
     <row r="1" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:17" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="125" t="s">
+      <c r="A2" s="136" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="126"/>
-      <c r="C2" s="129" t="str">
+      <c r="B2" s="137"/>
+      <c r="C2" s="140" t="str">
         <f>Cover!E40</f>
         <v xml:space="preserve">Level Up </v>
       </c>
-      <c r="D2" s="130"/>
-      <c r="E2" s="130"/>
-      <c r="F2" s="130"/>
-      <c r="G2" s="130"/>
-      <c r="H2" s="130"/>
-      <c r="I2" s="130"/>
-      <c r="J2" s="130"/>
-      <c r="K2" s="130"/>
-      <c r="L2" s="130"/>
-      <c r="M2" s="130"/>
-      <c r="N2" s="130"/>
+      <c r="D2" s="141"/>
+      <c r="E2" s="141"/>
+      <c r="F2" s="141"/>
+      <c r="G2" s="141"/>
+      <c r="H2" s="141"/>
+      <c r="I2" s="141"/>
+      <c r="J2" s="141"/>
+      <c r="K2" s="141"/>
+      <c r="L2" s="141"/>
+      <c r="M2" s="141"/>
+      <c r="N2" s="141"/>
       <c r="O2" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="P2" s="133"/>
-      <c r="Q2" s="134"/>
+      <c r="P2" s="144"/>
+      <c r="Q2" s="145"/>
     </row>
     <row r="3" spans="1:17" ht="34" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="127"/>
-      <c r="B3" s="128"/>
-      <c r="C3" s="131"/>
-      <c r="D3" s="132"/>
-      <c r="E3" s="132"/>
-      <c r="F3" s="132"/>
-      <c r="G3" s="132"/>
-      <c r="H3" s="132"/>
-      <c r="I3" s="132"/>
-      <c r="J3" s="132"/>
-      <c r="K3" s="132"/>
-      <c r="L3" s="132"/>
-      <c r="M3" s="132"/>
-      <c r="N3" s="132"/>
+      <c r="A3" s="138"/>
+      <c r="B3" s="139"/>
+      <c r="C3" s="142"/>
+      <c r="D3" s="143"/>
+      <c r="E3" s="143"/>
+      <c r="F3" s="143"/>
+      <c r="G3" s="143"/>
+      <c r="H3" s="143"/>
+      <c r="I3" s="143"/>
+      <c r="J3" s="143"/>
+      <c r="K3" s="143"/>
+      <c r="L3" s="143"/>
+      <c r="M3" s="143"/>
+      <c r="N3" s="143"/>
       <c r="O3" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="P3" s="135"/>
-      <c r="Q3" s="136"/>
+      <c r="P3" s="146"/>
+      <c r="Q3" s="147"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" s="13"/>
@@ -8084,7 +10922,7 @@
   <dimension ref="A1:O30"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8100,47 +10938,47 @@
   <sheetData>
     <row r="1" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="125" t="s">
+      <c r="A2" s="136" t="s">
         <v>41</v>
       </c>
-      <c r="B2" s="126"/>
-      <c r="C2" s="129" t="str">
+      <c r="B2" s="137"/>
+      <c r="C2" s="140" t="str">
         <f>Cover!E40</f>
         <v xml:space="preserve">Level Up </v>
       </c>
-      <c r="D2" s="130"/>
-      <c r="E2" s="130"/>
-      <c r="F2" s="130"/>
-      <c r="G2" s="130"/>
-      <c r="H2" s="130"/>
-      <c r="I2" s="130"/>
-      <c r="J2" s="130"/>
-      <c r="K2" s="130"/>
-      <c r="L2" s="130"/>
+      <c r="D2" s="141"/>
+      <c r="E2" s="141"/>
+      <c r="F2" s="141"/>
+      <c r="G2" s="141"/>
+      <c r="H2" s="141"/>
+      <c r="I2" s="141"/>
+      <c r="J2" s="141"/>
+      <c r="K2" s="141"/>
+      <c r="L2" s="141"/>
       <c r="M2" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="N2" s="133"/>
-      <c r="O2" s="134"/>
+      <c r="N2" s="144"/>
+      <c r="O2" s="145"/>
     </row>
     <row r="3" spans="1:15" ht="34" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="127"/>
-      <c r="B3" s="128"/>
-      <c r="C3" s="131"/>
-      <c r="D3" s="132"/>
-      <c r="E3" s="132"/>
-      <c r="F3" s="132"/>
-      <c r="G3" s="132"/>
-      <c r="H3" s="132"/>
-      <c r="I3" s="132"/>
-      <c r="J3" s="132"/>
-      <c r="K3" s="132"/>
-      <c r="L3" s="132"/>
+      <c r="A3" s="138"/>
+      <c r="B3" s="139"/>
+      <c r="C3" s="142"/>
+      <c r="D3" s="143"/>
+      <c r="E3" s="143"/>
+      <c r="F3" s="143"/>
+      <c r="G3" s="143"/>
+      <c r="H3" s="143"/>
+      <c r="I3" s="143"/>
+      <c r="J3" s="143"/>
+      <c r="K3" s="143"/>
+      <c r="L3" s="143"/>
       <c r="M3" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="N3" s="135"/>
-      <c r="O3" s="136"/>
+      <c r="N3" s="146"/>
+      <c r="O3" s="147"/>
     </row>
     <row r="4" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="13"/>
@@ -8713,19 +11551,19 @@
     </row>
     <row r="3" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D3" s="82"/>
-      <c r="E3" s="153">
+      <c r="E3" s="164">
         <v>1</v>
       </c>
       <c r="F3" s="83" t="s">
         <v>72</v>
       </c>
-      <c r="G3" s="153">
+      <c r="G3" s="164">
         <v>2</v>
       </c>
       <c r="H3" s="84" t="s">
         <v>73</v>
       </c>
-      <c r="I3" s="153">
+      <c r="I3" s="164">
         <v>3</v>
       </c>
       <c r="J3" s="85" t="s">
@@ -8738,15 +11576,15 @@
     </row>
     <row r="4" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D4" s="82"/>
-      <c r="E4" s="153"/>
+      <c r="E4" s="164"/>
       <c r="F4" s="86" t="s">
         <v>46</v>
       </c>
-      <c r="G4" s="153"/>
+      <c r="G4" s="164"/>
       <c r="H4" s="86" t="s">
         <v>48</v>
       </c>
-      <c r="I4" s="153"/>
+      <c r="I4" s="164"/>
       <c r="J4" s="86" t="s">
         <v>51</v>
       </c>
@@ -8759,15 +11597,15 @@
     </row>
     <row r="5" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D5" s="82"/>
-      <c r="E5" s="153"/>
+      <c r="E5" s="164"/>
       <c r="F5" s="86" t="s">
         <v>47</v>
       </c>
-      <c r="G5" s="153"/>
+      <c r="G5" s="164"/>
       <c r="H5" s="86" t="s">
         <v>75</v>
       </c>
-      <c r="I5" s="153"/>
+      <c r="I5" s="164"/>
       <c r="J5" s="86" t="s">
         <v>50</v>
       </c>
@@ -8804,13 +11642,13 @@
     </row>
     <row r="8" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D8" s="82"/>
-      <c r="E8" s="153">
+      <c r="E8" s="164">
         <v>4</v>
       </c>
       <c r="F8" s="91" t="s">
         <v>76</v>
       </c>
-      <c r="G8" s="153">
+      <c r="G8" s="164">
         <v>5</v>
       </c>
       <c r="H8" s="92" t="s">
@@ -8825,11 +11663,11 @@
     </row>
     <row r="9" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D9" s="82"/>
-      <c r="E9" s="153"/>
+      <c r="E9" s="164"/>
       <c r="F9" s="86" t="s">
         <v>48</v>
       </c>
-      <c r="G9" s="153"/>
+      <c r="G9" s="164"/>
       <c r="H9" s="86" t="s">
         <v>75</v>
       </c>
@@ -8842,9 +11680,9 @@
     </row>
     <row r="10" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D10" s="88"/>
-      <c r="E10" s="154"/>
+      <c r="E10" s="165"/>
       <c r="F10" s="89"/>
-      <c r="G10" s="154"/>
+      <c r="G10" s="165"/>
       <c r="H10" s="89"/>
       <c r="I10" s="89"/>
       <c r="J10" s="89"/>
@@ -8869,14 +11707,14 @@
     <row r="12" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D12" s="82"/>
       <c r="E12" s="86"/>
-      <c r="F12" s="152" t="s">
+      <c r="F12" s="163" t="s">
         <v>79</v>
       </c>
-      <c r="G12" s="152"/>
-      <c r="H12" s="152"/>
-      <c r="I12" s="152"/>
-      <c r="J12" s="152"/>
-      <c r="K12" s="152"/>
+      <c r="G12" s="163"/>
+      <c r="H12" s="163"/>
+      <c r="I12" s="163"/>
+      <c r="J12" s="163"/>
+      <c r="K12" s="163"/>
       <c r="L12" s="86"/>
       <c r="M12" s="86"/>
       <c r="N12" s="87"/>

--- a/04.Development/Project Management.xlsx
+++ b/04.Development/Project Management.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/linnkoko/Desktop/Web Developer Class/Web Developer I + II B7/Project/04.Development/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/codigoteam/Documents/web/levelup/level-up-docs/04.Development/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42E8F9B7-7471-D246-A0CD-609D4C81864A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4CE8009-9576-9D46-8D29-2780C6D072E7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="680" yWindow="-20340" windowWidth="30800" windowHeight="19020" activeTab="2" xr2:uid="{7BA0B221-245C-954E-96F6-3D960DADD312}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16280" activeTab="2" xr2:uid="{7BA0B221-245C-954E-96F6-3D960DADD312}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="3" r:id="rId1"/>
@@ -33,19 +33,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="179">
   <si>
     <t>No</t>
   </si>
@@ -612,6 +605,9 @@
   </si>
   <si>
     <t>IN:Course Edit</t>
+  </si>
+  <si>
+    <t>Remarks: Someone did it.already completed</t>
   </si>
 </sst>
 </file>
@@ -2958,7 +2954,7 @@
       </c>
       <c r="P3" s="146">
         <f ca="1">NOW()</f>
-        <v>44750.820998726849</v>
+        <v>44752.591932754629</v>
       </c>
       <c r="Q3" s="147"/>
     </row>
@@ -3972,7 +3968,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0F39F5A-DF39-F541-B8C2-02BEDD153576}">
   <dimension ref="A1:O152"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="140" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="110" zoomScaleNormal="140" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -4163,7 +4161,7 @@
       </c>
       <c r="K8" s="115">
         <f>AVERAGE(K9:K72)</f>
-        <v>0.32187499999999997</v>
+        <v>0.34999999999999992</v>
       </c>
     </row>
     <row r="9" spans="1:15" ht="21" x14ac:dyDescent="0.25">
@@ -5480,7 +5478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:11" ht="21" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:12" ht="21" x14ac:dyDescent="0.25">
       <c r="A49" s="58"/>
       <c r="B49" s="117">
         <v>41</v>
@@ -5511,7 +5509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:11" ht="21" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:12" ht="21" x14ac:dyDescent="0.25">
       <c r="A50" s="58"/>
       <c r="B50" s="117">
         <v>42</v>
@@ -5542,7 +5540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:11" ht="21" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:12" ht="21" x14ac:dyDescent="0.25">
       <c r="A51" s="58"/>
       <c r="B51" s="117">
         <v>43</v>
@@ -5573,7 +5571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:11" ht="21" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:12" ht="21" x14ac:dyDescent="0.25">
       <c r="A52" s="58"/>
       <c r="B52" s="117">
         <v>44</v>
@@ -5597,7 +5595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:11" ht="21" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:12" ht="21" x14ac:dyDescent="0.25">
       <c r="A53" s="58"/>
       <c r="B53" s="117">
         <v>45</v>
@@ -5621,7 +5619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:11" ht="21" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:12" ht="21" x14ac:dyDescent="0.25">
       <c r="A54" s="58"/>
       <c r="B54" s="117">
         <v>46</v>
@@ -5652,7 +5650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:11" ht="21" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:12" ht="21" x14ac:dyDescent="0.25">
       <c r="A55" s="58"/>
       <c r="B55" s="117">
         <v>47</v>
@@ -5673,17 +5671,21 @@
         <f t="shared" si="15"/>
         <v>1</v>
       </c>
-      <c r="H55" s="61"/>
-      <c r="I55" s="61"/>
+      <c r="H55" s="61">
+        <v>44750</v>
+      </c>
+      <c r="I55" s="113">
+        <v>44751</v>
+      </c>
       <c r="J55" s="62">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K55" s="63">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11" ht="21" x14ac:dyDescent="0.25">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" ht="21" x14ac:dyDescent="0.25">
       <c r="A56" s="58"/>
       <c r="B56" s="117">
         <v>48</v>
@@ -5704,17 +5706,24 @@
         <f t="shared" si="15"/>
         <v>1</v>
       </c>
-      <c r="H56" s="61"/>
-      <c r="I56" s="61"/>
+      <c r="H56" s="61">
+        <v>44750</v>
+      </c>
+      <c r="I56" s="113">
+        <v>44751</v>
+      </c>
       <c r="J56" s="62">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K56" s="63">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11" ht="21" x14ac:dyDescent="0.25">
+        <v>0.9</v>
+      </c>
+      <c r="L56" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" ht="21" x14ac:dyDescent="0.25">
       <c r="A57" s="58"/>
       <c r="B57" s="117">
         <v>49</v>
@@ -5741,7 +5750,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:11" ht="21" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:12" ht="21" x14ac:dyDescent="0.25">
       <c r="A58" s="58"/>
       <c r="B58" s="117">
         <v>50</v>
@@ -5768,7 +5777,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:11" ht="21" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:12" ht="21" x14ac:dyDescent="0.25">
       <c r="A59" s="58"/>
       <c r="B59" s="117">
         <v>51</v>
@@ -5795,7 +5804,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:11" ht="21" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:12" ht="21" x14ac:dyDescent="0.25">
       <c r="A60" s="58"/>
       <c r="B60" s="117">
         <v>52</v>
@@ -5822,7 +5831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:11" ht="21" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:12" ht="21" x14ac:dyDescent="0.25">
       <c r="A61" s="58"/>
       <c r="B61" s="117">
         <v>53</v>
@@ -5853,7 +5862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:11" ht="21" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:12" ht="21" x14ac:dyDescent="0.25">
       <c r="A62" s="58"/>
       <c r="B62" s="117">
         <v>54</v>
@@ -5884,7 +5893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:11" ht="21" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:12" ht="21" x14ac:dyDescent="0.25">
       <c r="A63" s="58"/>
       <c r="B63" s="117">
         <v>55</v>
@@ -5911,7 +5920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:11" ht="21" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:12" ht="21" x14ac:dyDescent="0.25">
       <c r="A64" s="58"/>
       <c r="B64" s="117">
         <v>56</v>

--- a/04.Development/Project Management.xlsx
+++ b/04.Development/Project Management.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10708"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Level Up\04.Development\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/linnkoko/Desktop/Web Developer Class/Web Developer I + II B7/Project/04.Development/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DF7AC87-9323-4E31-B4F2-D3AEDFF82378}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF2C1F93-73F6-A14B-9D5E-6AEA3ADADFD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{7BA0B221-245C-954E-96F6-3D960DADD312}"/>
+    <workbookView xWindow="-5180" yWindow="-21100" windowWidth="25140" windowHeight="21100" activeTab="2" xr2:uid="{7BA0B221-245C-954E-96F6-3D960DADD312}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="3" r:id="rId1"/>
@@ -22,14 +22,14 @@
     <sheet name="Assign" sheetId="10" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Schedule!$A$5:$K$143</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Schedule!$A$5:$K$131</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Cover!$A$1:$N$51</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'Customer Requirement'!$A$1:$Q$46</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="5">'DB Design'!$A$1:$O$43</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">Schedule!$A$1:$O$144</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">Schedule!$A$1:$O$132</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">'Screen Flow'!$A$1:$AA$132</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="181">
   <si>
     <t>No</t>
   </si>
@@ -595,9 +595,6 @@
     <t>AD:Course Detail</t>
   </si>
   <si>
-    <t>SSS</t>
-  </si>
-  <si>
     <t>AD:Order List</t>
   </si>
   <si>
@@ -620,6 +617,12 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>AD: Review Appeal List</t>
+  </si>
+  <si>
+    <t>AD:Course View</t>
   </si>
 </sst>
 </file>
@@ -630,7 +633,7 @@
     <numFmt numFmtId="164" formatCode="yyyy/mm/dd"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -800,7 +803,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="17">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -888,12 +891,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2" tint="-0.499984740745262"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00B0F0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1584,10 +1581,8 @@
     <xf numFmtId="164" fontId="22" fillId="15" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="3" fillId="15" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="3" fillId="15" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="3" fillId="15" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1698,6 +1693,8 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Hyperlink" xfId="3" builtinId="8"/>
@@ -10177,15 +10174,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DAFE950-5B3C-524E-9704-0609BF069824}">
   <dimension ref="A1:N51"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="E40" sqref="E40"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="4" max="4" width="5.5" customWidth="1"/>
-    <col min="13" max="13" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" s="9"/>
       <c r="B1" s="10"/>
       <c r="C1" s="10"/>
@@ -10201,93 +10200,93 @@
       <c r="M1" s="10"/>
       <c r="N1" s="11"/>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="12"/>
       <c r="N2" s="13"/>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="12"/>
       <c r="N3" s="13"/>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="12"/>
       <c r="N4" s="13"/>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="12"/>
       <c r="N5" s="13"/>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="12"/>
       <c r="N6" s="13"/>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="12"/>
       <c r="N7" s="13"/>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="12"/>
       <c r="N8" s="13"/>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="12"/>
       <c r="N9" s="13"/>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="12"/>
       <c r="N10" s="13"/>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" s="12"/>
       <c r="N11" s="13"/>
     </row>
-    <row r="12" spans="1:14">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" s="12"/>
       <c r="N12" s="13"/>
     </row>
-    <row r="13" spans="1:14">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" s="12"/>
       <c r="N13" s="13"/>
     </row>
-    <row r="14" spans="1:14">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" s="12"/>
       <c r="N14" s="13"/>
     </row>
-    <row r="15" spans="1:14">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" s="12"/>
       <c r="N15" s="13"/>
     </row>
-    <row r="16" spans="1:14">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" s="12"/>
       <c r="N16" s="13"/>
     </row>
-    <row r="17" spans="1:14">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" s="12"/>
       <c r="N17" s="13"/>
     </row>
-    <row r="18" spans="1:14">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" s="12"/>
       <c r="N18" s="13"/>
     </row>
-    <row r="19" spans="1:14" ht="92.25">
-      <c r="A19" s="125" t="s">
+    <row r="19" spans="1:14" ht="92" x14ac:dyDescent="0.2">
+      <c r="A19" s="123" t="s">
         <v>22</v>
       </c>
-      <c r="B19" s="126"/>
-      <c r="C19" s="126"/>
-      <c r="D19" s="126"/>
-      <c r="E19" s="126"/>
-      <c r="F19" s="126"/>
-      <c r="G19" s="126"/>
-      <c r="H19" s="126"/>
-      <c r="I19" s="126"/>
-      <c r="J19" s="126"/>
-      <c r="K19" s="126"/>
-      <c r="L19" s="126"/>
-      <c r="M19" s="126"/>
-      <c r="N19" s="127"/>
-    </row>
-    <row r="20" spans="1:14">
+      <c r="B19" s="124"/>
+      <c r="C19" s="124"/>
+      <c r="D19" s="124"/>
+      <c r="E19" s="124"/>
+      <c r="F19" s="124"/>
+      <c r="G19" s="124"/>
+      <c r="H19" s="124"/>
+      <c r="I19" s="124"/>
+      <c r="J19" s="124"/>
+      <c r="K19" s="124"/>
+      <c r="L19" s="124"/>
+      <c r="M19" s="124"/>
+      <c r="N19" s="125"/>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" s="12"/>
       <c r="D20" s="7"/>
       <c r="E20" s="7"/>
@@ -10299,113 +10298,113 @@
       <c r="K20" s="7"/>
       <c r="N20" s="13"/>
     </row>
-    <row r="21" spans="1:14">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" s="12"/>
       <c r="N21" s="13"/>
     </row>
-    <row r="22" spans="1:14" ht="46.5">
-      <c r="A22" s="122" t="s">
+    <row r="22" spans="1:14" ht="47" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" s="120" t="s">
         <v>45</v>
       </c>
-      <c r="B22" s="123"/>
-      <c r="C22" s="123"/>
-      <c r="D22" s="123"/>
-      <c r="E22" s="123"/>
-      <c r="F22" s="123"/>
-      <c r="G22" s="123"/>
-      <c r="H22" s="123"/>
-      <c r="I22" s="123"/>
-      <c r="J22" s="123"/>
-      <c r="K22" s="123"/>
-      <c r="L22" s="123"/>
-      <c r="M22" s="123"/>
-      <c r="N22" s="124"/>
-    </row>
-    <row r="23" spans="1:14">
+      <c r="B22" s="121"/>
+      <c r="C22" s="121"/>
+      <c r="D22" s="121"/>
+      <c r="E22" s="121"/>
+      <c r="F22" s="121"/>
+      <c r="G22" s="121"/>
+      <c r="H22" s="121"/>
+      <c r="I22" s="121"/>
+      <c r="J22" s="121"/>
+      <c r="K22" s="121"/>
+      <c r="L22" s="121"/>
+      <c r="M22" s="121"/>
+      <c r="N22" s="122"/>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23" s="12"/>
       <c r="N23" s="13"/>
     </row>
-    <row r="24" spans="1:14">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24" s="12"/>
       <c r="N24" s="13"/>
     </row>
-    <row r="25" spans="1:14">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25" s="12"/>
       <c r="N25" s="13"/>
     </row>
-    <row r="26" spans="1:14">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26" s="12"/>
       <c r="N26" s="13"/>
     </row>
-    <row r="27" spans="1:14">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27" s="12"/>
       <c r="N27" s="13"/>
     </row>
-    <row r="28" spans="1:14">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28" s="12"/>
       <c r="N28" s="13"/>
     </row>
-    <row r="29" spans="1:14">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A29" s="12"/>
       <c r="N29" s="13"/>
     </row>
-    <row r="30" spans="1:14">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30" s="12"/>
       <c r="N30" s="13"/>
     </row>
-    <row r="31" spans="1:14">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A31" s="12"/>
       <c r="N31" s="13"/>
     </row>
-    <row r="32" spans="1:14">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A32" s="12"/>
       <c r="N32" s="13"/>
     </row>
-    <row r="33" spans="1:14">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A33" s="12"/>
       <c r="N33" s="13"/>
     </row>
-    <row r="34" spans="1:14">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A34" s="12"/>
       <c r="N34" s="13"/>
     </row>
-    <row r="35" spans="1:14">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A35" s="12"/>
       <c r="N35" s="13"/>
     </row>
-    <row r="36" spans="1:14">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A36" s="12"/>
       <c r="N36" s="13"/>
     </row>
-    <row r="37" spans="1:14">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A37" s="12"/>
       <c r="N37" s="13"/>
     </row>
-    <row r="38" spans="1:14">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A38" s="12"/>
       <c r="N38" s="13"/>
     </row>
-    <row r="39" spans="1:14">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A39" s="12"/>
       <c r="N39" s="13"/>
     </row>
-    <row r="40" spans="1:14">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A40" s="12"/>
       <c r="E40" t="s">
         <v>137</v>
       </c>
       <c r="N40" s="13"/>
     </row>
-    <row r="41" spans="1:14">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A41" s="12"/>
       <c r="N41" s="13"/>
     </row>
-    <row r="42" spans="1:14" ht="23.25">
+    <row r="42" spans="1:14" ht="24" x14ac:dyDescent="0.3">
       <c r="A42" s="12"/>
-      <c r="B42" s="120" t="s">
+      <c r="B42" s="118" t="s">
         <v>19</v>
       </c>
-      <c r="C42" s="120"/>
+      <c r="C42" s="118"/>
       <c r="D42" s="18">
         <v>1</v>
       </c>
@@ -10414,7 +10413,7 @@
       </c>
       <c r="N42" s="13"/>
     </row>
-    <row r="43" spans="1:14" ht="21">
+    <row r="43" spans="1:14" ht="21" x14ac:dyDescent="0.25">
       <c r="A43" s="12"/>
       <c r="D43" s="18">
         <v>2</v>
@@ -10424,7 +10423,7 @@
       </c>
       <c r="N43" s="13"/>
     </row>
-    <row r="44" spans="1:14" ht="21">
+    <row r="44" spans="1:14" ht="21" x14ac:dyDescent="0.25">
       <c r="A44" s="12"/>
       <c r="D44" s="18">
         <v>3</v>
@@ -10434,7 +10433,7 @@
       </c>
       <c r="N44" s="13"/>
     </row>
-    <row r="45" spans="1:14" ht="21">
+    <row r="45" spans="1:14" ht="21" x14ac:dyDescent="0.25">
       <c r="A45" s="12"/>
       <c r="D45" s="18">
         <v>4</v>
@@ -10444,7 +10443,7 @@
       </c>
       <c r="N45" s="13"/>
     </row>
-    <row r="46" spans="1:14" ht="21">
+    <row r="46" spans="1:14" ht="21" x14ac:dyDescent="0.25">
       <c r="A46" s="12"/>
       <c r="D46" s="18">
         <v>5</v>
@@ -10454,7 +10453,7 @@
       </c>
       <c r="N46" s="13"/>
     </row>
-    <row r="47" spans="1:14" ht="21">
+    <row r="47" spans="1:14" ht="21" x14ac:dyDescent="0.25">
       <c r="A47" s="12"/>
       <c r="D47" s="18">
         <v>6</v>
@@ -10464,31 +10463,31 @@
       </c>
       <c r="N47" s="13"/>
     </row>
-    <row r="48" spans="1:14" ht="18.75">
+    <row r="48" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A48" s="12"/>
-      <c r="K48" s="121" t="s">
+      <c r="K48" s="119" t="s">
         <v>21</v>
       </c>
-      <c r="L48" s="121"/>
+      <c r="L48" s="119"/>
       <c r="M48" s="17">
         <v>44740</v>
       </c>
       <c r="N48" s="13"/>
     </row>
-    <row r="49" spans="1:14" ht="18.75">
+    <row r="49" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A49" s="12"/>
-      <c r="K49" s="121" t="s">
+      <c r="K49" s="119" t="s">
         <v>20</v>
       </c>
-      <c r="L49" s="121"/>
+      <c r="L49" s="119"/>
       <c r="M49" s="17"/>
       <c r="N49" s="13"/>
     </row>
-    <row r="50" spans="1:14">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A50" s="12"/>
       <c r="N50" s="13"/>
     </row>
-    <row r="51" spans="1:14" ht="16.5" thickBot="1">
+    <row r="51" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A51" s="14"/>
       <c r="B51" s="15"/>
       <c r="C51" s="15"/>
@@ -10521,77 +10520,79 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0901546-647D-314F-966F-D11091521896}">
   <dimension ref="A1:Q48"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="B3" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="N6" sqref="N6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.875" customWidth="1"/>
-    <col min="16" max="16" width="13.875" customWidth="1"/>
+    <col min="15" max="15" width="14.83203125" customWidth="1"/>
+    <col min="16" max="16" width="13.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="16.5" thickBot="1"/>
-    <row r="2" spans="1:17" ht="33.950000000000003" customHeight="1">
-      <c r="A2" s="128" t="s">
+    <row r="1" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:17" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="126" t="s">
         <v>44</v>
       </c>
-      <c r="B2" s="129"/>
-      <c r="C2" s="132" t="str">
+      <c r="B2" s="127"/>
+      <c r="C2" s="130" t="str">
         <f>Cover!E40</f>
         <v xml:space="preserve">Level Up </v>
       </c>
-      <c r="D2" s="133"/>
-      <c r="E2" s="133"/>
-      <c r="F2" s="133"/>
-      <c r="G2" s="133"/>
-      <c r="H2" s="133"/>
-      <c r="I2" s="133"/>
-      <c r="J2" s="133"/>
-      <c r="K2" s="133"/>
-      <c r="L2" s="133"/>
-      <c r="M2" s="133"/>
-      <c r="N2" s="133"/>
+      <c r="D2" s="131"/>
+      <c r="E2" s="131"/>
+      <c r="F2" s="131"/>
+      <c r="G2" s="131"/>
+      <c r="H2" s="131"/>
+      <c r="I2" s="131"/>
+      <c r="J2" s="131"/>
+      <c r="K2" s="131"/>
+      <c r="L2" s="131"/>
+      <c r="M2" s="131"/>
+      <c r="N2" s="131"/>
       <c r="O2" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="P2" s="136">
+      <c r="P2" s="134">
         <v>44740</v>
       </c>
-      <c r="Q2" s="137"/>
-    </row>
-    <row r="3" spans="1:17" ht="33.950000000000003" customHeight="1" thickBot="1">
-      <c r="A3" s="130"/>
-      <c r="B3" s="131"/>
-      <c r="C3" s="134"/>
-      <c r="D3" s="135"/>
-      <c r="E3" s="135"/>
-      <c r="F3" s="135"/>
-      <c r="G3" s="135"/>
-      <c r="H3" s="135"/>
-      <c r="I3" s="135"/>
-      <c r="J3" s="135"/>
-      <c r="K3" s="135"/>
-      <c r="L3" s="135"/>
-      <c r="M3" s="135"/>
-      <c r="N3" s="135"/>
+      <c r="Q2" s="135"/>
+    </row>
+    <row r="3" spans="1:17" ht="34" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="128"/>
+      <c r="B3" s="129"/>
+      <c r="C3" s="132"/>
+      <c r="D3" s="133"/>
+      <c r="E3" s="133"/>
+      <c r="F3" s="133"/>
+      <c r="G3" s="133"/>
+      <c r="H3" s="133"/>
+      <c r="I3" s="133"/>
+      <c r="J3" s="133"/>
+      <c r="K3" s="133"/>
+      <c r="L3" s="133"/>
+      <c r="M3" s="133"/>
+      <c r="N3" s="133"/>
       <c r="O3" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="P3" s="138">
+      <c r="P3" s="136">
         <f ca="1">NOW()</f>
-        <v>44753.494624305553</v>
-      </c>
-      <c r="Q3" s="139"/>
-    </row>
-    <row r="4" spans="1:17">
+        <v>44757.836164236112</v>
+      </c>
+      <c r="Q3" s="137"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" s="12"/>
       <c r="Q4" s="13"/>
     </row>
-    <row r="5" spans="1:17">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="12"/>
       <c r="Q5" s="13"/>
     </row>
-    <row r="6" spans="1:17" s="3" customFormat="1" ht="23.25">
+    <row r="6" spans="1:17" s="3" customFormat="1" ht="24" x14ac:dyDescent="0.3">
       <c r="A6" s="70" t="s">
         <v>43</v>
       </c>
@@ -10599,7 +10600,7 @@
       <c r="M6" s="29"/>
       <c r="Q6" s="31"/>
     </row>
-    <row r="7" spans="1:17" ht="23.25">
+    <row r="7" spans="1:17" ht="24" x14ac:dyDescent="0.3">
       <c r="A7" s="22"/>
       <c r="B7" s="8"/>
       <c r="C7" s="69"/>
@@ -10618,7 +10619,7 @@
       <c r="P7" s="69"/>
       <c r="Q7" s="68"/>
     </row>
-    <row r="8" spans="1:17" ht="23.25">
+    <row r="8" spans="1:17" ht="24" x14ac:dyDescent="0.3">
       <c r="A8" s="99"/>
       <c r="B8" s="100"/>
       <c r="C8" s="101" t="s">
@@ -10639,7 +10640,7 @@
       <c r="P8" s="101"/>
       <c r="Q8" s="103"/>
     </row>
-    <row r="9" spans="1:17" ht="23.25">
+    <row r="9" spans="1:17" ht="24" x14ac:dyDescent="0.3">
       <c r="A9" s="99"/>
       <c r="B9" s="101"/>
       <c r="C9" s="101"/>
@@ -10662,7 +10663,7 @@
       <c r="P9" s="101"/>
       <c r="Q9" s="103"/>
     </row>
-    <row r="10" spans="1:17" ht="23.25">
+    <row r="10" spans="1:17" ht="24" x14ac:dyDescent="0.3">
       <c r="A10" s="99"/>
       <c r="B10" s="101"/>
       <c r="C10" s="101"/>
@@ -10687,7 +10688,7 @@
       <c r="P10" s="101"/>
       <c r="Q10" s="103"/>
     </row>
-    <row r="11" spans="1:17" ht="23.25">
+    <row r="11" spans="1:17" ht="24" x14ac:dyDescent="0.3">
       <c r="A11" s="99"/>
       <c r="B11" s="101"/>
       <c r="C11" s="101"/>
@@ -10710,7 +10711,7 @@
       <c r="P11" s="101"/>
       <c r="Q11" s="103"/>
     </row>
-    <row r="12" spans="1:17" ht="23.25">
+    <row r="12" spans="1:17" ht="24" x14ac:dyDescent="0.3">
       <c r="A12" s="99"/>
       <c r="B12" s="101"/>
       <c r="C12" s="101"/>
@@ -10733,7 +10734,7 @@
       <c r="P12" s="101"/>
       <c r="Q12" s="103"/>
     </row>
-    <row r="13" spans="1:17" ht="23.25">
+    <row r="13" spans="1:17" ht="24" x14ac:dyDescent="0.3">
       <c r="A13" s="99"/>
       <c r="B13" s="101"/>
       <c r="C13" s="101"/>
@@ -10756,7 +10757,7 @@
       <c r="P13" s="101"/>
       <c r="Q13" s="103"/>
     </row>
-    <row r="14" spans="1:17" ht="23.25">
+    <row r="14" spans="1:17" ht="24" x14ac:dyDescent="0.3">
       <c r="A14" s="99"/>
       <c r="B14" s="101"/>
       <c r="C14" s="101"/>
@@ -10779,7 +10780,7 @@
       <c r="P14" s="101"/>
       <c r="Q14" s="103"/>
     </row>
-    <row r="15" spans="1:17" ht="23.25">
+    <row r="15" spans="1:17" ht="24" x14ac:dyDescent="0.3">
       <c r="A15" s="99"/>
       <c r="B15" s="101"/>
       <c r="C15" s="101"/>
@@ -10800,7 +10801,7 @@
       <c r="P15" s="101"/>
       <c r="Q15" s="103"/>
     </row>
-    <row r="16" spans="1:17" ht="23.25">
+    <row r="16" spans="1:17" ht="24" x14ac:dyDescent="0.3">
       <c r="A16" s="99"/>
       <c r="B16" s="101"/>
       <c r="C16" s="101"/>
@@ -10823,7 +10824,7 @@
       <c r="P16" s="101"/>
       <c r="Q16" s="103"/>
     </row>
-    <row r="17" spans="1:17" ht="23.25">
+    <row r="17" spans="1:17" ht="24" x14ac:dyDescent="0.3">
       <c r="A17" s="99"/>
       <c r="B17" s="101"/>
       <c r="C17" s="101"/>
@@ -10846,7 +10847,7 @@
       <c r="P17" s="101"/>
       <c r="Q17" s="103"/>
     </row>
-    <row r="18" spans="1:17" ht="23.25">
+    <row r="18" spans="1:17" ht="24" x14ac:dyDescent="0.3">
       <c r="A18" s="99"/>
       <c r="B18" s="101"/>
       <c r="C18" s="101"/>
@@ -10869,7 +10870,7 @@
       <c r="P18" s="101"/>
       <c r="Q18" s="103"/>
     </row>
-    <row r="19" spans="1:17" ht="23.25">
+    <row r="19" spans="1:17" ht="24" x14ac:dyDescent="0.3">
       <c r="A19" s="99"/>
       <c r="B19" s="101"/>
       <c r="C19" s="101"/>
@@ -10892,7 +10893,7 @@
       <c r="P19" s="101"/>
       <c r="Q19" s="103"/>
     </row>
-    <row r="20" spans="1:17" ht="23.25">
+    <row r="20" spans="1:17" ht="24" x14ac:dyDescent="0.3">
       <c r="A20" s="99"/>
       <c r="B20" s="101"/>
       <c r="C20" s="101"/>
@@ -10915,7 +10916,7 @@
       <c r="P20" s="101"/>
       <c r="Q20" s="103"/>
     </row>
-    <row r="21" spans="1:17" ht="23.25">
+    <row r="21" spans="1:17" ht="24" x14ac:dyDescent="0.3">
       <c r="A21" s="99"/>
       <c r="B21" s="101"/>
       <c r="C21" s="101"/>
@@ -10938,7 +10939,7 @@
       <c r="P21" s="101"/>
       <c r="Q21" s="103"/>
     </row>
-    <row r="22" spans="1:17" ht="23.25">
+    <row r="22" spans="1:17" ht="24" x14ac:dyDescent="0.3">
       <c r="A22" s="99"/>
       <c r="B22" s="101"/>
       <c r="C22" s="101"/>
@@ -10961,7 +10962,7 @@
       <c r="P22" s="101"/>
       <c r="Q22" s="103"/>
     </row>
-    <row r="23" spans="1:17" ht="23.25">
+    <row r="23" spans="1:17" ht="24" x14ac:dyDescent="0.3">
       <c r="A23" s="99"/>
       <c r="B23" s="101"/>
       <c r="C23" s="101"/>
@@ -10984,7 +10985,7 @@
       <c r="P23" s="101"/>
       <c r="Q23" s="103"/>
     </row>
-    <row r="24" spans="1:17" ht="23.25">
+    <row r="24" spans="1:17" ht="24" x14ac:dyDescent="0.3">
       <c r="A24" s="99"/>
       <c r="B24" s="101"/>
       <c r="C24" s="101"/>
@@ -11007,7 +11008,7 @@
       <c r="P24" s="101"/>
       <c r="Q24" s="103"/>
     </row>
-    <row r="25" spans="1:17" ht="23.25">
+    <row r="25" spans="1:17" ht="24" x14ac:dyDescent="0.3">
       <c r="A25" s="99"/>
       <c r="B25" s="101"/>
       <c r="C25" s="101"/>
@@ -11030,7 +11031,7 @@
       <c r="P25" s="101"/>
       <c r="Q25" s="103"/>
     </row>
-    <row r="26" spans="1:17" ht="23.25">
+    <row r="26" spans="1:17" ht="24" x14ac:dyDescent="0.3">
       <c r="A26" s="99"/>
       <c r="B26" s="101"/>
       <c r="C26" s="101"/>
@@ -11053,7 +11054,7 @@
       <c r="P26" s="101"/>
       <c r="Q26" s="103"/>
     </row>
-    <row r="27" spans="1:17" ht="23.25">
+    <row r="27" spans="1:17" ht="24" x14ac:dyDescent="0.3">
       <c r="A27" s="88"/>
       <c r="B27" s="89"/>
       <c r="C27" s="89"/>
@@ -11072,7 +11073,7 @@
       <c r="P27" s="89"/>
       <c r="Q27" s="90"/>
     </row>
-    <row r="28" spans="1:17" ht="23.25">
+    <row r="28" spans="1:17" ht="24" x14ac:dyDescent="0.3">
       <c r="A28" s="88"/>
       <c r="B28" s="89"/>
       <c r="C28" s="89" t="s">
@@ -11095,7 +11096,7 @@
       <c r="P28" s="91"/>
       <c r="Q28" s="90"/>
     </row>
-    <row r="29" spans="1:17" ht="23.25">
+    <row r="29" spans="1:17" ht="24" x14ac:dyDescent="0.3">
       <c r="A29" s="88"/>
       <c r="B29" s="89"/>
       <c r="C29" s="89"/>
@@ -11122,7 +11123,7 @@
       <c r="P29" s="91"/>
       <c r="Q29" s="90"/>
     </row>
-    <row r="30" spans="1:17" ht="23.25">
+    <row r="30" spans="1:17" ht="24" x14ac:dyDescent="0.3">
       <c r="A30" s="92"/>
       <c r="B30" s="89"/>
       <c r="C30" s="89"/>
@@ -11149,7 +11150,7 @@
       <c r="P30" s="91"/>
       <c r="Q30" s="90"/>
     </row>
-    <row r="31" spans="1:17" ht="23.25">
+    <row r="31" spans="1:17" ht="24" x14ac:dyDescent="0.3">
       <c r="A31" s="92"/>
       <c r="B31" s="89"/>
       <c r="C31" s="89"/>
@@ -11174,7 +11175,7 @@
       <c r="P31" s="91"/>
       <c r="Q31" s="90"/>
     </row>
-    <row r="32" spans="1:17" ht="23.25">
+    <row r="32" spans="1:17" ht="24" x14ac:dyDescent="0.3">
       <c r="A32" s="92"/>
       <c r="B32" s="89"/>
       <c r="C32" s="89"/>
@@ -11199,7 +11200,7 @@
       <c r="P32" s="91"/>
       <c r="Q32" s="90"/>
     </row>
-    <row r="33" spans="1:17" ht="23.25">
+    <row r="33" spans="1:17" ht="24" x14ac:dyDescent="0.3">
       <c r="A33" s="92"/>
       <c r="B33" s="89"/>
       <c r="C33" s="89"/>
@@ -11226,7 +11227,7 @@
       <c r="P33" s="91"/>
       <c r="Q33" s="93"/>
     </row>
-    <row r="34" spans="1:17" ht="23.25">
+    <row r="34" spans="1:17" ht="24" x14ac:dyDescent="0.3">
       <c r="A34" s="92"/>
       <c r="B34" s="89"/>
       <c r="C34" s="89"/>
@@ -11251,7 +11252,7 @@
       <c r="P34" s="91"/>
       <c r="Q34" s="93"/>
     </row>
-    <row r="35" spans="1:17" ht="23.25">
+    <row r="35" spans="1:17" ht="24" x14ac:dyDescent="0.3">
       <c r="A35" s="92"/>
       <c r="B35" s="89"/>
       <c r="C35" s="89"/>
@@ -11278,7 +11279,7 @@
       <c r="P35" s="91"/>
       <c r="Q35" s="93"/>
     </row>
-    <row r="36" spans="1:17" ht="23.25">
+    <row r="36" spans="1:17" ht="24" x14ac:dyDescent="0.3">
       <c r="A36" s="92"/>
       <c r="B36" s="89"/>
       <c r="C36" s="89"/>
@@ -11305,7 +11306,7 @@
       <c r="P36" s="91"/>
       <c r="Q36" s="93"/>
     </row>
-    <row r="37" spans="1:17" ht="23.25">
+    <row r="37" spans="1:17" ht="24" x14ac:dyDescent="0.3">
       <c r="A37" s="92"/>
       <c r="B37" s="89"/>
       <c r="C37" s="89"/>
@@ -11332,7 +11333,7 @@
       <c r="P37" s="91"/>
       <c r="Q37" s="93"/>
     </row>
-    <row r="38" spans="1:17" ht="23.25">
+    <row r="38" spans="1:17" ht="24" x14ac:dyDescent="0.3">
       <c r="A38" s="92"/>
       <c r="B38" s="89"/>
       <c r="C38" s="89"/>
@@ -11353,7 +11354,7 @@
       <c r="P38" s="91"/>
       <c r="Q38" s="93"/>
     </row>
-    <row r="39" spans="1:17" ht="23.25">
+    <row r="39" spans="1:17" ht="24" x14ac:dyDescent="0.3">
       <c r="A39" s="92"/>
       <c r="B39" s="89"/>
       <c r="C39" s="89"/>
@@ -11374,7 +11375,7 @@
       <c r="P39" s="91"/>
       <c r="Q39" s="93"/>
     </row>
-    <row r="40" spans="1:17" ht="23.25">
+    <row r="40" spans="1:17" ht="24" x14ac:dyDescent="0.3">
       <c r="A40" s="92"/>
       <c r="B40" s="89"/>
       <c r="C40" s="89"/>
@@ -11395,7 +11396,7 @@
       <c r="P40" s="91"/>
       <c r="Q40" s="93"/>
     </row>
-    <row r="41" spans="1:17" ht="23.25">
+    <row r="41" spans="1:17" ht="24" x14ac:dyDescent="0.3">
       <c r="A41" s="92"/>
       <c r="B41" s="89"/>
       <c r="C41" s="89"/>
@@ -11416,7 +11417,7 @@
       <c r="P41" s="91"/>
       <c r="Q41" s="93"/>
     </row>
-    <row r="42" spans="1:17" ht="23.25">
+    <row r="42" spans="1:17" ht="24" x14ac:dyDescent="0.3">
       <c r="A42" s="92"/>
       <c r="B42" s="89"/>
       <c r="C42" s="89"/>
@@ -11437,7 +11438,7 @@
       <c r="P42" s="91"/>
       <c r="Q42" s="93"/>
     </row>
-    <row r="43" spans="1:17" ht="23.25">
+    <row r="43" spans="1:17" ht="24" x14ac:dyDescent="0.3">
       <c r="A43" s="92"/>
       <c r="B43" s="89"/>
       <c r="C43" s="89"/>
@@ -11460,7 +11461,7 @@
       <c r="P43" s="91"/>
       <c r="Q43" s="93"/>
     </row>
-    <row r="44" spans="1:17" ht="23.25">
+    <row r="44" spans="1:17" ht="24" x14ac:dyDescent="0.3">
       <c r="A44" s="92"/>
       <c r="B44" s="89"/>
       <c r="C44" s="89"/>
@@ -11481,7 +11482,7 @@
       <c r="P44" s="91"/>
       <c r="Q44" s="93"/>
     </row>
-    <row r="45" spans="1:17" ht="23.25">
+    <row r="45" spans="1:17" ht="24" x14ac:dyDescent="0.3">
       <c r="A45" s="92"/>
       <c r="B45" s="89"/>
       <c r="C45" s="89"/>
@@ -11504,7 +11505,7 @@
       <c r="P45" s="91"/>
       <c r="Q45" s="93"/>
     </row>
-    <row r="46" spans="1:17" ht="24" thickBot="1">
+    <row r="46" spans="1:17" ht="25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="95"/>
       <c r="B46" s="96"/>
       <c r="C46" s="96"/>
@@ -11525,11 +11526,11 @@
       <c r="P46" s="97"/>
       <c r="Q46" s="98"/>
     </row>
-    <row r="47" spans="1:17" ht="23.25">
+    <row r="47" spans="1:17" ht="24" x14ac:dyDescent="0.3">
       <c r="B47" s="69"/>
       <c r="C47" s="69"/>
     </row>
-    <row r="48" spans="1:17" ht="23.25">
+    <row r="48" spans="1:17" ht="24" x14ac:dyDescent="0.3">
       <c r="B48" s="69"/>
       <c r="C48" s="69"/>
     </row>
@@ -11548,70 +11549,72 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0F39F5A-DF39-F541-B8C2-02BEDD153576}">
-  <dimension ref="A1:O152"/>
+  <dimension ref="A1:O140"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A58" zoomScale="84" zoomScaleNormal="140" zoomScaleSheetLayoutView="84" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A27" zoomScale="90" zoomScaleNormal="140" zoomScaleSheetLayoutView="90" workbookViewId="0">
+      <selection activeCell="K61" sqref="K61"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.125" customWidth="1"/>
+    <col min="1" max="1" width="8.1640625" customWidth="1"/>
     <col min="2" max="2" width="5.5" customWidth="1"/>
     <col min="3" max="3" width="35" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12" customWidth="1"/>
-    <col min="5" max="6" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.625" customWidth="1"/>
+    <col min="8" max="9" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.6640625" customWidth="1"/>
     <col min="11" max="11" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.125" customWidth="1"/>
+    <col min="13" max="13" width="15.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="16.5" thickBot="1"/>
-    <row r="2" spans="1:15" ht="21">
-      <c r="A2" s="128" t="s">
+    <row r="1" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:15" ht="21" x14ac:dyDescent="0.2">
+      <c r="A2" s="126" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="129"/>
-      <c r="C2" s="132" t="str">
+      <c r="B2" s="127"/>
+      <c r="C2" s="130" t="str">
         <f>Cover!E40</f>
         <v xml:space="preserve">Level Up </v>
       </c>
-      <c r="D2" s="133"/>
-      <c r="E2" s="133"/>
-      <c r="F2" s="133"/>
-      <c r="G2" s="133"/>
-      <c r="H2" s="133"/>
-      <c r="I2" s="133"/>
-      <c r="J2" s="133"/>
-      <c r="K2" s="133"/>
-      <c r="L2" s="133"/>
+      <c r="D2" s="131"/>
+      <c r="E2" s="131"/>
+      <c r="F2" s="131"/>
+      <c r="G2" s="131"/>
+      <c r="H2" s="131"/>
+      <c r="I2" s="131"/>
+      <c r="J2" s="131"/>
+      <c r="K2" s="131"/>
+      <c r="L2" s="131"/>
       <c r="M2" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="N2" s="136"/>
-      <c r="O2" s="137"/>
-    </row>
-    <row r="3" spans="1:15" ht="21.75" thickBot="1">
-      <c r="A3" s="130"/>
-      <c r="B3" s="131"/>
-      <c r="C3" s="134"/>
-      <c r="D3" s="135"/>
-      <c r="E3" s="135"/>
-      <c r="F3" s="135"/>
-      <c r="G3" s="135"/>
-      <c r="H3" s="135"/>
-      <c r="I3" s="135"/>
-      <c r="J3" s="135"/>
-      <c r="K3" s="135"/>
-      <c r="L3" s="135"/>
+      <c r="N2" s="134"/>
+      <c r="O2" s="135"/>
+    </row>
+    <row r="3" spans="1:15" ht="22" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="128"/>
+      <c r="B3" s="129"/>
+      <c r="C3" s="132"/>
+      <c r="D3" s="133"/>
+      <c r="E3" s="133"/>
+      <c r="F3" s="133"/>
+      <c r="G3" s="133"/>
+      <c r="H3" s="133"/>
+      <c r="I3" s="133"/>
+      <c r="J3" s="133"/>
+      <c r="K3" s="133"/>
+      <c r="L3" s="133"/>
       <c r="M3" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="N3" s="138"/>
-      <c r="O3" s="139"/>
-    </row>
-    <row r="4" spans="1:15" ht="16.5" thickBot="1"/>
-    <row r="5" spans="1:15" ht="21">
+      <c r="N3" s="136"/>
+      <c r="O3" s="137"/>
+    </row>
+    <row r="4" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:15" ht="21" x14ac:dyDescent="0.25">
       <c r="A5" s="51" t="s">
         <v>0</v>
       </c>
@@ -11646,7 +11649,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="21">
+    <row r="6" spans="1:15" ht="21" x14ac:dyDescent="0.25">
       <c r="A6" s="56">
         <v>1</v>
       </c>
@@ -11679,7 +11682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="21">
+    <row r="7" spans="1:15" ht="21" x14ac:dyDescent="0.25">
       <c r="A7" s="56">
         <v>2</v>
       </c>
@@ -11697,20 +11700,20 @@
         <v>44747</v>
       </c>
       <c r="G7" s="58">
-        <f t="shared" ref="G7:G74" si="0">F7-E7</f>
+        <f t="shared" ref="G7:G62" si="0">F7-E7</f>
         <v>2</v>
       </c>
       <c r="H7" s="59"/>
       <c r="I7" s="59"/>
       <c r="J7" s="60">
-        <f t="shared" ref="J7:J140" si="1">I7-H7</f>
+        <f t="shared" ref="J7:J128" si="1">I7-H7</f>
         <v>0</v>
       </c>
       <c r="K7" s="61">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="21">
+    <row r="8" spans="1:15" ht="21" x14ac:dyDescent="0.25">
       <c r="A8" s="56">
         <v>3</v>
       </c>
@@ -11740,13 +11743,14 @@
         <v>-44746</v>
       </c>
       <c r="K8" s="107">
-        <f>AVERAGE(K9:K72)</f>
-        <v>0.34999999999999992</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" ht="21">
+        <f>AVERAGE(K9:K60)</f>
+        <v>0.84807692307692228</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" ht="21" x14ac:dyDescent="0.25">
       <c r="A9" s="56"/>
       <c r="B9" s="110">
+        <f>ROW()-8</f>
         <v>1</v>
       </c>
       <c r="C9" s="58" t="s">
@@ -11779,9 +11783,10 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="21">
+    <row r="10" spans="1:15" ht="21" x14ac:dyDescent="0.25">
       <c r="A10" s="56"/>
       <c r="B10" s="110">
+        <f t="shared" ref="B10:B60" si="4">ROW()-8</f>
         <v>2</v>
       </c>
       <c r="C10" s="58" t="s">
@@ -11814,9 +11819,10 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="21">
+    <row r="11" spans="1:15" ht="21" x14ac:dyDescent="0.25">
       <c r="A11" s="56"/>
       <c r="B11" s="110">
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="C11" s="58" t="s">
@@ -11838,18 +11844,21 @@
       <c r="H11" s="59">
         <v>44747</v>
       </c>
-      <c r="I11" s="59"/>
+      <c r="I11" s="59">
+        <v>44748</v>
+      </c>
       <c r="J11" s="60">
         <f t="shared" si="1"/>
-        <v>-44747</v>
+        <v>1</v>
       </c>
       <c r="K11" s="61">
-        <v>0.85</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" ht="21">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" ht="21" x14ac:dyDescent="0.25">
       <c r="A12" s="56"/>
       <c r="B12" s="110">
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="C12" s="108" t="s">
@@ -11871,18 +11880,21 @@
       <c r="H12" s="59">
         <v>44748</v>
       </c>
-      <c r="I12" s="59"/>
+      <c r="I12" s="59">
+        <v>44748</v>
+      </c>
       <c r="J12" s="60">
         <f t="shared" si="1"/>
-        <v>-44748</v>
+        <v>0</v>
       </c>
       <c r="K12" s="61">
-        <v>0.85</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" ht="21">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" ht="21" x14ac:dyDescent="0.25">
       <c r="A13" s="56"/>
       <c r="B13" s="110">
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="C13" s="58" t="s">
@@ -11915,9 +11927,10 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="21">
+    <row r="14" spans="1:15" ht="21" x14ac:dyDescent="0.25">
       <c r="A14" s="56"/>
       <c r="B14" s="110">
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="C14" s="58" t="s">
@@ -11939,18 +11952,21 @@
       <c r="H14" s="59">
         <v>44748</v>
       </c>
-      <c r="I14" s="59"/>
+      <c r="I14" s="106">
+        <v>44749</v>
+      </c>
       <c r="J14" s="60">
         <f t="shared" si="1"/>
-        <v>-44748</v>
+        <v>1</v>
       </c>
       <c r="K14" s="61">
-        <v>0.85</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" ht="21">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" ht="21" x14ac:dyDescent="0.25">
       <c r="A15" s="56"/>
       <c r="B15" s="110">
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
       <c r="C15" s="58" t="s">
@@ -11983,9 +11999,10 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="21">
+    <row r="16" spans="1:15" ht="21" x14ac:dyDescent="0.25">
       <c r="A16" s="56"/>
       <c r="B16" s="110">
+        <f t="shared" si="4"/>
         <v>8</v>
       </c>
       <c r="C16" s="58" t="s">
@@ -12001,7 +12018,7 @@
         <v>44748</v>
       </c>
       <c r="G16" s="58">
-        <f t="shared" ref="G16:G27" si="4">F16-E16</f>
+        <f t="shared" ref="G16:G26" si="5">F16-E16</f>
         <v>1</v>
       </c>
       <c r="H16" s="59">
@@ -12011,16 +12028,17 @@
         <v>44748</v>
       </c>
       <c r="J16" s="60">
-        <f t="shared" ref="J16:J27" si="5">I16-H16</f>
+        <f t="shared" ref="J16:J26" si="6">I16-H16</f>
         <v>1</v>
       </c>
       <c r="K16" s="61">
         <v>0.9</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="21">
+    <row r="17" spans="1:11" ht="21" x14ac:dyDescent="0.25">
       <c r="A17" s="56"/>
       <c r="B17" s="110">
+        <f t="shared" si="4"/>
         <v>9</v>
       </c>
       <c r="C17" s="58" t="s">
@@ -12036,24 +12054,27 @@
         <v>44748</v>
       </c>
       <c r="G17" s="58">
-        <f t="shared" ref="G17" si="6">F17-E17</f>
+        <f t="shared" ref="G17" si="7">F17-E17</f>
         <v>1</v>
       </c>
       <c r="H17" s="59">
         <v>44747</v>
       </c>
-      <c r="I17" s="59"/>
+      <c r="I17" s="59">
+        <v>44748</v>
+      </c>
       <c r="J17" s="60">
-        <f t="shared" ref="J17" si="7">I17-H17</f>
-        <v>-44747</v>
+        <f t="shared" ref="J17" si="8">I17-H17</f>
+        <v>1</v>
       </c>
       <c r="K17" s="61">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" ht="21">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="21" x14ac:dyDescent="0.25">
       <c r="A18" s="56"/>
       <c r="B18" s="110">
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="C18" s="58" t="s">
@@ -12069,7 +12090,7 @@
         <v>44749</v>
       </c>
       <c r="G18" s="58">
-        <f t="shared" ref="G18" si="8">F18-E18</f>
+        <f t="shared" ref="G18" si="9">F18-E18</f>
         <v>2</v>
       </c>
       <c r="H18" s="59">
@@ -12079,16 +12100,17 @@
         <v>44749</v>
       </c>
       <c r="J18" s="60">
-        <f t="shared" ref="J18" si="9">I18-H18</f>
+        <f t="shared" ref="J18" si="10">I18-H18</f>
         <v>2</v>
       </c>
       <c r="K18" s="61">
         <v>0.9</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="21">
+    <row r="19" spans="1:11" ht="21" x14ac:dyDescent="0.25">
       <c r="A19" s="56"/>
       <c r="B19" s="110">
+        <f t="shared" si="4"/>
         <v>11</v>
       </c>
       <c r="C19" s="58" t="s">
@@ -12104,7 +12126,7 @@
         <v>44749</v>
       </c>
       <c r="G19" s="58">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="H19" s="59">
@@ -12114,16 +12136,17 @@
         <v>44749</v>
       </c>
       <c r="J19" s="60">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="K19" s="61">
         <v>0.9</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="21">
+    <row r="20" spans="1:11" ht="21" x14ac:dyDescent="0.25">
       <c r="A20" s="56"/>
       <c r="B20" s="110">
+        <f t="shared" si="4"/>
         <v>12</v>
       </c>
       <c r="C20" s="58" t="s">
@@ -12139,24 +12162,27 @@
         <v>44749</v>
       </c>
       <c r="G20" s="58">
-        <f t="shared" ref="G20:G26" si="10">F20-E20</f>
+        <f t="shared" ref="G20:G24" si="11">F20-E20</f>
         <v>1</v>
       </c>
       <c r="H20" s="59">
         <v>44747</v>
       </c>
-      <c r="I20" s="59"/>
+      <c r="I20" s="59">
+        <v>44749</v>
+      </c>
       <c r="J20" s="60">
-        <f t="shared" ref="J20:J26" si="11">I20-H20</f>
-        <v>-44747</v>
+        <f t="shared" ref="J20:J24" si="12">I20-H20</f>
+        <v>2</v>
       </c>
       <c r="K20" s="61">
-        <v>0.85</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" ht="21">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="21" x14ac:dyDescent="0.25">
       <c r="A21" s="56"/>
       <c r="B21" s="110">
+        <f t="shared" si="4"/>
         <v>13</v>
       </c>
       <c r="C21" s="58" t="s">
@@ -12172,24 +12198,27 @@
         <v>44750</v>
       </c>
       <c r="G21" s="58">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="H21" s="59">
         <v>44749</v>
       </c>
-      <c r="I21" s="105"/>
+      <c r="I21" s="105">
+        <v>44750</v>
+      </c>
       <c r="J21" s="60">
-        <f t="shared" si="11"/>
-        <v>-44749</v>
+        <f t="shared" si="12"/>
+        <v>1</v>
       </c>
       <c r="K21" s="61">
-        <v>0.85</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" ht="21">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="21" x14ac:dyDescent="0.25">
       <c r="A22" s="56"/>
       <c r="B22" s="110">
+        <f t="shared" si="4"/>
         <v>14</v>
       </c>
       <c r="C22" s="58" t="s">
@@ -12205,7 +12234,7 @@
         <v>44750</v>
       </c>
       <c r="G22" s="58">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>2</v>
       </c>
       <c r="H22" s="59">
@@ -12215,16 +12244,17 @@
         <v>44750</v>
       </c>
       <c r="J22" s="60">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>2</v>
       </c>
       <c r="K22" s="61">
         <v>0.9</v>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="21">
+    <row r="23" spans="1:11" ht="21" x14ac:dyDescent="0.25">
       <c r="A23" s="56"/>
       <c r="B23" s="110">
+        <f t="shared" si="4"/>
         <v>15</v>
       </c>
       <c r="C23" s="58" t="s">
@@ -12240,7 +12270,7 @@
         <v>44751</v>
       </c>
       <c r="G23" s="58">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="H23" s="59">
@@ -12250,16 +12280,17 @@
         <v>44750</v>
       </c>
       <c r="J23" s="60">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="K23" s="61">
         <v>0.9</v>
       </c>
     </row>
-    <row r="24" spans="1:12" ht="21">
+    <row r="24" spans="1:11" ht="21" x14ac:dyDescent="0.25">
       <c r="A24" s="56"/>
       <c r="B24" s="110">
+        <f t="shared" si="4"/>
         <v>16</v>
       </c>
       <c r="C24" s="58" t="s">
@@ -12275,7 +12306,7 @@
         <v>44750</v>
       </c>
       <c r="G24" s="58">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>3</v>
       </c>
       <c r="H24" s="59">
@@ -12285,16 +12316,17 @@
         <v>44749</v>
       </c>
       <c r="J24" s="60">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>2</v>
       </c>
       <c r="K24" s="61">
         <v>0.9</v>
       </c>
     </row>
-    <row r="25" spans="1:12" ht="21">
+    <row r="25" spans="1:11" ht="21" x14ac:dyDescent="0.25">
       <c r="A25" s="56"/>
       <c r="B25" s="110">
+        <f t="shared" si="4"/>
         <v>17</v>
       </c>
       <c r="C25" s="58" t="s">
@@ -12327,59 +12359,62 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="26" spans="1:12" ht="21">
+    <row r="26" spans="1:11" ht="21" x14ac:dyDescent="0.25">
       <c r="A26" s="56"/>
-      <c r="B26" s="111">
+      <c r="B26" s="110">
+        <f t="shared" si="4"/>
         <v>18</v>
       </c>
-      <c r="C26" s="112" t="s">
-        <v>115</v>
-      </c>
-      <c r="D26" s="112" t="s">
+      <c r="C26" s="58" t="s">
+        <v>116</v>
+      </c>
+      <c r="D26" s="58" t="s">
         <v>135</v>
       </c>
-      <c r="E26" s="113">
+      <c r="E26" s="105">
         <v>44750</v>
       </c>
-      <c r="F26" s="114">
+      <c r="F26" s="59">
         <v>44751</v>
       </c>
-      <c r="G26" s="112">
-        <f t="shared" si="10"/>
+      <c r="G26" s="58">
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="H26" s="114"/>
-      <c r="I26" s="114"/>
-      <c r="J26" s="115">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="K26" s="116">
-        <v>0</v>
-      </c>
-      <c r="L26" s="117" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" ht="21">
+      <c r="H26" s="59">
+        <v>44749</v>
+      </c>
+      <c r="I26" s="59">
+        <v>44750</v>
+      </c>
+      <c r="J26" s="60">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="K26" s="61">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" ht="21" x14ac:dyDescent="0.25">
       <c r="A27" s="56"/>
       <c r="B27" s="110">
+        <f t="shared" si="4"/>
         <v>19</v>
       </c>
       <c r="C27" s="58" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D27" s="58" t="s">
-        <v>135</v>
-      </c>
-      <c r="E27" s="105">
+        <v>134</v>
+      </c>
+      <c r="E27" s="59">
+        <v>44749</v>
+      </c>
+      <c r="F27" s="59">
         <v>44750</v>
       </c>
-      <c r="F27" s="59">
-        <v>44751</v>
-      </c>
       <c r="G27" s="58">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="G27:G32" si="13">F27-E27</f>
         <v>1</v>
       </c>
       <c r="H27" s="59">
@@ -12389,87 +12424,96 @@
         <v>44750</v>
       </c>
       <c r="J27" s="60">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="J27:J31" si="14">I27-H27</f>
         <v>1</v>
       </c>
       <c r="K27" s="61">
         <v>0.9</v>
       </c>
     </row>
-    <row r="28" spans="1:12" ht="21">
+    <row r="28" spans="1:11" ht="21" x14ac:dyDescent="0.25">
       <c r="A28" s="56"/>
       <c r="B28" s="110">
+        <f t="shared" si="4"/>
         <v>20</v>
       </c>
       <c r="C28" s="58" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="D28" s="58" t="s">
         <v>134</v>
       </c>
       <c r="E28" s="59">
-        <v>44749</v>
+        <v>44750</v>
       </c>
       <c r="F28" s="59">
+        <v>44751</v>
+      </c>
+      <c r="G28" s="58">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="H28" s="59">
         <v>44750</v>
       </c>
-      <c r="G28" s="58">
-        <f t="shared" ref="G28:G33" si="12">F28-E28</f>
+      <c r="I28" s="59">
+        <v>44751</v>
+      </c>
+      <c r="J28" s="60">
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
-      <c r="H28" s="59">
-        <v>44749</v>
-      </c>
-      <c r="I28" s="59"/>
-      <c r="J28" s="60">
-        <f t="shared" ref="J28:J32" si="13">I28-H28</f>
-        <v>-44749</v>
-      </c>
       <c r="K28" s="61">
-        <v>0.85</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" ht="21">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" ht="21" x14ac:dyDescent="0.25">
       <c r="A29" s="56"/>
       <c r="B29" s="110">
+        <f t="shared" si="4"/>
         <v>21</v>
       </c>
       <c r="C29" s="58" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D29" s="58" t="s">
         <v>134</v>
       </c>
       <c r="E29" s="59">
+        <v>44751</v>
+      </c>
+      <c r="F29" s="59">
+        <v>44752</v>
+      </c>
+      <c r="G29" s="58">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="H29" s="59">
         <v>44750</v>
       </c>
-      <c r="F29" s="59">
+      <c r="I29" s="59">
         <v>44751</v>
       </c>
-      <c r="G29" s="58">
-        <f t="shared" si="12"/>
+      <c r="J29" s="60">
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
-      <c r="H29" s="59"/>
-      <c r="I29" s="59"/>
-      <c r="J29" s="60">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
       <c r="K29" s="61">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" ht="21">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" ht="21" x14ac:dyDescent="0.25">
       <c r="A30" s="56"/>
       <c r="B30" s="110">
+        <f t="shared" si="4"/>
         <v>22</v>
       </c>
       <c r="C30" s="58" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D30" s="58" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E30" s="59">
         <v>44751</v>
@@ -12478,26 +12522,31 @@
         <v>44752</v>
       </c>
       <c r="G30" s="58">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
-      <c r="H30" s="59"/>
-      <c r="I30" s="59"/>
+      <c r="H30" s="59">
+        <v>44751</v>
+      </c>
+      <c r="I30" s="59">
+        <v>44752</v>
+      </c>
       <c r="J30" s="60">
-        <f t="shared" si="13"/>
-        <v>0</v>
+        <f t="shared" si="14"/>
+        <v>1</v>
       </c>
       <c r="K30" s="61">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" ht="21">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" ht="21" x14ac:dyDescent="0.25">
       <c r="A31" s="56"/>
       <c r="B31" s="110">
+        <f t="shared" si="4"/>
         <v>23</v>
       </c>
       <c r="C31" s="58" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D31" s="58" t="s">
         <v>135</v>
@@ -12509,29 +12558,34 @@
         <v>44752</v>
       </c>
       <c r="G31" s="58">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
-      <c r="H31" s="59"/>
-      <c r="I31" s="59"/>
+      <c r="H31" s="59">
+        <v>44748</v>
+      </c>
+      <c r="I31" s="59">
+        <v>44749</v>
+      </c>
       <c r="J31" s="60">
-        <f t="shared" si="13"/>
-        <v>0</v>
+        <f t="shared" si="14"/>
+        <v>1</v>
       </c>
       <c r="K31" s="61">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" ht="21">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" ht="21" x14ac:dyDescent="0.25">
       <c r="A32" s="56"/>
       <c r="B32" s="110">
+        <f t="shared" si="4"/>
         <v>24</v>
       </c>
       <c r="C32" s="58" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="D32" s="58" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="E32" s="59">
         <v>44751</v>
@@ -12540,30 +12594,31 @@
         <v>44752</v>
       </c>
       <c r="G32" s="58">
-        <f t="shared" si="12"/>
-        <v>1</v>
-      </c>
-      <c r="H32" s="59">
-        <v>44748</v>
-      </c>
-      <c r="I32" s="59">
-        <v>44749</v>
-      </c>
-      <c r="J32" s="60">
         <f t="shared" si="13"/>
         <v>1</v>
       </c>
+      <c r="H32" s="59">
+        <v>44746</v>
+      </c>
+      <c r="I32" s="59">
+        <v>44748</v>
+      </c>
+      <c r="J32" s="60">
+        <f t="shared" ref="J32:J34" si="15">I32-H32</f>
+        <v>2</v>
+      </c>
       <c r="K32" s="61">
         <v>0.9</v>
       </c>
     </row>
-    <row r="33" spans="1:11" ht="21">
+    <row r="33" spans="1:12" ht="21" x14ac:dyDescent="0.25">
       <c r="A33" s="56"/>
       <c r="B33" s="110">
+        <f t="shared" si="4"/>
         <v>25</v>
       </c>
       <c r="C33" s="58" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D33" s="58" t="s">
         <v>130</v>
@@ -12575,52 +12630,67 @@
         <v>44752</v>
       </c>
       <c r="G33" s="58">
-        <f t="shared" si="12"/>
+        <f t="shared" ref="G33" si="16">F33-E33</f>
         <v>1</v>
       </c>
       <c r="H33" s="59">
-        <v>44746</v>
+        <v>44751</v>
       </c>
       <c r="I33" s="59">
-        <v>44748</v>
+        <v>44752</v>
       </c>
       <c r="J33" s="60">
-        <f t="shared" ref="J33:J35" si="14">I33-H33</f>
-        <v>2</v>
+        <f t="shared" si="15"/>
+        <v>1</v>
       </c>
       <c r="K33" s="61">
         <v>0.9</v>
       </c>
     </row>
-    <row r="34" spans="1:11" ht="21">
+    <row r="34" spans="1:12" ht="21" x14ac:dyDescent="0.25">
       <c r="A34" s="56"/>
-      <c r="B34" s="110">
+      <c r="B34" s="156">
+        <f t="shared" si="4"/>
         <v>26</v>
       </c>
       <c r="C34" s="58" t="s">
-        <v>138</v>
-      </c>
-      <c r="D34" s="58"/>
-      <c r="E34" s="59"/>
-      <c r="F34" s="59"/>
-      <c r="G34" s="58"/>
-      <c r="H34" s="59"/>
-      <c r="I34" s="59"/>
+        <v>139</v>
+      </c>
+      <c r="D34" s="58" t="s">
+        <v>132</v>
+      </c>
+      <c r="E34" s="59">
+        <v>44749</v>
+      </c>
+      <c r="F34" s="59">
+        <v>44750</v>
+      </c>
+      <c r="G34" s="58">
+        <f t="shared" ref="G34:G60" si="17">F34-E34</f>
+        <v>1</v>
+      </c>
+      <c r="H34" s="59">
+        <v>44749</v>
+      </c>
+      <c r="I34" s="59">
+        <v>44750</v>
+      </c>
       <c r="J34" s="60">
-        <f t="shared" si="14"/>
-        <v>0</v>
+        <f t="shared" si="15"/>
+        <v>1</v>
       </c>
       <c r="K34" s="61">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" ht="21">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" ht="21" x14ac:dyDescent="0.25">
       <c r="A35" s="56"/>
-      <c r="B35" s="109">
+      <c r="B35" s="156">
+        <f t="shared" si="4"/>
         <v>27</v>
       </c>
       <c r="C35" s="58" t="s">
-        <v>139</v>
+        <v>109</v>
       </c>
       <c r="D35" s="58" t="s">
         <v>132</v>
@@ -12632,7 +12702,7 @@
         <v>44750</v>
       </c>
       <c r="G35" s="58">
-        <f t="shared" ref="G35:G70" si="15">F35-E35</f>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="H35" s="59">
@@ -12642,55 +12712,57 @@
         <v>44750</v>
       </c>
       <c r="J35" s="60">
-        <f t="shared" si="14"/>
+        <f t="shared" ref="J35:J60" si="18">I35-H35</f>
         <v>1</v>
       </c>
       <c r="K35" s="61">
         <v>0.9</v>
       </c>
     </row>
-    <row r="36" spans="1:11" ht="21">
+    <row r="36" spans="1:12" ht="21" x14ac:dyDescent="0.25">
       <c r="A36" s="56"/>
-      <c r="B36" s="109">
+      <c r="B36" s="156">
+        <f t="shared" si="4"/>
         <v>28</v>
       </c>
       <c r="C36" s="58" t="s">
-        <v>109</v>
+        <v>153</v>
       </c>
       <c r="D36" s="58" t="s">
         <v>132</v>
       </c>
       <c r="E36" s="59">
-        <v>44749</v>
+        <v>44750</v>
       </c>
       <c r="F36" s="59">
+        <v>44751</v>
+      </c>
+      <c r="G36" s="58">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+      <c r="H36" s="59">
         <v>44750</v>
       </c>
-      <c r="G36" s="58">
-        <f t="shared" si="15"/>
-        <v>1</v>
-      </c>
-      <c r="H36" s="59">
-        <v>44749</v>
-      </c>
       <c r="I36" s="59">
-        <v>44750</v>
+        <v>44751</v>
       </c>
       <c r="J36" s="60">
-        <f t="shared" ref="J36:J72" si="16">I36-H36</f>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="K36" s="61">
         <v>0.9</v>
       </c>
     </row>
-    <row r="37" spans="1:11" ht="21">
+    <row r="37" spans="1:12" ht="21" x14ac:dyDescent="0.25">
       <c r="A37" s="56"/>
-      <c r="B37" s="109">
+      <c r="B37" s="156">
+        <f t="shared" si="4"/>
         <v>29</v>
       </c>
       <c r="C37" s="58" t="s">
-        <v>153</v>
+        <v>140</v>
       </c>
       <c r="D37" s="58" t="s">
         <v>132</v>
@@ -12702,59 +12774,67 @@
         <v>44751</v>
       </c>
       <c r="G37" s="58">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
-      <c r="H37" s="59"/>
-      <c r="I37" s="59"/>
+      <c r="H37" s="59">
+        <v>44748</v>
+      </c>
+      <c r="I37" s="59">
+        <v>44751</v>
+      </c>
       <c r="J37" s="60">
-        <f t="shared" si="16"/>
-        <v>0</v>
+        <f t="shared" si="18"/>
+        <v>3</v>
       </c>
       <c r="K37" s="61">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" ht="21">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" ht="21" x14ac:dyDescent="0.25">
       <c r="A38" s="56"/>
-      <c r="B38" s="109">
+      <c r="B38" s="156">
+        <f t="shared" si="4"/>
         <v>30</v>
       </c>
       <c r="C38" s="58" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D38" s="58" t="s">
         <v>132</v>
       </c>
       <c r="E38" s="59">
-        <v>44750</v>
+        <v>44751</v>
       </c>
       <c r="F38" s="59">
+        <v>44752</v>
+      </c>
+      <c r="G38" s="58">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+      <c r="H38" s="59">
         <v>44751</v>
       </c>
-      <c r="G38" s="58">
-        <f t="shared" si="15"/>
+      <c r="I38" s="59">
+        <v>44752</v>
+      </c>
+      <c r="J38" s="60">
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
-      <c r="H38" s="59">
-        <v>44748</v>
-      </c>
-      <c r="I38" s="59"/>
-      <c r="J38" s="60">
-        <f t="shared" si="16"/>
-        <v>-44748</v>
-      </c>
       <c r="K38" s="61">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" ht="21">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" ht="21" x14ac:dyDescent="0.25">
       <c r="A39" s="56"/>
-      <c r="B39" s="109">
+      <c r="B39" s="156">
+        <f t="shared" si="4"/>
         <v>31</v>
       </c>
       <c r="C39" s="58" t="s">
-        <v>141</v>
+        <v>175</v>
       </c>
       <c r="D39" s="58" t="s">
         <v>132</v>
@@ -12766,22 +12846,27 @@
         <v>44752</v>
       </c>
       <c r="G39" s="58">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
-      <c r="H39" s="59"/>
-      <c r="I39" s="59"/>
+      <c r="H39" s="59">
+        <v>44751</v>
+      </c>
+      <c r="I39" s="59">
+        <v>44752</v>
+      </c>
       <c r="J39" s="60">
-        <f t="shared" si="16"/>
-        <v>0</v>
+        <f t="shared" si="18"/>
+        <v>1</v>
       </c>
       <c r="K39" s="61">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" ht="21">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" ht="21" x14ac:dyDescent="0.25">
       <c r="A40" s="56"/>
-      <c r="B40" s="109">
+      <c r="B40" s="156">
+        <f t="shared" si="4"/>
         <v>32</v>
       </c>
       <c r="C40" s="58" t="s">
@@ -12797,57 +12882,67 @@
         <v>44752</v>
       </c>
       <c r="G40" s="58">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
-      <c r="H40" s="59"/>
-      <c r="I40" s="59"/>
+      <c r="H40" s="59">
+        <v>44751</v>
+      </c>
+      <c r="I40" s="59">
+        <v>44752</v>
+      </c>
       <c r="J40" s="60">
-        <f t="shared" si="16"/>
-        <v>0</v>
+        <f t="shared" si="18"/>
+        <v>1</v>
       </c>
       <c r="K40" s="61">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" ht="21">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" ht="21" x14ac:dyDescent="0.25">
       <c r="A41" s="56"/>
-      <c r="B41" s="109">
+      <c r="B41" s="156">
+        <f t="shared" si="4"/>
         <v>33</v>
       </c>
       <c r="C41" s="58" t="s">
-        <v>177</v>
-      </c>
-      <c r="D41" s="58" t="s">
-        <v>132</v>
+        <v>142</v>
+      </c>
+      <c r="D41" s="59" t="s">
+        <v>134</v>
       </c>
       <c r="E41" s="59">
-        <v>44751</v>
+        <v>44752</v>
       </c>
       <c r="F41" s="59">
+        <v>44753</v>
+      </c>
+      <c r="G41" s="58">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+      <c r="H41" s="59">
         <v>44752</v>
       </c>
-      <c r="G41" s="58">
-        <f t="shared" si="15"/>
+      <c r="I41" s="59">
+        <v>44753</v>
+      </c>
+      <c r="J41" s="60">
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
-      <c r="H41" s="59"/>
-      <c r="I41" s="59"/>
-      <c r="J41" s="60">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
       <c r="K41" s="61">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" ht="21">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" ht="21" x14ac:dyDescent="0.25">
       <c r="A42" s="56"/>
-      <c r="B42" s="109">
+      <c r="B42" s="156">
+        <f t="shared" si="4"/>
         <v>34</v>
       </c>
       <c r="C42" s="58" t="s">
-        <v>142</v>
+        <v>167</v>
       </c>
       <c r="D42" s="59" t="s">
         <v>134</v>
@@ -12859,29 +12954,34 @@
         <v>44753</v>
       </c>
       <c r="G42" s="58">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
-      <c r="H42" s="59"/>
-      <c r="I42" s="59"/>
+      <c r="H42" s="59">
+        <v>44752</v>
+      </c>
+      <c r="I42" s="59">
+        <v>44753</v>
+      </c>
       <c r="J42" s="60">
-        <f t="shared" si="16"/>
-        <v>0</v>
+        <f t="shared" si="18"/>
+        <v>1</v>
       </c>
       <c r="K42" s="61">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" ht="21">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" ht="21" x14ac:dyDescent="0.25">
       <c r="A43" s="56"/>
-      <c r="B43" s="109">
+      <c r="B43" s="156">
+        <f t="shared" si="4"/>
         <v>35</v>
       </c>
       <c r="C43" s="58" t="s">
-        <v>167</v>
-      </c>
-      <c r="D43" s="59" t="s">
-        <v>134</v>
+        <v>173</v>
+      </c>
+      <c r="D43" s="157" t="s">
+        <v>130</v>
       </c>
       <c r="E43" s="59">
         <v>44752</v>
@@ -12890,246 +12990,285 @@
         <v>44753</v>
       </c>
       <c r="G43" s="58">
-        <f t="shared" si="15"/>
+        <f t="shared" ref="G43" si="19">F43-E43</f>
         <v>1</v>
       </c>
-      <c r="H43" s="59"/>
-      <c r="I43" s="59"/>
+      <c r="H43" s="59">
+        <v>44752</v>
+      </c>
+      <c r="I43" s="59">
+        <v>44753</v>
+      </c>
       <c r="J43" s="60">
-        <f t="shared" si="16"/>
-        <v>0</v>
+        <f t="shared" ref="J43" si="20">I43-H43</f>
+        <v>1</v>
       </c>
       <c r="K43" s="61">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" ht="21">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" ht="21" x14ac:dyDescent="0.25">
       <c r="A44" s="56"/>
-      <c r="B44" s="109">
+      <c r="B44" s="156">
+        <f t="shared" si="4"/>
         <v>36</v>
       </c>
       <c r="C44" s="58" t="s">
-        <v>143</v>
-      </c>
-      <c r="D44" s="58" t="s">
-        <v>131</v>
+        <v>179</v>
+      </c>
+      <c r="D44" s="59" t="s">
+        <v>134</v>
       </c>
       <c r="E44" s="59">
-        <v>44750</v>
+        <v>44753</v>
       </c>
       <c r="F44" s="59">
-        <v>44751</v>
+        <v>44754</v>
       </c>
       <c r="G44" s="58">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="H44" s="59"/>
       <c r="I44" s="59"/>
       <c r="J44" s="60">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="K44" s="61">
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:11" ht="21">
+    <row r="45" spans="1:12" ht="21" x14ac:dyDescent="0.25">
       <c r="A45" s="56"/>
-      <c r="B45" s="109">
+      <c r="B45" s="156">
+        <f t="shared" si="4"/>
         <v>37</v>
       </c>
       <c r="C45" s="58" t="s">
-        <v>144</v>
-      </c>
-      <c r="D45" s="58" t="s">
-        <v>131</v>
+        <v>151</v>
+      </c>
+      <c r="D45" s="59" t="s">
+        <v>134</v>
       </c>
       <c r="E45" s="59">
+        <v>44753</v>
+      </c>
+      <c r="F45" s="59">
+        <v>44754</v>
+      </c>
+      <c r="G45" s="58">
+        <f t="shared" ref="G45" si="21">F45-E45</f>
+        <v>1</v>
+      </c>
+      <c r="H45" s="59">
+        <v>44753</v>
+      </c>
+      <c r="I45" s="59">
+        <v>44754</v>
+      </c>
+      <c r="J45" s="60">
+        <f t="shared" ref="J45" si="22">I45-H45</f>
+        <v>1</v>
+      </c>
+      <c r="K45" s="61">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" ht="21" x14ac:dyDescent="0.25">
+      <c r="A46" s="56"/>
+      <c r="B46" s="156">
+        <f t="shared" si="4"/>
+        <v>38</v>
+      </c>
+      <c r="C46" s="58" t="s">
+        <v>152</v>
+      </c>
+      <c r="D46" s="117" t="s">
+        <v>133</v>
+      </c>
+      <c r="E46" s="59">
+        <v>44750</v>
+      </c>
+      <c r="F46" s="105">
         <v>44751</v>
       </c>
-      <c r="F45" s="59">
+      <c r="G46" s="58">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+      <c r="H46" s="59">
+        <v>44750</v>
+      </c>
+      <c r="I46" s="105">
+        <v>44751</v>
+      </c>
+      <c r="J46" s="60">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="K46" s="61">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" ht="21" x14ac:dyDescent="0.25">
+      <c r="A47" s="56"/>
+      <c r="B47" s="156">
+        <f t="shared" si="4"/>
+        <v>39</v>
+      </c>
+      <c r="C47" s="58" t="s">
+        <v>154</v>
+      </c>
+      <c r="D47" s="58" t="s">
+        <v>133</v>
+      </c>
+      <c r="E47" s="105">
+        <v>44751</v>
+      </c>
+      <c r="F47" s="105">
         <v>44752</v>
       </c>
-      <c r="G45" s="58">
-        <f t="shared" si="15"/>
+      <c r="G47" s="58">
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
-      <c r="H45" s="59"/>
-      <c r="I45" s="59"/>
-      <c r="J45" s="60">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="K45" s="61">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" ht="21">
-      <c r="A46" s="56"/>
-      <c r="B46" s="109">
-        <v>38</v>
-      </c>
-      <c r="C46" s="58" t="s">
-        <v>145</v>
-      </c>
-      <c r="D46" s="58" t="s">
-        <v>131</v>
-      </c>
-      <c r="E46" s="59">
+      <c r="H47" s="59">
+        <v>44750</v>
+      </c>
+      <c r="I47" s="105">
+        <v>44751</v>
+      </c>
+      <c r="J47" s="60">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="K47" s="61">
+        <v>0.9</v>
+      </c>
+      <c r="L47" s="116" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" ht="21" x14ac:dyDescent="0.25">
+      <c r="A48" s="56"/>
+      <c r="B48" s="156">
+        <f t="shared" si="4"/>
+        <v>40</v>
+      </c>
+      <c r="C48" s="58" t="s">
+        <v>169</v>
+      </c>
+      <c r="D48" s="58" t="s">
+        <v>132</v>
+      </c>
+      <c r="E48" s="59">
+        <v>44751</v>
+      </c>
+      <c r="F48" s="59">
         <v>44752</v>
       </c>
-      <c r="F46" s="59">
+      <c r="G48" s="58">
+        <f t="shared" ref="G48:G49" si="23">F48-E48</f>
+        <v>1</v>
+      </c>
+      <c r="H48" s="59">
+        <v>44751</v>
+      </c>
+      <c r="I48" s="59">
+        <v>44752</v>
+      </c>
+      <c r="J48" s="60">
+        <f t="shared" ref="J48:J49" si="24">I48-H48</f>
+        <v>1</v>
+      </c>
+      <c r="K48" s="61">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" ht="21" x14ac:dyDescent="0.25">
+      <c r="A49" s="56"/>
+      <c r="B49" s="156">
+        <f t="shared" si="4"/>
+        <v>41</v>
+      </c>
+      <c r="C49" s="58" t="s">
+        <v>180</v>
+      </c>
+      <c r="D49" s="58" t="s">
+        <v>132</v>
+      </c>
+      <c r="E49" s="59">
+        <v>44751</v>
+      </c>
+      <c r="F49" s="59">
+        <v>44752</v>
+      </c>
+      <c r="G49" s="58">
+        <f t="shared" si="23"/>
+        <v>1</v>
+      </c>
+      <c r="H49" s="59">
+        <v>44751</v>
+      </c>
+      <c r="I49" s="59">
+        <v>44752</v>
+      </c>
+      <c r="J49" s="60">
+        <f t="shared" si="24"/>
+        <v>1</v>
+      </c>
+      <c r="K49" s="61">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" ht="21" x14ac:dyDescent="0.25">
+      <c r="A50" s="56"/>
+      <c r="B50" s="156">
+        <f t="shared" si="4"/>
+        <v>42</v>
+      </c>
+      <c r="C50" s="58" t="s">
+        <v>168</v>
+      </c>
+      <c r="D50" s="59" t="s">
+        <v>134</v>
+      </c>
+      <c r="E50" s="59">
         <v>44753</v>
       </c>
-      <c r="G46" s="58">
-        <f t="shared" si="15"/>
+      <c r="F50" s="59">
+        <v>44754</v>
+      </c>
+      <c r="G50" s="58">
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
-      <c r="H46" s="59"/>
-      <c r="I46" s="59"/>
-      <c r="J46" s="60">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="K46" s="61">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" ht="21">
-      <c r="A47" s="56"/>
-      <c r="B47" s="109">
-        <v>39</v>
-      </c>
-      <c r="C47" s="58" t="s">
-        <v>146</v>
-      </c>
-      <c r="D47" s="58" t="s">
-        <v>131</v>
-      </c>
-      <c r="E47" s="59">
-        <v>44751</v>
-      </c>
-      <c r="F47" s="59">
-        <v>44752</v>
-      </c>
-      <c r="G47" s="58">
-        <f t="shared" si="15"/>
+      <c r="H50" s="59">
+        <v>44753</v>
+      </c>
+      <c r="I50" s="59">
+        <v>44754</v>
+      </c>
+      <c r="J50" s="60">
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
-      <c r="H47" s="59"/>
-      <c r="I47" s="59"/>
-      <c r="J47" s="60">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="K47" s="61">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" ht="21">
-      <c r="A48" s="56"/>
-      <c r="B48" s="109">
-        <v>40</v>
-      </c>
-      <c r="C48" s="58" t="s">
-        <v>147</v>
-      </c>
-      <c r="D48" s="58" t="s">
-        <v>130</v>
-      </c>
-      <c r="E48" s="59">
-        <v>44752</v>
-      </c>
-      <c r="F48" s="59">
-        <v>44753</v>
-      </c>
-      <c r="G48" s="58">
-        <f t="shared" si="15"/>
-        <v>1</v>
-      </c>
-      <c r="H48" s="59"/>
-      <c r="I48" s="59"/>
-      <c r="J48" s="60">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="K48" s="61">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:12" ht="21">
-      <c r="A49" s="56"/>
-      <c r="B49" s="109">
-        <v>41</v>
-      </c>
-      <c r="C49" s="58" t="s">
-        <v>148</v>
-      </c>
-      <c r="D49" s="58" t="s">
-        <v>130</v>
-      </c>
-      <c r="E49" s="59">
-        <v>44752</v>
-      </c>
-      <c r="F49" s="59">
-        <v>44753</v>
-      </c>
-      <c r="G49" s="58">
-        <f t="shared" si="15"/>
-        <v>1</v>
-      </c>
-      <c r="H49" s="59"/>
-      <c r="I49" s="59"/>
-      <c r="J49" s="60">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="K49" s="61">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:12" ht="21">
-      <c r="A50" s="56"/>
-      <c r="B50" s="109">
-        <v>42</v>
-      </c>
-      <c r="C50" s="58" t="s">
-        <v>149</v>
-      </c>
-      <c r="D50" s="58" t="s">
-        <v>130</v>
-      </c>
-      <c r="E50" s="59">
-        <v>44752</v>
-      </c>
-      <c r="F50" s="59">
-        <v>44753</v>
-      </c>
-      <c r="G50" s="58">
-        <f t="shared" si="15"/>
-        <v>1</v>
-      </c>
-      <c r="H50" s="59"/>
-      <c r="I50" s="59"/>
-      <c r="J50" s="60">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
       <c r="K50" s="61">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:12" ht="21">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" ht="21" x14ac:dyDescent="0.25">
       <c r="A51" s="56"/>
-      <c r="B51" s="109">
+      <c r="B51" s="156">
+        <f t="shared" si="4"/>
         <v>43</v>
       </c>
       <c r="C51" s="58" t="s">
-        <v>150</v>
-      </c>
-      <c r="D51" s="58" t="s">
-        <v>130</v>
+        <v>157</v>
+      </c>
+      <c r="D51" s="59" t="s">
+        <v>134</v>
       </c>
       <c r="E51" s="59">
         <v>44753</v>
@@ -13138,77 +13277,106 @@
         <v>44754</v>
       </c>
       <c r="G51" s="58">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
-      <c r="H51" s="59"/>
-      <c r="I51" s="59"/>
+      <c r="H51" s="59">
+        <v>44753</v>
+      </c>
+      <c r="I51" s="59">
+        <v>44754</v>
+      </c>
       <c r="J51" s="60">
-        <f t="shared" si="16"/>
-        <v>0</v>
+        <f t="shared" si="18"/>
+        <v>1</v>
       </c>
       <c r="K51" s="61">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:12" ht="21">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" ht="21" x14ac:dyDescent="0.25">
       <c r="A52" s="56"/>
-      <c r="B52" s="109">
+      <c r="B52" s="156">
+        <f t="shared" si="4"/>
         <v>44</v>
       </c>
       <c r="C52" s="58" t="s">
-        <v>174</v>
-      </c>
-      <c r="D52" s="119" t="s">
-        <v>171</v>
-      </c>
-      <c r="E52" s="59"/>
-      <c r="F52" s="59"/>
-      <c r="G52" s="58"/>
-      <c r="H52" s="59"/>
-      <c r="I52" s="59"/>
+        <v>158</v>
+      </c>
+      <c r="D52" s="157" t="s">
+        <v>130</v>
+      </c>
+      <c r="E52" s="59">
+        <v>44753</v>
+      </c>
+      <c r="F52" s="59">
+        <v>44754</v>
+      </c>
+      <c r="G52" s="58">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+      <c r="H52" s="59">
+        <v>44753</v>
+      </c>
+      <c r="I52" s="59">
+        <v>44754</v>
+      </c>
       <c r="J52" s="60">
-        <f t="shared" si="16"/>
-        <v>0</v>
+        <f t="shared" si="18"/>
+        <v>1</v>
       </c>
       <c r="K52" s="61">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:12" ht="21">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" ht="21" x14ac:dyDescent="0.25">
       <c r="A53" s="56"/>
-      <c r="B53" s="109">
+      <c r="B53" s="156">
+        <f t="shared" si="4"/>
         <v>45</v>
       </c>
       <c r="C53" s="58" t="s">
-        <v>175</v>
-      </c>
-      <c r="D53" s="119" t="s">
-        <v>171</v>
-      </c>
-      <c r="E53" s="59"/>
-      <c r="F53" s="59"/>
-      <c r="G53" s="58"/>
-      <c r="H53" s="59"/>
-      <c r="I53" s="59"/>
+        <v>159</v>
+      </c>
+      <c r="D53" s="157" t="s">
+        <v>130</v>
+      </c>
+      <c r="E53" s="59">
+        <v>44753</v>
+      </c>
+      <c r="F53" s="59">
+        <v>44754</v>
+      </c>
+      <c r="G53" s="58">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+      <c r="H53" s="59">
+        <v>44753</v>
+      </c>
+      <c r="I53" s="59">
+        <v>44754</v>
+      </c>
       <c r="J53" s="60">
-        <f t="shared" si="16"/>
-        <v>0</v>
+        <f t="shared" si="18"/>
+        <v>1</v>
       </c>
       <c r="K53" s="61">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:12" ht="21">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" ht="21" x14ac:dyDescent="0.25">
       <c r="A54" s="56"/>
-      <c r="B54" s="109">
+      <c r="B54" s="156">
+        <f t="shared" si="4"/>
         <v>46</v>
       </c>
       <c r="C54" s="58" t="s">
-        <v>151</v>
-      </c>
-      <c r="D54" s="59" t="s">
-        <v>134</v>
+        <v>160</v>
+      </c>
+      <c r="D54" s="157" t="s">
+        <v>130</v>
       </c>
       <c r="E54" s="59">
         <v>44753</v>
@@ -13217,2348 +13385,2033 @@
         <v>44754</v>
       </c>
       <c r="G54" s="58">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
-      <c r="H54" s="59"/>
-      <c r="I54" s="59"/>
+      <c r="H54" s="59">
+        <v>44753</v>
+      </c>
+      <c r="I54" s="59">
+        <v>44754</v>
+      </c>
       <c r="J54" s="60">
-        <f t="shared" si="16"/>
-        <v>0</v>
+        <f t="shared" si="18"/>
+        <v>1</v>
       </c>
       <c r="K54" s="61">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:12" ht="21">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" ht="21" x14ac:dyDescent="0.25">
       <c r="A55" s="56"/>
-      <c r="B55" s="109">
+      <c r="B55" s="156">
+        <f t="shared" si="4"/>
         <v>47</v>
       </c>
       <c r="C55" s="58" t="s">
-        <v>152</v>
-      </c>
-      <c r="D55" s="118" t="s">
-        <v>133</v>
+        <v>161</v>
+      </c>
+      <c r="D55" s="58" t="s">
+        <v>135</v>
       </c>
       <c r="E55" s="59">
-        <v>44750</v>
-      </c>
-      <c r="F55" s="105">
-        <v>44751</v>
+        <v>44752</v>
+      </c>
+      <c r="F55" s="59">
+        <v>44753</v>
       </c>
       <c r="G55" s="58">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="H55" s="59">
-        <v>44750</v>
-      </c>
-      <c r="I55" s="105">
-        <v>44751</v>
+        <v>44753</v>
+      </c>
+      <c r="I55" s="59">
+        <v>44754</v>
       </c>
       <c r="J55" s="60">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="K55" s="61">
         <v>0.9</v>
       </c>
     </row>
-    <row r="56" spans="1:12" ht="21">
+    <row r="56" spans="1:11" ht="21" x14ac:dyDescent="0.25">
       <c r="A56" s="56"/>
-      <c r="B56" s="109">
+      <c r="B56" s="156">
+        <f t="shared" si="4"/>
         <v>48</v>
       </c>
       <c r="C56" s="58" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="D56" s="58" t="s">
-        <v>133</v>
-      </c>
-      <c r="E56" s="105">
-        <v>44751</v>
-      </c>
-      <c r="F56" s="105">
+        <v>135</v>
+      </c>
+      <c r="E56" s="59">
         <v>44752</v>
       </c>
+      <c r="F56" s="59">
+        <v>44753</v>
+      </c>
       <c r="G56" s="58">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="H56" s="59">
-        <v>44750</v>
-      </c>
-      <c r="I56" s="105">
-        <v>44751</v>
+        <v>44752</v>
+      </c>
+      <c r="I56" s="59">
+        <v>44753</v>
       </c>
       <c r="J56" s="60">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="K56" s="61">
         <v>0.9</v>
       </c>
-      <c r="L56" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="57" spans="1:12" ht="21">
+    </row>
+    <row r="57" spans="1:11" ht="21" x14ac:dyDescent="0.25">
       <c r="A57" s="56"/>
-      <c r="B57" s="109">
+      <c r="B57" s="156">
+        <f t="shared" si="4"/>
         <v>49</v>
       </c>
       <c r="C57" s="58" t="s">
-        <v>169</v>
-      </c>
-      <c r="D57" s="119" t="s">
-        <v>171</v>
-      </c>
-      <c r="E57" s="59"/>
-      <c r="F57" s="59"/>
+        <v>163</v>
+      </c>
+      <c r="D57" s="58" t="s">
+        <v>135</v>
+      </c>
+      <c r="E57" s="59">
+        <v>44753</v>
+      </c>
+      <c r="F57" s="59">
+        <v>44754</v>
+      </c>
       <c r="G57" s="58">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="H57" s="59"/>
-      <c r="I57" s="59"/>
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+      <c r="H57" s="59">
+        <v>44753</v>
+      </c>
+      <c r="I57" s="59">
+        <v>44754</v>
+      </c>
       <c r="J57" s="60">
-        <f t="shared" si="16"/>
-        <v>0</v>
+        <f t="shared" si="18"/>
+        <v>1</v>
       </c>
       <c r="K57" s="61">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:12" ht="21">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" ht="21" x14ac:dyDescent="0.25">
       <c r="A58" s="56"/>
-      <c r="B58" s="109">
+      <c r="B58" s="156">
+        <f t="shared" si="4"/>
         <v>50</v>
       </c>
       <c r="C58" s="58" t="s">
-        <v>170</v>
-      </c>
-      <c r="D58" s="119" t="s">
-        <v>171</v>
-      </c>
-      <c r="E58" s="59"/>
-      <c r="F58" s="59"/>
+        <v>164</v>
+      </c>
+      <c r="D58" s="58" t="s">
+        <v>135</v>
+      </c>
+      <c r="E58" s="59">
+        <v>44753</v>
+      </c>
+      <c r="F58" s="59">
+        <v>44754</v>
+      </c>
       <c r="G58" s="58">
-        <f t="shared" si="15"/>
-        <v>0</v>
+        <f t="shared" si="17"/>
+        <v>1</v>
       </c>
       <c r="H58" s="59"/>
       <c r="I58" s="59"/>
       <c r="J58" s="60">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="K58" s="61">
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:12" ht="21">
+    <row r="59" spans="1:11" ht="21" x14ac:dyDescent="0.25">
       <c r="A59" s="56"/>
-      <c r="B59" s="109">
+      <c r="B59" s="156">
+        <f t="shared" si="4"/>
         <v>51</v>
       </c>
       <c r="C59" s="58" t="s">
-        <v>155</v>
-      </c>
-      <c r="D59" s="119" t="s">
-        <v>171</v>
-      </c>
-      <c r="E59" s="59"/>
-      <c r="F59" s="59"/>
+        <v>165</v>
+      </c>
+      <c r="D59" s="58" t="s">
+        <v>135</v>
+      </c>
+      <c r="E59" s="59">
+        <v>44754</v>
+      </c>
+      <c r="F59" s="59">
+        <v>44755</v>
+      </c>
       <c r="G59" s="58">
-        <f t="shared" si="15"/>
-        <v>0</v>
+        <f t="shared" si="17"/>
+        <v>1</v>
       </c>
       <c r="H59" s="59"/>
       <c r="I59" s="59"/>
       <c r="J59" s="60">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="K59" s="61">
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:12" ht="21">
+    <row r="60" spans="1:11" ht="21" x14ac:dyDescent="0.25">
       <c r="A60" s="56"/>
-      <c r="B60" s="109">
+      <c r="B60" s="156">
+        <f t="shared" si="4"/>
         <v>52</v>
       </c>
       <c r="C60" s="58" t="s">
-        <v>156</v>
-      </c>
-      <c r="D60" s="119" t="s">
         <v>171</v>
       </c>
-      <c r="E60" s="59"/>
-      <c r="F60" s="59"/>
+      <c r="D60" s="157" t="s">
+        <v>130</v>
+      </c>
+      <c r="E60" s="59">
+        <v>44752</v>
+      </c>
+      <c r="F60" s="59">
+        <v>44753</v>
+      </c>
       <c r="G60" s="58">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="H60" s="59"/>
-      <c r="I60" s="59"/>
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+      <c r="H60" s="59">
+        <v>44752</v>
+      </c>
+      <c r="I60" s="59">
+        <v>44753</v>
+      </c>
       <c r="J60" s="60">
-        <f t="shared" si="16"/>
-        <v>0</v>
+        <f t="shared" si="18"/>
+        <v>1</v>
       </c>
       <c r="K60" s="61">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:12" ht="21">
-      <c r="A61" s="56"/>
-      <c r="B61" s="109">
-        <v>53</v>
-      </c>
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" ht="21" x14ac:dyDescent="0.25">
+      <c r="A61" s="56">
+        <v>4</v>
+      </c>
+      <c r="B61" s="57"/>
       <c r="C61" s="58" t="s">
-        <v>168</v>
-      </c>
-      <c r="D61" s="59" t="s">
-        <v>134</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="D61" s="58"/>
       <c r="E61" s="59">
+        <v>44748</v>
+      </c>
+      <c r="F61" s="59">
         <v>44753</v>
       </c>
-      <c r="F61" s="59">
-        <v>44754</v>
-      </c>
       <c r="G61" s="58">
-        <f t="shared" si="15"/>
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>5</v>
       </c>
       <c r="H61" s="59"/>
       <c r="I61" s="59"/>
       <c r="J61" s="60">
-        <f t="shared" si="16"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K61" s="61">
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:12" ht="21">
-      <c r="A62" s="56"/>
-      <c r="B62" s="109">
-        <v>54</v>
-      </c>
+    <row r="62" spans="1:11" ht="21" x14ac:dyDescent="0.25">
+      <c r="A62" s="56">
+        <v>5</v>
+      </c>
+      <c r="B62" s="57"/>
       <c r="C62" s="58" t="s">
-        <v>157</v>
-      </c>
-      <c r="D62" s="59" t="s">
-        <v>134</v>
-      </c>
-      <c r="E62" s="59">
-        <v>44753</v>
-      </c>
-      <c r="F62" s="59">
-        <v>44754</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="D62" s="58"/>
+      <c r="E62" s="59"/>
+      <c r="F62" s="59"/>
       <c r="G62" s="58">
-        <f t="shared" si="15"/>
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="H62" s="59"/>
       <c r="I62" s="59"/>
       <c r="J62" s="60">
-        <f t="shared" si="16"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K62" s="61">
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:12" ht="21">
+    <row r="63" spans="1:11" ht="21" x14ac:dyDescent="0.25">
       <c r="A63" s="56"/>
-      <c r="B63" s="109">
-        <v>55</v>
+      <c r="B63" s="110">
+        <v>1</v>
       </c>
       <c r="C63" s="58" t="s">
-        <v>158</v>
-      </c>
-      <c r="D63" s="119" t="s">
-        <v>171</v>
-      </c>
+        <v>125</v>
+      </c>
+      <c r="D63" s="58"/>
       <c r="E63" s="59"/>
       <c r="F63" s="59"/>
       <c r="G63" s="58">
-        <f t="shared" si="15"/>
+        <f t="shared" ref="G63:G78" si="25">F63-E63</f>
         <v>0</v>
       </c>
       <c r="H63" s="59"/>
       <c r="I63" s="59"/>
       <c r="J63" s="60">
-        <f t="shared" si="16"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K63" s="61">
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:12" ht="21">
+    <row r="64" spans="1:11" ht="21" x14ac:dyDescent="0.25">
       <c r="A64" s="56"/>
-      <c r="B64" s="109">
-        <v>56</v>
+      <c r="B64" s="110">
+        <v>2</v>
       </c>
       <c r="C64" s="58" t="s">
-        <v>159</v>
-      </c>
-      <c r="D64" s="119" t="s">
-        <v>171</v>
-      </c>
+        <v>126</v>
+      </c>
+      <c r="D64" s="58"/>
       <c r="E64" s="59"/>
       <c r="F64" s="59"/>
       <c r="G64" s="58">
-        <f t="shared" si="15"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="H64" s="59"/>
       <c r="I64" s="59"/>
       <c r="J64" s="60">
-        <f t="shared" si="16"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K64" s="61">
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:11" ht="21">
+    <row r="65" spans="1:12" ht="21" x14ac:dyDescent="0.25">
       <c r="A65" s="56"/>
-      <c r="B65" s="109">
-        <v>57</v>
+      <c r="B65" s="110">
+        <v>3</v>
       </c>
       <c r="C65" s="58" t="s">
-        <v>160</v>
-      </c>
-      <c r="D65" s="119" t="s">
-        <v>171</v>
-      </c>
+        <v>120</v>
+      </c>
+      <c r="D65" s="58"/>
       <c r="E65" s="59"/>
       <c r="F65" s="59"/>
       <c r="G65" s="58">
-        <f t="shared" si="15"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="H65" s="59"/>
       <c r="I65" s="59"/>
       <c r="J65" s="60">
-        <f t="shared" si="16"/>
+        <f t="shared" ref="J65:J78" si="26">I65-H65</f>
         <v>0</v>
       </c>
       <c r="K65" s="61">
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:11" ht="21">
+    <row r="66" spans="1:12" ht="21" x14ac:dyDescent="0.25">
       <c r="A66" s="56"/>
-      <c r="B66" s="109">
-        <v>58</v>
-      </c>
-      <c r="C66" s="58" t="s">
-        <v>161</v>
-      </c>
-      <c r="D66" s="58" t="s">
-        <v>135</v>
-      </c>
-      <c r="E66" s="59">
-        <v>44752</v>
-      </c>
-      <c r="F66" s="59">
-        <v>44753</v>
-      </c>
+      <c r="B66" s="110">
+        <v>4</v>
+      </c>
+      <c r="C66" s="108" t="s">
+        <v>129</v>
+      </c>
+      <c r="D66" s="58"/>
+      <c r="E66" s="59"/>
+      <c r="F66" s="59"/>
       <c r="G66" s="58">
-        <f t="shared" si="15"/>
-        <v>1</v>
+        <f t="shared" si="25"/>
+        <v>0</v>
       </c>
       <c r="H66" s="59"/>
       <c r="I66" s="59"/>
       <c r="J66" s="60">
-        <f t="shared" si="16"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="K66" s="61">
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:11" ht="21">
+    <row r="67" spans="1:12" ht="21" x14ac:dyDescent="0.25">
       <c r="A67" s="56"/>
-      <c r="B67" s="109">
-        <v>59</v>
+      <c r="B67" s="110">
+        <v>5</v>
       </c>
       <c r="C67" s="58" t="s">
-        <v>162</v>
-      </c>
-      <c r="D67" s="58" t="s">
-        <v>135</v>
-      </c>
-      <c r="E67" s="59">
-        <v>44752</v>
-      </c>
-      <c r="F67" s="59">
-        <v>44753</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="D67" s="58"/>
+      <c r="E67" s="59"/>
+      <c r="F67" s="59"/>
       <c r="G67" s="58">
-        <f t="shared" si="15"/>
-        <v>1</v>
+        <f t="shared" si="25"/>
+        <v>0</v>
       </c>
       <c r="H67" s="59"/>
       <c r="I67" s="59"/>
       <c r="J67" s="60">
-        <f t="shared" si="16"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="K67" s="61">
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:11" ht="21">
+    <row r="68" spans="1:12" ht="21" x14ac:dyDescent="0.25">
       <c r="A68" s="56"/>
-      <c r="B68" s="109">
-        <v>60</v>
+      <c r="B68" s="110">
+        <v>6</v>
       </c>
       <c r="C68" s="58" t="s">
-        <v>163</v>
-      </c>
-      <c r="D68" s="58" t="s">
-        <v>135</v>
-      </c>
-      <c r="E68" s="59">
-        <v>44753</v>
-      </c>
-      <c r="F68" s="59">
-        <v>44754</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="D68" s="58"/>
+      <c r="E68" s="105"/>
+      <c r="F68" s="106"/>
       <c r="G68" s="58">
-        <f t="shared" si="15"/>
-        <v>1</v>
+        <f t="shared" si="25"/>
+        <v>0</v>
       </c>
       <c r="H68" s="59"/>
       <c r="I68" s="59"/>
       <c r="J68" s="60">
-        <f t="shared" si="16"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="K68" s="61">
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:11" ht="21">
+    <row r="69" spans="1:12" ht="21" x14ac:dyDescent="0.25">
       <c r="A69" s="56"/>
-      <c r="B69" s="109">
-        <v>61</v>
+      <c r="B69" s="110">
+        <v>7</v>
       </c>
       <c r="C69" s="58" t="s">
-        <v>164</v>
-      </c>
-      <c r="D69" s="58" t="s">
-        <v>135</v>
-      </c>
-      <c r="E69" s="59">
-        <v>44753</v>
-      </c>
-      <c r="F69" s="59">
-        <v>44754</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="D69" s="58"/>
+      <c r="E69" s="106"/>
+      <c r="F69" s="59"/>
       <c r="G69" s="58">
-        <f t="shared" si="15"/>
-        <v>1</v>
-      </c>
-      <c r="H69" s="59"/>
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="H69" s="106"/>
       <c r="I69" s="59"/>
       <c r="J69" s="60">
-        <f t="shared" si="16"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="K69" s="61">
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:11" ht="21">
+    <row r="70" spans="1:12" ht="21" x14ac:dyDescent="0.25">
       <c r="A70" s="56"/>
-      <c r="B70" s="109">
-        <v>62</v>
+      <c r="B70" s="110">
+        <v>8</v>
       </c>
       <c r="C70" s="58" t="s">
-        <v>165</v>
-      </c>
-      <c r="D70" s="58" t="s">
-        <v>135</v>
-      </c>
-      <c r="E70" s="59">
-        <v>44754</v>
-      </c>
-      <c r="F70" s="59">
-        <v>44755</v>
-      </c>
+        <v>118</v>
+      </c>
+      <c r="D70" s="58"/>
+      <c r="E70" s="59"/>
+      <c r="F70" s="59"/>
       <c r="G70" s="58">
-        <f t="shared" si="15"/>
-        <v>1</v>
+        <f t="shared" si="25"/>
+        <v>0</v>
       </c>
       <c r="H70" s="59"/>
       <c r="I70" s="59"/>
       <c r="J70" s="60">
-        <f t="shared" si="16"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="K70" s="61">
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:11" ht="21">
+    <row r="71" spans="1:12" ht="21" x14ac:dyDescent="0.25">
       <c r="A71" s="56"/>
-      <c r="B71" s="109">
-        <v>63</v>
+      <c r="B71" s="110">
+        <v>9</v>
       </c>
       <c r="C71" s="58" t="s">
-        <v>172</v>
-      </c>
-      <c r="D71" s="119" t="s">
-        <v>171</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="D71" s="58"/>
       <c r="E71" s="59"/>
       <c r="F71" s="59"/>
-      <c r="G71" s="58"/>
+      <c r="G71" s="58">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
       <c r="H71" s="59"/>
       <c r="I71" s="59"/>
       <c r="J71" s="60">
-        <f t="shared" si="16"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="K71" s="61">
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:11" ht="21">
+    <row r="72" spans="1:12" ht="21" x14ac:dyDescent="0.25">
       <c r="A72" s="56"/>
-      <c r="B72" s="109">
-        <v>64</v>
+      <c r="B72" s="110">
+        <v>10</v>
       </c>
       <c r="C72" s="58" t="s">
-        <v>173</v>
-      </c>
-      <c r="D72" s="119" t="s">
-        <v>171</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="D72" s="58"/>
       <c r="E72" s="59"/>
       <c r="F72" s="59"/>
-      <c r="G72" s="58"/>
+      <c r="G72" s="58">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
       <c r="H72" s="59"/>
       <c r="I72" s="59"/>
       <c r="J72" s="60">
-        <f t="shared" si="16"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="K72" s="61">
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:11" ht="21">
-      <c r="A73" s="56">
-        <v>4</v>
-      </c>
-      <c r="B73" s="57"/>
+    <row r="73" spans="1:12" ht="21" x14ac:dyDescent="0.25">
+      <c r="A73" s="56"/>
+      <c r="B73" s="110">
+        <v>11</v>
+      </c>
       <c r="C73" s="58" t="s">
-        <v>15</v>
+        <v>113</v>
       </c>
       <c r="D73" s="58"/>
-      <c r="E73" s="59">
-        <v>44748</v>
-      </c>
-      <c r="F73" s="59">
-        <v>44753</v>
-      </c>
+      <c r="E73" s="59"/>
+      <c r="F73" s="59"/>
       <c r="G73" s="58">
-        <f t="shared" si="0"/>
-        <v>5</v>
+        <f t="shared" si="25"/>
+        <v>0</v>
       </c>
       <c r="H73" s="59"/>
       <c r="I73" s="59"/>
       <c r="J73" s="60">
-        <f t="shared" si="1"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="K73" s="61">
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:11" ht="21">
-      <c r="A74" s="56">
-        <v>5</v>
-      </c>
-      <c r="B74" s="57"/>
+    <row r="74" spans="1:12" ht="21" x14ac:dyDescent="0.25">
+      <c r="A74" s="56"/>
+      <c r="B74" s="110">
+        <v>12</v>
+      </c>
       <c r="C74" s="58" t="s">
-        <v>16</v>
+        <v>82</v>
       </c>
       <c r="D74" s="58"/>
       <c r="E74" s="59"/>
       <c r="F74" s="59"/>
       <c r="G74" s="58">
-        <f t="shared" si="0"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="H74" s="59"/>
       <c r="I74" s="59"/>
       <c r="J74" s="60">
-        <f t="shared" si="1"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="K74" s="61">
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:11" ht="21">
+    <row r="75" spans="1:12" ht="21" x14ac:dyDescent="0.25">
       <c r="A75" s="56"/>
       <c r="B75" s="110">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="C75" s="58" t="s">
-        <v>125</v>
+        <v>111</v>
       </c>
       <c r="D75" s="58"/>
       <c r="E75" s="59"/>
-      <c r="F75" s="59"/>
+      <c r="F75" s="105"/>
       <c r="G75" s="58">
-        <f t="shared" ref="G75:G90" si="17">F75-E75</f>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="H75" s="59"/>
-      <c r="I75" s="59"/>
+      <c r="I75" s="105"/>
       <c r="J75" s="60">
-        <f t="shared" si="1"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="K75" s="61">
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:11" ht="21">
+    <row r="76" spans="1:12" ht="21" x14ac:dyDescent="0.25">
       <c r="A76" s="56"/>
       <c r="B76" s="110">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="C76" s="58" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D76" s="58"/>
       <c r="E76" s="59"/>
       <c r="F76" s="59"/>
       <c r="G76" s="58">
-        <f t="shared" si="17"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="H76" s="59"/>
       <c r="I76" s="59"/>
       <c r="J76" s="60">
-        <f t="shared" si="1"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="K76" s="61">
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:11" ht="21">
+    <row r="77" spans="1:12" ht="21" x14ac:dyDescent="0.25">
       <c r="A77" s="56"/>
       <c r="B77" s="110">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="C77" s="58" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="D77" s="58"/>
       <c r="E77" s="59"/>
       <c r="F77" s="59"/>
       <c r="G77" s="58">
-        <f t="shared" si="17"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="H77" s="59"/>
       <c r="I77" s="59"/>
       <c r="J77" s="60">
-        <f t="shared" ref="J77:J90" si="18">I77-H77</f>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="K77" s="61">
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:11" ht="21">
+    <row r="78" spans="1:12" ht="21" x14ac:dyDescent="0.25">
       <c r="A78" s="56"/>
       <c r="B78" s="110">
-        <v>4</v>
-      </c>
-      <c r="C78" s="108" t="s">
-        <v>129</v>
+        <v>16</v>
+      </c>
+      <c r="C78" s="58" t="s">
+        <v>92</v>
       </c>
       <c r="D78" s="58"/>
       <c r="E78" s="59"/>
       <c r="F78" s="59"/>
       <c r="G78" s="58">
-        <f t="shared" si="17"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="H78" s="59"/>
       <c r="I78" s="59"/>
       <c r="J78" s="60">
-        <f t="shared" si="18"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="K78" s="61">
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:11" ht="21">
+    <row r="79" spans="1:12" ht="21" x14ac:dyDescent="0.25">
       <c r="A79" s="56"/>
       <c r="B79" s="110">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="C79" s="58" t="s">
-        <v>109</v>
+        <v>128</v>
       </c>
       <c r="D79" s="58"/>
       <c r="E79" s="59"/>
       <c r="F79" s="59"/>
       <c r="G79" s="58">
-        <f t="shared" si="17"/>
+        <f>F79-E79</f>
         <v>0</v>
       </c>
       <c r="H79" s="59"/>
       <c r="I79" s="59"/>
       <c r="J79" s="60">
-        <f t="shared" si="18"/>
+        <f>I79-H79</f>
         <v>0</v>
       </c>
       <c r="K79" s="61">
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:11" ht="21">
+    <row r="80" spans="1:12" ht="21" x14ac:dyDescent="0.25">
       <c r="A80" s="56"/>
-      <c r="B80" s="110">
-        <v>6</v>
-      </c>
-      <c r="C80" s="58" t="s">
-        <v>81</v>
-      </c>
-      <c r="D80" s="58"/>
-      <c r="E80" s="105"/>
-      <c r="F80" s="106"/>
-      <c r="G80" s="58">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="H80" s="59"/>
-      <c r="I80" s="59"/>
-      <c r="J80" s="60">
-        <f t="shared" si="18"/>
+      <c r="B80" s="111">
+        <v>18</v>
+      </c>
+      <c r="C80" s="112" t="s">
+        <v>115</v>
+      </c>
+      <c r="D80" s="112"/>
+      <c r="E80" s="113"/>
+      <c r="F80" s="114"/>
+      <c r="G80" s="112">
+        <f t="shared" ref="G80:G87" si="27">F80-E80</f>
+        <v>0</v>
+      </c>
+      <c r="H80" s="114"/>
+      <c r="I80" s="114"/>
+      <c r="J80" s="115">
+        <f t="shared" ref="J80:J126" si="28">I80-H80</f>
         <v>0</v>
       </c>
       <c r="K80" s="61">
         <v>0</v>
       </c>
-    </row>
-    <row r="81" spans="1:12" ht="21">
+      <c r="L80" s="116" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" ht="21" x14ac:dyDescent="0.25">
       <c r="A81" s="56"/>
       <c r="B81" s="110">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="C81" s="58" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="D81" s="58"/>
-      <c r="E81" s="106"/>
+      <c r="E81" s="105"/>
       <c r="F81" s="59"/>
       <c r="G81" s="58">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="H81" s="106"/>
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="H81" s="59"/>
       <c r="I81" s="59"/>
       <c r="J81" s="60">
-        <f t="shared" si="18"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="K81" s="61">
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:12" ht="21">
+    <row r="82" spans="1:11" ht="21" x14ac:dyDescent="0.25">
       <c r="A82" s="56"/>
       <c r="B82" s="110">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="C82" s="58" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D82" s="58"/>
       <c r="E82" s="59"/>
       <c r="F82" s="59"/>
       <c r="G82" s="58">
-        <f t="shared" si="17"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="H82" s="59"/>
       <c r="I82" s="59"/>
       <c r="J82" s="60">
-        <f t="shared" si="18"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="K82" s="61">
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:12" ht="21">
+    <row r="83" spans="1:11" ht="21" x14ac:dyDescent="0.25">
       <c r="A83" s="56"/>
       <c r="B83" s="110">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="C83" s="58" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D83" s="58"/>
       <c r="E83" s="59"/>
       <c r="F83" s="59"/>
       <c r="G83" s="58">
-        <f t="shared" si="17"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="H83" s="59"/>
       <c r="I83" s="59"/>
       <c r="J83" s="60">
-        <f t="shared" si="18"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="K83" s="61">
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:12" ht="21">
+    <row r="84" spans="1:11" ht="21" x14ac:dyDescent="0.25">
       <c r="A84" s="56"/>
       <c r="B84" s="110">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="C84" s="58" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="D84" s="58"/>
       <c r="E84" s="59"/>
       <c r="F84" s="59"/>
       <c r="G84" s="58">
-        <f t="shared" si="17"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="H84" s="59"/>
       <c r="I84" s="59"/>
       <c r="J84" s="60">
-        <f t="shared" si="18"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="K84" s="61">
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:12" ht="21">
+    <row r="85" spans="1:11" ht="21" x14ac:dyDescent="0.25">
       <c r="A85" s="56"/>
       <c r="B85" s="110">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="C85" s="58" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="D85" s="58"/>
       <c r="E85" s="59"/>
       <c r="F85" s="59"/>
       <c r="G85" s="58">
-        <f t="shared" si="17"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="H85" s="59"/>
       <c r="I85" s="59"/>
       <c r="J85" s="60">
-        <f t="shared" si="18"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="K85" s="61">
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:12" ht="21">
+    <row r="86" spans="1:11" ht="21" x14ac:dyDescent="0.25">
       <c r="A86" s="56"/>
       <c r="B86" s="110">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="C86" s="58" t="s">
-        <v>82</v>
+        <v>124</v>
       </c>
       <c r="D86" s="58"/>
       <c r="E86" s="59"/>
       <c r="F86" s="59"/>
       <c r="G86" s="58">
-        <f t="shared" si="17"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="H86" s="59"/>
       <c r="I86" s="59"/>
       <c r="J86" s="60">
-        <f t="shared" si="18"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="K86" s="61">
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:12" ht="21">
+    <row r="87" spans="1:11" ht="21" x14ac:dyDescent="0.25">
       <c r="A87" s="56"/>
       <c r="B87" s="110">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="C87" s="58" t="s">
-        <v>111</v>
+        <v>136</v>
       </c>
       <c r="D87" s="58"/>
       <c r="E87" s="59"/>
-      <c r="F87" s="105"/>
+      <c r="F87" s="59"/>
       <c r="G87" s="58">
-        <f t="shared" si="17"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="H87" s="59"/>
-      <c r="I87" s="105"/>
+      <c r="I87" s="59"/>
       <c r="J87" s="60">
-        <f t="shared" si="18"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="K87" s="61">
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:12" ht="21">
+    <row r="88" spans="1:11" ht="21" x14ac:dyDescent="0.25">
       <c r="A88" s="56"/>
       <c r="B88" s="110">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="C88" s="58" t="s">
-        <v>127</v>
+        <v>138</v>
       </c>
       <c r="D88" s="58"/>
       <c r="E88" s="59"/>
       <c r="F88" s="59"/>
-      <c r="G88" s="58">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
+      <c r="G88" s="58"/>
       <c r="H88" s="59"/>
       <c r="I88" s="59"/>
       <c r="J88" s="60">
-        <f t="shared" si="18"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="K88" s="61">
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:12" ht="21">
+    <row r="89" spans="1:11" ht="21" x14ac:dyDescent="0.25">
       <c r="A89" s="56"/>
-      <c r="B89" s="110">
-        <v>15</v>
+      <c r="B89" s="109">
+        <v>27</v>
       </c>
       <c r="C89" s="58" t="s">
-        <v>112</v>
+        <v>139</v>
       </c>
       <c r="D89" s="58"/>
       <c r="E89" s="59"/>
       <c r="F89" s="59"/>
       <c r="G89" s="58">
-        <f t="shared" si="17"/>
+        <f t="shared" ref="G89:G105" si="29">F89-E89</f>
         <v>0</v>
       </c>
       <c r="H89" s="59"/>
       <c r="I89" s="59"/>
       <c r="J89" s="60">
-        <f t="shared" si="18"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="K89" s="61">
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:12" ht="21">
+    <row r="90" spans="1:11" ht="21" x14ac:dyDescent="0.25">
       <c r="A90" s="56"/>
-      <c r="B90" s="110">
-        <v>16</v>
+      <c r="B90" s="109">
+        <v>28</v>
       </c>
       <c r="C90" s="58" t="s">
-        <v>92</v>
+        <v>109</v>
       </c>
       <c r="D90" s="58"/>
       <c r="E90" s="59"/>
       <c r="F90" s="59"/>
       <c r="G90" s="58">
-        <f t="shared" si="17"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="H90" s="59"/>
       <c r="I90" s="59"/>
       <c r="J90" s="60">
-        <f t="shared" si="18"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="K90" s="61">
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:12" ht="21">
+    <row r="91" spans="1:11" ht="21" x14ac:dyDescent="0.25">
       <c r="A91" s="56"/>
-      <c r="B91" s="110">
-        <v>17</v>
+      <c r="B91" s="109">
+        <v>29</v>
       </c>
       <c r="C91" s="58" t="s">
-        <v>128</v>
+        <v>153</v>
       </c>
       <c r="D91" s="58"/>
       <c r="E91" s="59"/>
       <c r="F91" s="59"/>
       <c r="G91" s="58">
-        <f>F91-E91</f>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="H91" s="59"/>
       <c r="I91" s="59"/>
       <c r="J91" s="60">
-        <f>I91-H91</f>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="K91" s="61">
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:12" ht="21">
+    <row r="92" spans="1:11" ht="21" x14ac:dyDescent="0.25">
       <c r="A92" s="56"/>
-      <c r="B92" s="111">
-        <v>18</v>
-      </c>
-      <c r="C92" s="112" t="s">
-        <v>115</v>
-      </c>
-      <c r="D92" s="112"/>
-      <c r="E92" s="113"/>
-      <c r="F92" s="114"/>
-      <c r="G92" s="112">
-        <f t="shared" ref="G92:G99" si="19">F92-E92</f>
-        <v>0</v>
-      </c>
-      <c r="H92" s="114"/>
-      <c r="I92" s="114"/>
-      <c r="J92" s="115">
-        <f t="shared" ref="J92:J138" si="20">I92-H92</f>
+      <c r="B92" s="109">
+        <v>30</v>
+      </c>
+      <c r="C92" s="58" t="s">
+        <v>140</v>
+      </c>
+      <c r="D92" s="58"/>
+      <c r="E92" s="59"/>
+      <c r="F92" s="59"/>
+      <c r="G92" s="58">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="H92" s="59"/>
+      <c r="I92" s="59"/>
+      <c r="J92" s="60">
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="K92" s="61">
         <v>0</v>
       </c>
-      <c r="L92" s="117" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="93" spans="1:12" ht="21">
+    </row>
+    <row r="93" spans="1:11" ht="21" x14ac:dyDescent="0.25">
       <c r="A93" s="56"/>
-      <c r="B93" s="110">
-        <v>19</v>
+      <c r="B93" s="109">
+        <v>31</v>
       </c>
       <c r="C93" s="58" t="s">
-        <v>116</v>
+        <v>141</v>
       </c>
       <c r="D93" s="58"/>
-      <c r="E93" s="105"/>
+      <c r="E93" s="59"/>
       <c r="F93" s="59"/>
       <c r="G93" s="58">
-        <f t="shared" si="19"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="H93" s="59"/>
       <c r="I93" s="59"/>
       <c r="J93" s="60">
-        <f t="shared" si="20"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="K93" s="61">
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:12" ht="21">
+    <row r="94" spans="1:11" ht="21" x14ac:dyDescent="0.25">
       <c r="A94" s="56"/>
-      <c r="B94" s="110">
-        <v>20</v>
+      <c r="B94" s="109">
+        <v>32</v>
       </c>
       <c r="C94" s="58" t="s">
-        <v>117</v>
+        <v>175</v>
       </c>
       <c r="D94" s="58"/>
       <c r="E94" s="59"/>
       <c r="F94" s="59"/>
       <c r="G94" s="58">
-        <f t="shared" si="19"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="H94" s="59"/>
       <c r="I94" s="59"/>
       <c r="J94" s="60">
-        <f t="shared" si="20"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="K94" s="61">
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:12" ht="21">
+    <row r="95" spans="1:11" ht="21" x14ac:dyDescent="0.25">
       <c r="A95" s="56"/>
-      <c r="B95" s="110">
-        <v>21</v>
+      <c r="B95" s="109">
+        <v>33</v>
       </c>
       <c r="C95" s="58" t="s">
-        <v>121</v>
+        <v>176</v>
       </c>
       <c r="D95" s="58"/>
       <c r="E95" s="59"/>
       <c r="F95" s="59"/>
       <c r="G95" s="58">
-        <f t="shared" si="19"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="H95" s="59"/>
       <c r="I95" s="59"/>
       <c r="J95" s="60">
-        <f t="shared" si="20"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="K95" s="61">
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:12" ht="21">
+    <row r="96" spans="1:11" ht="21" x14ac:dyDescent="0.25">
       <c r="A96" s="56"/>
-      <c r="B96" s="110">
-        <v>22</v>
+      <c r="B96" s="109">
+        <v>34</v>
       </c>
       <c r="C96" s="58" t="s">
-        <v>122</v>
-      </c>
-      <c r="D96" s="58"/>
+        <v>142</v>
+      </c>
+      <c r="D96" s="59"/>
       <c r="E96" s="59"/>
       <c r="F96" s="59"/>
       <c r="G96" s="58">
-        <f t="shared" si="19"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="H96" s="59"/>
       <c r="I96" s="59"/>
       <c r="J96" s="60">
-        <f t="shared" si="20"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="K96" s="61">
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:11" ht="21">
+    <row r="97" spans="1:11" ht="21" x14ac:dyDescent="0.25">
       <c r="A97" s="56"/>
-      <c r="B97" s="110">
-        <v>23</v>
+      <c r="B97" s="109">
+        <v>35</v>
       </c>
       <c r="C97" s="58" t="s">
-        <v>123</v>
-      </c>
-      <c r="D97" s="58"/>
+        <v>167</v>
+      </c>
+      <c r="D97" s="59"/>
       <c r="E97" s="59"/>
       <c r="F97" s="59"/>
       <c r="G97" s="58">
-        <f t="shared" si="19"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="H97" s="59"/>
       <c r="I97" s="59"/>
       <c r="J97" s="60">
-        <f t="shared" si="20"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="K97" s="61">
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:11" ht="21">
+    <row r="98" spans="1:11" ht="21" x14ac:dyDescent="0.25">
       <c r="A98" s="56"/>
-      <c r="B98" s="110">
-        <v>24</v>
+      <c r="B98" s="109">
+        <v>36</v>
       </c>
       <c r="C98" s="58" t="s">
-        <v>124</v>
+        <v>143</v>
       </c>
       <c r="D98" s="58"/>
       <c r="E98" s="59"/>
       <c r="F98" s="59"/>
       <c r="G98" s="58">
-        <f t="shared" si="19"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="H98" s="59"/>
       <c r="I98" s="59"/>
       <c r="J98" s="60">
-        <f t="shared" si="20"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="K98" s="61">
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:11" ht="21">
+    <row r="99" spans="1:11" ht="21" x14ac:dyDescent="0.25">
       <c r="A99" s="56"/>
-      <c r="B99" s="110">
-        <v>25</v>
+      <c r="B99" s="109">
+        <v>37</v>
       </c>
       <c r="C99" s="58" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="D99" s="58"/>
       <c r="E99" s="59"/>
       <c r="F99" s="59"/>
       <c r="G99" s="58">
-        <f t="shared" si="19"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="H99" s="59"/>
       <c r="I99" s="59"/>
       <c r="J99" s="60">
-        <f t="shared" si="20"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="K99" s="61">
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:11" ht="21">
+    <row r="100" spans="1:11" ht="21" x14ac:dyDescent="0.25">
       <c r="A100" s="56"/>
-      <c r="B100" s="110">
-        <v>26</v>
+      <c r="B100" s="109">
+        <v>38</v>
       </c>
       <c r="C100" s="58" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="D100" s="58"/>
       <c r="E100" s="59"/>
       <c r="F100" s="59"/>
-      <c r="G100" s="58"/>
+      <c r="G100" s="58">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
       <c r="H100" s="59"/>
       <c r="I100" s="59"/>
       <c r="J100" s="60">
-        <f t="shared" si="20"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="K100" s="61">
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:11" ht="21">
+    <row r="101" spans="1:11" ht="21" x14ac:dyDescent="0.25">
       <c r="A101" s="56"/>
       <c r="B101" s="109">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="C101" s="58" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="D101" s="58"/>
       <c r="E101" s="59"/>
       <c r="F101" s="59"/>
       <c r="G101" s="58">
-        <f t="shared" ref="G101:G117" si="21">F101-E101</f>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="H101" s="59"/>
       <c r="I101" s="59"/>
       <c r="J101" s="60">
-        <f t="shared" si="20"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="K101" s="61">
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:11" ht="21">
+    <row r="102" spans="1:11" ht="21" x14ac:dyDescent="0.25">
       <c r="A102" s="56"/>
       <c r="B102" s="109">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="C102" s="58" t="s">
-        <v>109</v>
+        <v>147</v>
       </c>
       <c r="D102" s="58"/>
       <c r="E102" s="59"/>
       <c r="F102" s="59"/>
       <c r="G102" s="58">
-        <f t="shared" si="21"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="H102" s="59"/>
       <c r="I102" s="59"/>
       <c r="J102" s="60">
-        <f t="shared" si="20"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="K102" s="61">
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:11" ht="21">
+    <row r="103" spans="1:11" ht="21" x14ac:dyDescent="0.25">
       <c r="A103" s="56"/>
       <c r="B103" s="109">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="C103" s="58" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="D103" s="58"/>
       <c r="E103" s="59"/>
       <c r="F103" s="59"/>
       <c r="G103" s="58">
-        <f t="shared" si="21"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="H103" s="59"/>
       <c r="I103" s="59"/>
       <c r="J103" s="60">
-        <f t="shared" si="20"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="K103" s="61">
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:11" ht="21">
+    <row r="104" spans="1:11" ht="21" x14ac:dyDescent="0.25">
       <c r="A104" s="56"/>
       <c r="B104" s="109">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="C104" s="58" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="D104" s="58"/>
       <c r="E104" s="59"/>
       <c r="F104" s="59"/>
       <c r="G104" s="58">
-        <f t="shared" si="21"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="H104" s="59"/>
       <c r="I104" s="59"/>
       <c r="J104" s="60">
-        <f t="shared" si="20"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="K104" s="61">
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:11" ht="21">
+    <row r="105" spans="1:11" ht="21" x14ac:dyDescent="0.25">
       <c r="A105" s="56"/>
       <c r="B105" s="109">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="C105" s="58" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="D105" s="58"/>
       <c r="E105" s="59"/>
       <c r="F105" s="59"/>
       <c r="G105" s="58">
-        <f t="shared" si="21"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="H105" s="59"/>
       <c r="I105" s="59"/>
       <c r="J105" s="60">
-        <f t="shared" si="20"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="K105" s="61">
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:11" ht="21">
+    <row r="106" spans="1:11" ht="21" x14ac:dyDescent="0.25">
       <c r="A106" s="56"/>
       <c r="B106" s="109">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="C106" s="58" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D106" s="58"/>
       <c r="E106" s="59"/>
       <c r="F106" s="59"/>
-      <c r="G106" s="58">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
+      <c r="G106" s="58"/>
       <c r="H106" s="59"/>
       <c r="I106" s="59"/>
       <c r="J106" s="60">
-        <f t="shared" si="20"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="K106" s="61">
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:11" ht="21">
+    <row r="107" spans="1:11" ht="21" x14ac:dyDescent="0.25">
       <c r="A107" s="56"/>
       <c r="B107" s="109">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="C107" s="58" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="D107" s="58"/>
       <c r="E107" s="59"/>
       <c r="F107" s="59"/>
-      <c r="G107" s="58">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
+      <c r="G107" s="58"/>
       <c r="H107" s="59"/>
       <c r="I107" s="59"/>
       <c r="J107" s="60">
-        <f t="shared" si="20"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="K107" s="61">
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:11" ht="21">
+    <row r="108" spans="1:11" ht="21" x14ac:dyDescent="0.25">
       <c r="A108" s="56"/>
       <c r="B108" s="109">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="C108" s="58" t="s">
-        <v>142</v>
-      </c>
-      <c r="D108" s="59"/>
+        <v>151</v>
+      </c>
+      <c r="D108" s="58"/>
       <c r="E108" s="59"/>
       <c r="F108" s="59"/>
       <c r="G108" s="58">
-        <f t="shared" si="21"/>
+        <f t="shared" ref="G108:G126" si="30">F108-E108</f>
         <v>0</v>
       </c>
       <c r="H108" s="59"/>
       <c r="I108" s="59"/>
       <c r="J108" s="60">
-        <f t="shared" si="20"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="K108" s="61">
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:11" ht="21">
+    <row r="109" spans="1:11" ht="21" x14ac:dyDescent="0.25">
       <c r="A109" s="56"/>
       <c r="B109" s="109">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="C109" s="58" t="s">
-        <v>167</v>
-      </c>
-      <c r="D109" s="59"/>
+        <v>152</v>
+      </c>
+      <c r="D109" s="58"/>
       <c r="E109" s="59"/>
-      <c r="F109" s="59"/>
+      <c r="F109" s="105"/>
       <c r="G109" s="58">
-        <f t="shared" si="21"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="H109" s="59"/>
       <c r="I109" s="59"/>
       <c r="J109" s="60">
-        <f t="shared" si="20"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="K109" s="61">
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:11" ht="21">
+    <row r="110" spans="1:11" ht="21" x14ac:dyDescent="0.25">
       <c r="A110" s="56"/>
       <c r="B110" s="109">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="C110" s="58" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="D110" s="58"/>
-      <c r="E110" s="59"/>
-      <c r="F110" s="59"/>
+      <c r="E110" s="105"/>
+      <c r="F110" s="105"/>
       <c r="G110" s="58">
-        <f t="shared" si="21"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="H110" s="59"/>
       <c r="I110" s="59"/>
       <c r="J110" s="60">
-        <f t="shared" si="20"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="K110" s="61">
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:11" ht="21">
+    <row r="111" spans="1:11" ht="21" x14ac:dyDescent="0.25">
       <c r="A111" s="56"/>
       <c r="B111" s="109">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="C111" s="58" t="s">
-        <v>144</v>
+        <v>169</v>
       </c>
       <c r="D111" s="58"/>
       <c r="E111" s="59"/>
       <c r="F111" s="59"/>
       <c r="G111" s="58">
-        <f t="shared" si="21"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="H111" s="59"/>
       <c r="I111" s="59"/>
       <c r="J111" s="60">
-        <f t="shared" si="20"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="K111" s="61">
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:11" ht="21">
+    <row r="112" spans="1:11" ht="21" x14ac:dyDescent="0.25">
       <c r="A112" s="56"/>
       <c r="B112" s="109">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="C112" s="58" t="s">
-        <v>145</v>
+        <v>170</v>
       </c>
       <c r="D112" s="58"/>
       <c r="E112" s="59"/>
       <c r="F112" s="59"/>
       <c r="G112" s="58">
-        <f t="shared" si="21"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="H112" s="59"/>
       <c r="I112" s="59"/>
       <c r="J112" s="60">
-        <f t="shared" si="20"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="K112" s="61">
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:11" ht="21">
+    <row r="113" spans="1:11" ht="21" x14ac:dyDescent="0.25">
       <c r="A113" s="56"/>
       <c r="B113" s="109">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="C113" s="58" t="s">
-        <v>146</v>
+        <v>155</v>
       </c>
       <c r="D113" s="58"/>
       <c r="E113" s="59"/>
       <c r="F113" s="59"/>
       <c r="G113" s="58">
-        <f t="shared" si="21"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="H113" s="59"/>
       <c r="I113" s="59"/>
       <c r="J113" s="60">
-        <f t="shared" si="20"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="K113" s="61">
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:11" ht="21">
+    <row r="114" spans="1:11" ht="21" x14ac:dyDescent="0.25">
       <c r="A114" s="56"/>
       <c r="B114" s="109">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="C114" s="58" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="D114" s="58"/>
       <c r="E114" s="59"/>
       <c r="F114" s="59"/>
       <c r="G114" s="58">
-        <f t="shared" si="21"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="H114" s="59"/>
       <c r="I114" s="59"/>
       <c r="J114" s="60">
-        <f t="shared" si="20"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="K114" s="61">
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:11" ht="21">
+    <row r="115" spans="1:11" ht="21" x14ac:dyDescent="0.25">
       <c r="A115" s="56"/>
       <c r="B115" s="109">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="C115" s="58" t="s">
-        <v>148</v>
+        <v>168</v>
       </c>
       <c r="D115" s="58"/>
       <c r="E115" s="59"/>
       <c r="F115" s="59"/>
       <c r="G115" s="58">
-        <f t="shared" si="21"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="H115" s="59"/>
       <c r="I115" s="59"/>
       <c r="J115" s="60">
-        <f t="shared" si="20"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="K115" s="61">
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:11" ht="21">
+    <row r="116" spans="1:11" ht="21" x14ac:dyDescent="0.25">
       <c r="A116" s="56"/>
       <c r="B116" s="109">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="C116" s="58" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="D116" s="58"/>
       <c r="E116" s="59"/>
       <c r="F116" s="59"/>
       <c r="G116" s="58">
-        <f t="shared" si="21"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="H116" s="59"/>
       <c r="I116" s="59"/>
       <c r="J116" s="60">
-        <f t="shared" si="20"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="K116" s="61">
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:11" ht="21">
+    <row r="117" spans="1:11" ht="21" x14ac:dyDescent="0.25">
       <c r="A117" s="56"/>
       <c r="B117" s="109">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="C117" s="58" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="D117" s="58"/>
       <c r="E117" s="59"/>
       <c r="F117" s="59"/>
       <c r="G117" s="58">
-        <f t="shared" si="21"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="H117" s="59"/>
       <c r="I117" s="59"/>
       <c r="J117" s="60">
-        <f t="shared" si="20"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="K117" s="61">
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:11" ht="21">
+    <row r="118" spans="1:11" ht="21" x14ac:dyDescent="0.25">
       <c r="A118" s="56"/>
       <c r="B118" s="109">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="C118" s="58" t="s">
-        <v>174</v>
+        <v>159</v>
       </c>
       <c r="D118" s="58"/>
       <c r="E118" s="59"/>
       <c r="F118" s="59"/>
-      <c r="G118" s="58"/>
+      <c r="G118" s="58">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
       <c r="H118" s="59"/>
       <c r="I118" s="59"/>
       <c r="J118" s="60">
-        <f t="shared" si="20"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="K118" s="61">
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:11" ht="21">
+    <row r="119" spans="1:11" ht="21" x14ac:dyDescent="0.25">
       <c r="A119" s="56"/>
       <c r="B119" s="109">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="C119" s="58" t="s">
-        <v>175</v>
+        <v>160</v>
       </c>
       <c r="D119" s="58"/>
       <c r="E119" s="59"/>
       <c r="F119" s="59"/>
-      <c r="G119" s="58"/>
+      <c r="G119" s="58">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
       <c r="H119" s="59"/>
       <c r="I119" s="59"/>
       <c r="J119" s="60">
-        <f t="shared" si="20"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="K119" s="61">
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:11" ht="21">
+    <row r="120" spans="1:11" ht="21" x14ac:dyDescent="0.25">
       <c r="A120" s="56"/>
       <c r="B120" s="109">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="C120" s="58" t="s">
-        <v>151</v>
+        <v>161</v>
       </c>
       <c r="D120" s="58"/>
       <c r="E120" s="59"/>
       <c r="F120" s="59"/>
       <c r="G120" s="58">
-        <f t="shared" ref="G120:G138" si="22">F120-E120</f>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="H120" s="59"/>
       <c r="I120" s="59"/>
       <c r="J120" s="60">
-        <f t="shared" si="20"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="K120" s="61">
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:11" ht="21">
+    <row r="121" spans="1:11" ht="21" x14ac:dyDescent="0.25">
       <c r="A121" s="56"/>
       <c r="B121" s="109">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="C121" s="58" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="D121" s="58"/>
       <c r="E121" s="59"/>
-      <c r="F121" s="105"/>
+      <c r="F121" s="59"/>
       <c r="G121" s="58">
-        <f t="shared" si="22"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="H121" s="59"/>
       <c r="I121" s="59"/>
       <c r="J121" s="60">
-        <f t="shared" si="20"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="K121" s="61">
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:11" ht="21">
+    <row r="122" spans="1:11" ht="21" x14ac:dyDescent="0.25">
       <c r="A122" s="56"/>
       <c r="B122" s="109">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="C122" s="58" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="D122" s="58"/>
-      <c r="E122" s="105"/>
-      <c r="F122" s="105"/>
+      <c r="E122" s="59"/>
+      <c r="F122" s="59"/>
       <c r="G122" s="58">
-        <f t="shared" si="22"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="H122" s="59"/>
       <c r="I122" s="59"/>
       <c r="J122" s="60">
-        <f t="shared" si="20"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="K122" s="61">
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:11" ht="21">
+    <row r="123" spans="1:11" ht="21" x14ac:dyDescent="0.25">
       <c r="A123" s="56"/>
       <c r="B123" s="109">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="C123" s="58" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="D123" s="58"/>
       <c r="E123" s="59"/>
       <c r="F123" s="59"/>
       <c r="G123" s="58">
-        <f t="shared" si="22"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="H123" s="59"/>
       <c r="I123" s="59"/>
       <c r="J123" s="60">
-        <f t="shared" si="20"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="K123" s="61">
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:11" ht="21">
+    <row r="124" spans="1:11" ht="21" x14ac:dyDescent="0.25">
       <c r="A124" s="56"/>
       <c r="B124" s="109">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="C124" s="58" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="D124" s="58"/>
       <c r="E124" s="59"/>
       <c r="F124" s="59"/>
       <c r="G124" s="58">
-        <f t="shared" si="22"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="H124" s="59"/>
       <c r="I124" s="59"/>
       <c r="J124" s="60">
-        <f t="shared" si="20"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="K124" s="61">
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:11" ht="21">
+    <row r="125" spans="1:11" ht="21" x14ac:dyDescent="0.25">
       <c r="A125" s="56"/>
       <c r="B125" s="109">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="C125" s="58" t="s">
-        <v>155</v>
+        <v>171</v>
       </c>
       <c r="D125" s="58"/>
       <c r="E125" s="59"/>
       <c r="F125" s="59"/>
       <c r="G125" s="58">
-        <f t="shared" si="22"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="H125" s="59"/>
       <c r="I125" s="59"/>
       <c r="J125" s="60">
-        <f t="shared" si="20"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="K125" s="61">
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:11" ht="21">
+    <row r="126" spans="1:11" ht="21" x14ac:dyDescent="0.25">
       <c r="A126" s="56"/>
       <c r="B126" s="109">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="C126" s="58" t="s">
-        <v>156</v>
+        <v>172</v>
       </c>
       <c r="D126" s="58"/>
       <c r="E126" s="59"/>
       <c r="F126" s="59"/>
       <c r="G126" s="58">
-        <f t="shared" si="22"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="H126" s="59"/>
       <c r="I126" s="59"/>
       <c r="J126" s="60">
-        <f t="shared" si="20"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="K126" s="61">
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:11" ht="21">
-      <c r="A127" s="56"/>
-      <c r="B127" s="109">
-        <v>53</v>
-      </c>
+    <row r="127" spans="1:11" ht="21" x14ac:dyDescent="0.25">
+      <c r="A127" s="56">
+        <v>6</v>
+      </c>
+      <c r="B127" s="57"/>
       <c r="C127" s="58" t="s">
-        <v>168</v>
+        <v>17</v>
       </c>
       <c r="D127" s="58"/>
       <c r="E127" s="59"/>
       <c r="F127" s="59"/>
       <c r="G127" s="58">
-        <f t="shared" si="22"/>
+        <f t="shared" ref="G127:G128" si="31">F127-E127</f>
         <v>0</v>
       </c>
       <c r="H127" s="59"/>
       <c r="I127" s="59"/>
       <c r="J127" s="60">
-        <f t="shared" si="20"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K127" s="61">
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:11" ht="21">
-      <c r="A128" s="56"/>
-      <c r="B128" s="109">
-        <v>54</v>
-      </c>
+    <row r="128" spans="1:11" ht="21" x14ac:dyDescent="0.25">
+      <c r="A128" s="56">
+        <v>7</v>
+      </c>
+      <c r="B128" s="57"/>
       <c r="C128" s="58" t="s">
-        <v>157</v>
+        <v>18</v>
       </c>
       <c r="D128" s="58"/>
       <c r="E128" s="59"/>
       <c r="F128" s="59"/>
       <c r="G128" s="58">
-        <f t="shared" si="22"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="H128" s="59"/>
       <c r="I128" s="59"/>
       <c r="J128" s="60">
-        <f t="shared" si="20"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K128" s="61">
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:11" ht="21">
-      <c r="A129" s="56"/>
-      <c r="B129" s="109">
-        <v>55</v>
-      </c>
-      <c r="C129" s="58" t="s">
-        <v>158</v>
-      </c>
-      <c r="D129" s="58"/>
-      <c r="E129" s="59"/>
-      <c r="F129" s="59"/>
-      <c r="G129" s="58">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="H129" s="59"/>
-      <c r="I129" s="59"/>
-      <c r="J129" s="60">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="K129" s="61">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="130" spans="1:11" ht="21">
-      <c r="A130" s="56"/>
-      <c r="B130" s="109">
-        <v>56</v>
-      </c>
-      <c r="C130" s="58" t="s">
-        <v>159</v>
-      </c>
-      <c r="D130" s="58"/>
-      <c r="E130" s="59"/>
-      <c r="F130" s="59"/>
-      <c r="G130" s="58">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="H130" s="59"/>
-      <c r="I130" s="59"/>
-      <c r="J130" s="60">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="K130" s="61">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="131" spans="1:11" ht="21">
-      <c r="A131" s="56"/>
-      <c r="B131" s="109">
-        <v>57</v>
-      </c>
-      <c r="C131" s="58" t="s">
-        <v>160</v>
-      </c>
-      <c r="D131" s="58"/>
-      <c r="E131" s="59"/>
-      <c r="F131" s="59"/>
-      <c r="G131" s="58">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="H131" s="59"/>
-      <c r="I131" s="59"/>
-      <c r="J131" s="60">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="K131" s="61">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="132" spans="1:11" ht="21">
-      <c r="A132" s="56"/>
-      <c r="B132" s="109">
-        <v>58</v>
-      </c>
-      <c r="C132" s="58" t="s">
-        <v>161</v>
-      </c>
-      <c r="D132" s="58"/>
-      <c r="E132" s="59"/>
-      <c r="F132" s="59"/>
-      <c r="G132" s="58">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="H132" s="59"/>
-      <c r="I132" s="59"/>
-      <c r="J132" s="60">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="K132" s="61">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="133" spans="1:11" ht="21">
-      <c r="A133" s="56"/>
-      <c r="B133" s="109">
-        <v>59</v>
-      </c>
-      <c r="C133" s="58" t="s">
-        <v>162</v>
-      </c>
-      <c r="D133" s="58"/>
-      <c r="E133" s="59"/>
-      <c r="F133" s="59"/>
-      <c r="G133" s="58">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="H133" s="59"/>
-      <c r="I133" s="59"/>
-      <c r="J133" s="60">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="K133" s="61">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="134" spans="1:11" ht="21">
-      <c r="A134" s="56"/>
-      <c r="B134" s="109">
-        <v>60</v>
-      </c>
-      <c r="C134" s="58" t="s">
-        <v>163</v>
-      </c>
-      <c r="D134" s="58"/>
-      <c r="E134" s="59"/>
-      <c r="F134" s="59"/>
-      <c r="G134" s="58">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="H134" s="59"/>
-      <c r="I134" s="59"/>
-      <c r="J134" s="60">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="K134" s="61">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="135" spans="1:11" ht="21">
-      <c r="A135" s="56"/>
-      <c r="B135" s="109">
-        <v>61</v>
-      </c>
-      <c r="C135" s="58" t="s">
-        <v>164</v>
-      </c>
-      <c r="D135" s="58"/>
-      <c r="E135" s="59"/>
-      <c r="F135" s="59"/>
-      <c r="G135" s="58">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="H135" s="59"/>
-      <c r="I135" s="59"/>
-      <c r="J135" s="60">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="K135" s="61">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="136" spans="1:11" ht="21">
-      <c r="A136" s="56"/>
-      <c r="B136" s="109">
-        <v>62</v>
-      </c>
-      <c r="C136" s="58" t="s">
-        <v>165</v>
-      </c>
-      <c r="D136" s="58"/>
-      <c r="E136" s="59"/>
-      <c r="F136" s="59"/>
-      <c r="G136" s="58">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="H136" s="59"/>
-      <c r="I136" s="59"/>
-      <c r="J136" s="60">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="K136" s="61">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="137" spans="1:11" ht="21">
-      <c r="A137" s="56"/>
-      <c r="B137" s="109">
-        <v>63</v>
-      </c>
-      <c r="C137" s="58" t="s">
-        <v>172</v>
-      </c>
-      <c r="D137" s="58"/>
-      <c r="E137" s="59"/>
-      <c r="F137" s="59"/>
-      <c r="G137" s="58">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="H137" s="59"/>
-      <c r="I137" s="59"/>
-      <c r="J137" s="60">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="K137" s="61">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="138" spans="1:11" ht="21">
-      <c r="A138" s="56"/>
-      <c r="B138" s="109">
-        <v>64</v>
-      </c>
-      <c r="C138" s="58" t="s">
-        <v>173</v>
-      </c>
-      <c r="D138" s="58"/>
-      <c r="E138" s="59"/>
-      <c r="F138" s="59"/>
-      <c r="G138" s="58">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="H138" s="59"/>
-      <c r="I138" s="59"/>
-      <c r="J138" s="60">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="K138" s="61">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="139" spans="1:11" ht="21">
-      <c r="A139" s="56">
-        <v>6</v>
-      </c>
-      <c r="B139" s="57"/>
-      <c r="C139" s="58" t="s">
-        <v>17</v>
-      </c>
-      <c r="D139" s="58"/>
-      <c r="E139" s="59"/>
-      <c r="F139" s="59"/>
-      <c r="G139" s="58">
-        <f t="shared" ref="G139:G140" si="23">F139-E139</f>
-        <v>0</v>
-      </c>
-      <c r="H139" s="59"/>
-      <c r="I139" s="59"/>
-      <c r="J139" s="60">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K139" s="61">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="140" spans="1:11" ht="21">
-      <c r="A140" s="56">
-        <v>7</v>
-      </c>
-      <c r="B140" s="57"/>
-      <c r="C140" s="58" t="s">
-        <v>18</v>
-      </c>
-      <c r="D140" s="58"/>
-      <c r="E140" s="59"/>
-      <c r="F140" s="59"/>
-      <c r="G140" s="58">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="H140" s="59"/>
-      <c r="I140" s="59"/>
-      <c r="J140" s="60">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K140" s="61">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="141" spans="1:11" ht="21.75" thickBot="1">
-      <c r="A141" s="62"/>
-      <c r="B141" s="63"/>
-      <c r="C141" s="64"/>
-      <c r="D141" s="64"/>
-      <c r="E141" s="65"/>
-      <c r="F141" s="65"/>
-      <c r="G141" s="64"/>
-      <c r="H141" s="65"/>
-      <c r="I141" s="65"/>
-      <c r="J141" s="66" t="str">
-        <f>IF(I141="","",I141-H141)</f>
+    <row r="129" spans="1:11" ht="22" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A129" s="62"/>
+      <c r="B129" s="63"/>
+      <c r="C129" s="64"/>
+      <c r="D129" s="64"/>
+      <c r="E129" s="65"/>
+      <c r="F129" s="65"/>
+      <c r="G129" s="64"/>
+      <c r="H129" s="65"/>
+      <c r="I129" s="65"/>
+      <c r="J129" s="66" t="str">
+        <f>IF(I129="","",I129-H129)</f>
         <v/>
       </c>
-      <c r="K141" s="67"/>
-    </row>
-    <row r="142" spans="1:11">
-      <c r="E142" s="1"/>
-      <c r="F142" s="1"/>
-      <c r="G142">
-        <f>SUM(G6:G141)</f>
+      <c r="K129" s="67"/>
+    </row>
+    <row r="130" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="E130" s="1"/>
+      <c r="F130" s="1"/>
+      <c r="G130">
+        <f>SUM(G6:G129)</f>
         <v>111</v>
       </c>
-      <c r="H142" s="1"/>
-      <c r="I142" s="1"/>
-    </row>
-    <row r="143" spans="1:11">
-      <c r="E143" s="1"/>
-      <c r="F143" s="1" t="s">
+      <c r="H130" s="1"/>
+      <c r="I130" s="1"/>
+    </row>
+    <row r="131" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="E131" s="1"/>
+      <c r="F131" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G143" s="2">
-        <f>G142/30</f>
+      <c r="G131" s="2">
+        <f>G130/30</f>
         <v>3.7</v>
       </c>
-      <c r="H143" s="1"/>
-      <c r="I143" s="1"/>
-      <c r="J143" s="1"/>
-    </row>
-    <row r="144" spans="1:11">
-      <c r="E144" s="1"/>
-      <c r="F144" s="1"/>
-      <c r="H144" s="1"/>
-      <c r="I144" s="1"/>
-      <c r="J144" s="1"/>
-    </row>
-    <row r="145" spans="5:10">
-      <c r="E145" s="1"/>
-      <c r="F145" s="1"/>
-      <c r="H145" s="1"/>
-      <c r="I145" s="1"/>
-      <c r="J145" s="1"/>
-    </row>
-    <row r="146" spans="5:10">
-      <c r="E146" s="1"/>
-      <c r="F146" s="1"/>
-      <c r="H146" s="1"/>
-      <c r="I146" s="1"/>
-      <c r="J146" s="1"/>
-    </row>
-    <row r="147" spans="5:10">
-      <c r="E147" s="1"/>
-      <c r="F147" s="1"/>
-      <c r="H147" s="1"/>
-      <c r="I147" s="1"/>
-      <c r="J147" s="1"/>
-    </row>
-    <row r="148" spans="5:10">
-      <c r="E148" s="1"/>
-      <c r="F148" s="1"/>
-      <c r="H148" s="1"/>
-      <c r="I148" s="1"/>
-      <c r="J148" s="1"/>
-    </row>
-    <row r="149" spans="5:10">
-      <c r="E149" s="1"/>
-      <c r="F149" s="1"/>
-      <c r="H149" s="1"/>
-      <c r="I149" s="1"/>
-      <c r="J149" s="1"/>
-    </row>
-    <row r="150" spans="5:10">
-      <c r="E150" s="1"/>
-      <c r="F150" s="1"/>
-      <c r="H150" s="1"/>
-      <c r="I150" s="1"/>
-      <c r="J150" s="1"/>
-    </row>
-    <row r="151" spans="5:10">
-      <c r="E151" s="1"/>
-      <c r="F151" s="1"/>
-      <c r="H151" s="1"/>
-      <c r="I151" s="1"/>
-      <c r="J151" s="1"/>
-    </row>
-    <row r="152" spans="5:10">
-      <c r="E152" s="1"/>
-      <c r="F152" s="1"/>
-      <c r="H152" s="1"/>
-      <c r="I152" s="1"/>
-      <c r="J152" s="1"/>
+      <c r="H131" s="1"/>
+      <c r="I131" s="1"/>
+      <c r="J131" s="1"/>
+    </row>
+    <row r="132" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="E132" s="1"/>
+      <c r="F132" s="1"/>
+      <c r="H132" s="1"/>
+      <c r="I132" s="1"/>
+      <c r="J132" s="1"/>
+    </row>
+    <row r="133" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="E133" s="1"/>
+      <c r="F133" s="1"/>
+      <c r="H133" s="1"/>
+      <c r="I133" s="1"/>
+      <c r="J133" s="1"/>
+    </row>
+    <row r="134" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="E134" s="1"/>
+      <c r="F134" s="1"/>
+      <c r="H134" s="1"/>
+      <c r="I134" s="1"/>
+      <c r="J134" s="1"/>
+    </row>
+    <row r="135" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="E135" s="1"/>
+      <c r="F135" s="1"/>
+      <c r="H135" s="1"/>
+      <c r="I135" s="1"/>
+      <c r="J135" s="1"/>
+    </row>
+    <row r="136" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="E136" s="1"/>
+      <c r="F136" s="1"/>
+      <c r="H136" s="1"/>
+      <c r="I136" s="1"/>
+      <c r="J136" s="1"/>
+    </row>
+    <row r="137" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="E137" s="1"/>
+      <c r="F137" s="1"/>
+      <c r="H137" s="1"/>
+      <c r="I137" s="1"/>
+      <c r="J137" s="1"/>
+    </row>
+    <row r="138" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="E138" s="1"/>
+      <c r="F138" s="1"/>
+      <c r="H138" s="1"/>
+      <c r="I138" s="1"/>
+      <c r="J138" s="1"/>
+    </row>
+    <row r="139" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="E139" s="1"/>
+      <c r="F139" s="1"/>
+      <c r="H139" s="1"/>
+      <c r="I139" s="1"/>
+      <c r="J139" s="1"/>
+    </row>
+    <row r="140" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="E140" s="1"/>
+      <c r="F140" s="1"/>
+      <c r="H140" s="1"/>
+      <c r="I140" s="1"/>
+      <c r="J140" s="1"/>
     </row>
   </sheetData>
-  <autoFilter ref="A5:K143" xr:uid="{F0F39F5A-DF39-F541-B8C2-02BEDD153576}"/>
+  <autoFilter ref="A5:K131" xr:uid="{F0F39F5A-DF39-F541-B8C2-02BEDD153576}"/>
   <mergeCells count="4">
     <mergeCell ref="A2:B3"/>
     <mergeCell ref="C2:L3"/>
@@ -15578,198 +15431,198 @@
       <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="15" max="15" width="14.875" customWidth="1"/>
-    <col min="16" max="16" width="13.875" customWidth="1"/>
+    <col min="15" max="15" width="14.83203125" customWidth="1"/>
+    <col min="16" max="16" width="13.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="16.5" thickBot="1"/>
-    <row r="2" spans="1:17" ht="33.950000000000003" customHeight="1">
-      <c r="A2" s="128" t="s">
+    <row r="1" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:17" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="126" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="129"/>
-      <c r="C2" s="132" t="str">
+      <c r="B2" s="127"/>
+      <c r="C2" s="130" t="str">
         <f>Cover!E40</f>
         <v xml:space="preserve">Level Up </v>
       </c>
-      <c r="D2" s="133"/>
-      <c r="E2" s="133"/>
-      <c r="F2" s="133"/>
-      <c r="G2" s="133"/>
-      <c r="H2" s="133"/>
-      <c r="I2" s="133"/>
-      <c r="J2" s="133"/>
-      <c r="K2" s="133"/>
-      <c r="L2" s="133"/>
-      <c r="M2" s="133"/>
-      <c r="N2" s="133"/>
+      <c r="D2" s="131"/>
+      <c r="E2" s="131"/>
+      <c r="F2" s="131"/>
+      <c r="G2" s="131"/>
+      <c r="H2" s="131"/>
+      <c r="I2" s="131"/>
+      <c r="J2" s="131"/>
+      <c r="K2" s="131"/>
+      <c r="L2" s="131"/>
+      <c r="M2" s="131"/>
+      <c r="N2" s="131"/>
       <c r="O2" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="P2" s="136"/>
-      <c r="Q2" s="137"/>
-    </row>
-    <row r="3" spans="1:17" ht="33.950000000000003" customHeight="1" thickBot="1">
-      <c r="A3" s="130"/>
-      <c r="B3" s="131"/>
-      <c r="C3" s="134"/>
-      <c r="D3" s="135"/>
-      <c r="E3" s="135"/>
-      <c r="F3" s="135"/>
-      <c r="G3" s="135"/>
-      <c r="H3" s="135"/>
-      <c r="I3" s="135"/>
-      <c r="J3" s="135"/>
-      <c r="K3" s="135"/>
-      <c r="L3" s="135"/>
-      <c r="M3" s="135"/>
-      <c r="N3" s="135"/>
+      <c r="P2" s="134"/>
+      <c r="Q2" s="135"/>
+    </row>
+    <row r="3" spans="1:17" ht="34" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="128"/>
+      <c r="B3" s="129"/>
+      <c r="C3" s="132"/>
+      <c r="D3" s="133"/>
+      <c r="E3" s="133"/>
+      <c r="F3" s="133"/>
+      <c r="G3" s="133"/>
+      <c r="H3" s="133"/>
+      <c r="I3" s="133"/>
+      <c r="J3" s="133"/>
+      <c r="K3" s="133"/>
+      <c r="L3" s="133"/>
+      <c r="M3" s="133"/>
+      <c r="N3" s="133"/>
       <c r="O3" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="P3" s="138"/>
-      <c r="Q3" s="139"/>
-    </row>
-    <row r="4" spans="1:17">
+      <c r="P3" s="136"/>
+      <c r="Q3" s="137"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" s="12"/>
       <c r="Q4" s="13"/>
     </row>
-    <row r="5" spans="1:17" ht="21">
+    <row r="5" spans="1:17" ht="21" x14ac:dyDescent="0.25">
       <c r="A5" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="146"/>
-      <c r="E5" s="147"/>
-      <c r="F5" s="147"/>
-      <c r="G5" s="147"/>
-      <c r="H5" s="147"/>
-      <c r="I5" s="147"/>
-      <c r="J5" s="147"/>
-      <c r="K5" s="147"/>
-      <c r="L5" s="147"/>
-      <c r="M5" s="147"/>
-      <c r="N5" s="147"/>
-      <c r="O5" s="147"/>
-      <c r="P5" s="148"/>
+      <c r="D5" s="144"/>
+      <c r="E5" s="145"/>
+      <c r="F5" s="145"/>
+      <c r="G5" s="145"/>
+      <c r="H5" s="145"/>
+      <c r="I5" s="145"/>
+      <c r="J5" s="145"/>
+      <c r="K5" s="145"/>
+      <c r="L5" s="145"/>
+      <c r="M5" s="145"/>
+      <c r="N5" s="145"/>
+      <c r="O5" s="145"/>
+      <c r="P5" s="146"/>
       <c r="Q5" s="13"/>
     </row>
-    <row r="6" spans="1:17">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="D6" s="149"/>
-      <c r="E6" s="150"/>
-      <c r="F6" s="150"/>
-      <c r="G6" s="150"/>
-      <c r="H6" s="150"/>
-      <c r="I6" s="150"/>
-      <c r="J6" s="150"/>
-      <c r="K6" s="150"/>
-      <c r="L6" s="150"/>
-      <c r="M6" s="150"/>
-      <c r="N6" s="150"/>
-      <c r="O6" s="150"/>
-      <c r="P6" s="151"/>
+      <c r="D6" s="147"/>
+      <c r="E6" s="148"/>
+      <c r="F6" s="148"/>
+      <c r="G6" s="148"/>
+      <c r="H6" s="148"/>
+      <c r="I6" s="148"/>
+      <c r="J6" s="148"/>
+      <c r="K6" s="148"/>
+      <c r="L6" s="148"/>
+      <c r="M6" s="148"/>
+      <c r="N6" s="148"/>
+      <c r="O6" s="148"/>
+      <c r="P6" s="149"/>
       <c r="Q6" s="13"/>
     </row>
-    <row r="7" spans="1:17">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" s="12"/>
-      <c r="D7" s="149"/>
-      <c r="E7" s="150"/>
-      <c r="F7" s="150"/>
-      <c r="G7" s="150"/>
-      <c r="H7" s="150"/>
-      <c r="I7" s="150"/>
-      <c r="J7" s="150"/>
-      <c r="K7" s="150"/>
-      <c r="L7" s="150"/>
-      <c r="M7" s="150"/>
-      <c r="N7" s="150"/>
-      <c r="O7" s="150"/>
-      <c r="P7" s="151"/>
+      <c r="D7" s="147"/>
+      <c r="E7" s="148"/>
+      <c r="F7" s="148"/>
+      <c r="G7" s="148"/>
+      <c r="H7" s="148"/>
+      <c r="I7" s="148"/>
+      <c r="J7" s="148"/>
+      <c r="K7" s="148"/>
+      <c r="L7" s="148"/>
+      <c r="M7" s="148"/>
+      <c r="N7" s="148"/>
+      <c r="O7" s="148"/>
+      <c r="P7" s="149"/>
       <c r="Q7" s="13"/>
     </row>
-    <row r="8" spans="1:17">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" s="12"/>
-      <c r="D8" s="149"/>
-      <c r="E8" s="150"/>
-      <c r="F8" s="150"/>
-      <c r="G8" s="150"/>
-      <c r="H8" s="150"/>
-      <c r="I8" s="150"/>
-      <c r="J8" s="150"/>
-      <c r="K8" s="150"/>
-      <c r="L8" s="150"/>
-      <c r="M8" s="150"/>
-      <c r="N8" s="150"/>
-      <c r="O8" s="150"/>
-      <c r="P8" s="151"/>
+      <c r="D8" s="147"/>
+      <c r="E8" s="148"/>
+      <c r="F8" s="148"/>
+      <c r="G8" s="148"/>
+      <c r="H8" s="148"/>
+      <c r="I8" s="148"/>
+      <c r="J8" s="148"/>
+      <c r="K8" s="148"/>
+      <c r="L8" s="148"/>
+      <c r="M8" s="148"/>
+      <c r="N8" s="148"/>
+      <c r="O8" s="148"/>
+      <c r="P8" s="149"/>
       <c r="Q8" s="13"/>
     </row>
-    <row r="9" spans="1:17">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9" s="12"/>
-      <c r="D9" s="152"/>
-      <c r="E9" s="153"/>
-      <c r="F9" s="153"/>
-      <c r="G9" s="153"/>
-      <c r="H9" s="153"/>
-      <c r="I9" s="153"/>
-      <c r="J9" s="153"/>
-      <c r="K9" s="153"/>
-      <c r="L9" s="153"/>
-      <c r="M9" s="153"/>
-      <c r="N9" s="153"/>
-      <c r="O9" s="153"/>
-      <c r="P9" s="154"/>
+      <c r="D9" s="150"/>
+      <c r="E9" s="151"/>
+      <c r="F9" s="151"/>
+      <c r="G9" s="151"/>
+      <c r="H9" s="151"/>
+      <c r="I9" s="151"/>
+      <c r="J9" s="151"/>
+      <c r="K9" s="151"/>
+      <c r="L9" s="151"/>
+      <c r="M9" s="151"/>
+      <c r="N9" s="151"/>
+      <c r="O9" s="151"/>
+      <c r="P9" s="152"/>
       <c r="Q9" s="13"/>
     </row>
-    <row r="10" spans="1:17">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10" s="12"/>
       <c r="Q10" s="13"/>
     </row>
-    <row r="11" spans="1:17">
-      <c r="A11" s="140" t="s">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A11" s="138" t="s">
         <v>26</v>
       </c>
-      <c r="B11" s="141"/>
-      <c r="C11" s="141"/>
-      <c r="D11" s="141"/>
-      <c r="E11" s="141"/>
-      <c r="F11" s="141"/>
-      <c r="G11" s="141"/>
-      <c r="H11" s="141"/>
-      <c r="I11" s="141"/>
-      <c r="J11" s="141"/>
-      <c r="K11" s="141"/>
-      <c r="L11" s="141"/>
-      <c r="M11" s="141"/>
-      <c r="N11" s="141"/>
-      <c r="O11" s="141"/>
-      <c r="P11" s="141"/>
-      <c r="Q11" s="142"/>
-    </row>
-    <row r="12" spans="1:17">
-      <c r="A12" s="143"/>
-      <c r="B12" s="144"/>
-      <c r="C12" s="144"/>
-      <c r="D12" s="144"/>
-      <c r="E12" s="144"/>
-      <c r="F12" s="144"/>
-      <c r="G12" s="144"/>
-      <c r="H12" s="144"/>
-      <c r="I12" s="144"/>
-      <c r="J12" s="144"/>
-      <c r="K12" s="144"/>
-      <c r="L12" s="144"/>
-      <c r="M12" s="144"/>
-      <c r="N12" s="144"/>
-      <c r="O12" s="144"/>
-      <c r="P12" s="144"/>
-      <c r="Q12" s="145"/>
-    </row>
-    <row r="13" spans="1:17">
+      <c r="B11" s="139"/>
+      <c r="C11" s="139"/>
+      <c r="D11" s="139"/>
+      <c r="E11" s="139"/>
+      <c r="F11" s="139"/>
+      <c r="G11" s="139"/>
+      <c r="H11" s="139"/>
+      <c r="I11" s="139"/>
+      <c r="J11" s="139"/>
+      <c r="K11" s="139"/>
+      <c r="L11" s="139"/>
+      <c r="M11" s="139"/>
+      <c r="N11" s="139"/>
+      <c r="O11" s="139"/>
+      <c r="P11" s="139"/>
+      <c r="Q11" s="140"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A12" s="141"/>
+      <c r="B12" s="142"/>
+      <c r="C12" s="142"/>
+      <c r="D12" s="142"/>
+      <c r="E12" s="142"/>
+      <c r="F12" s="142"/>
+      <c r="G12" s="142"/>
+      <c r="H12" s="142"/>
+      <c r="I12" s="142"/>
+      <c r="J12" s="142"/>
+      <c r="K12" s="142"/>
+      <c r="L12" s="142"/>
+      <c r="M12" s="142"/>
+      <c r="N12" s="142"/>
+      <c r="O12" s="142"/>
+      <c r="P12" s="142"/>
+      <c r="Q12" s="143"/>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13" s="27"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
@@ -15781,7 +15634,7 @@
       <c r="I13" s="5"/>
       <c r="Q13" s="13"/>
     </row>
-    <row r="14" spans="1:17" s="3" customFormat="1" ht="18.75">
+    <row r="14" spans="1:17" s="3" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A14" s="21"/>
       <c r="B14" s="3" t="s">
         <v>27</v>
@@ -15794,332 +15647,332 @@
       <c r="M14" s="29"/>
       <c r="Q14" s="31"/>
     </row>
-    <row r="15" spans="1:17">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A15" s="12"/>
       <c r="I15" s="6"/>
       <c r="Q15" s="13"/>
     </row>
-    <row r="16" spans="1:17">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A16" s="12"/>
       <c r="I16" s="6"/>
       <c r="Q16" s="13"/>
     </row>
-    <row r="17" spans="1:17">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A17" s="12"/>
       <c r="I17" s="6"/>
       <c r="Q17" s="13"/>
     </row>
-    <row r="18" spans="1:17">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A18" s="12"/>
       <c r="I18" s="6"/>
       <c r="Q18" s="13"/>
     </row>
-    <row r="19" spans="1:17">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A19" s="12"/>
       <c r="I19" s="6"/>
       <c r="Q19" s="13"/>
     </row>
-    <row r="20" spans="1:17">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A20" s="12"/>
       <c r="I20" s="6"/>
       <c r="Q20" s="13"/>
     </row>
-    <row r="21" spans="1:17">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A21" s="12"/>
       <c r="I21" s="6"/>
       <c r="Q21" s="13"/>
     </row>
-    <row r="22" spans="1:17">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A22" s="12"/>
       <c r="I22" s="6"/>
       <c r="Q22" s="13"/>
     </row>
-    <row r="23" spans="1:17">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A23" s="12"/>
       <c r="I23" s="6"/>
       <c r="Q23" s="13"/>
     </row>
-    <row r="24" spans="1:17">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A24" s="12"/>
       <c r="I24" s="6"/>
       <c r="Q24" s="13"/>
     </row>
-    <row r="25" spans="1:17">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A25" s="12"/>
       <c r="I25" s="6"/>
       <c r="Q25" s="13"/>
     </row>
-    <row r="26" spans="1:17">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A26" s="12"/>
       <c r="I26" s="6"/>
       <c r="Q26" s="13"/>
     </row>
-    <row r="27" spans="1:17">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A27" s="12"/>
       <c r="I27" s="6"/>
       <c r="Q27" s="13"/>
     </row>
-    <row r="28" spans="1:17">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A28" s="12"/>
       <c r="I28" s="6"/>
       <c r="Q28" s="13"/>
     </row>
-    <row r="29" spans="1:17">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A29" s="12"/>
       <c r="I29" s="6"/>
       <c r="Q29" s="13"/>
     </row>
-    <row r="30" spans="1:17">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A30" s="12"/>
       <c r="I30" s="6"/>
       <c r="Q30" s="13"/>
     </row>
-    <row r="31" spans="1:17">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A31" s="12"/>
       <c r="I31" s="6"/>
       <c r="Q31" s="13"/>
     </row>
-    <row r="32" spans="1:17">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A32" s="12"/>
       <c r="I32" s="6"/>
       <c r="Q32" s="13"/>
     </row>
-    <row r="33" spans="1:17">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A33" s="12"/>
       <c r="I33" s="6"/>
       <c r="Q33" s="13"/>
     </row>
-    <row r="34" spans="1:17">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A34" s="12"/>
       <c r="I34" s="6"/>
       <c r="Q34" s="13"/>
     </row>
-    <row r="35" spans="1:17">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A35" s="12"/>
       <c r="I35" s="6"/>
       <c r="Q35" s="13"/>
     </row>
-    <row r="36" spans="1:17">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A36" s="12"/>
       <c r="I36" s="6"/>
       <c r="Q36" s="13"/>
     </row>
-    <row r="37" spans="1:17">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A37" s="12"/>
       <c r="I37" s="6"/>
       <c r="Q37" s="13"/>
     </row>
-    <row r="38" spans="1:17">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A38" s="12"/>
       <c r="I38" s="6"/>
       <c r="Q38" s="13"/>
     </row>
-    <row r="39" spans="1:17">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A39" s="12"/>
       <c r="I39" s="6"/>
       <c r="Q39" s="13"/>
     </row>
-    <row r="40" spans="1:17">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A40" s="12"/>
       <c r="I40" s="6"/>
       <c r="Q40" s="13"/>
     </row>
-    <row r="41" spans="1:17">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A41" s="12"/>
       <c r="I41" s="6"/>
       <c r="Q41" s="13"/>
     </row>
-    <row r="42" spans="1:17">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A42" s="12"/>
       <c r="I42" s="6"/>
       <c r="Q42" s="13"/>
     </row>
-    <row r="43" spans="1:17">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A43" s="12"/>
       <c r="I43" s="6"/>
       <c r="Q43" s="13"/>
     </row>
-    <row r="44" spans="1:17">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A44" s="12"/>
       <c r="I44" s="6"/>
       <c r="Q44" s="13"/>
     </row>
-    <row r="45" spans="1:17">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A45" s="12"/>
       <c r="I45" s="6"/>
       <c r="Q45" s="13"/>
     </row>
-    <row r="46" spans="1:17">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A46" s="12"/>
       <c r="I46" s="6"/>
       <c r="Q46" s="13"/>
     </row>
-    <row r="47" spans="1:17">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A47" s="12"/>
       <c r="I47" s="6"/>
       <c r="Q47" s="13"/>
     </row>
-    <row r="48" spans="1:17">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A48" s="12"/>
       <c r="I48" s="6"/>
       <c r="Q48" s="13"/>
     </row>
-    <row r="49" spans="1:17">
+    <row r="49" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A49" s="12"/>
       <c r="I49" s="6"/>
       <c r="Q49" s="13"/>
     </row>
-    <row r="50" spans="1:17">
+    <row r="50" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A50" s="12"/>
       <c r="I50" s="6"/>
       <c r="Q50" s="13"/>
     </row>
-    <row r="51" spans="1:17">
+    <row r="51" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A51" s="12"/>
       <c r="I51" s="6"/>
       <c r="Q51" s="13"/>
     </row>
-    <row r="52" spans="1:17">
+    <row r="52" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A52" s="12"/>
       <c r="I52" s="6"/>
       <c r="Q52" s="13"/>
     </row>
-    <row r="53" spans="1:17">
+    <row r="53" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A53" s="12"/>
       <c r="I53" s="6"/>
       <c r="Q53" s="13"/>
     </row>
-    <row r="54" spans="1:17">
+    <row r="54" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A54" s="12"/>
       <c r="I54" s="6"/>
       <c r="Q54" s="13"/>
     </row>
-    <row r="55" spans="1:17">
+    <row r="55" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A55" s="12"/>
       <c r="I55" s="6"/>
       <c r="Q55" s="13"/>
     </row>
-    <row r="56" spans="1:17">
+    <row r="56" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A56" s="12"/>
       <c r="I56" s="6"/>
       <c r="Q56" s="13"/>
     </row>
-    <row r="57" spans="1:17">
+    <row r="57" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A57" s="12"/>
       <c r="I57" s="6"/>
       <c r="Q57" s="13"/>
     </row>
-    <row r="58" spans="1:17">
+    <row r="58" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A58" s="12"/>
       <c r="I58" s="6"/>
       <c r="Q58" s="13"/>
     </row>
-    <row r="59" spans="1:17">
+    <row r="59" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A59" s="12"/>
       <c r="I59" s="6"/>
       <c r="Q59" s="13"/>
     </row>
-    <row r="60" spans="1:17">
+    <row r="60" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A60" s="12"/>
       <c r="I60" s="6"/>
       <c r="Q60" s="13"/>
     </row>
-    <row r="61" spans="1:17">
+    <row r="61" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A61" s="12"/>
       <c r="I61" s="6"/>
       <c r="Q61" s="13"/>
     </row>
-    <row r="62" spans="1:17">
+    <row r="62" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A62" s="12"/>
       <c r="I62" s="6"/>
       <c r="Q62" s="13"/>
     </row>
-    <row r="63" spans="1:17">
+    <row r="63" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A63" s="12"/>
       <c r="I63" s="6"/>
       <c r="Q63" s="13"/>
     </row>
-    <row r="64" spans="1:17">
+    <row r="64" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A64" s="12"/>
       <c r="I64" s="6"/>
       <c r="Q64" s="13"/>
     </row>
-    <row r="65" spans="1:17">
+    <row r="65" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A65" s="12"/>
       <c r="I65" s="6"/>
       <c r="Q65" s="13"/>
     </row>
-    <row r="66" spans="1:17">
+    <row r="66" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A66" s="12"/>
       <c r="I66" s="6"/>
       <c r="Q66" s="13"/>
     </row>
-    <row r="67" spans="1:17">
+    <row r="67" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A67" s="12"/>
       <c r="I67" s="6"/>
       <c r="Q67" s="13"/>
     </row>
-    <row r="68" spans="1:17">
+    <row r="68" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A68" s="12"/>
       <c r="I68" s="6"/>
       <c r="Q68" s="13"/>
     </row>
-    <row r="69" spans="1:17">
+    <row r="69" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A69" s="12"/>
       <c r="I69" s="6"/>
       <c r="Q69" s="13"/>
     </row>
-    <row r="70" spans="1:17">
+    <row r="70" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A70" s="12"/>
       <c r="I70" s="6"/>
       <c r="Q70" s="13"/>
     </row>
-    <row r="71" spans="1:17">
+    <row r="71" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A71" s="12"/>
       <c r="I71" s="6"/>
       <c r="Q71" s="13"/>
     </row>
-    <row r="72" spans="1:17">
+    <row r="72" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A72" s="12"/>
       <c r="I72" s="6"/>
       <c r="Q72" s="13"/>
     </row>
-    <row r="73" spans="1:17">
+    <row r="73" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A73" s="12"/>
       <c r="I73" s="6"/>
       <c r="Q73" s="13"/>
     </row>
-    <row r="74" spans="1:17">
+    <row r="74" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A74" s="12"/>
       <c r="I74" s="6"/>
       <c r="Q74" s="13"/>
     </row>
-    <row r="75" spans="1:17">
+    <row r="75" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A75" s="12"/>
       <c r="I75" s="6"/>
       <c r="Q75" s="13"/>
     </row>
-    <row r="76" spans="1:17">
+    <row r="76" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A76" s="12"/>
       <c r="I76" s="6"/>
       <c r="Q76" s="13"/>
     </row>
-    <row r="77" spans="1:17">
+    <row r="77" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A77" s="12"/>
       <c r="I77" s="6"/>
       <c r="Q77" s="13"/>
     </row>
-    <row r="78" spans="1:17">
+    <row r="78" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A78" s="12"/>
       <c r="I78" s="6"/>
       <c r="Q78" s="13"/>
     </row>
-    <row r="79" spans="1:17">
+    <row r="79" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A79" s="12"/>
       <c r="I79" s="6"/>
       <c r="Q79" s="13"/>
     </row>
-    <row r="80" spans="1:17" ht="16.5" thickBot="1">
+    <row r="80" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A80" s="14"/>
       <c r="B80" s="15"/>
       <c r="C80" s="15"/>
@@ -16138,9 +15991,9 @@
       <c r="P80" s="15"/>
       <c r="Q80" s="16"/>
     </row>
-    <row r="85" spans="19:19">
+    <row r="85" spans="19:19" x14ac:dyDescent="0.2">
       <c r="S85" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>
@@ -16164,69 +16017,69 @@
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="15" max="15" width="14.875" customWidth="1"/>
-    <col min="16" max="16" width="13.875" customWidth="1"/>
+    <col min="15" max="15" width="14.83203125" customWidth="1"/>
+    <col min="16" max="16" width="13.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="16.5" thickBot="1"/>
-    <row r="2" spans="1:17" ht="33.950000000000003" customHeight="1">
-      <c r="A2" s="128" t="s">
+    <row r="1" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:17" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="126" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="129"/>
-      <c r="C2" s="132" t="str">
+      <c r="B2" s="127"/>
+      <c r="C2" s="130" t="str">
         <f>Cover!E40</f>
         <v xml:space="preserve">Level Up </v>
       </c>
-      <c r="D2" s="133"/>
-      <c r="E2" s="133"/>
-      <c r="F2" s="133"/>
-      <c r="G2" s="133"/>
-      <c r="H2" s="133"/>
-      <c r="I2" s="133"/>
-      <c r="J2" s="133"/>
-      <c r="K2" s="133"/>
-      <c r="L2" s="133"/>
-      <c r="M2" s="133"/>
-      <c r="N2" s="133"/>
+      <c r="D2" s="131"/>
+      <c r="E2" s="131"/>
+      <c r="F2" s="131"/>
+      <c r="G2" s="131"/>
+      <c r="H2" s="131"/>
+      <c r="I2" s="131"/>
+      <c r="J2" s="131"/>
+      <c r="K2" s="131"/>
+      <c r="L2" s="131"/>
+      <c r="M2" s="131"/>
+      <c r="N2" s="131"/>
       <c r="O2" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="P2" s="136"/>
-      <c r="Q2" s="137"/>
-    </row>
-    <row r="3" spans="1:17" ht="33.950000000000003" customHeight="1" thickBot="1">
-      <c r="A3" s="130"/>
-      <c r="B3" s="131"/>
-      <c r="C3" s="134"/>
-      <c r="D3" s="135"/>
-      <c r="E3" s="135"/>
-      <c r="F3" s="135"/>
-      <c r="G3" s="135"/>
-      <c r="H3" s="135"/>
-      <c r="I3" s="135"/>
-      <c r="J3" s="135"/>
-      <c r="K3" s="135"/>
-      <c r="L3" s="135"/>
-      <c r="M3" s="135"/>
-      <c r="N3" s="135"/>
+      <c r="P2" s="134"/>
+      <c r="Q2" s="135"/>
+    </row>
+    <row r="3" spans="1:17" ht="34" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="128"/>
+      <c r="B3" s="129"/>
+      <c r="C3" s="132"/>
+      <c r="D3" s="133"/>
+      <c r="E3" s="133"/>
+      <c r="F3" s="133"/>
+      <c r="G3" s="133"/>
+      <c r="H3" s="133"/>
+      <c r="I3" s="133"/>
+      <c r="J3" s="133"/>
+      <c r="K3" s="133"/>
+      <c r="L3" s="133"/>
+      <c r="M3" s="133"/>
+      <c r="N3" s="133"/>
       <c r="O3" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="P3" s="138"/>
-      <c r="Q3" s="139"/>
-    </row>
-    <row r="4" spans="1:17">
+      <c r="P3" s="136"/>
+      <c r="Q3" s="137"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" s="12"/>
       <c r="Q4" s="13"/>
     </row>
-    <row r="5" spans="1:17">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="12"/>
       <c r="Q5" s="13"/>
     </row>
-    <row r="6" spans="1:17" s="3" customFormat="1" ht="23.25">
+    <row r="6" spans="1:17" s="3" customFormat="1" ht="24" x14ac:dyDescent="0.3">
       <c r="A6" s="50" t="s">
         <v>29</v>
       </c>
@@ -16234,267 +16087,267 @@
       <c r="M6" s="29"/>
       <c r="Q6" s="31"/>
     </row>
-    <row r="7" spans="1:17">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" s="12"/>
       <c r="Q7" s="13"/>
     </row>
-    <row r="8" spans="1:17">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" s="12"/>
       <c r="Q8" s="13"/>
     </row>
-    <row r="9" spans="1:17">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9" s="12"/>
       <c r="Q9" s="13"/>
     </row>
-    <row r="10" spans="1:17">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10" s="12"/>
       <c r="Q10" s="13"/>
     </row>
-    <row r="11" spans="1:17">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11" s="12"/>
       <c r="Q11" s="13"/>
     </row>
-    <row r="12" spans="1:17">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12" s="12"/>
       <c r="Q12" s="13"/>
     </row>
-    <row r="13" spans="1:17">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13" s="12"/>
       <c r="Q13" s="13"/>
     </row>
-    <row r="14" spans="1:17">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A14" s="12"/>
       <c r="Q14" s="13"/>
     </row>
-    <row r="15" spans="1:17">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A15" s="12"/>
       <c r="Q15" s="13"/>
     </row>
-    <row r="16" spans="1:17">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A16" s="12"/>
       <c r="Q16" s="13"/>
     </row>
-    <row r="17" spans="1:17">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A17" s="12"/>
       <c r="Q17" s="13"/>
     </row>
-    <row r="18" spans="1:17">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A18" s="12"/>
       <c r="Q18" s="13"/>
     </row>
-    <row r="19" spans="1:17">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A19" s="12"/>
       <c r="Q19" s="13"/>
     </row>
-    <row r="20" spans="1:17">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A20" s="12"/>
       <c r="Q20" s="13"/>
     </row>
-    <row r="21" spans="1:17">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A21" s="12"/>
       <c r="Q21" s="13"/>
     </row>
-    <row r="22" spans="1:17">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A22" s="12"/>
       <c r="Q22" s="13"/>
     </row>
-    <row r="23" spans="1:17">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A23" s="12"/>
       <c r="Q23" s="13"/>
     </row>
-    <row r="24" spans="1:17">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A24" s="12"/>
       <c r="Q24" s="13"/>
     </row>
-    <row r="25" spans="1:17">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A25" s="12"/>
       <c r="Q25" s="13"/>
     </row>
-    <row r="26" spans="1:17">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A26" s="12"/>
       <c r="Q26" s="13"/>
     </row>
-    <row r="27" spans="1:17">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A27" s="12"/>
       <c r="Q27" s="13"/>
     </row>
-    <row r="28" spans="1:17">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A28" s="12"/>
       <c r="Q28" s="13"/>
     </row>
-    <row r="29" spans="1:17">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A29" s="12"/>
       <c r="Q29" s="13"/>
     </row>
-    <row r="30" spans="1:17">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A30" s="12"/>
       <c r="Q30" s="13"/>
     </row>
-    <row r="31" spans="1:17">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A31" s="12"/>
       <c r="Q31" s="13"/>
     </row>
-    <row r="32" spans="1:17">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A32" s="12"/>
       <c r="Q32" s="13"/>
     </row>
-    <row r="33" spans="1:17">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A33" s="12"/>
       <c r="Q33" s="13"/>
     </row>
-    <row r="34" spans="1:17">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A34" s="12"/>
       <c r="Q34" s="13"/>
     </row>
-    <row r="35" spans="1:17">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A35" s="12"/>
       <c r="Q35" s="13"/>
     </row>
-    <row r="36" spans="1:17">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A36" s="12"/>
       <c r="Q36" s="13"/>
     </row>
-    <row r="37" spans="1:17">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A37" s="12"/>
       <c r="Q37" s="13"/>
     </row>
-    <row r="38" spans="1:17">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A38" s="12"/>
       <c r="Q38" s="13"/>
     </row>
-    <row r="39" spans="1:17">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A39" s="12"/>
       <c r="Q39" s="13"/>
     </row>
-    <row r="40" spans="1:17">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A40" s="12"/>
       <c r="Q40" s="13"/>
     </row>
-    <row r="41" spans="1:17">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A41" s="12"/>
       <c r="Q41" s="13"/>
     </row>
-    <row r="42" spans="1:17">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A42" s="12"/>
       <c r="Q42" s="13"/>
     </row>
-    <row r="43" spans="1:17">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A43" s="12"/>
       <c r="Q43" s="13"/>
     </row>
-    <row r="44" spans="1:17">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A44" s="12"/>
       <c r="Q44" s="13"/>
     </row>
-    <row r="45" spans="1:17">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A45" s="12"/>
       <c r="Q45" s="13"/>
     </row>
-    <row r="46" spans="1:17">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A46" s="12"/>
       <c r="Q46" s="13"/>
     </row>
-    <row r="47" spans="1:17">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A47" s="12"/>
       <c r="Q47" s="13"/>
     </row>
-    <row r="48" spans="1:17">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A48" s="12"/>
       <c r="Q48" s="13"/>
     </row>
-    <row r="49" spans="1:17">
+    <row r="49" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A49" s="12"/>
       <c r="Q49" s="13"/>
     </row>
-    <row r="50" spans="1:17">
+    <row r="50" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A50" s="12"/>
       <c r="Q50" s="13"/>
     </row>
-    <row r="51" spans="1:17">
+    <row r="51" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A51" s="12"/>
       <c r="Q51" s="13"/>
     </row>
-    <row r="52" spans="1:17">
+    <row r="52" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A52" s="12"/>
       <c r="Q52" s="13"/>
     </row>
-    <row r="53" spans="1:17">
+    <row r="53" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A53" s="12"/>
       <c r="Q53" s="13"/>
     </row>
-    <row r="54" spans="1:17">
+    <row r="54" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A54" s="12"/>
       <c r="Q54" s="13"/>
     </row>
-    <row r="55" spans="1:17">
+    <row r="55" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A55" s="12"/>
       <c r="Q55" s="13"/>
     </row>
-    <row r="56" spans="1:17">
+    <row r="56" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A56" s="12"/>
       <c r="Q56" s="13"/>
     </row>
-    <row r="57" spans="1:17">
+    <row r="57" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A57" s="12"/>
       <c r="Q57" s="13"/>
     </row>
-    <row r="58" spans="1:17">
+    <row r="58" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A58" s="12"/>
       <c r="Q58" s="13"/>
     </row>
-    <row r="59" spans="1:17">
+    <row r="59" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A59" s="12"/>
       <c r="Q59" s="13"/>
     </row>
-    <row r="60" spans="1:17">
+    <row r="60" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A60" s="12"/>
       <c r="Q60" s="13"/>
     </row>
-    <row r="61" spans="1:17">
+    <row r="61" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A61" s="12"/>
       <c r="Q61" s="13"/>
     </row>
-    <row r="62" spans="1:17">
+    <row r="62" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A62" s="12"/>
       <c r="Q62" s="13"/>
     </row>
-    <row r="63" spans="1:17">
+    <row r="63" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A63" s="12"/>
       <c r="Q63" s="13"/>
     </row>
-    <row r="64" spans="1:17">
+    <row r="64" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A64" s="12"/>
       <c r="Q64" s="13"/>
     </row>
-    <row r="65" spans="1:17">
+    <row r="65" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A65" s="12"/>
       <c r="Q65" s="13"/>
     </row>
-    <row r="66" spans="1:17">
+    <row r="66" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A66" s="12"/>
       <c r="Q66" s="13"/>
     </row>
-    <row r="67" spans="1:17">
+    <row r="67" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A67" s="12"/>
       <c r="Q67" s="13"/>
     </row>
-    <row r="68" spans="1:17">
+    <row r="68" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A68" s="12"/>
       <c r="Q68" s="13"/>
     </row>
-    <row r="69" spans="1:17">
+    <row r="69" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A69" s="12"/>
       <c r="Q69" s="13"/>
     </row>
-    <row r="70" spans="1:17">
+    <row r="70" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A70" s="12"/>
       <c r="Q70" s="13"/>
     </row>
-    <row r="71" spans="1:17">
+    <row r="71" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A71" s="12"/>
       <c r="Q71" s="13"/>
     </row>
-    <row r="72" spans="1:17" ht="16.5" thickBot="1">
+    <row r="72" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A72" s="14"/>
       <c r="B72" s="15"/>
       <c r="C72" s="15"/>
@@ -16531,66 +16384,66 @@
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="12.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.625" customWidth="1"/>
+    <col min="2" max="2" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.6640625" customWidth="1"/>
     <col min="4" max="4" width="18" customWidth="1"/>
-    <col min="5" max="10" width="13.625" customWidth="1"/>
-    <col min="11" max="11" width="27.875" customWidth="1"/>
-    <col min="13" max="13" width="14.875" customWidth="1"/>
-    <col min="14" max="14" width="13.875" customWidth="1"/>
+    <col min="5" max="10" width="13.6640625" customWidth="1"/>
+    <col min="11" max="11" width="27.83203125" customWidth="1"/>
+    <col min="13" max="13" width="14.83203125" customWidth="1"/>
+    <col min="14" max="14" width="13.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="16.5" thickBot="1"/>
-    <row r="2" spans="1:15" ht="33.950000000000003" customHeight="1">
-      <c r="A2" s="128" t="s">
+    <row r="1" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="126" t="s">
         <v>41</v>
       </c>
-      <c r="B2" s="129"/>
-      <c r="C2" s="132" t="str">
+      <c r="B2" s="127"/>
+      <c r="C2" s="130" t="str">
         <f>Cover!E40</f>
         <v xml:space="preserve">Level Up </v>
       </c>
-      <c r="D2" s="133"/>
-      <c r="E2" s="133"/>
-      <c r="F2" s="133"/>
-      <c r="G2" s="133"/>
-      <c r="H2" s="133"/>
-      <c r="I2" s="133"/>
-      <c r="J2" s="133"/>
-      <c r="K2" s="133"/>
-      <c r="L2" s="133"/>
+      <c r="D2" s="131"/>
+      <c r="E2" s="131"/>
+      <c r="F2" s="131"/>
+      <c r="G2" s="131"/>
+      <c r="H2" s="131"/>
+      <c r="I2" s="131"/>
+      <c r="J2" s="131"/>
+      <c r="K2" s="131"/>
+      <c r="L2" s="131"/>
       <c r="M2" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="N2" s="136"/>
-      <c r="O2" s="137"/>
-    </row>
-    <row r="3" spans="1:15" ht="33.950000000000003" customHeight="1" thickBot="1">
-      <c r="A3" s="130"/>
-      <c r="B3" s="131"/>
-      <c r="C3" s="134"/>
-      <c r="D3" s="135"/>
-      <c r="E3" s="135"/>
-      <c r="F3" s="135"/>
-      <c r="G3" s="135"/>
-      <c r="H3" s="135"/>
-      <c r="I3" s="135"/>
-      <c r="J3" s="135"/>
-      <c r="K3" s="135"/>
-      <c r="L3" s="135"/>
+      <c r="N2" s="134"/>
+      <c r="O2" s="135"/>
+    </row>
+    <row r="3" spans="1:15" ht="34" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="128"/>
+      <c r="B3" s="129"/>
+      <c r="C3" s="132"/>
+      <c r="D3" s="133"/>
+      <c r="E3" s="133"/>
+      <c r="F3" s="133"/>
+      <c r="G3" s="133"/>
+      <c r="H3" s="133"/>
+      <c r="I3" s="133"/>
+      <c r="J3" s="133"/>
+      <c r="K3" s="133"/>
+      <c r="L3" s="133"/>
       <c r="M3" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="N3" s="138"/>
-      <c r="O3" s="139"/>
-    </row>
-    <row r="4" spans="1:15" ht="16.5" thickBot="1">
+      <c r="N3" s="136"/>
+      <c r="O3" s="137"/>
+    </row>
+    <row r="4" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="12"/>
       <c r="O4" s="13"/>
     </row>
-    <row r="5" spans="1:15" ht="24" thickBot="1">
+    <row r="5" spans="1:15" ht="25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="12"/>
       <c r="B5" s="46" t="s">
         <v>39</v>
@@ -16601,7 +16454,7 @@
       <c r="G5" s="20"/>
       <c r="O5" s="13"/>
     </row>
-    <row r="6" spans="1:15" ht="24" thickBot="1">
+    <row r="6" spans="1:15" ht="25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="12"/>
       <c r="B6" s="46" t="s">
         <v>40</v>
@@ -16612,11 +16465,11 @@
       <c r="G6" s="49"/>
       <c r="O6" s="13"/>
     </row>
-    <row r="7" spans="1:15" ht="16.5" thickBot="1">
+    <row r="7" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="12"/>
       <c r="O7" s="13"/>
     </row>
-    <row r="8" spans="1:15" ht="23.25">
+    <row r="8" spans="1:15" ht="24" x14ac:dyDescent="0.3">
       <c r="A8" s="12"/>
       <c r="B8" s="32" t="s">
         <v>0</v>
@@ -16650,7 +16503,7 @@
       </c>
       <c r="O8" s="13"/>
     </row>
-    <row r="9" spans="1:15" ht="23.25">
+    <row r="9" spans="1:15" ht="24" x14ac:dyDescent="0.3">
       <c r="A9" s="12"/>
       <c r="B9" s="35">
         <v>1</v>
@@ -16666,7 +16519,7 @@
       <c r="K9" s="39"/>
       <c r="O9" s="13"/>
     </row>
-    <row r="10" spans="1:15" ht="23.25">
+    <row r="10" spans="1:15" ht="24" x14ac:dyDescent="0.3">
       <c r="A10" s="12"/>
       <c r="B10" s="35">
         <v>2</v>
@@ -16682,7 +16535,7 @@
       <c r="K10" s="40"/>
       <c r="O10" s="13"/>
     </row>
-    <row r="11" spans="1:15" ht="23.25">
+    <row r="11" spans="1:15" ht="24" x14ac:dyDescent="0.3">
       <c r="A11" s="12"/>
       <c r="B11" s="35">
         <v>3</v>
@@ -16698,7 +16551,7 @@
       <c r="K11" s="39"/>
       <c r="O11" s="13"/>
     </row>
-    <row r="12" spans="1:15" ht="23.25">
+    <row r="12" spans="1:15" ht="24" x14ac:dyDescent="0.3">
       <c r="A12" s="12"/>
       <c r="B12" s="35">
         <v>4</v>
@@ -16714,7 +16567,7 @@
       <c r="K12" s="39"/>
       <c r="O12" s="13"/>
     </row>
-    <row r="13" spans="1:15" ht="23.25">
+    <row r="13" spans="1:15" ht="24" x14ac:dyDescent="0.3">
       <c r="A13" s="12"/>
       <c r="B13" s="35">
         <v>5</v>
@@ -16730,7 +16583,7 @@
       <c r="K13" s="39"/>
       <c r="O13" s="13"/>
     </row>
-    <row r="14" spans="1:15" ht="23.25">
+    <row r="14" spans="1:15" ht="24" x14ac:dyDescent="0.3">
       <c r="A14" s="12"/>
       <c r="B14" s="35">
         <v>6</v>
@@ -16746,7 +16599,7 @@
       <c r="K14" s="39"/>
       <c r="O14" s="13"/>
     </row>
-    <row r="15" spans="1:15" ht="23.25">
+    <row r="15" spans="1:15" ht="24" x14ac:dyDescent="0.3">
       <c r="A15" s="12"/>
       <c r="B15" s="35">
         <v>7</v>
@@ -16762,7 +16615,7 @@
       <c r="K15" s="39"/>
       <c r="O15" s="13"/>
     </row>
-    <row r="16" spans="1:15" ht="23.25">
+    <row r="16" spans="1:15" ht="24" x14ac:dyDescent="0.3">
       <c r="A16" s="12"/>
       <c r="B16" s="35">
         <v>8</v>
@@ -16778,7 +16631,7 @@
       <c r="K16" s="39"/>
       <c r="O16" s="13"/>
     </row>
-    <row r="17" spans="1:15" ht="23.25">
+    <row r="17" spans="1:15" ht="24" x14ac:dyDescent="0.3">
       <c r="A17" s="12"/>
       <c r="B17" s="35">
         <v>9</v>
@@ -16794,7 +16647,7 @@
       <c r="K17" s="39"/>
       <c r="O17" s="13"/>
     </row>
-    <row r="18" spans="1:15" ht="23.25">
+    <row r="18" spans="1:15" ht="24" x14ac:dyDescent="0.3">
       <c r="A18" s="12"/>
       <c r="B18" s="35">
         <v>10</v>
@@ -16810,7 +16663,7 @@
       <c r="K18" s="39"/>
       <c r="O18" s="13"/>
     </row>
-    <row r="19" spans="1:15" ht="23.25">
+    <row r="19" spans="1:15" ht="24" x14ac:dyDescent="0.3">
       <c r="A19" s="12"/>
       <c r="B19" s="35">
         <v>11</v>
@@ -16826,7 +16679,7 @@
       <c r="K19" s="39"/>
       <c r="O19" s="13"/>
     </row>
-    <row r="20" spans="1:15" ht="23.25">
+    <row r="20" spans="1:15" ht="24" x14ac:dyDescent="0.3">
       <c r="A20" s="12"/>
       <c r="B20" s="35">
         <v>12</v>
@@ -16842,7 +16695,7 @@
       <c r="K20" s="39"/>
       <c r="O20" s="13"/>
     </row>
-    <row r="21" spans="1:15" ht="23.25">
+    <row r="21" spans="1:15" ht="24" x14ac:dyDescent="0.3">
       <c r="A21" s="12"/>
       <c r="B21" s="35">
         <v>13</v>
@@ -16858,7 +16711,7 @@
       <c r="K21" s="39"/>
       <c r="O21" s="13"/>
     </row>
-    <row r="22" spans="1:15" ht="23.25">
+    <row r="22" spans="1:15" ht="24" x14ac:dyDescent="0.3">
       <c r="A22" s="12"/>
       <c r="B22" s="35">
         <v>14</v>
@@ -16874,7 +16727,7 @@
       <c r="K22" s="39"/>
       <c r="O22" s="13"/>
     </row>
-    <row r="23" spans="1:15" ht="23.25">
+    <row r="23" spans="1:15" ht="24" x14ac:dyDescent="0.3">
       <c r="A23" s="12"/>
       <c r="B23" s="35">
         <v>15</v>
@@ -16890,7 +16743,7 @@
       <c r="K23" s="39"/>
       <c r="O23" s="13"/>
     </row>
-    <row r="24" spans="1:15" ht="23.25">
+    <row r="24" spans="1:15" ht="24" x14ac:dyDescent="0.3">
       <c r="A24" s="12"/>
       <c r="B24" s="35">
         <v>16</v>
@@ -16906,7 +16759,7 @@
       <c r="K24" s="39"/>
       <c r="O24" s="13"/>
     </row>
-    <row r="25" spans="1:15" ht="23.25">
+    <row r="25" spans="1:15" ht="24" x14ac:dyDescent="0.3">
       <c r="A25" s="12"/>
       <c r="B25" s="35">
         <v>17</v>
@@ -16922,7 +16775,7 @@
       <c r="K25" s="39"/>
       <c r="O25" s="13"/>
     </row>
-    <row r="26" spans="1:15" ht="23.25">
+    <row r="26" spans="1:15" ht="24" x14ac:dyDescent="0.3">
       <c r="A26" s="12"/>
       <c r="B26" s="35">
         <v>18</v>
@@ -16938,7 +16791,7 @@
       <c r="K26" s="39"/>
       <c r="O26" s="13"/>
     </row>
-    <row r="27" spans="1:15" ht="23.25">
+    <row r="27" spans="1:15" ht="24" x14ac:dyDescent="0.3">
       <c r="A27" s="12"/>
       <c r="B27" s="35">
         <v>19</v>
@@ -16954,7 +16807,7 @@
       <c r="K27" s="39"/>
       <c r="O27" s="13"/>
     </row>
-    <row r="28" spans="1:15" ht="24" thickBot="1">
+    <row r="28" spans="1:15" ht="25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="12"/>
       <c r="B28" s="41">
         <v>20</v>
@@ -16970,11 +16823,11 @@
       <c r="K28" s="45"/>
       <c r="O28" s="13"/>
     </row>
-    <row r="29" spans="1:15">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A29" s="12"/>
       <c r="O29" s="13"/>
     </row>
-    <row r="30" spans="1:15">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A30" s="12"/>
       <c r="O30" s="13"/>
     </row>
@@ -16998,20 +16851,20 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="26.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="26" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="4" width="10.875" style="74"/>
-    <col min="5" max="5" width="13.125" style="74" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.875" style="74" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.875" style="74"/>
+    <col min="1" max="4" width="10.83203125" style="74"/>
+    <col min="5" max="5" width="13.1640625" style="74" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.83203125" style="74" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.83203125" style="74"/>
     <col min="8" max="8" width="28.5" style="74" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.875" style="74"/>
+    <col min="9" max="9" width="10.83203125" style="74"/>
     <col min="10" max="10" width="19" style="74" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="14" style="74" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="10.875" style="74"/>
+    <col min="12" max="16384" width="10.83203125" style="74"/>
   </cols>
   <sheetData>
-    <row r="2" spans="4:14">
+    <row r="2" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D2" s="75"/>
       <c r="E2" s="76"/>
       <c r="F2" s="76"/>
@@ -17024,21 +16877,21 @@
       <c r="M2" s="76"/>
       <c r="N2" s="77"/>
     </row>
-    <row r="3" spans="4:14">
+    <row r="3" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D3" s="78"/>
-      <c r="E3" s="156">
+      <c r="E3" s="154">
         <v>1</v>
       </c>
       <c r="F3" s="79" t="s">
         <v>72</v>
       </c>
-      <c r="G3" s="156">
+      <c r="G3" s="154">
         <v>2</v>
       </c>
       <c r="H3" s="80" t="s">
         <v>73</v>
       </c>
-      <c r="I3" s="156">
+      <c r="I3" s="154">
         <v>3</v>
       </c>
       <c r="J3" s="81" t="s">
@@ -17046,17 +16899,17 @@
       </c>
       <c r="N3" s="82"/>
     </row>
-    <row r="4" spans="4:14">
+    <row r="4" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D4" s="78"/>
-      <c r="E4" s="156"/>
+      <c r="E4" s="154"/>
       <c r="F4" s="74" t="s">
         <v>46</v>
       </c>
-      <c r="G4" s="156"/>
+      <c r="G4" s="154"/>
       <c r="H4" s="74" t="s">
         <v>48</v>
       </c>
-      <c r="I4" s="156"/>
+      <c r="I4" s="154"/>
       <c r="J4" s="74" t="s">
         <v>51</v>
       </c>
@@ -17065,23 +16918,23 @@
       </c>
       <c r="N4" s="82"/>
     </row>
-    <row r="5" spans="4:14">
+    <row r="5" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D5" s="78"/>
-      <c r="E5" s="156"/>
+      <c r="E5" s="154"/>
       <c r="F5" s="74" t="s">
         <v>47</v>
       </c>
-      <c r="G5" s="156"/>
+      <c r="G5" s="154"/>
       <c r="H5" s="74" t="s">
         <v>75</v>
       </c>
-      <c r="I5" s="156"/>
+      <c r="I5" s="154"/>
       <c r="J5" s="74" t="s">
         <v>50</v>
       </c>
       <c r="N5" s="82"/>
     </row>
-    <row r="6" spans="4:14">
+    <row r="6" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D6" s="83"/>
       <c r="E6" s="84"/>
       <c r="F6" s="84"/>
@@ -17094,7 +16947,7 @@
       <c r="M6" s="84"/>
       <c r="N6" s="85"/>
     </row>
-    <row r="7" spans="4:14">
+    <row r="7" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D7" s="75"/>
       <c r="E7" s="76"/>
       <c r="F7" s="76"/>
@@ -17107,15 +16960,15 @@
       <c r="M7" s="76"/>
       <c r="N7" s="77"/>
     </row>
-    <row r="8" spans="4:14">
+    <row r="8" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D8" s="78"/>
-      <c r="E8" s="156">
+      <c r="E8" s="154">
         <v>4</v>
       </c>
       <c r="F8" s="86" t="s">
         <v>76</v>
       </c>
-      <c r="G8" s="156">
+      <c r="G8" s="154">
         <v>5</v>
       </c>
       <c r="H8" s="87" t="s">
@@ -17123,23 +16976,23 @@
       </c>
       <c r="N8" s="82"/>
     </row>
-    <row r="9" spans="4:14">
+    <row r="9" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D9" s="78"/>
-      <c r="E9" s="156"/>
+      <c r="E9" s="154"/>
       <c r="F9" s="74" t="s">
         <v>48</v>
       </c>
-      <c r="G9" s="156"/>
+      <c r="G9" s="154"/>
       <c r="H9" s="74" t="s">
         <v>75</v>
       </c>
       <c r="N9" s="82"/>
     </row>
-    <row r="10" spans="4:14">
+    <row r="10" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D10" s="83"/>
-      <c r="E10" s="157"/>
+      <c r="E10" s="155"/>
       <c r="F10" s="84"/>
-      <c r="G10" s="157"/>
+      <c r="G10" s="155"/>
       <c r="H10" s="84"/>
       <c r="I10" s="84"/>
       <c r="J10" s="84"/>
@@ -17148,7 +17001,7 @@
       <c r="M10" s="84"/>
       <c r="N10" s="85"/>
     </row>
-    <row r="11" spans="4:14">
+    <row r="11" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D11" s="75"/>
       <c r="E11" s="76"/>
       <c r="F11" s="76"/>
@@ -17161,19 +17014,19 @@
       <c r="M11" s="76"/>
       <c r="N11" s="77"/>
     </row>
-    <row r="12" spans="4:14">
+    <row r="12" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D12" s="78"/>
-      <c r="F12" s="155" t="s">
+      <c r="F12" s="153" t="s">
         <v>79</v>
       </c>
-      <c r="G12" s="155"/>
-      <c r="H12" s="155"/>
-      <c r="I12" s="155"/>
-      <c r="J12" s="155"/>
-      <c r="K12" s="155"/>
+      <c r="G12" s="153"/>
+      <c r="H12" s="153"/>
+      <c r="I12" s="153"/>
+      <c r="J12" s="153"/>
+      <c r="K12" s="153"/>
       <c r="N12" s="82"/>
     </row>
-    <row r="13" spans="4:14">
+    <row r="13" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D13" s="78"/>
       <c r="F13" s="74" t="s">
         <v>46</v>
@@ -17186,7 +17039,7 @@
       </c>
       <c r="N13" s="82"/>
     </row>
-    <row r="14" spans="4:14">
+    <row r="14" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D14" s="78"/>
       <c r="F14" s="74" t="s">
         <v>47</v>
@@ -17199,7 +17052,7 @@
       </c>
       <c r="N14" s="82"/>
     </row>
-    <row r="15" spans="4:14">
+    <row r="15" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D15" s="83"/>
       <c r="E15" s="84"/>
       <c r="F15" s="84"/>

--- a/04.Development/Project Management.xlsx
+++ b/04.Development/Project Management.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/linnkoko/Desktop/Web Developer Class/Web Developer I + II B7/Project/04.Development/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF2C1F93-73F6-A14B-9D5E-6AEA3ADADFD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2012C60F-1760-FE47-B7F3-9F153E0BE87B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-5180" yWindow="-21100" windowWidth="25140" windowHeight="21100" activeTab="2" xr2:uid="{7BA0B221-245C-954E-96F6-3D960DADD312}"/>
   </bookViews>
@@ -22,11 +22,11 @@
     <sheet name="Assign" sheetId="10" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Schedule!$A$5:$K$131</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Schedule!$A$5:$K$119</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Cover!$A$1:$N$51</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'Customer Requirement'!$A$1:$Q$46</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="5">'DB Design'!$A$1:$O$43</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">Schedule!$A$1:$O$132</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">Schedule!$A$1:$O$120</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">'Screen Flow'!$A$1:$AA$132</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="166">
   <si>
     <t>No</t>
   </si>
@@ -427,9 +427,6 @@
     <t>Course List</t>
   </si>
   <si>
-    <t>Favourite</t>
-  </si>
-  <si>
     <t>Notification</t>
   </si>
   <si>
@@ -511,30 +508,6 @@
     <t>IN:Appeal</t>
   </si>
   <si>
-    <t>IN:Video List</t>
-  </si>
-  <si>
-    <t>IN:Video Upload</t>
-  </si>
-  <si>
-    <t>IN:Video Info</t>
-  </si>
-  <si>
-    <t>IN:Edit Video</t>
-  </si>
-  <si>
-    <t>IN:Quizz List</t>
-  </si>
-  <si>
-    <t>IN:Quiz Update</t>
-  </si>
-  <si>
-    <t>IN:Quiz View</t>
-  </si>
-  <si>
-    <t>IN:Script Update</t>
-  </si>
-  <si>
     <t>AD: Review Appeal</t>
   </si>
   <si>
@@ -545,12 +518,6 @@
   </si>
   <si>
     <t>AD:Profile ( View mode)</t>
-  </si>
-  <si>
-    <t>AD:Video List</t>
-  </si>
-  <si>
-    <t>AD:Video View</t>
   </si>
   <si>
     <t>AD:Review Instuctor</t>
@@ -580,9 +547,6 @@
     <t>AD:About Us</t>
   </si>
   <si>
-    <t>Move to Dashboard</t>
-  </si>
-  <si>
     <t>IN:Community(Rate &amp; Review)</t>
   </si>
   <si>
@@ -592,19 +556,10 @@
     <t>AD:Course List</t>
   </si>
   <si>
-    <t>AD:Course Detail</t>
-  </si>
-  <si>
     <t>AD:Order List</t>
   </si>
   <si>
-    <t>AD:Orde Detail</t>
-  </si>
-  <si>
     <t>IN:Order List</t>
-  </si>
-  <si>
-    <t>IN:Orde Detail</t>
   </si>
   <si>
     <t>IN:Course Upload</t>
@@ -803,7 +758,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="16">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -879,18 +834,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="2" tint="-0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1436,7 +1379,7 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="158">
+  <cellXfs count="152">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1574,13 +1517,7 @@
     <xf numFmtId="164" fontId="22" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="3" fillId="13" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="22" fillId="15" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="3" fillId="15" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="3" fillId="15" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -10269,22 +10206,22 @@
       <c r="N18" s="13"/>
     </row>
     <row r="19" spans="1:14" ht="92" x14ac:dyDescent="0.2">
-      <c r="A19" s="123" t="s">
+      <c r="A19" s="117" t="s">
         <v>22</v>
       </c>
-      <c r="B19" s="124"/>
-      <c r="C19" s="124"/>
-      <c r="D19" s="124"/>
-      <c r="E19" s="124"/>
-      <c r="F19" s="124"/>
-      <c r="G19" s="124"/>
-      <c r="H19" s="124"/>
-      <c r="I19" s="124"/>
-      <c r="J19" s="124"/>
-      <c r="K19" s="124"/>
-      <c r="L19" s="124"/>
-      <c r="M19" s="124"/>
-      <c r="N19" s="125"/>
+      <c r="B19" s="118"/>
+      <c r="C19" s="118"/>
+      <c r="D19" s="118"/>
+      <c r="E19" s="118"/>
+      <c r="F19" s="118"/>
+      <c r="G19" s="118"/>
+      <c r="H19" s="118"/>
+      <c r="I19" s="118"/>
+      <c r="J19" s="118"/>
+      <c r="K19" s="118"/>
+      <c r="L19" s="118"/>
+      <c r="M19" s="118"/>
+      <c r="N19" s="119"/>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" s="12"/>
@@ -10303,22 +10240,22 @@
       <c r="N21" s="13"/>
     </row>
     <row r="22" spans="1:14" ht="47" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" s="120" t="s">
+      <c r="A22" s="114" t="s">
         <v>45</v>
       </c>
-      <c r="B22" s="121"/>
-      <c r="C22" s="121"/>
-      <c r="D22" s="121"/>
-      <c r="E22" s="121"/>
-      <c r="F22" s="121"/>
-      <c r="G22" s="121"/>
-      <c r="H22" s="121"/>
-      <c r="I22" s="121"/>
-      <c r="J22" s="121"/>
-      <c r="K22" s="121"/>
-      <c r="L22" s="121"/>
-      <c r="M22" s="121"/>
-      <c r="N22" s="122"/>
+      <c r="B22" s="115"/>
+      <c r="C22" s="115"/>
+      <c r="D22" s="115"/>
+      <c r="E22" s="115"/>
+      <c r="F22" s="115"/>
+      <c r="G22" s="115"/>
+      <c r="H22" s="115"/>
+      <c r="I22" s="115"/>
+      <c r="J22" s="115"/>
+      <c r="K22" s="115"/>
+      <c r="L22" s="115"/>
+      <c r="M22" s="115"/>
+      <c r="N22" s="116"/>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23" s="12"/>
@@ -10391,7 +10328,7 @@
     <row r="40" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A40" s="12"/>
       <c r="E40" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="N40" s="13"/>
     </row>
@@ -10401,10 +10338,10 @@
     </row>
     <row r="42" spans="1:14" ht="24" x14ac:dyDescent="0.3">
       <c r="A42" s="12"/>
-      <c r="B42" s="118" t="s">
+      <c r="B42" s="112" t="s">
         <v>19</v>
       </c>
-      <c r="C42" s="118"/>
+      <c r="C42" s="112"/>
       <c r="D42" s="18">
         <v>1</v>
       </c>
@@ -10465,10 +10402,10 @@
     </row>
     <row r="48" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A48" s="12"/>
-      <c r="K48" s="119" t="s">
+      <c r="K48" s="113" t="s">
         <v>21</v>
       </c>
-      <c r="L48" s="119"/>
+      <c r="L48" s="113"/>
       <c r="M48" s="17">
         <v>44740</v>
       </c>
@@ -10476,10 +10413,10 @@
     </row>
     <row r="49" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A49" s="12"/>
-      <c r="K49" s="119" t="s">
+      <c r="K49" s="113" t="s">
         <v>20</v>
       </c>
-      <c r="L49" s="119"/>
+      <c r="L49" s="113"/>
       <c r="M49" s="17"/>
       <c r="N49" s="13"/>
     </row>
@@ -10533,56 +10470,56 @@
   <sheetData>
     <row r="1" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:17" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="126" t="s">
+      <c r="A2" s="120" t="s">
         <v>44</v>
       </c>
-      <c r="B2" s="127"/>
-      <c r="C2" s="130" t="str">
+      <c r="B2" s="121"/>
+      <c r="C2" s="124" t="str">
         <f>Cover!E40</f>
         <v xml:space="preserve">Level Up </v>
       </c>
-      <c r="D2" s="131"/>
-      <c r="E2" s="131"/>
-      <c r="F2" s="131"/>
-      <c r="G2" s="131"/>
-      <c r="H2" s="131"/>
-      <c r="I2" s="131"/>
-      <c r="J2" s="131"/>
-      <c r="K2" s="131"/>
-      <c r="L2" s="131"/>
-      <c r="M2" s="131"/>
-      <c r="N2" s="131"/>
+      <c r="D2" s="125"/>
+      <c r="E2" s="125"/>
+      <c r="F2" s="125"/>
+      <c r="G2" s="125"/>
+      <c r="H2" s="125"/>
+      <c r="I2" s="125"/>
+      <c r="J2" s="125"/>
+      <c r="K2" s="125"/>
+      <c r="L2" s="125"/>
+      <c r="M2" s="125"/>
+      <c r="N2" s="125"/>
       <c r="O2" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="P2" s="134">
+      <c r="P2" s="128">
         <v>44740</v>
       </c>
-      <c r="Q2" s="135"/>
+      <c r="Q2" s="129"/>
     </row>
     <row r="3" spans="1:17" ht="34" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="128"/>
-      <c r="B3" s="129"/>
-      <c r="C3" s="132"/>
-      <c r="D3" s="133"/>
-      <c r="E3" s="133"/>
-      <c r="F3" s="133"/>
-      <c r="G3" s="133"/>
-      <c r="H3" s="133"/>
-      <c r="I3" s="133"/>
-      <c r="J3" s="133"/>
-      <c r="K3" s="133"/>
-      <c r="L3" s="133"/>
-      <c r="M3" s="133"/>
-      <c r="N3" s="133"/>
+      <c r="A3" s="122"/>
+      <c r="B3" s="123"/>
+      <c r="C3" s="126"/>
+      <c r="D3" s="127"/>
+      <c r="E3" s="127"/>
+      <c r="F3" s="127"/>
+      <c r="G3" s="127"/>
+      <c r="H3" s="127"/>
+      <c r="I3" s="127"/>
+      <c r="J3" s="127"/>
+      <c r="K3" s="127"/>
+      <c r="L3" s="127"/>
+      <c r="M3" s="127"/>
+      <c r="N3" s="127"/>
       <c r="O3" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="P3" s="136">
+      <c r="P3" s="130">
         <f ca="1">NOW()</f>
-        <v>44757.836164236112</v>
-      </c>
-      <c r="Q3" s="137"/>
+        <v>44757.859305787038</v>
+      </c>
+      <c r="Q3" s="131"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" s="12"/>
@@ -11549,10 +11486,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0F39F5A-DF39-F541-B8C2-02BEDD153576}">
-  <dimension ref="A1:O140"/>
+  <dimension ref="A1:O128"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A27" zoomScale="90" zoomScaleNormal="140" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <selection activeCell="K61" sqref="K61"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A53" zoomScaleNormal="140" zoomScaleSheetLayoutView="90" workbookViewId="0">
+      <selection activeCell="H65" sqref="H65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11571,47 +11508,47 @@
   <sheetData>
     <row r="1" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:15" ht="21" x14ac:dyDescent="0.2">
-      <c r="A2" s="126" t="s">
+      <c r="A2" s="120" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="127"/>
-      <c r="C2" s="130" t="str">
+      <c r="B2" s="121"/>
+      <c r="C2" s="124" t="str">
         <f>Cover!E40</f>
         <v xml:space="preserve">Level Up </v>
       </c>
-      <c r="D2" s="131"/>
-      <c r="E2" s="131"/>
-      <c r="F2" s="131"/>
-      <c r="G2" s="131"/>
-      <c r="H2" s="131"/>
-      <c r="I2" s="131"/>
-      <c r="J2" s="131"/>
-      <c r="K2" s="131"/>
-      <c r="L2" s="131"/>
+      <c r="D2" s="125"/>
+      <c r="E2" s="125"/>
+      <c r="F2" s="125"/>
+      <c r="G2" s="125"/>
+      <c r="H2" s="125"/>
+      <c r="I2" s="125"/>
+      <c r="J2" s="125"/>
+      <c r="K2" s="125"/>
+      <c r="L2" s="125"/>
       <c r="M2" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="N2" s="134"/>
-      <c r="O2" s="135"/>
+      <c r="N2" s="128"/>
+      <c r="O2" s="129"/>
     </row>
     <row r="3" spans="1:15" ht="22" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="128"/>
-      <c r="B3" s="129"/>
-      <c r="C3" s="132"/>
-      <c r="D3" s="133"/>
-      <c r="E3" s="133"/>
-      <c r="F3" s="133"/>
-      <c r="G3" s="133"/>
-      <c r="H3" s="133"/>
-      <c r="I3" s="133"/>
-      <c r="J3" s="133"/>
-      <c r="K3" s="133"/>
-      <c r="L3" s="133"/>
+      <c r="A3" s="122"/>
+      <c r="B3" s="123"/>
+      <c r="C3" s="126"/>
+      <c r="D3" s="127"/>
+      <c r="E3" s="127"/>
+      <c r="F3" s="127"/>
+      <c r="G3" s="127"/>
+      <c r="H3" s="127"/>
+      <c r="I3" s="127"/>
+      <c r="J3" s="127"/>
+      <c r="K3" s="127"/>
+      <c r="L3" s="127"/>
       <c r="M3" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="N3" s="136"/>
-      <c r="O3" s="137"/>
+      <c r="N3" s="130"/>
+      <c r="O3" s="131"/>
     </row>
     <row r="4" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="5" spans="1:15" ht="21" x14ac:dyDescent="0.25">
@@ -11700,13 +11637,13 @@
         <v>44747</v>
       </c>
       <c r="G7" s="58">
-        <f t="shared" ref="G7:G62" si="0">F7-E7</f>
+        <f t="shared" ref="G7:G64" si="0">F7-E7</f>
         <v>2</v>
       </c>
       <c r="H7" s="59"/>
       <c r="I7" s="59"/>
       <c r="J7" s="60">
-        <f t="shared" ref="J7:J128" si="1">I7-H7</f>
+        <f t="shared" ref="J7:J116" si="1">I7-H7</f>
         <v>0</v>
       </c>
       <c r="K7" s="61">
@@ -11744,20 +11681,20 @@
       </c>
       <c r="K8" s="107">
         <f>AVERAGE(K9:K60)</f>
-        <v>0.84807692307692228</v>
+        <v>0.89999999999999913</v>
       </c>
     </row>
     <row r="9" spans="1:15" ht="21" x14ac:dyDescent="0.25">
       <c r="A9" s="56"/>
-      <c r="B9" s="110">
+      <c r="B9" s="109">
         <f>ROW()-8</f>
         <v>1</v>
       </c>
       <c r="C9" s="58" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D9" s="58" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E9" s="59">
         <v>44747</v>
@@ -11785,15 +11722,15 @@
     </row>
     <row r="10" spans="1:15" ht="21" x14ac:dyDescent="0.25">
       <c r="A10" s="56"/>
-      <c r="B10" s="110">
+      <c r="B10" s="109">
         <f t="shared" ref="B10:B60" si="4">ROW()-8</f>
         <v>2</v>
       </c>
       <c r="C10" s="58" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D10" s="58" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E10" s="59">
         <v>44747</v>
@@ -11821,15 +11758,15 @@
     </row>
     <row r="11" spans="1:15" ht="21" x14ac:dyDescent="0.25">
       <c r="A11" s="56"/>
-      <c r="B11" s="110">
+      <c r="B11" s="109">
         <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="C11" s="58" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D11" s="58" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E11" s="59">
         <v>44747</v>
@@ -11857,15 +11794,15 @@
     </row>
     <row r="12" spans="1:15" ht="21" x14ac:dyDescent="0.25">
       <c r="A12" s="56"/>
-      <c r="B12" s="110">
+      <c r="B12" s="109">
         <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="C12" s="108" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D12" s="58" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E12" s="59">
         <v>44748</v>
@@ -11893,7 +11830,7 @@
     </row>
     <row r="13" spans="1:15" ht="21" x14ac:dyDescent="0.25">
       <c r="A13" s="56"/>
-      <c r="B13" s="110">
+      <c r="B13" s="109">
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
@@ -11901,7 +11838,7 @@
         <v>109</v>
       </c>
       <c r="D13" s="58" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E13" s="59">
         <v>44747</v>
@@ -11929,7 +11866,7 @@
     </row>
     <row r="14" spans="1:15" ht="21" x14ac:dyDescent="0.25">
       <c r="A14" s="56"/>
-      <c r="B14" s="110">
+      <c r="B14" s="109">
         <f t="shared" si="4"/>
         <v>6</v>
       </c>
@@ -11937,7 +11874,7 @@
         <v>81</v>
       </c>
       <c r="D14" s="58" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E14" s="105">
         <v>44748</v>
@@ -11965,7 +11902,7 @@
     </row>
     <row r="15" spans="1:15" ht="21" x14ac:dyDescent="0.25">
       <c r="A15" s="56"/>
-      <c r="B15" s="110">
+      <c r="B15" s="109">
         <f t="shared" si="4"/>
         <v>7</v>
       </c>
@@ -11973,7 +11910,7 @@
         <v>110</v>
       </c>
       <c r="D15" s="58" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E15" s="106">
         <v>44749</v>
@@ -12001,15 +11938,15 @@
     </row>
     <row r="16" spans="1:15" ht="21" x14ac:dyDescent="0.25">
       <c r="A16" s="56"/>
-      <c r="B16" s="110">
+      <c r="B16" s="109">
         <f t="shared" si="4"/>
         <v>8</v>
       </c>
       <c r="C16" s="58" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D16" s="58" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E16" s="59">
         <v>44747</v>
@@ -12037,15 +11974,15 @@
     </row>
     <row r="17" spans="1:11" ht="21" x14ac:dyDescent="0.25">
       <c r="A17" s="56"/>
-      <c r="B17" s="110">
+      <c r="B17" s="109">
         <f t="shared" si="4"/>
         <v>9</v>
       </c>
       <c r="C17" s="58" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D17" s="58" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E17" s="59">
         <v>44747</v>
@@ -12073,7 +12010,7 @@
     </row>
     <row r="18" spans="1:11" ht="21" x14ac:dyDescent="0.25">
       <c r="A18" s="56"/>
-      <c r="B18" s="110">
+      <c r="B18" s="109">
         <f t="shared" si="4"/>
         <v>10</v>
       </c>
@@ -12081,7 +12018,7 @@
         <v>114</v>
       </c>
       <c r="D18" s="58" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E18" s="59">
         <v>44747</v>
@@ -12109,7 +12046,7 @@
     </row>
     <row r="19" spans="1:11" ht="21" x14ac:dyDescent="0.25">
       <c r="A19" s="56"/>
-      <c r="B19" s="110">
+      <c r="B19" s="109">
         <f t="shared" si="4"/>
         <v>11</v>
       </c>
@@ -12117,7 +12054,7 @@
         <v>113</v>
       </c>
       <c r="D19" s="58" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E19" s="59">
         <v>44747</v>
@@ -12145,7 +12082,7 @@
     </row>
     <row r="20" spans="1:11" ht="21" x14ac:dyDescent="0.25">
       <c r="A20" s="56"/>
-      <c r="B20" s="110">
+      <c r="B20" s="109">
         <f t="shared" si="4"/>
         <v>12</v>
       </c>
@@ -12153,7 +12090,7 @@
         <v>82</v>
       </c>
       <c r="D20" s="58" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E20" s="59">
         <v>44748</v>
@@ -12181,7 +12118,7 @@
     </row>
     <row r="21" spans="1:11" ht="21" x14ac:dyDescent="0.25">
       <c r="A21" s="56"/>
-      <c r="B21" s="110">
+      <c r="B21" s="109">
         <f t="shared" si="4"/>
         <v>13</v>
       </c>
@@ -12189,7 +12126,7 @@
         <v>111</v>
       </c>
       <c r="D21" s="58" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E21" s="59">
         <v>44749</v>
@@ -12217,15 +12154,15 @@
     </row>
     <row r="22" spans="1:11" ht="21" x14ac:dyDescent="0.25">
       <c r="A22" s="56"/>
-      <c r="B22" s="110">
+      <c r="B22" s="109">
         <f t="shared" si="4"/>
         <v>14</v>
       </c>
       <c r="C22" s="58" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D22" s="58" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E22" s="59">
         <v>44748</v>
@@ -12253,7 +12190,7 @@
     </row>
     <row r="23" spans="1:11" ht="21" x14ac:dyDescent="0.25">
       <c r="A23" s="56"/>
-      <c r="B23" s="110">
+      <c r="B23" s="109">
         <f t="shared" si="4"/>
         <v>15</v>
       </c>
@@ -12261,7 +12198,7 @@
         <v>112</v>
       </c>
       <c r="D23" s="58" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E23" s="59">
         <v>44750</v>
@@ -12289,7 +12226,7 @@
     </row>
     <row r="24" spans="1:11" ht="21" x14ac:dyDescent="0.25">
       <c r="A24" s="56"/>
-      <c r="B24" s="110">
+      <c r="B24" s="109">
         <f t="shared" si="4"/>
         <v>16</v>
       </c>
@@ -12297,7 +12234,7 @@
         <v>92</v>
       </c>
       <c r="D24" s="58" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E24" s="59">
         <v>44747</v>
@@ -12325,15 +12262,15 @@
     </row>
     <row r="25" spans="1:11" ht="21" x14ac:dyDescent="0.25">
       <c r="A25" s="56"/>
-      <c r="B25" s="110">
+      <c r="B25" s="109">
         <f t="shared" si="4"/>
         <v>17</v>
       </c>
       <c r="C25" s="58" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D25" s="58" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E25" s="59">
         <v>44747</v>
@@ -12361,15 +12298,15 @@
     </row>
     <row r="26" spans="1:11" ht="21" x14ac:dyDescent="0.25">
       <c r="A26" s="56"/>
-      <c r="B26" s="110">
+      <c r="B26" s="109">
         <f t="shared" si="4"/>
         <v>18</v>
       </c>
       <c r="C26" s="58" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D26" s="58" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E26" s="105">
         <v>44750</v>
@@ -12397,15 +12334,15 @@
     </row>
     <row r="27" spans="1:11" ht="21" x14ac:dyDescent="0.25">
       <c r="A27" s="56"/>
-      <c r="B27" s="110">
+      <c r="B27" s="109">
         <f t="shared" si="4"/>
         <v>19</v>
       </c>
       <c r="C27" s="58" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D27" s="58" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E27" s="59">
         <v>44749</v>
@@ -12433,15 +12370,15 @@
     </row>
     <row r="28" spans="1:11" ht="21" x14ac:dyDescent="0.25">
       <c r="A28" s="56"/>
-      <c r="B28" s="110">
+      <c r="B28" s="109">
         <f t="shared" si="4"/>
         <v>20</v>
       </c>
       <c r="C28" s="58" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D28" s="58" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E28" s="59">
         <v>44750</v>
@@ -12469,15 +12406,15 @@
     </row>
     <row r="29" spans="1:11" ht="21" x14ac:dyDescent="0.25">
       <c r="A29" s="56"/>
-      <c r="B29" s="110">
+      <c r="B29" s="109">
         <f t="shared" si="4"/>
         <v>21</v>
       </c>
       <c r="C29" s="58" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D29" s="58" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E29" s="59">
         <v>44751</v>
@@ -12505,15 +12442,15 @@
     </row>
     <row r="30" spans="1:11" ht="21" x14ac:dyDescent="0.25">
       <c r="A30" s="56"/>
-      <c r="B30" s="110">
+      <c r="B30" s="109">
         <f t="shared" si="4"/>
         <v>22</v>
       </c>
       <c r="C30" s="58" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D30" s="58" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E30" s="59">
         <v>44751</v>
@@ -12541,15 +12478,15 @@
     </row>
     <row r="31" spans="1:11" ht="21" x14ac:dyDescent="0.25">
       <c r="A31" s="56"/>
-      <c r="B31" s="110">
+      <c r="B31" s="109">
         <f t="shared" si="4"/>
         <v>23</v>
       </c>
       <c r="C31" s="58" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D31" s="58" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E31" s="59">
         <v>44751</v>
@@ -12577,15 +12514,15 @@
     </row>
     <row r="32" spans="1:11" ht="21" x14ac:dyDescent="0.25">
       <c r="A32" s="56"/>
-      <c r="B32" s="110">
+      <c r="B32" s="109">
         <f t="shared" si="4"/>
         <v>24</v>
       </c>
       <c r="C32" s="58" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D32" s="58" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E32" s="59">
         <v>44751</v>
@@ -12613,15 +12550,15 @@
     </row>
     <row r="33" spans="1:12" ht="21" x14ac:dyDescent="0.25">
       <c r="A33" s="56"/>
-      <c r="B33" s="110">
+      <c r="B33" s="109">
         <f t="shared" si="4"/>
         <v>25</v>
       </c>
       <c r="C33" s="58" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D33" s="58" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E33" s="59">
         <v>44751</v>
@@ -12649,15 +12586,15 @@
     </row>
     <row r="34" spans="1:12" ht="21" x14ac:dyDescent="0.25">
       <c r="A34" s="56"/>
-      <c r="B34" s="156">
+      <c r="B34" s="150">
         <f t="shared" si="4"/>
         <v>26</v>
       </c>
       <c r="C34" s="58" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D34" s="58" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E34" s="59">
         <v>44749</v>
@@ -12685,7 +12622,7 @@
     </row>
     <row r="35" spans="1:12" ht="21" x14ac:dyDescent="0.25">
       <c r="A35" s="56"/>
-      <c r="B35" s="156">
+      <c r="B35" s="150">
         <f t="shared" si="4"/>
         <v>27</v>
       </c>
@@ -12693,7 +12630,7 @@
         <v>109</v>
       </c>
       <c r="D35" s="58" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E35" s="59">
         <v>44749</v>
@@ -12721,15 +12658,15 @@
     </row>
     <row r="36" spans="1:12" ht="21" x14ac:dyDescent="0.25">
       <c r="A36" s="56"/>
-      <c r="B36" s="156">
+      <c r="B36" s="150">
         <f t="shared" si="4"/>
         <v>28</v>
       </c>
       <c r="C36" s="58" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="D36" s="58" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E36" s="59">
         <v>44750</v>
@@ -12757,15 +12694,15 @@
     </row>
     <row r="37" spans="1:12" ht="21" x14ac:dyDescent="0.25">
       <c r="A37" s="56"/>
-      <c r="B37" s="156">
+      <c r="B37" s="150">
         <f t="shared" si="4"/>
         <v>29</v>
       </c>
       <c r="C37" s="58" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D37" s="58" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E37" s="59">
         <v>44750</v>
@@ -12793,15 +12730,15 @@
     </row>
     <row r="38" spans="1:12" ht="21" x14ac:dyDescent="0.25">
       <c r="A38" s="56"/>
-      <c r="B38" s="156">
+      <c r="B38" s="150">
         <f t="shared" si="4"/>
         <v>30</v>
       </c>
       <c r="C38" s="58" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D38" s="58" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E38" s="59">
         <v>44751</v>
@@ -12829,15 +12766,15 @@
     </row>
     <row r="39" spans="1:12" ht="21" x14ac:dyDescent="0.25">
       <c r="A39" s="56"/>
-      <c r="B39" s="156">
+      <c r="B39" s="150">
         <f t="shared" si="4"/>
         <v>31</v>
       </c>
       <c r="C39" s="58" t="s">
-        <v>175</v>
+        <v>160</v>
       </c>
       <c r="D39" s="58" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E39" s="59">
         <v>44751</v>
@@ -12865,15 +12802,15 @@
     </row>
     <row r="40" spans="1:12" ht="21" x14ac:dyDescent="0.25">
       <c r="A40" s="56"/>
-      <c r="B40" s="156">
+      <c r="B40" s="150">
         <f t="shared" si="4"/>
         <v>32</v>
       </c>
       <c r="C40" s="58" t="s">
-        <v>176</v>
+        <v>161</v>
       </c>
       <c r="D40" s="58" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E40" s="59">
         <v>44751</v>
@@ -12901,15 +12838,15 @@
     </row>
     <row r="41" spans="1:12" ht="21" x14ac:dyDescent="0.25">
       <c r="A41" s="56"/>
-      <c r="B41" s="156">
+      <c r="B41" s="150">
         <f t="shared" si="4"/>
         <v>33</v>
       </c>
       <c r="C41" s="58" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D41" s="59" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E41" s="59">
         <v>44752</v>
@@ -12937,15 +12874,15 @@
     </row>
     <row r="42" spans="1:12" ht="21" x14ac:dyDescent="0.25">
       <c r="A42" s="56"/>
-      <c r="B42" s="156">
+      <c r="B42" s="150">
         <f t="shared" si="4"/>
         <v>34</v>
       </c>
       <c r="C42" s="58" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
       <c r="D42" s="59" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E42" s="59">
         <v>44752</v>
@@ -12973,15 +12910,15 @@
     </row>
     <row r="43" spans="1:12" ht="21" x14ac:dyDescent="0.25">
       <c r="A43" s="56"/>
-      <c r="B43" s="156">
+      <c r="B43" s="150">
         <f t="shared" si="4"/>
         <v>35</v>
       </c>
       <c r="C43" s="58" t="s">
-        <v>173</v>
-      </c>
-      <c r="D43" s="157" t="s">
-        <v>130</v>
+        <v>159</v>
+      </c>
+      <c r="D43" s="151" t="s">
+        <v>129</v>
       </c>
       <c r="E43" s="59">
         <v>44752</v>
@@ -13009,15 +12946,15 @@
     </row>
     <row r="44" spans="1:12" ht="21" x14ac:dyDescent="0.25">
       <c r="A44" s="56"/>
-      <c r="B44" s="156">
+      <c r="B44" s="150">
         <f t="shared" si="4"/>
         <v>36</v>
       </c>
       <c r="C44" s="58" t="s">
-        <v>179</v>
+        <v>164</v>
       </c>
       <c r="D44" s="59" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E44" s="59">
         <v>44753</v>
@@ -13029,27 +12966,31 @@
         <f t="shared" si="17"/>
         <v>1</v>
       </c>
-      <c r="H44" s="59"/>
-      <c r="I44" s="59"/>
+      <c r="H44" s="59">
+        <v>44753</v>
+      </c>
+      <c r="I44" s="59">
+        <v>44754</v>
+      </c>
       <c r="J44" s="60">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K44" s="61">
-        <v>0</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="45" spans="1:12" ht="21" x14ac:dyDescent="0.25">
       <c r="A45" s="56"/>
-      <c r="B45" s="156">
+      <c r="B45" s="150">
         <f t="shared" si="4"/>
         <v>37</v>
       </c>
       <c r="C45" s="58" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="D45" s="59" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E45" s="59">
         <v>44753</v>
@@ -13077,15 +13018,15 @@
     </row>
     <row r="46" spans="1:12" ht="21" x14ac:dyDescent="0.25">
       <c r="A46" s="56"/>
-      <c r="B46" s="156">
+      <c r="B46" s="150">
         <f t="shared" si="4"/>
         <v>38</v>
       </c>
       <c r="C46" s="58" t="s">
-        <v>152</v>
-      </c>
-      <c r="D46" s="117" t="s">
-        <v>133</v>
+        <v>143</v>
+      </c>
+      <c r="D46" s="111" t="s">
+        <v>132</v>
       </c>
       <c r="E46" s="59">
         <v>44750</v>
@@ -13113,15 +13054,15 @@
     </row>
     <row r="47" spans="1:12" ht="21" x14ac:dyDescent="0.25">
       <c r="A47" s="56"/>
-      <c r="B47" s="156">
+      <c r="B47" s="150">
         <f t="shared" si="4"/>
         <v>39</v>
       </c>
       <c r="C47" s="58" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="D47" s="58" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E47" s="105">
         <v>44751</v>
@@ -13146,21 +13087,21 @@
       <c r="K47" s="61">
         <v>0.9</v>
       </c>
-      <c r="L47" s="116" t="s">
-        <v>177</v>
+      <c r="L47" s="110" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="48" spans="1:12" ht="21" x14ac:dyDescent="0.25">
       <c r="A48" s="56"/>
-      <c r="B48" s="156">
+      <c r="B48" s="150">
         <f t="shared" si="4"/>
         <v>40</v>
       </c>
       <c r="C48" s="58" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
       <c r="D48" s="58" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E48" s="59">
         <v>44751</v>
@@ -13188,15 +13129,15 @@
     </row>
     <row r="49" spans="1:11" ht="21" x14ac:dyDescent="0.25">
       <c r="A49" s="56"/>
-      <c r="B49" s="156">
+      <c r="B49" s="150">
         <f t="shared" si="4"/>
         <v>41</v>
       </c>
       <c r="C49" s="58" t="s">
-        <v>180</v>
+        <v>165</v>
       </c>
       <c r="D49" s="58" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E49" s="59">
         <v>44751</v>
@@ -13224,15 +13165,15 @@
     </row>
     <row r="50" spans="1:11" ht="21" x14ac:dyDescent="0.25">
       <c r="A50" s="56"/>
-      <c r="B50" s="156">
+      <c r="B50" s="150">
         <f t="shared" si="4"/>
         <v>42</v>
       </c>
       <c r="C50" s="58" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
       <c r="D50" s="59" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E50" s="59">
         <v>44753</v>
@@ -13260,15 +13201,15 @@
     </row>
     <row r="51" spans="1:11" ht="21" x14ac:dyDescent="0.25">
       <c r="A51" s="56"/>
-      <c r="B51" s="156">
+      <c r="B51" s="150">
         <f t="shared" si="4"/>
         <v>43</v>
       </c>
       <c r="C51" s="58" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
       <c r="D51" s="59" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E51" s="59">
         <v>44753</v>
@@ -13296,15 +13237,15 @@
     </row>
     <row r="52" spans="1:11" ht="21" x14ac:dyDescent="0.25">
       <c r="A52" s="56"/>
-      <c r="B52" s="156">
+      <c r="B52" s="150">
         <f t="shared" si="4"/>
         <v>44</v>
       </c>
       <c r="C52" s="58" t="s">
-        <v>158</v>
-      </c>
-      <c r="D52" s="157" t="s">
-        <v>130</v>
+        <v>147</v>
+      </c>
+      <c r="D52" s="151" t="s">
+        <v>129</v>
       </c>
       <c r="E52" s="59">
         <v>44753</v>
@@ -13332,15 +13273,15 @@
     </row>
     <row r="53" spans="1:11" ht="21" x14ac:dyDescent="0.25">
       <c r="A53" s="56"/>
-      <c r="B53" s="156">
+      <c r="B53" s="150">
         <f t="shared" si="4"/>
         <v>45</v>
       </c>
       <c r="C53" s="58" t="s">
-        <v>159</v>
-      </c>
-      <c r="D53" s="157" t="s">
-        <v>130</v>
+        <v>148</v>
+      </c>
+      <c r="D53" s="151" t="s">
+        <v>129</v>
       </c>
       <c r="E53" s="59">
         <v>44753</v>
@@ -13368,15 +13309,15 @@
     </row>
     <row r="54" spans="1:11" ht="21" x14ac:dyDescent="0.25">
       <c r="A54" s="56"/>
-      <c r="B54" s="156">
+      <c r="B54" s="150">
         <f t="shared" si="4"/>
         <v>46</v>
       </c>
       <c r="C54" s="58" t="s">
-        <v>160</v>
-      </c>
-      <c r="D54" s="157" t="s">
-        <v>130</v>
+        <v>149</v>
+      </c>
+      <c r="D54" s="151" t="s">
+        <v>129</v>
       </c>
       <c r="E54" s="59">
         <v>44753</v>
@@ -13404,15 +13345,15 @@
     </row>
     <row r="55" spans="1:11" ht="21" x14ac:dyDescent="0.25">
       <c r="A55" s="56"/>
-      <c r="B55" s="156">
+      <c r="B55" s="150">
         <f t="shared" si="4"/>
         <v>47</v>
       </c>
       <c r="C55" s="58" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
       <c r="D55" s="58" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E55" s="59">
         <v>44752</v>
@@ -13440,15 +13381,15 @@
     </row>
     <row r="56" spans="1:11" ht="21" x14ac:dyDescent="0.25">
       <c r="A56" s="56"/>
-      <c r="B56" s="156">
+      <c r="B56" s="150">
         <f t="shared" si="4"/>
         <v>48</v>
       </c>
       <c r="C56" s="58" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
       <c r="D56" s="58" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E56" s="59">
         <v>44752</v>
@@ -13476,15 +13417,15 @@
     </row>
     <row r="57" spans="1:11" ht="21" x14ac:dyDescent="0.25">
       <c r="A57" s="56"/>
-      <c r="B57" s="156">
+      <c r="B57" s="150">
         <f t="shared" si="4"/>
         <v>49</v>
       </c>
       <c r="C57" s="58" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
       <c r="D57" s="58" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E57" s="59">
         <v>44753</v>
@@ -13512,15 +13453,15 @@
     </row>
     <row r="58" spans="1:11" ht="21" x14ac:dyDescent="0.25">
       <c r="A58" s="56"/>
-      <c r="B58" s="156">
+      <c r="B58" s="150">
         <f t="shared" si="4"/>
         <v>50</v>
       </c>
       <c r="C58" s="58" t="s">
-        <v>164</v>
+        <v>153</v>
       </c>
       <c r="D58" s="58" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E58" s="59">
         <v>44753</v>
@@ -13532,27 +13473,31 @@
         <f t="shared" si="17"/>
         <v>1</v>
       </c>
-      <c r="H58" s="59"/>
-      <c r="I58" s="59"/>
+      <c r="H58" s="59">
+        <v>44753</v>
+      </c>
+      <c r="I58" s="59">
+        <v>44754</v>
+      </c>
       <c r="J58" s="60">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K58" s="61">
-        <v>0</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="59" spans="1:11" ht="21" x14ac:dyDescent="0.25">
       <c r="A59" s="56"/>
-      <c r="B59" s="156">
+      <c r="B59" s="150">
         <f t="shared" si="4"/>
         <v>51</v>
       </c>
       <c r="C59" s="58" t="s">
-        <v>165</v>
+        <v>154</v>
       </c>
       <c r="D59" s="58" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E59" s="59">
         <v>44754</v>
@@ -13564,27 +13509,31 @@
         <f t="shared" si="17"/>
         <v>1</v>
       </c>
-      <c r="H59" s="59"/>
-      <c r="I59" s="59"/>
+      <c r="H59" s="59">
+        <v>44754</v>
+      </c>
+      <c r="I59" s="59">
+        <v>44755</v>
+      </c>
       <c r="J59" s="60">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K59" s="61">
-        <v>0</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="60" spans="1:11" ht="21" x14ac:dyDescent="0.25">
       <c r="A60" s="56"/>
-      <c r="B60" s="156">
+      <c r="B60" s="150">
         <f t="shared" si="4"/>
         <v>52</v>
       </c>
       <c r="C60" s="58" t="s">
-        <v>171</v>
-      </c>
-      <c r="D60" s="157" t="s">
-        <v>130</v>
+        <v>158</v>
+      </c>
+      <c r="D60" s="151" t="s">
+        <v>129</v>
       </c>
       <c r="E60" s="59">
         <v>44752</v>
@@ -13648,11 +13597,15 @@
         <v>16</v>
       </c>
       <c r="D62" s="58"/>
-      <c r="E62" s="59"/>
-      <c r="F62" s="59"/>
+      <c r="E62" s="59">
+        <v>44757</v>
+      </c>
+      <c r="F62" s="59">
+        <v>44770</v>
+      </c>
       <c r="G62" s="58">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="H62" s="59"/>
       <c r="I62" s="59"/>
@@ -13666,18 +13619,23 @@
     </row>
     <row r="63" spans="1:11" ht="21" x14ac:dyDescent="0.25">
       <c r="A63" s="56"/>
-      <c r="B63" s="110">
+      <c r="B63" s="109">
+        <f>ROW()-62</f>
         <v>1</v>
       </c>
       <c r="C63" s="58" t="s">
-        <v>125</v>
-      </c>
-      <c r="D63" s="58"/>
-      <c r="E63" s="59"/>
+        <v>124</v>
+      </c>
+      <c r="D63" s="58" t="s">
+        <v>129</v>
+      </c>
+      <c r="E63" s="59">
+        <v>44747</v>
+      </c>
       <c r="F63" s="59"/>
       <c r="G63" s="58">
-        <f t="shared" ref="G63:G78" si="25">F63-E63</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>-44747</v>
       </c>
       <c r="H63" s="59"/>
       <c r="I63" s="59"/>
@@ -13686,23 +13644,28 @@
         <v>0</v>
       </c>
       <c r="K63" s="61">
-        <v>0</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="64" spans="1:11" ht="21" x14ac:dyDescent="0.25">
       <c r="A64" s="56"/>
-      <c r="B64" s="110">
+      <c r="B64" s="109">
+        <f t="shared" ref="B64:B87" si="25">ROW()-62</f>
         <v>2</v>
       </c>
       <c r="C64" s="58" t="s">
-        <v>126</v>
-      </c>
-      <c r="D64" s="58"/>
-      <c r="E64" s="59"/>
+        <v>125</v>
+      </c>
+      <c r="D64" s="58" t="s">
+        <v>129</v>
+      </c>
+      <c r="E64" s="59">
+        <v>44747</v>
+      </c>
       <c r="F64" s="59"/>
       <c r="G64" s="58">
-        <f t="shared" si="25"/>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>-44747</v>
       </c>
       <c r="H64" s="59"/>
       <c r="I64" s="59"/>
@@ -13711,373 +13674,448 @@
         <v>0</v>
       </c>
       <c r="K64" s="61">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:12" ht="21" x14ac:dyDescent="0.25">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" ht="21" x14ac:dyDescent="0.25">
       <c r="A65" s="56"/>
-      <c r="B65" s="110">
+      <c r="B65" s="109">
+        <f t="shared" si="25"/>
         <v>3</v>
       </c>
       <c r="C65" s="58" t="s">
-        <v>120</v>
-      </c>
-      <c r="D65" s="58"/>
-      <c r="E65" s="59"/>
+        <v>119</v>
+      </c>
+      <c r="D65" s="58" t="s">
+        <v>133</v>
+      </c>
+      <c r="E65" s="59">
+        <v>44747</v>
+      </c>
       <c r="F65" s="59"/>
       <c r="G65" s="58">
-        <f t="shared" si="25"/>
-        <v>0</v>
+        <f t="shared" ref="G65:G78" si="26">F65-E65</f>
+        <v>-44747</v>
       </c>
       <c r="H65" s="59"/>
       <c r="I65" s="59"/>
       <c r="J65" s="60">
-        <f t="shared" ref="J65:J78" si="26">I65-H65</f>
+        <f t="shared" ref="J65:J78" si="27">I65-H65</f>
         <v>0</v>
       </c>
       <c r="K65" s="61">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:12" ht="21" x14ac:dyDescent="0.25">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" ht="21" x14ac:dyDescent="0.25">
       <c r="A66" s="56"/>
-      <c r="B66" s="110">
+      <c r="B66" s="109">
+        <f t="shared" si="25"/>
         <v>4</v>
       </c>
       <c r="C66" s="108" t="s">
-        <v>129</v>
-      </c>
-      <c r="D66" s="58"/>
-      <c r="E66" s="59"/>
+        <v>128</v>
+      </c>
+      <c r="D66" s="58" t="s">
+        <v>133</v>
+      </c>
+      <c r="E66" s="59">
+        <v>44748</v>
+      </c>
       <c r="F66" s="59"/>
       <c r="G66" s="58">
-        <f t="shared" si="25"/>
-        <v>0</v>
+        <f t="shared" si="26"/>
+        <v>-44748</v>
       </c>
       <c r="H66" s="59"/>
       <c r="I66" s="59"/>
       <c r="J66" s="60">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="K66" s="61">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:12" ht="21" x14ac:dyDescent="0.25">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" ht="21" x14ac:dyDescent="0.25">
       <c r="A67" s="56"/>
-      <c r="B67" s="110">
+      <c r="B67" s="109">
+        <f t="shared" si="25"/>
         <v>5</v>
       </c>
       <c r="C67" s="58" t="s">
         <v>109</v>
       </c>
-      <c r="D67" s="58"/>
-      <c r="E67" s="59"/>
+      <c r="D67" s="58" t="s">
+        <v>132</v>
+      </c>
+      <c r="E67" s="59">
+        <v>44747</v>
+      </c>
       <c r="F67" s="59"/>
       <c r="G67" s="58">
-        <f t="shared" si="25"/>
-        <v>0</v>
+        <f t="shared" si="26"/>
+        <v>-44747</v>
       </c>
       <c r="H67" s="59"/>
       <c r="I67" s="59"/>
       <c r="J67" s="60">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="K67" s="61">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:12" ht="21" x14ac:dyDescent="0.25">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" ht="21" x14ac:dyDescent="0.25">
       <c r="A68" s="56"/>
-      <c r="B68" s="110">
+      <c r="B68" s="109">
+        <f t="shared" si="25"/>
         <v>6</v>
       </c>
       <c r="C68" s="58" t="s">
         <v>81</v>
       </c>
-      <c r="D68" s="58"/>
-      <c r="E68" s="105"/>
+      <c r="D68" s="58" t="s">
+        <v>129</v>
+      </c>
+      <c r="E68" s="105">
+        <v>44748</v>
+      </c>
       <c r="F68" s="106"/>
       <c r="G68" s="58">
+        <f t="shared" si="26"/>
+        <v>-44748</v>
+      </c>
+      <c r="H68" s="59"/>
+      <c r="I68" s="106"/>
+      <c r="J68" s="60">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="K68" s="61">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" ht="21" x14ac:dyDescent="0.25">
+      <c r="A69" s="56"/>
+      <c r="B69" s="109">
         <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="H68" s="59"/>
-      <c r="I68" s="59"/>
-      <c r="J68" s="60">
-        <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="K68" s="61">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:12" ht="21" x14ac:dyDescent="0.25">
-      <c r="A69" s="56"/>
-      <c r="B69" s="110">
         <v>7</v>
       </c>
       <c r="C69" s="58" t="s">
         <v>110</v>
       </c>
-      <c r="D69" s="58"/>
-      <c r="E69" s="106"/>
+      <c r="D69" s="58" t="s">
+        <v>129</v>
+      </c>
+      <c r="E69" s="106">
+        <v>44749</v>
+      </c>
       <c r="F69" s="59"/>
       <c r="G69" s="58">
-        <f t="shared" si="25"/>
-        <v>0</v>
+        <f t="shared" si="26"/>
+        <v>-44749</v>
       </c>
       <c r="H69" s="106"/>
       <c r="I69" s="59"/>
       <c r="J69" s="60">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="K69" s="61">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:12" ht="21" x14ac:dyDescent="0.25">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" ht="21" x14ac:dyDescent="0.25">
       <c r="A70" s="56"/>
-      <c r="B70" s="110">
+      <c r="B70" s="109">
+        <f t="shared" si="25"/>
         <v>8</v>
       </c>
       <c r="C70" s="58" t="s">
-        <v>118</v>
-      </c>
-      <c r="D70" s="58"/>
-      <c r="E70" s="59"/>
+        <v>117</v>
+      </c>
+      <c r="D70" s="58" t="s">
+        <v>130</v>
+      </c>
+      <c r="E70" s="59">
+        <v>44747</v>
+      </c>
       <c r="F70" s="59"/>
       <c r="G70" s="58">
-        <f t="shared" si="25"/>
-        <v>0</v>
+        <f t="shared" si="26"/>
+        <v>-44747</v>
       </c>
       <c r="H70" s="59"/>
       <c r="I70" s="59"/>
       <c r="J70" s="60">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="K70" s="61">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:12" ht="21" x14ac:dyDescent="0.25">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" ht="21" x14ac:dyDescent="0.25">
       <c r="A71" s="56"/>
-      <c r="B71" s="110">
+      <c r="B71" s="109">
+        <f t="shared" si="25"/>
         <v>9</v>
       </c>
       <c r="C71" s="58" t="s">
-        <v>119</v>
-      </c>
-      <c r="D71" s="58"/>
-      <c r="E71" s="59"/>
+        <v>118</v>
+      </c>
+      <c r="D71" s="58" t="s">
+        <v>130</v>
+      </c>
+      <c r="E71" s="59">
+        <v>44747</v>
+      </c>
       <c r="F71" s="59"/>
       <c r="G71" s="58">
-        <f t="shared" si="25"/>
-        <v>0</v>
+        <f t="shared" si="26"/>
+        <v>-44747</v>
       </c>
       <c r="H71" s="59"/>
       <c r="I71" s="59"/>
       <c r="J71" s="60">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="K71" s="61">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:12" ht="21" x14ac:dyDescent="0.25">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" ht="21" x14ac:dyDescent="0.25">
       <c r="A72" s="56"/>
-      <c r="B72" s="110">
+      <c r="B72" s="109">
+        <f t="shared" si="25"/>
         <v>10</v>
       </c>
       <c r="C72" s="58" t="s">
         <v>114</v>
       </c>
-      <c r="D72" s="58"/>
-      <c r="E72" s="59"/>
+      <c r="D72" s="58" t="s">
+        <v>131</v>
+      </c>
+      <c r="E72" s="59">
+        <v>44747</v>
+      </c>
       <c r="F72" s="59"/>
       <c r="G72" s="58">
-        <f t="shared" si="25"/>
-        <v>0</v>
+        <f t="shared" si="26"/>
+        <v>-44747</v>
       </c>
       <c r="H72" s="59"/>
       <c r="I72" s="59"/>
       <c r="J72" s="60">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="K72" s="61">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:12" ht="21" x14ac:dyDescent="0.25">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" ht="21" x14ac:dyDescent="0.25">
       <c r="A73" s="56"/>
-      <c r="B73" s="110">
+      <c r="B73" s="109">
+        <f t="shared" si="25"/>
         <v>11</v>
       </c>
       <c r="C73" s="58" t="s">
         <v>113</v>
       </c>
-      <c r="D73" s="58"/>
-      <c r="E73" s="59"/>
+      <c r="D73" s="58" t="s">
+        <v>131</v>
+      </c>
+      <c r="E73" s="59">
+        <v>44747</v>
+      </c>
       <c r="F73" s="59"/>
       <c r="G73" s="58">
-        <f t="shared" si="25"/>
-        <v>0</v>
+        <f t="shared" si="26"/>
+        <v>-44747</v>
       </c>
       <c r="H73" s="59"/>
       <c r="I73" s="59"/>
       <c r="J73" s="60">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="K73" s="61">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:12" ht="21" x14ac:dyDescent="0.25">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" ht="21" x14ac:dyDescent="0.25">
       <c r="A74" s="56"/>
-      <c r="B74" s="110">
+      <c r="B74" s="109">
+        <f t="shared" si="25"/>
         <v>12</v>
       </c>
       <c r="C74" s="58" t="s">
         <v>82</v>
       </c>
-      <c r="D74" s="58"/>
-      <c r="E74" s="59"/>
+      <c r="D74" s="58" t="s">
+        <v>134</v>
+      </c>
+      <c r="E74" s="59">
+        <v>44748</v>
+      </c>
       <c r="F74" s="59"/>
       <c r="G74" s="58">
-        <f t="shared" si="25"/>
-        <v>0</v>
+        <f t="shared" si="26"/>
+        <v>-44748</v>
       </c>
       <c r="H74" s="59"/>
       <c r="I74" s="59"/>
       <c r="J74" s="60">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="K74" s="61">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:12" ht="21" x14ac:dyDescent="0.25">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" ht="21" x14ac:dyDescent="0.25">
       <c r="A75" s="56"/>
-      <c r="B75" s="110">
+      <c r="B75" s="109">
+        <f t="shared" si="25"/>
         <v>13</v>
       </c>
       <c r="C75" s="58" t="s">
         <v>111</v>
       </c>
-      <c r="D75" s="58"/>
-      <c r="E75" s="59"/>
+      <c r="D75" s="58" t="s">
+        <v>134</v>
+      </c>
+      <c r="E75" s="59">
+        <v>44749</v>
+      </c>
       <c r="F75" s="105"/>
       <c r="G75" s="58">
-        <f t="shared" si="25"/>
-        <v>0</v>
+        <f t="shared" si="26"/>
+        <v>-44749</v>
       </c>
       <c r="H75" s="59"/>
       <c r="I75" s="105"/>
       <c r="J75" s="60">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="K75" s="61">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:12" ht="21" x14ac:dyDescent="0.25">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" ht="21" x14ac:dyDescent="0.25">
       <c r="A76" s="56"/>
-      <c r="B76" s="110">
+      <c r="B76" s="109">
+        <f t="shared" si="25"/>
         <v>14</v>
       </c>
       <c r="C76" s="58" t="s">
-        <v>127</v>
-      </c>
-      <c r="D76" s="58"/>
-      <c r="E76" s="59"/>
+        <v>126</v>
+      </c>
+      <c r="D76" s="58" t="s">
+        <v>130</v>
+      </c>
+      <c r="E76" s="59">
+        <v>44748</v>
+      </c>
       <c r="F76" s="59"/>
       <c r="G76" s="58">
-        <f t="shared" si="25"/>
-        <v>0</v>
+        <f t="shared" si="26"/>
+        <v>-44748</v>
       </c>
       <c r="H76" s="59"/>
       <c r="I76" s="59"/>
       <c r="J76" s="60">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="K76" s="61">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:12" ht="21" x14ac:dyDescent="0.25">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" ht="21" x14ac:dyDescent="0.25">
       <c r="A77" s="56"/>
-      <c r="B77" s="110">
+      <c r="B77" s="109">
+        <f t="shared" si="25"/>
         <v>15</v>
       </c>
       <c r="C77" s="58" t="s">
         <v>112</v>
       </c>
-      <c r="D77" s="58"/>
-      <c r="E77" s="59"/>
+      <c r="D77" s="58" t="s">
+        <v>129</v>
+      </c>
+      <c r="E77" s="59">
+        <v>44750</v>
+      </c>
       <c r="F77" s="59"/>
       <c r="G77" s="58">
-        <f t="shared" si="25"/>
-        <v>0</v>
+        <f t="shared" si="26"/>
+        <v>-44750</v>
       </c>
       <c r="H77" s="59"/>
       <c r="I77" s="59"/>
       <c r="J77" s="60">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="K77" s="61">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:12" ht="21" x14ac:dyDescent="0.25">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" ht="21" x14ac:dyDescent="0.25">
       <c r="A78" s="56"/>
-      <c r="B78" s="110">
+      <c r="B78" s="109">
+        <f t="shared" si="25"/>
         <v>16</v>
       </c>
       <c r="C78" s="58" t="s">
         <v>92</v>
       </c>
-      <c r="D78" s="58"/>
-      <c r="E78" s="59"/>
+      <c r="D78" s="58" t="s">
+        <v>132</v>
+      </c>
+      <c r="E78" s="59">
+        <v>44747</v>
+      </c>
       <c r="F78" s="59"/>
       <c r="G78" s="58">
-        <f t="shared" si="25"/>
-        <v>0</v>
+        <f t="shared" si="26"/>
+        <v>-44747</v>
       </c>
       <c r="H78" s="59"/>
       <c r="I78" s="59"/>
       <c r="J78" s="60">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="K78" s="61">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:12" ht="21" x14ac:dyDescent="0.25">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" ht="21" x14ac:dyDescent="0.25">
       <c r="A79" s="56"/>
-      <c r="B79" s="110">
+      <c r="B79" s="109">
+        <f t="shared" si="25"/>
         <v>17</v>
       </c>
       <c r="C79" s="58" t="s">
-        <v>128</v>
-      </c>
-      <c r="D79" s="58"/>
-      <c r="E79" s="59"/>
+        <v>127</v>
+      </c>
+      <c r="D79" s="58" t="s">
+        <v>132</v>
+      </c>
+      <c r="E79" s="59">
+        <v>44747</v>
+      </c>
       <c r="F79" s="59"/>
       <c r="G79" s="58">
         <f>F79-E79</f>
-        <v>0</v>
+        <v>-44747</v>
       </c>
       <c r="H79" s="59"/>
       <c r="I79" s="59"/>
@@ -14086,897 +14124,1081 @@
         <v>0</v>
       </c>
       <c r="K79" s="61">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" ht="21" x14ac:dyDescent="0.25">
+      <c r="A80" s="56"/>
+      <c r="B80" s="109">
+        <f t="shared" si="25"/>
+        <v>18</v>
+      </c>
+      <c r="C80" s="58" t="s">
+        <v>115</v>
+      </c>
+      <c r="D80" s="58" t="s">
+        <v>134</v>
+      </c>
+      <c r="E80" s="105">
+        <v>44750</v>
+      </c>
+      <c r="F80" s="59"/>
+      <c r="G80" s="58">
+        <f t="shared" ref="G80:G114" si="28">F80-E80</f>
+        <v>-44750</v>
+      </c>
+      <c r="H80" s="59"/>
+      <c r="I80" s="59"/>
+      <c r="J80" s="60">
+        <f t="shared" ref="J80:J114" si="29">I80-H80</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:12" ht="21" x14ac:dyDescent="0.25">
-      <c r="A80" s="56"/>
-      <c r="B80" s="111">
-        <v>18</v>
-      </c>
-      <c r="C80" s="112" t="s">
-        <v>115</v>
-      </c>
-      <c r="D80" s="112"/>
-      <c r="E80" s="113"/>
-      <c r="F80" s="114"/>
-      <c r="G80" s="112">
-        <f t="shared" ref="G80:G87" si="27">F80-E80</f>
-        <v>0</v>
-      </c>
-      <c r="H80" s="114"/>
-      <c r="I80" s="114"/>
-      <c r="J80" s="115">
-        <f t="shared" ref="J80:J126" si="28">I80-H80</f>
-        <v>0</v>
-      </c>
       <c r="K80" s="61">
-        <v>0</v>
-      </c>
-      <c r="L80" s="116" t="s">
-        <v>166</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="81" spans="1:11" ht="21" x14ac:dyDescent="0.25">
       <c r="A81" s="56"/>
-      <c r="B81" s="110">
+      <c r="B81" s="109">
+        <f t="shared" si="25"/>
         <v>19</v>
       </c>
       <c r="C81" s="58" t="s">
         <v>116</v>
       </c>
-      <c r="D81" s="58"/>
-      <c r="E81" s="105"/>
+      <c r="D81" s="58" t="s">
+        <v>133</v>
+      </c>
+      <c r="E81" s="59">
+        <v>44749</v>
+      </c>
       <c r="F81" s="59"/>
       <c r="G81" s="58">
-        <f t="shared" si="27"/>
-        <v>0</v>
+        <f t="shared" si="28"/>
+        <v>-44749</v>
       </c>
       <c r="H81" s="59"/>
       <c r="I81" s="59"/>
       <c r="J81" s="60">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="K81" s="61">
-        <v>0</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="82" spans="1:11" ht="21" x14ac:dyDescent="0.25">
       <c r="A82" s="56"/>
-      <c r="B82" s="110">
+      <c r="B82" s="109">
+        <f t="shared" si="25"/>
         <v>20</v>
       </c>
       <c r="C82" s="58" t="s">
-        <v>117</v>
-      </c>
-      <c r="D82" s="58"/>
-      <c r="E82" s="59"/>
+        <v>120</v>
+      </c>
+      <c r="D82" s="58" t="s">
+        <v>133</v>
+      </c>
+      <c r="E82" s="59">
+        <v>44750</v>
+      </c>
       <c r="F82" s="59"/>
       <c r="G82" s="58">
-        <f t="shared" si="27"/>
-        <v>0</v>
+        <f t="shared" si="28"/>
+        <v>-44750</v>
       </c>
       <c r="H82" s="59"/>
       <c r="I82" s="59"/>
       <c r="J82" s="60">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="K82" s="61">
-        <v>0</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="83" spans="1:11" ht="21" x14ac:dyDescent="0.25">
       <c r="A83" s="56"/>
-      <c r="B83" s="110">
+      <c r="B83" s="109">
+        <f t="shared" si="25"/>
         <v>21</v>
       </c>
       <c r="C83" s="58" t="s">
         <v>121</v>
       </c>
-      <c r="D83" s="58"/>
-      <c r="E83" s="59"/>
+      <c r="D83" s="58" t="s">
+        <v>133</v>
+      </c>
+      <c r="E83" s="59">
+        <v>44751</v>
+      </c>
       <c r="F83" s="59"/>
       <c r="G83" s="58">
-        <f t="shared" si="27"/>
-        <v>0</v>
+        <f t="shared" si="28"/>
+        <v>-44751</v>
       </c>
       <c r="H83" s="59"/>
       <c r="I83" s="59"/>
       <c r="J83" s="60">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="K83" s="61">
-        <v>0</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="84" spans="1:11" ht="21" x14ac:dyDescent="0.25">
       <c r="A84" s="56"/>
-      <c r="B84" s="110">
+      <c r="B84" s="109">
+        <f t="shared" si="25"/>
         <v>22</v>
       </c>
       <c r="C84" s="58" t="s">
         <v>122</v>
       </c>
-      <c r="D84" s="58"/>
-      <c r="E84" s="59"/>
+      <c r="D84" s="58" t="s">
+        <v>134</v>
+      </c>
+      <c r="E84" s="59">
+        <v>44751</v>
+      </c>
       <c r="F84" s="59"/>
       <c r="G84" s="58">
-        <f t="shared" si="27"/>
-        <v>0</v>
+        <f t="shared" si="28"/>
+        <v>-44751</v>
       </c>
       <c r="H84" s="59"/>
       <c r="I84" s="59"/>
       <c r="J84" s="60">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="K84" s="61">
-        <v>0</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="85" spans="1:11" ht="21" x14ac:dyDescent="0.25">
       <c r="A85" s="56"/>
-      <c r="B85" s="110">
+      <c r="B85" s="109">
+        <f t="shared" si="25"/>
         <v>23</v>
       </c>
       <c r="C85" s="58" t="s">
         <v>123</v>
       </c>
-      <c r="D85" s="58"/>
-      <c r="E85" s="59"/>
+      <c r="D85" s="58" t="s">
+        <v>134</v>
+      </c>
+      <c r="E85" s="59">
+        <v>44751</v>
+      </c>
       <c r="F85" s="59"/>
       <c r="G85" s="58">
-        <f t="shared" si="27"/>
-        <v>0</v>
+        <f t="shared" si="28"/>
+        <v>-44751</v>
       </c>
       <c r="H85" s="59"/>
       <c r="I85" s="59"/>
       <c r="J85" s="60">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="K85" s="61">
-        <v>0</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="86" spans="1:11" ht="21" x14ac:dyDescent="0.25">
       <c r="A86" s="56"/>
-      <c r="B86" s="110">
+      <c r="B86" s="109">
+        <f t="shared" si="25"/>
         <v>24</v>
       </c>
       <c r="C86" s="58" t="s">
-        <v>124</v>
-      </c>
-      <c r="D86" s="58"/>
-      <c r="E86" s="59"/>
+        <v>135</v>
+      </c>
+      <c r="D86" s="58" t="s">
+        <v>129</v>
+      </c>
+      <c r="E86" s="59">
+        <v>44751</v>
+      </c>
       <c r="F86" s="59"/>
       <c r="G86" s="58">
-        <f t="shared" si="27"/>
-        <v>0</v>
+        <f t="shared" si="28"/>
+        <v>-44751</v>
       </c>
       <c r="H86" s="59"/>
       <c r="I86" s="59"/>
       <c r="J86" s="60">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="K86" s="61">
-        <v>0</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="87" spans="1:11" ht="21" x14ac:dyDescent="0.25">
       <c r="A87" s="56"/>
-      <c r="B87" s="110">
+      <c r="B87" s="109">
+        <f t="shared" si="25"/>
         <v>25</v>
       </c>
       <c r="C87" s="58" t="s">
-        <v>136</v>
-      </c>
-      <c r="D87" s="58"/>
-      <c r="E87" s="59"/>
+        <v>137</v>
+      </c>
+      <c r="D87" s="58" t="s">
+        <v>129</v>
+      </c>
+      <c r="E87" s="59">
+        <v>44751</v>
+      </c>
       <c r="F87" s="59"/>
       <c r="G87" s="58">
-        <f t="shared" si="27"/>
-        <v>0</v>
+        <f t="shared" si="28"/>
+        <v>-44751</v>
       </c>
       <c r="H87" s="59"/>
       <c r="I87" s="59"/>
       <c r="J87" s="60">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="K87" s="61">
-        <v>0</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="88" spans="1:11" ht="21" x14ac:dyDescent="0.25">
       <c r="A88" s="56"/>
-      <c r="B88" s="110">
+      <c r="B88" s="150">
+        <f>ROW()-62</f>
         <v>26</v>
       </c>
       <c r="C88" s="58" t="s">
         <v>138</v>
       </c>
-      <c r="D88" s="58"/>
-      <c r="E88" s="59"/>
+      <c r="D88" s="58" t="s">
+        <v>131</v>
+      </c>
+      <c r="E88" s="59">
+        <v>44749</v>
+      </c>
       <c r="F88" s="59"/>
-      <c r="G88" s="58"/>
+      <c r="G88" s="58">
+        <f t="shared" si="28"/>
+        <v>-44749</v>
+      </c>
       <c r="H88" s="59"/>
       <c r="I88" s="59"/>
       <c r="J88" s="60">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="K88" s="61">
-        <v>0</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="89" spans="1:11" ht="21" x14ac:dyDescent="0.25">
       <c r="A89" s="56"/>
-      <c r="B89" s="109">
+      <c r="B89" s="150">
+        <f t="shared" ref="B89:B114" si="30">ROW()-62</f>
         <v>27</v>
       </c>
       <c r="C89" s="58" t="s">
-        <v>139</v>
-      </c>
-      <c r="D89" s="58"/>
-      <c r="E89" s="59"/>
+        <v>109</v>
+      </c>
+      <c r="D89" s="58" t="s">
+        <v>131</v>
+      </c>
+      <c r="E89" s="59">
+        <v>44749</v>
+      </c>
       <c r="F89" s="59"/>
       <c r="G89" s="58">
-        <f t="shared" ref="G89:G105" si="29">F89-E89</f>
-        <v>0</v>
+        <f t="shared" si="28"/>
+        <v>-44749</v>
       </c>
       <c r="H89" s="59"/>
       <c r="I89" s="59"/>
       <c r="J89" s="60">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="K89" s="61">
-        <v>0</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="90" spans="1:11" ht="21" x14ac:dyDescent="0.25">
       <c r="A90" s="56"/>
-      <c r="B90" s="109">
+      <c r="B90" s="150">
+        <f t="shared" si="30"/>
         <v>28</v>
       </c>
       <c r="C90" s="58" t="s">
-        <v>109</v>
-      </c>
-      <c r="D90" s="58"/>
-      <c r="E90" s="59"/>
+        <v>144</v>
+      </c>
+      <c r="D90" s="58" t="s">
+        <v>131</v>
+      </c>
+      <c r="E90" s="59">
+        <v>44750</v>
+      </c>
       <c r="F90" s="59"/>
       <c r="G90" s="58">
-        <f t="shared" si="29"/>
-        <v>0</v>
+        <f t="shared" si="28"/>
+        <v>-44750</v>
       </c>
       <c r="H90" s="59"/>
       <c r="I90" s="59"/>
       <c r="J90" s="60">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="K90" s="61">
-        <v>0</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="91" spans="1:11" ht="21" x14ac:dyDescent="0.25">
       <c r="A91" s="56"/>
-      <c r="B91" s="109">
+      <c r="B91" s="150">
+        <f t="shared" si="30"/>
         <v>29</v>
       </c>
       <c r="C91" s="58" t="s">
-        <v>153</v>
-      </c>
-      <c r="D91" s="58"/>
-      <c r="E91" s="59"/>
+        <v>139</v>
+      </c>
+      <c r="D91" s="58" t="s">
+        <v>131</v>
+      </c>
+      <c r="E91" s="59">
+        <v>44750</v>
+      </c>
       <c r="F91" s="59"/>
       <c r="G91" s="58">
-        <f t="shared" si="29"/>
-        <v>0</v>
+        <f t="shared" si="28"/>
+        <v>-44750</v>
       </c>
       <c r="H91" s="59"/>
       <c r="I91" s="59"/>
       <c r="J91" s="60">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="K91" s="61">
-        <v>0</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="92" spans="1:11" ht="21" x14ac:dyDescent="0.25">
       <c r="A92" s="56"/>
-      <c r="B92" s="109">
+      <c r="B92" s="150">
+        <f t="shared" si="30"/>
         <v>30</v>
       </c>
       <c r="C92" s="58" t="s">
         <v>140</v>
       </c>
-      <c r="D92" s="58"/>
-      <c r="E92" s="59"/>
+      <c r="D92" s="58" t="s">
+        <v>131</v>
+      </c>
+      <c r="E92" s="59">
+        <v>44751</v>
+      </c>
       <c r="F92" s="59"/>
       <c r="G92" s="58">
-        <f t="shared" si="29"/>
-        <v>0</v>
+        <f t="shared" si="28"/>
+        <v>-44751</v>
       </c>
       <c r="H92" s="59"/>
       <c r="I92" s="59"/>
       <c r="J92" s="60">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="K92" s="61">
-        <v>0</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="93" spans="1:11" ht="21" x14ac:dyDescent="0.25">
       <c r="A93" s="56"/>
-      <c r="B93" s="109">
+      <c r="B93" s="150">
+        <f t="shared" si="30"/>
         <v>31</v>
       </c>
       <c r="C93" s="58" t="s">
-        <v>141</v>
-      </c>
-      <c r="D93" s="58"/>
-      <c r="E93" s="59"/>
+        <v>160</v>
+      </c>
+      <c r="D93" s="58" t="s">
+        <v>131</v>
+      </c>
+      <c r="E93" s="59">
+        <v>44751</v>
+      </c>
       <c r="F93" s="59"/>
       <c r="G93" s="58">
-        <f t="shared" si="29"/>
-        <v>0</v>
+        <f t="shared" si="28"/>
+        <v>-44751</v>
       </c>
       <c r="H93" s="59"/>
       <c r="I93" s="59"/>
       <c r="J93" s="60">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="K93" s="61">
-        <v>0</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="94" spans="1:11" ht="21" x14ac:dyDescent="0.25">
       <c r="A94" s="56"/>
-      <c r="B94" s="109">
+      <c r="B94" s="150">
+        <f t="shared" si="30"/>
         <v>32</v>
       </c>
       <c r="C94" s="58" t="s">
-        <v>175</v>
-      </c>
-      <c r="D94" s="58"/>
-      <c r="E94" s="59"/>
+        <v>161</v>
+      </c>
+      <c r="D94" s="58" t="s">
+        <v>131</v>
+      </c>
+      <c r="E94" s="59">
+        <v>44751</v>
+      </c>
       <c r="F94" s="59"/>
       <c r="G94" s="58">
-        <f t="shared" si="29"/>
-        <v>0</v>
+        <f t="shared" si="28"/>
+        <v>-44751</v>
       </c>
       <c r="H94" s="59"/>
       <c r="I94" s="59"/>
       <c r="J94" s="60">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="K94" s="61">
-        <v>0</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="95" spans="1:11" ht="21" x14ac:dyDescent="0.25">
       <c r="A95" s="56"/>
-      <c r="B95" s="109">
+      <c r="B95" s="150">
+        <f t="shared" si="30"/>
         <v>33</v>
       </c>
       <c r="C95" s="58" t="s">
-        <v>176</v>
-      </c>
-      <c r="D95" s="58"/>
-      <c r="E95" s="59"/>
+        <v>141</v>
+      </c>
+      <c r="D95" s="59" t="s">
+        <v>133</v>
+      </c>
+      <c r="E95" s="59">
+        <v>44752</v>
+      </c>
       <c r="F95" s="59"/>
       <c r="G95" s="58">
-        <f t="shared" si="29"/>
-        <v>0</v>
+        <f t="shared" si="28"/>
+        <v>-44752</v>
       </c>
       <c r="H95" s="59"/>
       <c r="I95" s="59"/>
       <c r="J95" s="60">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="K95" s="61">
-        <v>0</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="96" spans="1:11" ht="21" x14ac:dyDescent="0.25">
       <c r="A96" s="56"/>
-      <c r="B96" s="109">
+      <c r="B96" s="150">
+        <f t="shared" si="30"/>
         <v>34</v>
       </c>
       <c r="C96" s="58" t="s">
-        <v>142</v>
-      </c>
-      <c r="D96" s="59"/>
-      <c r="E96" s="59"/>
+        <v>155</v>
+      </c>
+      <c r="D96" s="59" t="s">
+        <v>133</v>
+      </c>
+      <c r="E96" s="59">
+        <v>44752</v>
+      </c>
       <c r="F96" s="59"/>
       <c r="G96" s="58">
-        <f t="shared" si="29"/>
-        <v>0</v>
+        <f t="shared" si="28"/>
+        <v>-44752</v>
       </c>
       <c r="H96" s="59"/>
       <c r="I96" s="59"/>
       <c r="J96" s="60">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="K96" s="61">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:11" ht="21" x14ac:dyDescent="0.25">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12" ht="21" x14ac:dyDescent="0.25">
       <c r="A97" s="56"/>
-      <c r="B97" s="109">
+      <c r="B97" s="150">
+        <f t="shared" si="30"/>
         <v>35</v>
       </c>
       <c r="C97" s="58" t="s">
-        <v>167</v>
-      </c>
-      <c r="D97" s="59"/>
-      <c r="E97" s="59"/>
+        <v>159</v>
+      </c>
+      <c r="D97" s="151" t="s">
+        <v>129</v>
+      </c>
+      <c r="E97" s="59">
+        <v>44752</v>
+      </c>
       <c r="F97" s="59"/>
       <c r="G97" s="58">
-        <f t="shared" si="29"/>
-        <v>0</v>
+        <f t="shared" si="28"/>
+        <v>-44752</v>
       </c>
       <c r="H97" s="59"/>
       <c r="I97" s="59"/>
       <c r="J97" s="60">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="K97" s="61">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:11" ht="21" x14ac:dyDescent="0.25">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12" ht="21" x14ac:dyDescent="0.25">
       <c r="A98" s="56"/>
-      <c r="B98" s="109">
+      <c r="B98" s="150">
+        <f t="shared" si="30"/>
         <v>36</v>
       </c>
       <c r="C98" s="58" t="s">
-        <v>143</v>
-      </c>
-      <c r="D98" s="58"/>
-      <c r="E98" s="59"/>
+        <v>164</v>
+      </c>
+      <c r="D98" s="59" t="s">
+        <v>133</v>
+      </c>
+      <c r="E98" s="59">
+        <v>44753</v>
+      </c>
       <c r="F98" s="59"/>
       <c r="G98" s="58">
-        <f t="shared" si="29"/>
-        <v>0</v>
+        <f t="shared" si="28"/>
+        <v>-44753</v>
       </c>
       <c r="H98" s="59"/>
       <c r="I98" s="59"/>
       <c r="J98" s="60">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="K98" s="61">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="1:11" ht="21" x14ac:dyDescent="0.25">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12" ht="21" x14ac:dyDescent="0.25">
       <c r="A99" s="56"/>
-      <c r="B99" s="109">
+      <c r="B99" s="150">
+        <f t="shared" si="30"/>
         <v>37</v>
       </c>
       <c r="C99" s="58" t="s">
-        <v>144</v>
-      </c>
-      <c r="D99" s="58"/>
-      <c r="E99" s="59"/>
+        <v>142</v>
+      </c>
+      <c r="D99" s="59" t="s">
+        <v>133</v>
+      </c>
+      <c r="E99" s="59">
+        <v>44753</v>
+      </c>
       <c r="F99" s="59"/>
       <c r="G99" s="58">
-        <f t="shared" si="29"/>
-        <v>0</v>
+        <f t="shared" si="28"/>
+        <v>-44753</v>
       </c>
       <c r="H99" s="59"/>
       <c r="I99" s="59"/>
       <c r="J99" s="60">
-        <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="K99" s="61">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:11" ht="21" x14ac:dyDescent="0.25">
-      <c r="A100" s="56"/>
-      <c r="B100" s="109">
-        <v>38</v>
-      </c>
-      <c r="C100" s="58" t="s">
-        <v>145</v>
-      </c>
-      <c r="D100" s="58"/>
-      <c r="E100" s="59"/>
-      <c r="F100" s="59"/>
-      <c r="G100" s="58">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
+      <c r="K99" s="61">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12" ht="21" x14ac:dyDescent="0.25">
+      <c r="A100" s="56"/>
+      <c r="B100" s="150">
+        <f t="shared" si="30"/>
+        <v>38</v>
+      </c>
+      <c r="C100" s="58" t="s">
+        <v>143</v>
+      </c>
+      <c r="D100" s="111" t="s">
+        <v>132</v>
+      </c>
+      <c r="E100" s="59">
+        <v>44750</v>
+      </c>
+      <c r="F100" s="105"/>
+      <c r="G100" s="58">
+        <f t="shared" si="28"/>
+        <v>-44750</v>
+      </c>
       <c r="H100" s="59"/>
-      <c r="I100" s="59"/>
+      <c r="I100" s="105"/>
       <c r="J100" s="60">
-        <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="K100" s="61">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:11" ht="21" x14ac:dyDescent="0.25">
-      <c r="A101" s="56"/>
-      <c r="B101" s="109">
-        <v>39</v>
-      </c>
-      <c r="C101" s="58" t="s">
-        <v>146</v>
-      </c>
-      <c r="D101" s="58"/>
-      <c r="E101" s="59"/>
-      <c r="F101" s="59"/>
-      <c r="G101" s="58">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
+      <c r="K100" s="61">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12" ht="21" x14ac:dyDescent="0.25">
+      <c r="A101" s="56"/>
+      <c r="B101" s="150">
+        <f t="shared" si="30"/>
+        <v>39</v>
+      </c>
+      <c r="C101" s="58" t="s">
+        <v>145</v>
+      </c>
+      <c r="D101" s="58" t="s">
+        <v>132</v>
+      </c>
+      <c r="E101" s="105">
+        <v>44751</v>
+      </c>
+      <c r="F101" s="105"/>
+      <c r="G101" s="58">
+        <f t="shared" si="28"/>
+        <v>-44751</v>
+      </c>
       <c r="H101" s="59"/>
-      <c r="I101" s="59"/>
+      <c r="I101" s="105"/>
       <c r="J101" s="60">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="K101" s="61">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="1:11" ht="21" x14ac:dyDescent="0.25">
+        <v>0.9</v>
+      </c>
+      <c r="L101" s="110" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12" ht="21" x14ac:dyDescent="0.25">
       <c r="A102" s="56"/>
-      <c r="B102" s="109">
+      <c r="B102" s="150">
+        <f t="shared" si="30"/>
         <v>40</v>
       </c>
       <c r="C102" s="58" t="s">
-        <v>147</v>
-      </c>
-      <c r="D102" s="58"/>
-      <c r="E102" s="59"/>
+        <v>157</v>
+      </c>
+      <c r="D102" s="58" t="s">
+        <v>131</v>
+      </c>
+      <c r="E102" s="59">
+        <v>44751</v>
+      </c>
       <c r="F102" s="59"/>
       <c r="G102" s="58">
-        <f t="shared" si="29"/>
-        <v>0</v>
+        <f t="shared" si="28"/>
+        <v>-44751</v>
       </c>
       <c r="H102" s="59"/>
       <c r="I102" s="59"/>
       <c r="J102" s="60">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="K102" s="61">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="103" spans="1:11" ht="21" x14ac:dyDescent="0.25">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12" ht="21" x14ac:dyDescent="0.25">
       <c r="A103" s="56"/>
-      <c r="B103" s="109">
+      <c r="B103" s="150">
+        <f t="shared" si="30"/>
         <v>41</v>
       </c>
       <c r="C103" s="58" t="s">
-        <v>148</v>
-      </c>
-      <c r="D103" s="58"/>
-      <c r="E103" s="59"/>
+        <v>165</v>
+      </c>
+      <c r="D103" s="58" t="s">
+        <v>131</v>
+      </c>
+      <c r="E103" s="59">
+        <v>44751</v>
+      </c>
       <c r="F103" s="59"/>
       <c r="G103" s="58">
-        <f t="shared" si="29"/>
-        <v>0</v>
+        <f t="shared" si="28"/>
+        <v>-44751</v>
       </c>
       <c r="H103" s="59"/>
       <c r="I103" s="59"/>
       <c r="J103" s="60">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="K103" s="61">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104" spans="1:11" ht="21" x14ac:dyDescent="0.25">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12" ht="21" x14ac:dyDescent="0.25">
       <c r="A104" s="56"/>
-      <c r="B104" s="109">
+      <c r="B104" s="150">
+        <f t="shared" si="30"/>
         <v>42</v>
       </c>
       <c r="C104" s="58" t="s">
-        <v>149</v>
-      </c>
-      <c r="D104" s="58"/>
-      <c r="E104" s="59"/>
+        <v>156</v>
+      </c>
+      <c r="D104" s="59" t="s">
+        <v>133</v>
+      </c>
+      <c r="E104" s="59">
+        <v>44753</v>
+      </c>
       <c r="F104" s="59"/>
       <c r="G104" s="58">
-        <f t="shared" si="29"/>
-        <v>0</v>
+        <f t="shared" si="28"/>
+        <v>-44753</v>
       </c>
       <c r="H104" s="59"/>
       <c r="I104" s="59"/>
       <c r="J104" s="60">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="K104" s="61">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105" spans="1:11" ht="21" x14ac:dyDescent="0.25">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="105" spans="1:12" ht="21" x14ac:dyDescent="0.25">
       <c r="A105" s="56"/>
-      <c r="B105" s="109">
+      <c r="B105" s="150">
+        <f t="shared" si="30"/>
         <v>43</v>
       </c>
       <c r="C105" s="58" t="s">
-        <v>150</v>
-      </c>
-      <c r="D105" s="58"/>
-      <c r="E105" s="59"/>
+        <v>146</v>
+      </c>
+      <c r="D105" s="59" t="s">
+        <v>133</v>
+      </c>
+      <c r="E105" s="59">
+        <v>44753</v>
+      </c>
       <c r="F105" s="59"/>
       <c r="G105" s="58">
-        <f t="shared" si="29"/>
-        <v>0</v>
+        <f t="shared" si="28"/>
+        <v>-44753</v>
       </c>
       <c r="H105" s="59"/>
       <c r="I105" s="59"/>
       <c r="J105" s="60">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="K105" s="61">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="106" spans="1:12" ht="21" x14ac:dyDescent="0.25">
+      <c r="A106" s="56"/>
+      <c r="B106" s="150">
+        <f t="shared" si="30"/>
+        <v>44</v>
+      </c>
+      <c r="C106" s="58" t="s">
+        <v>147</v>
+      </c>
+      <c r="D106" s="151" t="s">
+        <v>129</v>
+      </c>
+      <c r="E106" s="59">
+        <v>44753</v>
+      </c>
+      <c r="F106" s="59"/>
+      <c r="G106" s="58">
         <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="K105" s="61">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="106" spans="1:11" ht="21" x14ac:dyDescent="0.25">
-      <c r="A106" s="56"/>
-      <c r="B106" s="109">
-        <v>44</v>
-      </c>
-      <c r="C106" s="58" t="s">
-        <v>173</v>
-      </c>
-      <c r="D106" s="58"/>
-      <c r="E106" s="59"/>
-      <c r="F106" s="59"/>
-      <c r="G106" s="58"/>
+        <v>-44753</v>
+      </c>
       <c r="H106" s="59"/>
       <c r="I106" s="59"/>
       <c r="J106" s="60">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="K106" s="61">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="107" spans="1:12" ht="21" x14ac:dyDescent="0.25">
+      <c r="A107" s="56"/>
+      <c r="B107" s="150">
+        <f t="shared" si="30"/>
+        <v>45</v>
+      </c>
+      <c r="C107" s="58" t="s">
+        <v>148</v>
+      </c>
+      <c r="D107" s="151" t="s">
+        <v>129</v>
+      </c>
+      <c r="E107" s="59">
+        <v>44753</v>
+      </c>
+      <c r="F107" s="59"/>
+      <c r="G107" s="58">
         <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="K106" s="61">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="107" spans="1:11" ht="21" x14ac:dyDescent="0.25">
-      <c r="A107" s="56"/>
-      <c r="B107" s="109">
-        <v>45</v>
-      </c>
-      <c r="C107" s="58" t="s">
-        <v>174</v>
-      </c>
-      <c r="D107" s="58"/>
-      <c r="E107" s="59"/>
-      <c r="F107" s="59"/>
-      <c r="G107" s="58"/>
+        <v>-44753</v>
+      </c>
       <c r="H107" s="59"/>
       <c r="I107" s="59"/>
       <c r="J107" s="60">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="K107" s="61">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108" spans="1:11" ht="21" x14ac:dyDescent="0.25">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="108" spans="1:12" ht="21" x14ac:dyDescent="0.25">
       <c r="A108" s="56"/>
-      <c r="B108" s="109">
+      <c r="B108" s="150">
+        <f t="shared" si="30"/>
         <v>46</v>
       </c>
       <c r="C108" s="58" t="s">
-        <v>151</v>
-      </c>
-      <c r="D108" s="58"/>
-      <c r="E108" s="59"/>
+        <v>149</v>
+      </c>
+      <c r="D108" s="151" t="s">
+        <v>129</v>
+      </c>
+      <c r="E108" s="59">
+        <v>44753</v>
+      </c>
       <c r="F108" s="59"/>
       <c r="G108" s="58">
-        <f t="shared" ref="G108:G126" si="30">F108-E108</f>
-        <v>0</v>
+        <f t="shared" si="28"/>
+        <v>-44753</v>
       </c>
       <c r="H108" s="59"/>
       <c r="I108" s="59"/>
       <c r="J108" s="60">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="K108" s="61">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="109" spans="1:12" ht="21" x14ac:dyDescent="0.25">
+      <c r="A109" s="56"/>
+      <c r="B109" s="150">
+        <f t="shared" si="30"/>
+        <v>47</v>
+      </c>
+      <c r="C109" s="58" t="s">
+        <v>150</v>
+      </c>
+      <c r="D109" s="58" t="s">
+        <v>134</v>
+      </c>
+      <c r="E109" s="59">
+        <v>44752</v>
+      </c>
+      <c r="F109" s="59"/>
+      <c r="G109" s="58">
         <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="K108" s="61">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="109" spans="1:11" ht="21" x14ac:dyDescent="0.25">
-      <c r="A109" s="56"/>
-      <c r="B109" s="109">
-        <v>47</v>
-      </c>
-      <c r="C109" s="58" t="s">
-        <v>152</v>
-      </c>
-      <c r="D109" s="58"/>
-      <c r="E109" s="59"/>
-      <c r="F109" s="105"/>
-      <c r="G109" s="58">
-        <f t="shared" si="30"/>
-        <v>0</v>
+        <v>-44752</v>
       </c>
       <c r="H109" s="59"/>
       <c r="I109" s="59"/>
       <c r="J109" s="60">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="K109" s="61">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="110" spans="1:12" ht="21" x14ac:dyDescent="0.25">
+      <c r="A110" s="56"/>
+      <c r="B110" s="150">
+        <f t="shared" si="30"/>
+        <v>48</v>
+      </c>
+      <c r="C110" s="58" t="s">
+        <v>151</v>
+      </c>
+      <c r="D110" s="58" t="s">
+        <v>134</v>
+      </c>
+      <c r="E110" s="59">
+        <v>44752</v>
+      </c>
+      <c r="F110" s="59"/>
+      <c r="G110" s="58">
         <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="K109" s="61">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="110" spans="1:11" ht="21" x14ac:dyDescent="0.25">
-      <c r="A110" s="56"/>
-      <c r="B110" s="109">
-        <v>48</v>
-      </c>
-      <c r="C110" s="58" t="s">
-        <v>154</v>
-      </c>
-      <c r="D110" s="58"/>
-      <c r="E110" s="105"/>
-      <c r="F110" s="105"/>
-      <c r="G110" s="58">
-        <f t="shared" si="30"/>
-        <v>0</v>
+        <v>-44752</v>
       </c>
       <c r="H110" s="59"/>
       <c r="I110" s="59"/>
       <c r="J110" s="60">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="K110" s="61">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="111" spans="1:11" ht="21" x14ac:dyDescent="0.25">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="111" spans="1:12" ht="21" x14ac:dyDescent="0.25">
       <c r="A111" s="56"/>
-      <c r="B111" s="109">
+      <c r="B111" s="150">
+        <f t="shared" si="30"/>
         <v>49</v>
       </c>
       <c r="C111" s="58" t="s">
-        <v>169</v>
-      </c>
-      <c r="D111" s="58"/>
-      <c r="E111" s="59"/>
+        <v>152</v>
+      </c>
+      <c r="D111" s="58" t="s">
+        <v>134</v>
+      </c>
+      <c r="E111" s="59">
+        <v>44753</v>
+      </c>
       <c r="F111" s="59"/>
       <c r="G111" s="58">
-        <f t="shared" si="30"/>
-        <v>0</v>
+        <f t="shared" si="28"/>
+        <v>-44753</v>
       </c>
       <c r="H111" s="59"/>
       <c r="I111" s="59"/>
       <c r="J111" s="60">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="K111" s="61">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="112" spans="1:11" ht="21" x14ac:dyDescent="0.25">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="112" spans="1:12" ht="21" x14ac:dyDescent="0.25">
       <c r="A112" s="56"/>
-      <c r="B112" s="109">
+      <c r="B112" s="150">
+        <f t="shared" si="30"/>
         <v>50</v>
       </c>
       <c r="C112" s="58" t="s">
-        <v>170</v>
-      </c>
-      <c r="D112" s="58"/>
-      <c r="E112" s="59"/>
+        <v>153</v>
+      </c>
+      <c r="D112" s="58" t="s">
+        <v>134</v>
+      </c>
+      <c r="E112" s="59">
+        <v>44753</v>
+      </c>
       <c r="F112" s="59"/>
       <c r="G112" s="58">
-        <f t="shared" si="30"/>
-        <v>0</v>
+        <f t="shared" si="28"/>
+        <v>-44753</v>
       </c>
       <c r="H112" s="59"/>
       <c r="I112" s="59"/>
       <c r="J112" s="60">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="K112" s="61">
-        <v>0</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="113" spans="1:11" ht="21" x14ac:dyDescent="0.25">
       <c r="A113" s="56"/>
-      <c r="B113" s="109">
+      <c r="B113" s="150">
+        <f t="shared" si="30"/>
         <v>51</v>
       </c>
       <c r="C113" s="58" t="s">
-        <v>155</v>
-      </c>
-      <c r="D113" s="58"/>
-      <c r="E113" s="59"/>
+        <v>154</v>
+      </c>
+      <c r="D113" s="58" t="s">
+        <v>134</v>
+      </c>
+      <c r="E113" s="59">
+        <v>44754</v>
+      </c>
       <c r="F113" s="59"/>
       <c r="G113" s="58">
-        <f t="shared" si="30"/>
-        <v>0</v>
+        <f t="shared" si="28"/>
+        <v>-44754</v>
       </c>
       <c r="H113" s="59"/>
       <c r="I113" s="59"/>
       <c r="J113" s="60">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="K113" s="61">
-        <v>0</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="114" spans="1:11" ht="21" x14ac:dyDescent="0.25">
       <c r="A114" s="56"/>
-      <c r="B114" s="109">
+      <c r="B114" s="150">
+        <f t="shared" si="30"/>
         <v>52</v>
       </c>
       <c r="C114" s="58" t="s">
-        <v>156</v>
-      </c>
-      <c r="D114" s="58"/>
-      <c r="E114" s="59"/>
+        <v>158</v>
+      </c>
+      <c r="D114" s="151" t="s">
+        <v>129</v>
+      </c>
+      <c r="E114" s="59">
+        <v>44752</v>
+      </c>
       <c r="F114" s="59"/>
       <c r="G114" s="58">
-        <f t="shared" si="30"/>
-        <v>0</v>
+        <f t="shared" si="28"/>
+        <v>-44752</v>
       </c>
       <c r="H114" s="59"/>
       <c r="I114" s="59"/>
       <c r="J114" s="60">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="K114" s="61">
-        <v>0</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="115" spans="1:11" ht="21" x14ac:dyDescent="0.25">
-      <c r="A115" s="56"/>
-      <c r="B115" s="109">
-        <v>53</v>
-      </c>
+      <c r="A115" s="56">
+        <v>6</v>
+      </c>
+      <c r="B115" s="57"/>
       <c r="C115" s="58" t="s">
-        <v>168</v>
+        <v>17</v>
       </c>
       <c r="D115" s="58"/>
       <c r="E115" s="59"/>
       <c r="F115" s="59"/>
       <c r="G115" s="58">
-        <f t="shared" si="30"/>
+        <f t="shared" ref="G115:G116" si="31">F115-E115</f>
         <v>0</v>
       </c>
       <c r="H115" s="59"/>
       <c r="I115" s="59"/>
       <c r="J115" s="60">
-        <f t="shared" si="28"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K115" s="61">
@@ -14984,434 +15206,134 @@
       </c>
     </row>
     <row r="116" spans="1:11" ht="21" x14ac:dyDescent="0.25">
-      <c r="A116" s="56"/>
-      <c r="B116" s="109">
-        <v>54</v>
-      </c>
+      <c r="A116" s="56">
+        <v>7</v>
+      </c>
+      <c r="B116" s="57"/>
       <c r="C116" s="58" t="s">
-        <v>157</v>
+        <v>18</v>
       </c>
       <c r="D116" s="58"/>
       <c r="E116" s="59"/>
       <c r="F116" s="59"/>
       <c r="G116" s="58">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="H116" s="59"/>
       <c r="I116" s="59"/>
       <c r="J116" s="60">
-        <f t="shared" si="28"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K116" s="61">
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:11" ht="21" x14ac:dyDescent="0.25">
-      <c r="A117" s="56"/>
-      <c r="B117" s="109">
-        <v>55</v>
-      </c>
-      <c r="C117" s="58" t="s">
-        <v>158</v>
-      </c>
-      <c r="D117" s="58"/>
-      <c r="E117" s="59"/>
-      <c r="F117" s="59"/>
-      <c r="G117" s="58">
-        <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="H117" s="59"/>
-      <c r="I117" s="59"/>
-      <c r="J117" s="60">
-        <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="K117" s="61">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="118" spans="1:11" ht="21" x14ac:dyDescent="0.25">
-      <c r="A118" s="56"/>
-      <c r="B118" s="109">
-        <v>56</v>
-      </c>
-      <c r="C118" s="58" t="s">
-        <v>159</v>
-      </c>
-      <c r="D118" s="58"/>
-      <c r="E118" s="59"/>
-      <c r="F118" s="59"/>
-      <c r="G118" s="58">
-        <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="H118" s="59"/>
-      <c r="I118" s="59"/>
-      <c r="J118" s="60">
-        <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="K118" s="61">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="119" spans="1:11" ht="21" x14ac:dyDescent="0.25">
-      <c r="A119" s="56"/>
-      <c r="B119" s="109">
-        <v>57</v>
-      </c>
-      <c r="C119" s="58" t="s">
-        <v>160</v>
-      </c>
-      <c r="D119" s="58"/>
-      <c r="E119" s="59"/>
-      <c r="F119" s="59"/>
-      <c r="G119" s="58">
-        <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="H119" s="59"/>
-      <c r="I119" s="59"/>
-      <c r="J119" s="60">
-        <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="K119" s="61">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="120" spans="1:11" ht="21" x14ac:dyDescent="0.25">
-      <c r="A120" s="56"/>
-      <c r="B120" s="109">
-        <v>58</v>
-      </c>
-      <c r="C120" s="58" t="s">
-        <v>161</v>
-      </c>
-      <c r="D120" s="58"/>
-      <c r="E120" s="59"/>
-      <c r="F120" s="59"/>
-      <c r="G120" s="58">
-        <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="H120" s="59"/>
-      <c r="I120" s="59"/>
-      <c r="J120" s="60">
-        <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="K120" s="61">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="121" spans="1:11" ht="21" x14ac:dyDescent="0.25">
-      <c r="A121" s="56"/>
-      <c r="B121" s="109">
-        <v>59</v>
-      </c>
-      <c r="C121" s="58" t="s">
-        <v>162</v>
-      </c>
-      <c r="D121" s="58"/>
-      <c r="E121" s="59"/>
-      <c r="F121" s="59"/>
-      <c r="G121" s="58">
-        <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="H121" s="59"/>
-      <c r="I121" s="59"/>
-      <c r="J121" s="60">
-        <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="K121" s="61">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="122" spans="1:11" ht="21" x14ac:dyDescent="0.25">
-      <c r="A122" s="56"/>
-      <c r="B122" s="109">
-        <v>60</v>
-      </c>
-      <c r="C122" s="58" t="s">
-        <v>163</v>
-      </c>
-      <c r="D122" s="58"/>
-      <c r="E122" s="59"/>
-      <c r="F122" s="59"/>
-      <c r="G122" s="58">
-        <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="H122" s="59"/>
-      <c r="I122" s="59"/>
-      <c r="J122" s="60">
-        <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="K122" s="61">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="123" spans="1:11" ht="21" x14ac:dyDescent="0.25">
-      <c r="A123" s="56"/>
-      <c r="B123" s="109">
-        <v>61</v>
-      </c>
-      <c r="C123" s="58" t="s">
-        <v>164</v>
-      </c>
-      <c r="D123" s="58"/>
-      <c r="E123" s="59"/>
-      <c r="F123" s="59"/>
-      <c r="G123" s="58">
-        <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="H123" s="59"/>
-      <c r="I123" s="59"/>
-      <c r="J123" s="60">
-        <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="K123" s="61">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="124" spans="1:11" ht="21" x14ac:dyDescent="0.25">
-      <c r="A124" s="56"/>
-      <c r="B124" s="109">
-        <v>62</v>
-      </c>
-      <c r="C124" s="58" t="s">
-        <v>165</v>
-      </c>
-      <c r="D124" s="58"/>
-      <c r="E124" s="59"/>
-      <c r="F124" s="59"/>
-      <c r="G124" s="58">
-        <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="H124" s="59"/>
-      <c r="I124" s="59"/>
-      <c r="J124" s="60">
-        <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="K124" s="61">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="125" spans="1:11" ht="21" x14ac:dyDescent="0.25">
-      <c r="A125" s="56"/>
-      <c r="B125" s="109">
-        <v>63</v>
-      </c>
-      <c r="C125" s="58" t="s">
-        <v>171</v>
-      </c>
-      <c r="D125" s="58"/>
-      <c r="E125" s="59"/>
-      <c r="F125" s="59"/>
-      <c r="G125" s="58">
-        <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="H125" s="59"/>
-      <c r="I125" s="59"/>
-      <c r="J125" s="60">
-        <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="K125" s="61">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="126" spans="1:11" ht="21" x14ac:dyDescent="0.25">
-      <c r="A126" s="56"/>
-      <c r="B126" s="109">
-        <v>64</v>
-      </c>
-      <c r="C126" s="58" t="s">
-        <v>172</v>
-      </c>
-      <c r="D126" s="58"/>
-      <c r="E126" s="59"/>
-      <c r="F126" s="59"/>
-      <c r="G126" s="58">
-        <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="H126" s="59"/>
-      <c r="I126" s="59"/>
-      <c r="J126" s="60">
-        <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="K126" s="61">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="127" spans="1:11" ht="21" x14ac:dyDescent="0.25">
-      <c r="A127" s="56">
-        <v>6</v>
-      </c>
-      <c r="B127" s="57"/>
-      <c r="C127" s="58" t="s">
-        <v>17</v>
-      </c>
-      <c r="D127" s="58"/>
-      <c r="E127" s="59"/>
-      <c r="F127" s="59"/>
-      <c r="G127" s="58">
-        <f t="shared" ref="G127:G128" si="31">F127-E127</f>
-        <v>0</v>
-      </c>
-      <c r="H127" s="59"/>
-      <c r="I127" s="59"/>
-      <c r="J127" s="60">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K127" s="61">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="128" spans="1:11" ht="21" x14ac:dyDescent="0.25">
-      <c r="A128" s="56">
-        <v>7</v>
-      </c>
-      <c r="B128" s="57"/>
-      <c r="C128" s="58" t="s">
-        <v>18</v>
-      </c>
-      <c r="D128" s="58"/>
-      <c r="E128" s="59"/>
-      <c r="F128" s="59"/>
-      <c r="G128" s="58">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="H128" s="59"/>
-      <c r="I128" s="59"/>
-      <c r="J128" s="60">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K128" s="61">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="129" spans="1:11" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A129" s="62"/>
-      <c r="B129" s="63"/>
-      <c r="C129" s="64"/>
-      <c r="D129" s="64"/>
-      <c r="E129" s="65"/>
-      <c r="F129" s="65"/>
-      <c r="G129" s="64"/>
-      <c r="H129" s="65"/>
-      <c r="I129" s="65"/>
-      <c r="J129" s="66" t="str">
-        <f>IF(I129="","",I129-H129)</f>
+    <row r="117" spans="1:11" ht="22" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A117" s="62"/>
+      <c r="B117" s="63"/>
+      <c r="C117" s="64"/>
+      <c r="D117" s="64"/>
+      <c r="E117" s="65"/>
+      <c r="F117" s="65"/>
+      <c r="G117" s="64"/>
+      <c r="H117" s="65"/>
+      <c r="I117" s="65"/>
+      <c r="J117" s="66" t="str">
+        <f>IF(I117="","",I117-H117)</f>
         <v/>
       </c>
-      <c r="K129" s="67"/>
-    </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="E130" s="1"/>
-      <c r="F130" s="1"/>
-      <c r="G130">
-        <f>SUM(G6:G129)</f>
-        <v>111</v>
-      </c>
-      <c r="H130" s="1"/>
-      <c r="I130" s="1"/>
-    </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="E131" s="1"/>
-      <c r="F131" s="1" t="s">
+      <c r="K117" s="67"/>
+    </row>
+    <row r="118" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="E118" s="1"/>
+      <c r="F118" s="1"/>
+      <c r="G118">
+        <f>SUM(G6:G117)</f>
+        <v>-2326887</v>
+      </c>
+      <c r="H118" s="1"/>
+      <c r="I118" s="1"/>
+    </row>
+    <row r="119" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="E119" s="1"/>
+      <c r="F119" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G131" s="2">
-        <f>G130/30</f>
-        <v>3.7</v>
-      </c>
-      <c r="H131" s="1"/>
-      <c r="I131" s="1"/>
-      <c r="J131" s="1"/>
-    </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="E132" s="1"/>
-      <c r="F132" s="1"/>
-      <c r="H132" s="1"/>
-      <c r="I132" s="1"/>
-      <c r="J132" s="1"/>
-    </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="E133" s="1"/>
-      <c r="F133" s="1"/>
-      <c r="H133" s="1"/>
-      <c r="I133" s="1"/>
-      <c r="J133" s="1"/>
-    </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="E134" s="1"/>
-      <c r="F134" s="1"/>
-      <c r="H134" s="1"/>
-      <c r="I134" s="1"/>
-      <c r="J134" s="1"/>
-    </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="E135" s="1"/>
-      <c r="F135" s="1"/>
-      <c r="H135" s="1"/>
-      <c r="I135" s="1"/>
-      <c r="J135" s="1"/>
-    </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="E136" s="1"/>
-      <c r="F136" s="1"/>
-      <c r="H136" s="1"/>
-      <c r="I136" s="1"/>
-      <c r="J136" s="1"/>
-    </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="E137" s="1"/>
-      <c r="F137" s="1"/>
-      <c r="H137" s="1"/>
-      <c r="I137" s="1"/>
-      <c r="J137" s="1"/>
-    </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="E138" s="1"/>
-      <c r="F138" s="1"/>
-      <c r="H138" s="1"/>
-      <c r="I138" s="1"/>
-      <c r="J138" s="1"/>
-    </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="E139" s="1"/>
-      <c r="F139" s="1"/>
-      <c r="H139" s="1"/>
-      <c r="I139" s="1"/>
-      <c r="J139" s="1"/>
-    </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="E140" s="1"/>
-      <c r="F140" s="1"/>
-      <c r="H140" s="1"/>
-      <c r="I140" s="1"/>
-      <c r="J140" s="1"/>
+      <c r="G119" s="2">
+        <f>G118/30</f>
+        <v>-77562.899999999994</v>
+      </c>
+      <c r="H119" s="1"/>
+      <c r="I119" s="1"/>
+      <c r="J119" s="1"/>
+    </row>
+    <row r="120" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="E120" s="1"/>
+      <c r="F120" s="1"/>
+      <c r="H120" s="1"/>
+      <c r="I120" s="1"/>
+      <c r="J120" s="1"/>
+    </row>
+    <row r="121" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="E121" s="1"/>
+      <c r="F121" s="1"/>
+      <c r="H121" s="1"/>
+      <c r="I121" s="1"/>
+      <c r="J121" s="1"/>
+    </row>
+    <row r="122" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="E122" s="1"/>
+      <c r="F122" s="1"/>
+      <c r="H122" s="1"/>
+      <c r="I122" s="1"/>
+      <c r="J122" s="1"/>
+    </row>
+    <row r="123" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="E123" s="1"/>
+      <c r="F123" s="1"/>
+      <c r="H123" s="1"/>
+      <c r="I123" s="1"/>
+      <c r="J123" s="1"/>
+    </row>
+    <row r="124" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="E124" s="1"/>
+      <c r="F124" s="1"/>
+      <c r="H124" s="1"/>
+      <c r="I124" s="1"/>
+      <c r="J124" s="1"/>
+    </row>
+    <row r="125" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="E125" s="1"/>
+      <c r="F125" s="1"/>
+      <c r="H125" s="1"/>
+      <c r="I125" s="1"/>
+      <c r="J125" s="1"/>
+    </row>
+    <row r="126" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="E126" s="1"/>
+      <c r="F126" s="1"/>
+      <c r="H126" s="1"/>
+      <c r="I126" s="1"/>
+      <c r="J126" s="1"/>
+    </row>
+    <row r="127" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="E127" s="1"/>
+      <c r="F127" s="1"/>
+      <c r="H127" s="1"/>
+      <c r="I127" s="1"/>
+      <c r="J127" s="1"/>
+    </row>
+    <row r="128" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="E128" s="1"/>
+      <c r="F128" s="1"/>
+      <c r="H128" s="1"/>
+      <c r="I128" s="1"/>
+      <c r="J128" s="1"/>
     </row>
   </sheetData>
-  <autoFilter ref="A5:K131" xr:uid="{F0F39F5A-DF39-F541-B8C2-02BEDD153576}"/>
+  <autoFilter ref="A5:K119" xr:uid="{F0F39F5A-DF39-F541-B8C2-02BEDD153576}"/>
   <mergeCells count="4">
     <mergeCell ref="A2:B3"/>
     <mergeCell ref="C2:L3"/>
@@ -15439,51 +15361,51 @@
   <sheetData>
     <row r="1" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:17" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="126" t="s">
+      <c r="A2" s="120" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="127"/>
-      <c r="C2" s="130" t="str">
+      <c r="B2" s="121"/>
+      <c r="C2" s="124" t="str">
         <f>Cover!E40</f>
         <v xml:space="preserve">Level Up </v>
       </c>
-      <c r="D2" s="131"/>
-      <c r="E2" s="131"/>
-      <c r="F2" s="131"/>
-      <c r="G2" s="131"/>
-      <c r="H2" s="131"/>
-      <c r="I2" s="131"/>
-      <c r="J2" s="131"/>
-      <c r="K2" s="131"/>
-      <c r="L2" s="131"/>
-      <c r="M2" s="131"/>
-      <c r="N2" s="131"/>
+      <c r="D2" s="125"/>
+      <c r="E2" s="125"/>
+      <c r="F2" s="125"/>
+      <c r="G2" s="125"/>
+      <c r="H2" s="125"/>
+      <c r="I2" s="125"/>
+      <c r="J2" s="125"/>
+      <c r="K2" s="125"/>
+      <c r="L2" s="125"/>
+      <c r="M2" s="125"/>
+      <c r="N2" s="125"/>
       <c r="O2" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="P2" s="134"/>
-      <c r="Q2" s="135"/>
+      <c r="P2" s="128"/>
+      <c r="Q2" s="129"/>
     </row>
     <row r="3" spans="1:17" ht="34" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="128"/>
-      <c r="B3" s="129"/>
-      <c r="C3" s="132"/>
-      <c r="D3" s="133"/>
-      <c r="E3" s="133"/>
-      <c r="F3" s="133"/>
-      <c r="G3" s="133"/>
-      <c r="H3" s="133"/>
-      <c r="I3" s="133"/>
-      <c r="J3" s="133"/>
-      <c r="K3" s="133"/>
-      <c r="L3" s="133"/>
-      <c r="M3" s="133"/>
-      <c r="N3" s="133"/>
+      <c r="A3" s="122"/>
+      <c r="B3" s="123"/>
+      <c r="C3" s="126"/>
+      <c r="D3" s="127"/>
+      <c r="E3" s="127"/>
+      <c r="F3" s="127"/>
+      <c r="G3" s="127"/>
+      <c r="H3" s="127"/>
+      <c r="I3" s="127"/>
+      <c r="J3" s="127"/>
+      <c r="K3" s="127"/>
+      <c r="L3" s="127"/>
+      <c r="M3" s="127"/>
+      <c r="N3" s="127"/>
       <c r="O3" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="P3" s="136"/>
-      <c r="Q3" s="137"/>
+      <c r="P3" s="130"/>
+      <c r="Q3" s="131"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" s="12"/>
@@ -15493,89 +15415,89 @@
       <c r="A5" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="144"/>
-      <c r="E5" s="145"/>
-      <c r="F5" s="145"/>
-      <c r="G5" s="145"/>
-      <c r="H5" s="145"/>
-      <c r="I5" s="145"/>
-      <c r="J5" s="145"/>
-      <c r="K5" s="145"/>
-      <c r="L5" s="145"/>
-      <c r="M5" s="145"/>
-      <c r="N5" s="145"/>
-      <c r="O5" s="145"/>
-      <c r="P5" s="146"/>
+      <c r="D5" s="138"/>
+      <c r="E5" s="139"/>
+      <c r="F5" s="139"/>
+      <c r="G5" s="139"/>
+      <c r="H5" s="139"/>
+      <c r="I5" s="139"/>
+      <c r="J5" s="139"/>
+      <c r="K5" s="139"/>
+      <c r="L5" s="139"/>
+      <c r="M5" s="139"/>
+      <c r="N5" s="139"/>
+      <c r="O5" s="139"/>
+      <c r="P5" s="140"/>
       <c r="Q5" s="13"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="D6" s="147"/>
-      <c r="E6" s="148"/>
-      <c r="F6" s="148"/>
-      <c r="G6" s="148"/>
-      <c r="H6" s="148"/>
-      <c r="I6" s="148"/>
-      <c r="J6" s="148"/>
-      <c r="K6" s="148"/>
-      <c r="L6" s="148"/>
-      <c r="M6" s="148"/>
-      <c r="N6" s="148"/>
-      <c r="O6" s="148"/>
-      <c r="P6" s="149"/>
+      <c r="D6" s="141"/>
+      <c r="E6" s="142"/>
+      <c r="F6" s="142"/>
+      <c r="G6" s="142"/>
+      <c r="H6" s="142"/>
+      <c r="I6" s="142"/>
+      <c r="J6" s="142"/>
+      <c r="K6" s="142"/>
+      <c r="L6" s="142"/>
+      <c r="M6" s="142"/>
+      <c r="N6" s="142"/>
+      <c r="O6" s="142"/>
+      <c r="P6" s="143"/>
       <c r="Q6" s="13"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" s="12"/>
-      <c r="D7" s="147"/>
-      <c r="E7" s="148"/>
-      <c r="F7" s="148"/>
-      <c r="G7" s="148"/>
-      <c r="H7" s="148"/>
-      <c r="I7" s="148"/>
-      <c r="J7" s="148"/>
-      <c r="K7" s="148"/>
-      <c r="L7" s="148"/>
-      <c r="M7" s="148"/>
-      <c r="N7" s="148"/>
-      <c r="O7" s="148"/>
-      <c r="P7" s="149"/>
+      <c r="D7" s="141"/>
+      <c r="E7" s="142"/>
+      <c r="F7" s="142"/>
+      <c r="G7" s="142"/>
+      <c r="H7" s="142"/>
+      <c r="I7" s="142"/>
+      <c r="J7" s="142"/>
+      <c r="K7" s="142"/>
+      <c r="L7" s="142"/>
+      <c r="M7" s="142"/>
+      <c r="N7" s="142"/>
+      <c r="O7" s="142"/>
+      <c r="P7" s="143"/>
       <c r="Q7" s="13"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" s="12"/>
-      <c r="D8" s="147"/>
-      <c r="E8" s="148"/>
-      <c r="F8" s="148"/>
-      <c r="G8" s="148"/>
-      <c r="H8" s="148"/>
-      <c r="I8" s="148"/>
-      <c r="J8" s="148"/>
-      <c r="K8" s="148"/>
-      <c r="L8" s="148"/>
-      <c r="M8" s="148"/>
-      <c r="N8" s="148"/>
-      <c r="O8" s="148"/>
-      <c r="P8" s="149"/>
+      <c r="D8" s="141"/>
+      <c r="E8" s="142"/>
+      <c r="F8" s="142"/>
+      <c r="G8" s="142"/>
+      <c r="H8" s="142"/>
+      <c r="I8" s="142"/>
+      <c r="J8" s="142"/>
+      <c r="K8" s="142"/>
+      <c r="L8" s="142"/>
+      <c r="M8" s="142"/>
+      <c r="N8" s="142"/>
+      <c r="O8" s="142"/>
+      <c r="P8" s="143"/>
       <c r="Q8" s="13"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9" s="12"/>
-      <c r="D9" s="150"/>
-      <c r="E9" s="151"/>
-      <c r="F9" s="151"/>
-      <c r="G9" s="151"/>
-      <c r="H9" s="151"/>
-      <c r="I9" s="151"/>
-      <c r="J9" s="151"/>
-      <c r="K9" s="151"/>
-      <c r="L9" s="151"/>
-      <c r="M9" s="151"/>
-      <c r="N9" s="151"/>
-      <c r="O9" s="151"/>
-      <c r="P9" s="152"/>
+      <c r="D9" s="144"/>
+      <c r="E9" s="145"/>
+      <c r="F9" s="145"/>
+      <c r="G9" s="145"/>
+      <c r="H9" s="145"/>
+      <c r="I9" s="145"/>
+      <c r="J9" s="145"/>
+      <c r="K9" s="145"/>
+      <c r="L9" s="145"/>
+      <c r="M9" s="145"/>
+      <c r="N9" s="145"/>
+      <c r="O9" s="145"/>
+      <c r="P9" s="146"/>
       <c r="Q9" s="13"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.2">
@@ -15583,44 +15505,44 @@
       <c r="Q10" s="13"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A11" s="138" t="s">
+      <c r="A11" s="132" t="s">
         <v>26</v>
       </c>
-      <c r="B11" s="139"/>
-      <c r="C11" s="139"/>
-      <c r="D11" s="139"/>
-      <c r="E11" s="139"/>
-      <c r="F11" s="139"/>
-      <c r="G11" s="139"/>
-      <c r="H11" s="139"/>
-      <c r="I11" s="139"/>
-      <c r="J11" s="139"/>
-      <c r="K11" s="139"/>
-      <c r="L11" s="139"/>
-      <c r="M11" s="139"/>
-      <c r="N11" s="139"/>
-      <c r="O11" s="139"/>
-      <c r="P11" s="139"/>
-      <c r="Q11" s="140"/>
+      <c r="B11" s="133"/>
+      <c r="C11" s="133"/>
+      <c r="D11" s="133"/>
+      <c r="E11" s="133"/>
+      <c r="F11" s="133"/>
+      <c r="G11" s="133"/>
+      <c r="H11" s="133"/>
+      <c r="I11" s="133"/>
+      <c r="J11" s="133"/>
+      <c r="K11" s="133"/>
+      <c r="L11" s="133"/>
+      <c r="M11" s="133"/>
+      <c r="N11" s="133"/>
+      <c r="O11" s="133"/>
+      <c r="P11" s="133"/>
+      <c r="Q11" s="134"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A12" s="141"/>
-      <c r="B12" s="142"/>
-      <c r="C12" s="142"/>
-      <c r="D12" s="142"/>
-      <c r="E12" s="142"/>
-      <c r="F12" s="142"/>
-      <c r="G12" s="142"/>
-      <c r="H12" s="142"/>
-      <c r="I12" s="142"/>
-      <c r="J12" s="142"/>
-      <c r="K12" s="142"/>
-      <c r="L12" s="142"/>
-      <c r="M12" s="142"/>
-      <c r="N12" s="142"/>
-      <c r="O12" s="142"/>
-      <c r="P12" s="142"/>
-      <c r="Q12" s="143"/>
+      <c r="A12" s="135"/>
+      <c r="B12" s="136"/>
+      <c r="C12" s="136"/>
+      <c r="D12" s="136"/>
+      <c r="E12" s="136"/>
+      <c r="F12" s="136"/>
+      <c r="G12" s="136"/>
+      <c r="H12" s="136"/>
+      <c r="I12" s="136"/>
+      <c r="J12" s="136"/>
+      <c r="K12" s="136"/>
+      <c r="L12" s="136"/>
+      <c r="M12" s="136"/>
+      <c r="N12" s="136"/>
+      <c r="O12" s="136"/>
+      <c r="P12" s="136"/>
+      <c r="Q12" s="137"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13" s="27"/>
@@ -15993,7 +15915,7 @@
     </row>
     <row r="85" spans="19:19" x14ac:dyDescent="0.2">
       <c r="S85" t="s">
-        <v>178</v>
+        <v>163</v>
       </c>
     </row>
   </sheetData>
@@ -16025,51 +15947,51 @@
   <sheetData>
     <row r="1" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:17" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="126" t="s">
+      <c r="A2" s="120" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="127"/>
-      <c r="C2" s="130" t="str">
+      <c r="B2" s="121"/>
+      <c r="C2" s="124" t="str">
         <f>Cover!E40</f>
         <v xml:space="preserve">Level Up </v>
       </c>
-      <c r="D2" s="131"/>
-      <c r="E2" s="131"/>
-      <c r="F2" s="131"/>
-      <c r="G2" s="131"/>
-      <c r="H2" s="131"/>
-      <c r="I2" s="131"/>
-      <c r="J2" s="131"/>
-      <c r="K2" s="131"/>
-      <c r="L2" s="131"/>
-      <c r="M2" s="131"/>
-      <c r="N2" s="131"/>
+      <c r="D2" s="125"/>
+      <c r="E2" s="125"/>
+      <c r="F2" s="125"/>
+      <c r="G2" s="125"/>
+      <c r="H2" s="125"/>
+      <c r="I2" s="125"/>
+      <c r="J2" s="125"/>
+      <c r="K2" s="125"/>
+      <c r="L2" s="125"/>
+      <c r="M2" s="125"/>
+      <c r="N2" s="125"/>
       <c r="O2" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="P2" s="134"/>
-      <c r="Q2" s="135"/>
+      <c r="P2" s="128"/>
+      <c r="Q2" s="129"/>
     </row>
     <row r="3" spans="1:17" ht="34" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="128"/>
-      <c r="B3" s="129"/>
-      <c r="C3" s="132"/>
-      <c r="D3" s="133"/>
-      <c r="E3" s="133"/>
-      <c r="F3" s="133"/>
-      <c r="G3" s="133"/>
-      <c r="H3" s="133"/>
-      <c r="I3" s="133"/>
-      <c r="J3" s="133"/>
-      <c r="K3" s="133"/>
-      <c r="L3" s="133"/>
-      <c r="M3" s="133"/>
-      <c r="N3" s="133"/>
+      <c r="A3" s="122"/>
+      <c r="B3" s="123"/>
+      <c r="C3" s="126"/>
+      <c r="D3" s="127"/>
+      <c r="E3" s="127"/>
+      <c r="F3" s="127"/>
+      <c r="G3" s="127"/>
+      <c r="H3" s="127"/>
+      <c r="I3" s="127"/>
+      <c r="J3" s="127"/>
+      <c r="K3" s="127"/>
+      <c r="L3" s="127"/>
+      <c r="M3" s="127"/>
+      <c r="N3" s="127"/>
       <c r="O3" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="P3" s="136"/>
-      <c r="Q3" s="137"/>
+      <c r="P3" s="130"/>
+      <c r="Q3" s="131"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" s="12"/>
@@ -16382,7 +16304,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DA57DD3-54BE-0B47-9A75-C513CCBC9952}">
   <dimension ref="A1:O30"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="G29" sqref="G29"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -16397,47 +16321,47 @@
   <sheetData>
     <row r="1" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="126" t="s">
+      <c r="A2" s="120" t="s">
         <v>41</v>
       </c>
-      <c r="B2" s="127"/>
-      <c r="C2" s="130" t="str">
+      <c r="B2" s="121"/>
+      <c r="C2" s="124" t="str">
         <f>Cover!E40</f>
         <v xml:space="preserve">Level Up </v>
       </c>
-      <c r="D2" s="131"/>
-      <c r="E2" s="131"/>
-      <c r="F2" s="131"/>
-      <c r="G2" s="131"/>
-      <c r="H2" s="131"/>
-      <c r="I2" s="131"/>
-      <c r="J2" s="131"/>
-      <c r="K2" s="131"/>
-      <c r="L2" s="131"/>
+      <c r="D2" s="125"/>
+      <c r="E2" s="125"/>
+      <c r="F2" s="125"/>
+      <c r="G2" s="125"/>
+      <c r="H2" s="125"/>
+      <c r="I2" s="125"/>
+      <c r="J2" s="125"/>
+      <c r="K2" s="125"/>
+      <c r="L2" s="125"/>
       <c r="M2" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="N2" s="134"/>
-      <c r="O2" s="135"/>
+      <c r="N2" s="128"/>
+      <c r="O2" s="129"/>
     </row>
     <row r="3" spans="1:15" ht="34" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="128"/>
-      <c r="B3" s="129"/>
-      <c r="C3" s="132"/>
-      <c r="D3" s="133"/>
-      <c r="E3" s="133"/>
-      <c r="F3" s="133"/>
-      <c r="G3" s="133"/>
-      <c r="H3" s="133"/>
-      <c r="I3" s="133"/>
-      <c r="J3" s="133"/>
-      <c r="K3" s="133"/>
-      <c r="L3" s="133"/>
+      <c r="A3" s="122"/>
+      <c r="B3" s="123"/>
+      <c r="C3" s="126"/>
+      <c r="D3" s="127"/>
+      <c r="E3" s="127"/>
+      <c r="F3" s="127"/>
+      <c r="G3" s="127"/>
+      <c r="H3" s="127"/>
+      <c r="I3" s="127"/>
+      <c r="J3" s="127"/>
+      <c r="K3" s="127"/>
+      <c r="L3" s="127"/>
       <c r="M3" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="N3" s="136"/>
-      <c r="O3" s="137"/>
+      <c r="N3" s="130"/>
+      <c r="O3" s="131"/>
     </row>
     <row r="4" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="12"/>
@@ -16879,19 +16803,19 @@
     </row>
     <row r="3" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D3" s="78"/>
-      <c r="E3" s="154">
+      <c r="E3" s="148">
         <v>1</v>
       </c>
       <c r="F3" s="79" t="s">
         <v>72</v>
       </c>
-      <c r="G3" s="154">
+      <c r="G3" s="148">
         <v>2</v>
       </c>
       <c r="H3" s="80" t="s">
         <v>73</v>
       </c>
-      <c r="I3" s="154">
+      <c r="I3" s="148">
         <v>3</v>
       </c>
       <c r="J3" s="81" t="s">
@@ -16901,15 +16825,15 @@
     </row>
     <row r="4" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D4" s="78"/>
-      <c r="E4" s="154"/>
+      <c r="E4" s="148"/>
       <c r="F4" s="74" t="s">
         <v>46</v>
       </c>
-      <c r="G4" s="154"/>
+      <c r="G4" s="148"/>
       <c r="H4" s="74" t="s">
         <v>48</v>
       </c>
-      <c r="I4" s="154"/>
+      <c r="I4" s="148"/>
       <c r="J4" s="74" t="s">
         <v>51</v>
       </c>
@@ -16920,15 +16844,15 @@
     </row>
     <row r="5" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D5" s="78"/>
-      <c r="E5" s="154"/>
+      <c r="E5" s="148"/>
       <c r="F5" s="74" t="s">
         <v>47</v>
       </c>
-      <c r="G5" s="154"/>
+      <c r="G5" s="148"/>
       <c r="H5" s="74" t="s">
         <v>75</v>
       </c>
-      <c r="I5" s="154"/>
+      <c r="I5" s="148"/>
       <c r="J5" s="74" t="s">
         <v>50</v>
       </c>
@@ -16962,13 +16886,13 @@
     </row>
     <row r="8" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D8" s="78"/>
-      <c r="E8" s="154">
+      <c r="E8" s="148">
         <v>4</v>
       </c>
       <c r="F8" s="86" t="s">
         <v>76</v>
       </c>
-      <c r="G8" s="154">
+      <c r="G8" s="148">
         <v>5</v>
       </c>
       <c r="H8" s="87" t="s">
@@ -16978,11 +16902,11 @@
     </row>
     <row r="9" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D9" s="78"/>
-      <c r="E9" s="154"/>
+      <c r="E9" s="148"/>
       <c r="F9" s="74" t="s">
         <v>48</v>
       </c>
-      <c r="G9" s="154"/>
+      <c r="G9" s="148"/>
       <c r="H9" s="74" t="s">
         <v>75</v>
       </c>
@@ -16990,9 +16914,9 @@
     </row>
     <row r="10" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D10" s="83"/>
-      <c r="E10" s="155"/>
+      <c r="E10" s="149"/>
       <c r="F10" s="84"/>
-      <c r="G10" s="155"/>
+      <c r="G10" s="149"/>
       <c r="H10" s="84"/>
       <c r="I10" s="84"/>
       <c r="J10" s="84"/>
@@ -17016,14 +16940,14 @@
     </row>
     <row r="12" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D12" s="78"/>
-      <c r="F12" s="153" t="s">
+      <c r="F12" s="147" t="s">
         <v>79</v>
       </c>
-      <c r="G12" s="153"/>
-      <c r="H12" s="153"/>
-      <c r="I12" s="153"/>
-      <c r="J12" s="153"/>
-      <c r="K12" s="153"/>
+      <c r="G12" s="147"/>
+      <c r="H12" s="147"/>
+      <c r="I12" s="147"/>
+      <c r="J12" s="147"/>
+      <c r="K12" s="147"/>
       <c r="N12" s="82"/>
     </row>
     <row r="13" spans="4:14" x14ac:dyDescent="0.3">

--- a/04.Development/Project Management.xlsx
+++ b/04.Development/Project Management.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10708"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/linnkoko/Desktop/Web Developer Class/Web Developer I + II B7/Project/04.Development/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2012C60F-1760-FE47-B7F3-9F153E0BE87B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAA5395E-0F2C-1B4E-9E0E-728B9F8301B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-5180" yWindow="-21100" windowWidth="25140" windowHeight="21100" activeTab="2" xr2:uid="{7BA0B221-245C-954E-96F6-3D960DADD312}"/>
+    <workbookView xWindow="-5180" yWindow="-21100" windowWidth="29060" windowHeight="19480" activeTab="5" xr2:uid="{7BA0B221-245C-954E-96F6-3D960DADD312}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="3" r:id="rId1"/>
@@ -18,14 +18,18 @@
     <sheet name="Schedule" sheetId="1" r:id="rId3"/>
     <sheet name="Screen Flow" sheetId="2" r:id="rId4"/>
     <sheet name="Screen Design" sheetId="4" r:id="rId5"/>
-    <sheet name="DB Design" sheetId="6" r:id="rId6"/>
-    <sheet name="Assign" sheetId="10" r:id="rId7"/>
+    <sheet name="Code Rule" sheetId="11" r:id="rId6"/>
+    <sheet name="DB Design" sheetId="6" r:id="rId7"/>
+    <sheet name="Assign" sheetId="10" r:id="rId8"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId9"/>
+  </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Schedule!$A$5:$K$119</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Cover!$A$1:$N$51</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'Customer Requirement'!$A$1:$Q$46</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="5">'DB Design'!$A$1:$O$43</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="6">'DB Design'!$A$1:$O$43</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">Schedule!$A$1:$O$120</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">'Screen Flow'!$A$1:$AA$132</definedName>
   </definedNames>
@@ -47,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="217">
   <si>
     <t>No</t>
   </si>
@@ -412,9 +416,6 @@
     <t>Dashboard</t>
   </si>
   <si>
-    <t>My Course</t>
-  </si>
-  <si>
     <t>Payment</t>
   </si>
   <si>
@@ -578,6 +579,162 @@
   </si>
   <si>
     <t>AD:Course View</t>
+  </si>
+  <si>
+    <t>Forget Password</t>
+  </si>
+  <si>
+    <t>Code Rule</t>
+  </si>
+  <si>
+    <t>Global Rule</t>
+  </si>
+  <si>
+    <t>Camel Naming Rule for all Function</t>
+  </si>
+  <si>
+    <t>Max Code line: 170 line in one method</t>
+  </si>
+  <si>
+    <t>Max Argument : 7 parameter in one function</t>
+  </si>
+  <si>
+    <t>ALL Capatial Letter for global variable</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Variable name must be meaningful (Not allow x,y,x,I,etc…)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Must write comment in every method (header) </t>
+  </si>
+  <si>
+    <t>/*</t>
+  </si>
+  <si>
+    <t>*Create:Author Name(Date)</t>
+  </si>
+  <si>
+    <t>*Update:Author Name(Date)</t>
+  </si>
+  <si>
+    <t>*Explanation of method or function</t>
+  </si>
+  <si>
+    <t>*Parameter: explain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">*Return </t>
+  </si>
+  <si>
+    <t>*/</t>
+  </si>
+  <si>
+    <t>Not allow 3 time nested Loop Condition</t>
+  </si>
+  <si>
+    <t>If using recursive method,must have break condition</t>
+  </si>
+  <si>
+    <t>Must be format.</t>
+  </si>
+  <si>
+    <t>HTML Rule</t>
+  </si>
+  <si>
+    <t>Must write close tag</t>
+  </si>
+  <si>
+    <t>Must write comment for open close tag</t>
+  </si>
+  <si>
+    <t>Not allow inline css and internal css</t>
+  </si>
+  <si>
+    <t>ID must be unique in one html</t>
+  </si>
+  <si>
+    <t>CSS Rule</t>
+  </si>
+  <si>
+    <t>Use scale unit (em,%,vh,vw) instead of px.(As much as possible)</t>
+  </si>
+  <si>
+    <t>Use root declear for common properties.</t>
+  </si>
+  <si>
+    <t>Must write comment by block</t>
+  </si>
+  <si>
+    <t>Not allow minus assign (Example : margin : -10px)</t>
+  </si>
+  <si>
+    <t>Must be responsive</t>
+  </si>
+  <si>
+    <t>Javascript/Jquery Rule</t>
+  </si>
+  <si>
+    <t>Global varible must be write in start of line</t>
+  </si>
+  <si>
+    <t>If webpage is used  jquery,Must be write (document.ready…)</t>
+  </si>
+  <si>
+    <t>Avoid Deadcode</t>
+  </si>
+  <si>
+    <t>Json Rule</t>
+  </si>
+  <si>
+    <t>Key must be meaningful</t>
+  </si>
+  <si>
+    <t>Ajax Rule</t>
+  </si>
+  <si>
+    <t>Must have ContectType,success,error catch and statuscode control</t>
+  </si>
+  <si>
+    <t>Must have timeout properties</t>
+  </si>
+  <si>
+    <t>ID must be encrypt</t>
+  </si>
+  <si>
+    <t>Laravel</t>
+  </si>
+  <si>
+    <t>Log must be divided by Category</t>
+  </si>
+  <si>
+    <t>Php</t>
+  </si>
+  <si>
+    <t>Must use try catch in complex business logic</t>
+  </si>
+  <si>
+    <t>Must use lang</t>
+  </si>
+  <si>
+    <t>Password must be encrypt</t>
+  </si>
+  <si>
+    <t>Class name Must be Pascal Naming Rule</t>
+  </si>
+  <si>
+    <t>View name Must be Camel Naming Rue</t>
+  </si>
+  <si>
+    <t>Must  MVC Rule</t>
+  </si>
+  <si>
+    <t>Must be divided Validation Class</t>
+  </si>
+  <si>
+    <t>Class Inside Oncall function must be private</t>
+  </si>
+  <si>
+    <t>Must delete session if it is not use</t>
   </si>
 </sst>
 </file>
@@ -588,7 +745,7 @@
     <numFmt numFmtId="164" formatCode="yyyy/mm/dd"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="24" x14ac:knownFonts="1">
+  <fonts count="27" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -753,6 +910,29 @@
     <font>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="4"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1379,7 +1559,7 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="152">
+  <cellXfs count="164">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1520,6 +1700,8 @@
     <xf numFmtId="0" fontId="3" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1630,8 +1812,26 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Hyperlink" xfId="3" builtinId="8"/>
@@ -9810,6 +10010,45 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Cover"/>
+      <sheetName val="Customer Requirement"/>
+      <sheetName val="Schedule"/>
+      <sheetName val="By person"/>
+      <sheetName val="Coin &amp; Order Flow"/>
+      <sheetName val="Project Flow_Admin"/>
+      <sheetName val="Project Flow_Customer"/>
+      <sheetName val="Project Flow_Kitchen"/>
+      <sheetName val="Screen Design"/>
+      <sheetName val="Code Rule"/>
+      <sheetName val="DB Design"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="31">
+          <cell r="A31" t="str">
+            <v>Food_Lab</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="5" refreshError="1"/>
+      <sheetData sheetId="6" refreshError="1"/>
+      <sheetData sheetId="7" refreshError="1"/>
+      <sheetData sheetId="8" refreshError="1"/>
+      <sheetData sheetId="9" refreshError="1"/>
+      <sheetData sheetId="10" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -10206,22 +10445,22 @@
       <c r="N18" s="13"/>
     </row>
     <row r="19" spans="1:14" ht="92" x14ac:dyDescent="0.2">
-      <c r="A19" s="117" t="s">
+      <c r="A19" s="119" t="s">
         <v>22</v>
       </c>
-      <c r="B19" s="118"/>
-      <c r="C19" s="118"/>
-      <c r="D19" s="118"/>
-      <c r="E19" s="118"/>
-      <c r="F19" s="118"/>
-      <c r="G19" s="118"/>
-      <c r="H19" s="118"/>
-      <c r="I19" s="118"/>
-      <c r="J19" s="118"/>
-      <c r="K19" s="118"/>
-      <c r="L19" s="118"/>
-      <c r="M19" s="118"/>
-      <c r="N19" s="119"/>
+      <c r="B19" s="120"/>
+      <c r="C19" s="120"/>
+      <c r="D19" s="120"/>
+      <c r="E19" s="120"/>
+      <c r="F19" s="120"/>
+      <c r="G19" s="120"/>
+      <c r="H19" s="120"/>
+      <c r="I19" s="120"/>
+      <c r="J19" s="120"/>
+      <c r="K19" s="120"/>
+      <c r="L19" s="120"/>
+      <c r="M19" s="120"/>
+      <c r="N19" s="121"/>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" s="12"/>
@@ -10240,22 +10479,22 @@
       <c r="N21" s="13"/>
     </row>
     <row r="22" spans="1:14" ht="47" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" s="114" t="s">
+      <c r="A22" s="116" t="s">
         <v>45</v>
       </c>
-      <c r="B22" s="115"/>
-      <c r="C22" s="115"/>
-      <c r="D22" s="115"/>
-      <c r="E22" s="115"/>
-      <c r="F22" s="115"/>
-      <c r="G22" s="115"/>
-      <c r="H22" s="115"/>
-      <c r="I22" s="115"/>
-      <c r="J22" s="115"/>
-      <c r="K22" s="115"/>
-      <c r="L22" s="115"/>
-      <c r="M22" s="115"/>
-      <c r="N22" s="116"/>
+      <c r="B22" s="117"/>
+      <c r="C22" s="117"/>
+      <c r="D22" s="117"/>
+      <c r="E22" s="117"/>
+      <c r="F22" s="117"/>
+      <c r="G22" s="117"/>
+      <c r="H22" s="117"/>
+      <c r="I22" s="117"/>
+      <c r="J22" s="117"/>
+      <c r="K22" s="117"/>
+      <c r="L22" s="117"/>
+      <c r="M22" s="117"/>
+      <c r="N22" s="118"/>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23" s="12"/>
@@ -10328,7 +10567,7 @@
     <row r="40" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A40" s="12"/>
       <c r="E40" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="N40" s="13"/>
     </row>
@@ -10338,10 +10577,10 @@
     </row>
     <row r="42" spans="1:14" ht="24" x14ac:dyDescent="0.3">
       <c r="A42" s="12"/>
-      <c r="B42" s="112" t="s">
+      <c r="B42" s="114" t="s">
         <v>19</v>
       </c>
-      <c r="C42" s="112"/>
+      <c r="C42" s="114"/>
       <c r="D42" s="18">
         <v>1</v>
       </c>
@@ -10402,10 +10641,10 @@
     </row>
     <row r="48" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A48" s="12"/>
-      <c r="K48" s="113" t="s">
+      <c r="K48" s="115" t="s">
         <v>21</v>
       </c>
-      <c r="L48" s="113"/>
+      <c r="L48" s="115"/>
       <c r="M48" s="17">
         <v>44740</v>
       </c>
@@ -10413,10 +10652,10 @@
     </row>
     <row r="49" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A49" s="12"/>
-      <c r="K49" s="113" t="s">
+      <c r="K49" s="115" t="s">
         <v>20</v>
       </c>
-      <c r="L49" s="113"/>
+      <c r="L49" s="115"/>
       <c r="M49" s="17"/>
       <c r="N49" s="13"/>
     </row>
@@ -10470,56 +10709,56 @@
   <sheetData>
     <row r="1" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:17" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="120" t="s">
+      <c r="A2" s="122" t="s">
         <v>44</v>
       </c>
-      <c r="B2" s="121"/>
-      <c r="C2" s="124" t="str">
+      <c r="B2" s="123"/>
+      <c r="C2" s="126" t="str">
         <f>Cover!E40</f>
         <v xml:space="preserve">Level Up </v>
       </c>
-      <c r="D2" s="125"/>
-      <c r="E2" s="125"/>
-      <c r="F2" s="125"/>
-      <c r="G2" s="125"/>
-      <c r="H2" s="125"/>
-      <c r="I2" s="125"/>
-      <c r="J2" s="125"/>
-      <c r="K2" s="125"/>
-      <c r="L2" s="125"/>
-      <c r="M2" s="125"/>
-      <c r="N2" s="125"/>
+      <c r="D2" s="127"/>
+      <c r="E2" s="127"/>
+      <c r="F2" s="127"/>
+      <c r="G2" s="127"/>
+      <c r="H2" s="127"/>
+      <c r="I2" s="127"/>
+      <c r="J2" s="127"/>
+      <c r="K2" s="127"/>
+      <c r="L2" s="127"/>
+      <c r="M2" s="127"/>
+      <c r="N2" s="127"/>
       <c r="O2" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="P2" s="128">
+      <c r="P2" s="130">
         <v>44740</v>
       </c>
-      <c r="Q2" s="129"/>
+      <c r="Q2" s="131"/>
     </row>
     <row r="3" spans="1:17" ht="34" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="122"/>
-      <c r="B3" s="123"/>
-      <c r="C3" s="126"/>
-      <c r="D3" s="127"/>
-      <c r="E3" s="127"/>
-      <c r="F3" s="127"/>
-      <c r="G3" s="127"/>
-      <c r="H3" s="127"/>
-      <c r="I3" s="127"/>
-      <c r="J3" s="127"/>
-      <c r="K3" s="127"/>
-      <c r="L3" s="127"/>
-      <c r="M3" s="127"/>
-      <c r="N3" s="127"/>
+      <c r="A3" s="124"/>
+      <c r="B3" s="125"/>
+      <c r="C3" s="128"/>
+      <c r="D3" s="129"/>
+      <c r="E3" s="129"/>
+      <c r="F3" s="129"/>
+      <c r="G3" s="129"/>
+      <c r="H3" s="129"/>
+      <c r="I3" s="129"/>
+      <c r="J3" s="129"/>
+      <c r="K3" s="129"/>
+      <c r="L3" s="129"/>
+      <c r="M3" s="129"/>
+      <c r="N3" s="129"/>
       <c r="O3" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="P3" s="130">
+      <c r="P3" s="132">
         <f ca="1">NOW()</f>
-        <v>44757.859305787038</v>
-      </c>
-      <c r="Q3" s="131"/>
+        <v>44759.799771412036</v>
+      </c>
+      <c r="Q3" s="133"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" s="12"/>
@@ -11488,8 +11727,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0F39F5A-DF39-F541-B8C2-02BEDD153576}">
   <dimension ref="A1:O128"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A53" zoomScaleNormal="140" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <selection activeCell="H65" sqref="H65"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A45" zoomScaleNormal="140" zoomScaleSheetLayoutView="90" workbookViewId="0">
+      <selection activeCell="D59" sqref="D59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11508,47 +11747,47 @@
   <sheetData>
     <row r="1" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:15" ht="21" x14ac:dyDescent="0.2">
-      <c r="A2" s="120" t="s">
+      <c r="A2" s="122" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="121"/>
-      <c r="C2" s="124" t="str">
+      <c r="B2" s="123"/>
+      <c r="C2" s="126" t="str">
         <f>Cover!E40</f>
         <v xml:space="preserve">Level Up </v>
       </c>
-      <c r="D2" s="125"/>
-      <c r="E2" s="125"/>
-      <c r="F2" s="125"/>
-      <c r="G2" s="125"/>
-      <c r="H2" s="125"/>
-      <c r="I2" s="125"/>
-      <c r="J2" s="125"/>
-      <c r="K2" s="125"/>
-      <c r="L2" s="125"/>
+      <c r="D2" s="127"/>
+      <c r="E2" s="127"/>
+      <c r="F2" s="127"/>
+      <c r="G2" s="127"/>
+      <c r="H2" s="127"/>
+      <c r="I2" s="127"/>
+      <c r="J2" s="127"/>
+      <c r="K2" s="127"/>
+      <c r="L2" s="127"/>
       <c r="M2" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="N2" s="128"/>
-      <c r="O2" s="129"/>
+      <c r="N2" s="130"/>
+      <c r="O2" s="131"/>
     </row>
     <row r="3" spans="1:15" ht="22" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="122"/>
-      <c r="B3" s="123"/>
-      <c r="C3" s="126"/>
-      <c r="D3" s="127"/>
-      <c r="E3" s="127"/>
-      <c r="F3" s="127"/>
-      <c r="G3" s="127"/>
-      <c r="H3" s="127"/>
-      <c r="I3" s="127"/>
-      <c r="J3" s="127"/>
-      <c r="K3" s="127"/>
-      <c r="L3" s="127"/>
+      <c r="A3" s="124"/>
+      <c r="B3" s="125"/>
+      <c r="C3" s="128"/>
+      <c r="D3" s="129"/>
+      <c r="E3" s="129"/>
+      <c r="F3" s="129"/>
+      <c r="G3" s="129"/>
+      <c r="H3" s="129"/>
+      <c r="I3" s="129"/>
+      <c r="J3" s="129"/>
+      <c r="K3" s="129"/>
+      <c r="L3" s="129"/>
       <c r="M3" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="N3" s="130"/>
-      <c r="O3" s="131"/>
+      <c r="N3" s="132"/>
+      <c r="O3" s="133"/>
     </row>
     <row r="4" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="5" spans="1:15" ht="21" x14ac:dyDescent="0.25">
@@ -11691,10 +11930,10 @@
         <v>1</v>
       </c>
       <c r="C9" s="58" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D9" s="58" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E9" s="59">
         <v>44747</v>
@@ -11727,10 +11966,10 @@
         <v>2</v>
       </c>
       <c r="C10" s="58" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D10" s="58" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E10" s="59">
         <v>44747</v>
@@ -11763,10 +12002,10 @@
         <v>3</v>
       </c>
       <c r="C11" s="58" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D11" s="58" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E11" s="59">
         <v>44747</v>
@@ -11798,11 +12037,11 @@
         <f t="shared" si="4"/>
         <v>4</v>
       </c>
-      <c r="C12" s="108" t="s">
-        <v>128</v>
+      <c r="C12" s="58" t="s">
+        <v>127</v>
       </c>
       <c r="D12" s="58" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E12" s="59">
         <v>44748</v>
@@ -11835,30 +12074,30 @@
         <v>5</v>
       </c>
       <c r="C13" s="58" t="s">
-        <v>109</v>
+        <v>165</v>
       </c>
       <c r="D13" s="58" t="s">
         <v>132</v>
       </c>
       <c r="E13" s="59">
-        <v>44747</v>
+        <v>44748</v>
       </c>
       <c r="F13" s="59">
-        <v>44750</v>
+        <v>44749</v>
       </c>
       <c r="G13" s="58">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f t="shared" ref="G13" si="5">F13-E13</f>
+        <v>1</v>
       </c>
       <c r="H13" s="59">
-        <v>44747</v>
+        <v>44748</v>
       </c>
       <c r="I13" s="59">
-        <v>44750</v>
+        <v>44748</v>
       </c>
       <c r="J13" s="60">
-        <f t="shared" si="1"/>
-        <v>3</v>
+        <f t="shared" ref="J13" si="6">I13-H13</f>
+        <v>0</v>
       </c>
       <c r="K13" s="61">
         <v>0.9</v>
@@ -11871,30 +12110,30 @@
         <v>6</v>
       </c>
       <c r="C14" s="58" t="s">
-        <v>81</v>
+        <v>109</v>
       </c>
       <c r="D14" s="58" t="s">
-        <v>129</v>
-      </c>
-      <c r="E14" s="105">
-        <v>44748</v>
-      </c>
-      <c r="F14" s="106">
-        <v>44749</v>
+        <v>131</v>
+      </c>
+      <c r="E14" s="59">
+        <v>44747</v>
+      </c>
+      <c r="F14" s="59">
+        <v>44750</v>
       </c>
       <c r="G14" s="58">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H14" s="59">
-        <v>44748</v>
-      </c>
-      <c r="I14" s="106">
-        <v>44749</v>
+        <v>44747</v>
+      </c>
+      <c r="I14" s="59">
+        <v>44750</v>
       </c>
       <c r="J14" s="60">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K14" s="61">
         <v>0.9</v>
@@ -11907,26 +12146,26 @@
         <v>7</v>
       </c>
       <c r="C15" s="58" t="s">
-        <v>110</v>
+        <v>81</v>
       </c>
       <c r="D15" s="58" t="s">
-        <v>129</v>
-      </c>
-      <c r="E15" s="106">
+        <v>128</v>
+      </c>
+      <c r="E15" s="105">
+        <v>44748</v>
+      </c>
+      <c r="F15" s="106">
         <v>44749</v>
-      </c>
-      <c r="F15" s="59">
-        <v>44750</v>
       </c>
       <c r="G15" s="58">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="H15" s="106">
+      <c r="H15" s="59">
+        <v>44748</v>
+      </c>
+      <c r="I15" s="106">
         <v>44749</v>
-      </c>
-      <c r="I15" s="59">
-        <v>44750</v>
       </c>
       <c r="J15" s="60">
         <f t="shared" si="1"/>
@@ -11943,10 +12182,10 @@
         <v>8</v>
       </c>
       <c r="C16" s="58" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D16" s="58" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E16" s="59">
         <v>44747</v>
@@ -11955,7 +12194,7 @@
         <v>44748</v>
       </c>
       <c r="G16" s="58">
-        <f t="shared" ref="G16:G26" si="5">F16-E16</f>
+        <f t="shared" ref="G16:G25" si="7">F16-E16</f>
         <v>1</v>
       </c>
       <c r="H16" s="59">
@@ -11965,7 +12204,7 @@
         <v>44748</v>
       </c>
       <c r="J16" s="60">
-        <f t="shared" ref="J16:J26" si="6">I16-H16</f>
+        <f t="shared" ref="J16:J25" si="8">I16-H16</f>
         <v>1</v>
       </c>
       <c r="K16" s="61">
@@ -11979,10 +12218,10 @@
         <v>9</v>
       </c>
       <c r="C17" s="58" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D17" s="58" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E17" s="59">
         <v>44747</v>
@@ -11991,7 +12230,7 @@
         <v>44748</v>
       </c>
       <c r="G17" s="58">
-        <f t="shared" ref="G17" si="7">F17-E17</f>
+        <f t="shared" ref="G17" si="9">F17-E17</f>
         <v>1</v>
       </c>
       <c r="H17" s="59">
@@ -12001,7 +12240,7 @@
         <v>44748</v>
       </c>
       <c r="J17" s="60">
-        <f t="shared" ref="J17" si="8">I17-H17</f>
+        <f t="shared" ref="J17" si="10">I17-H17</f>
         <v>1</v>
       </c>
       <c r="K17" s="61">
@@ -12015,10 +12254,10 @@
         <v>10</v>
       </c>
       <c r="C18" s="58" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D18" s="58" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E18" s="59">
         <v>44747</v>
@@ -12027,7 +12266,7 @@
         <v>44749</v>
       </c>
       <c r="G18" s="58">
-        <f t="shared" ref="G18" si="9">F18-E18</f>
+        <f t="shared" ref="G18" si="11">F18-E18</f>
         <v>2</v>
       </c>
       <c r="H18" s="59">
@@ -12037,7 +12276,7 @@
         <v>44749</v>
       </c>
       <c r="J18" s="60">
-        <f t="shared" ref="J18" si="10">I18-H18</f>
+        <f t="shared" ref="J18" si="12">I18-H18</f>
         <v>2</v>
       </c>
       <c r="K18" s="61">
@@ -12051,10 +12290,10 @@
         <v>11</v>
       </c>
       <c r="C19" s="58" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D19" s="58" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E19" s="59">
         <v>44747</v>
@@ -12063,7 +12302,7 @@
         <v>44749</v>
       </c>
       <c r="G19" s="58">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="H19" s="59">
@@ -12073,7 +12312,7 @@
         <v>44749</v>
       </c>
       <c r="J19" s="60">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="K19" s="61">
@@ -12090,7 +12329,7 @@
         <v>82</v>
       </c>
       <c r="D20" s="58" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E20" s="59">
         <v>44748</v>
@@ -12099,7 +12338,7 @@
         <v>44749</v>
       </c>
       <c r="G20" s="58">
-        <f t="shared" ref="G20:G24" si="11">F20-E20</f>
+        <f t="shared" ref="G20:G23" si="13">F20-E20</f>
         <v>1</v>
       </c>
       <c r="H20" s="59">
@@ -12109,7 +12348,7 @@
         <v>44749</v>
       </c>
       <c r="J20" s="60">
-        <f t="shared" ref="J20:J24" si="12">I20-H20</f>
+        <f t="shared" ref="J20:J23" si="14">I20-H20</f>
         <v>2</v>
       </c>
       <c r="K20" s="61">
@@ -12123,10 +12362,10 @@
         <v>13</v>
       </c>
       <c r="C21" s="58" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D21" s="58" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E21" s="59">
         <v>44749</v>
@@ -12135,7 +12374,7 @@
         <v>44750</v>
       </c>
       <c r="G21" s="58">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="H21" s="59">
@@ -12145,7 +12384,7 @@
         <v>44750</v>
       </c>
       <c r="J21" s="60">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="K21" s="61">
@@ -12159,10 +12398,10 @@
         <v>14</v>
       </c>
       <c r="C22" s="58" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D22" s="58" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E22" s="59">
         <v>44748</v>
@@ -12171,7 +12410,7 @@
         <v>44750</v>
       </c>
       <c r="G22" s="58">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>2</v>
       </c>
       <c r="H22" s="59">
@@ -12181,7 +12420,7 @@
         <v>44750</v>
       </c>
       <c r="J22" s="60">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>2</v>
       </c>
       <c r="K22" s="61">
@@ -12195,10 +12434,10 @@
         <v>15</v>
       </c>
       <c r="C23" s="58" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D23" s="58" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E23" s="59">
         <v>44750</v>
@@ -12207,7 +12446,7 @@
         <v>44751</v>
       </c>
       <c r="G23" s="58">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="H23" s="59">
@@ -12217,7 +12456,7 @@
         <v>44750</v>
       </c>
       <c r="J23" s="60">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="K23" s="61">
@@ -12231,10 +12470,10 @@
         <v>16</v>
       </c>
       <c r="C24" s="58" t="s">
-        <v>92</v>
+        <v>126</v>
       </c>
       <c r="D24" s="58" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E24" s="59">
         <v>44747</v>
@@ -12243,7 +12482,7 @@
         <v>44750</v>
       </c>
       <c r="G24" s="58">
-        <f t="shared" si="11"/>
+        <f>F24-E24</f>
         <v>3</v>
       </c>
       <c r="H24" s="59">
@@ -12253,7 +12492,7 @@
         <v>44749</v>
       </c>
       <c r="J24" s="60">
-        <f t="shared" si="12"/>
+        <f>I24-H24</f>
         <v>2</v>
       </c>
       <c r="K24" s="61">
@@ -12267,30 +12506,30 @@
         <v>17</v>
       </c>
       <c r="C25" s="58" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
       <c r="D25" s="58" t="s">
-        <v>132</v>
-      </c>
-      <c r="E25" s="59">
-        <v>44747</v>
+        <v>133</v>
+      </c>
+      <c r="E25" s="105">
+        <v>44750</v>
       </c>
       <c r="F25" s="59">
+        <v>44751</v>
+      </c>
+      <c r="G25" s="58">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="H25" s="59">
+        <v>44749</v>
+      </c>
+      <c r="I25" s="59">
         <v>44750</v>
       </c>
-      <c r="G25" s="58">
-        <f>F25-E25</f>
-        <v>3</v>
-      </c>
-      <c r="H25" s="59">
-        <v>44747</v>
-      </c>
-      <c r="I25" s="59">
-        <v>44749</v>
-      </c>
       <c r="J25" s="60">
-        <f>I25-H25</f>
-        <v>2</v>
+        <f t="shared" si="8"/>
+        <v>1</v>
       </c>
       <c r="K25" s="61">
         <v>0.9</v>
@@ -12306,16 +12545,16 @@
         <v>115</v>
       </c>
       <c r="D26" s="58" t="s">
-        <v>134</v>
-      </c>
-      <c r="E26" s="105">
+        <v>132</v>
+      </c>
+      <c r="E26" s="59">
+        <v>44749</v>
+      </c>
+      <c r="F26" s="59">
         <v>44750</v>
       </c>
-      <c r="F26" s="59">
-        <v>44751</v>
-      </c>
       <c r="G26" s="58">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="G26:G31" si="15">F26-E26</f>
         <v>1</v>
       </c>
       <c r="H26" s="59">
@@ -12325,7 +12564,7 @@
         <v>44750</v>
       </c>
       <c r="J26" s="60">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="J26:J30" si="16">I26-H26</f>
         <v>1</v>
       </c>
       <c r="K26" s="61">
@@ -12339,29 +12578,29 @@
         <v>19</v>
       </c>
       <c r="C27" s="58" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="D27" s="58" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E27" s="59">
-        <v>44749</v>
+        <v>44750</v>
       </c>
       <c r="F27" s="59">
+        <v>44751</v>
+      </c>
+      <c r="G27" s="58">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="H27" s="59">
         <v>44750</v>
       </c>
-      <c r="G27" s="58">
-        <f t="shared" ref="G27:G32" si="13">F27-E27</f>
-        <v>1</v>
-      </c>
-      <c r="H27" s="59">
-        <v>44749</v>
-      </c>
       <c r="I27" s="59">
-        <v>44750</v>
+        <v>44751</v>
       </c>
       <c r="J27" s="60">
-        <f t="shared" ref="J27:J31" si="14">I27-H27</f>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="K27" s="61">
@@ -12378,16 +12617,16 @@
         <v>120</v>
       </c>
       <c r="D28" s="58" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E28" s="59">
-        <v>44750</v>
+        <v>44751</v>
       </c>
       <c r="F28" s="59">
-        <v>44751</v>
+        <v>44752</v>
       </c>
       <c r="G28" s="58">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="H28" s="59">
@@ -12397,7 +12636,7 @@
         <v>44751</v>
       </c>
       <c r="J28" s="60">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="K28" s="61">
@@ -12423,17 +12662,17 @@
         <v>44752</v>
       </c>
       <c r="G29" s="58">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="H29" s="59">
-        <v>44750</v>
+        <v>44751</v>
       </c>
       <c r="I29" s="59">
-        <v>44751</v>
+        <v>44752</v>
       </c>
       <c r="J29" s="60">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="K29" s="61">
@@ -12450,7 +12689,7 @@
         <v>122</v>
       </c>
       <c r="D30" s="58" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E30" s="59">
         <v>44751</v>
@@ -12459,17 +12698,17 @@
         <v>44752</v>
       </c>
       <c r="G30" s="58">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="H30" s="59">
-        <v>44751</v>
+        <v>44748</v>
       </c>
       <c r="I30" s="59">
-        <v>44752</v>
+        <v>44749</v>
       </c>
       <c r="J30" s="60">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="K30" s="61">
@@ -12483,10 +12722,10 @@
         <v>23</v>
       </c>
       <c r="C31" s="58" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="D31" s="58" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="E31" s="59">
         <v>44751</v>
@@ -12495,18 +12734,18 @@
         <v>44752</v>
       </c>
       <c r="G31" s="58">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="H31" s="59">
+        <v>44746</v>
+      </c>
+      <c r="I31" s="59">
         <v>44748</v>
       </c>
-      <c r="I31" s="59">
-        <v>44749</v>
-      </c>
       <c r="J31" s="60">
-        <f t="shared" si="14"/>
-        <v>1</v>
+        <f t="shared" ref="J31:J34" si="17">I31-H31</f>
+        <v>2</v>
       </c>
       <c r="K31" s="61">
         <v>0.9</v>
@@ -12519,10 +12758,10 @@
         <v>24</v>
       </c>
       <c r="C32" s="58" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D32" s="58" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E32" s="59">
         <v>44751</v>
@@ -12531,18 +12770,18 @@
         <v>44752</v>
       </c>
       <c r="G32" s="58">
-        <f t="shared" si="13"/>
+        <f t="shared" ref="G32" si="18">F32-E32</f>
         <v>1</v>
       </c>
       <c r="H32" s="59">
-        <v>44746</v>
+        <v>44751</v>
       </c>
       <c r="I32" s="59">
-        <v>44748</v>
+        <v>44752</v>
       </c>
       <c r="J32" s="60">
-        <f t="shared" ref="J32:J34" si="15">I32-H32</f>
-        <v>2</v>
+        <f t="shared" si="17"/>
+        <v>1</v>
       </c>
       <c r="K32" s="61">
         <v>0.9</v>
@@ -12550,7 +12789,7 @@
     </row>
     <row r="33" spans="1:12" ht="21" x14ac:dyDescent="0.25">
       <c r="A33" s="56"/>
-      <c r="B33" s="109">
+      <c r="B33" s="112">
         <f t="shared" si="4"/>
         <v>25</v>
       </c>
@@ -12558,26 +12797,26 @@
         <v>137</v>
       </c>
       <c r="D33" s="58" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E33" s="59">
-        <v>44751</v>
+        <v>44749</v>
       </c>
       <c r="F33" s="59">
-        <v>44752</v>
+        <v>44750</v>
       </c>
       <c r="G33" s="58">
-        <f t="shared" ref="G33" si="16">F33-E33</f>
+        <f t="shared" ref="G33:G60" si="19">F33-E33</f>
         <v>1</v>
       </c>
       <c r="H33" s="59">
-        <v>44751</v>
+        <v>44749</v>
       </c>
       <c r="I33" s="59">
-        <v>44752</v>
+        <v>44750</v>
       </c>
       <c r="J33" s="60">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="K33" s="61">
@@ -12586,35 +12825,35 @@
     </row>
     <row r="34" spans="1:12" ht="21" x14ac:dyDescent="0.25">
       <c r="A34" s="56"/>
-      <c r="B34" s="150">
+      <c r="B34" s="112">
         <f t="shared" si="4"/>
         <v>26</v>
       </c>
       <c r="C34" s="58" t="s">
-        <v>138</v>
+        <v>165</v>
       </c>
       <c r="D34" s="58" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E34" s="59">
+        <v>44748</v>
+      </c>
+      <c r="F34" s="59">
         <v>44749</v>
       </c>
-      <c r="F34" s="59">
-        <v>44750</v>
-      </c>
       <c r="G34" s="58">
-        <f t="shared" ref="G34:G60" si="17">F34-E34</f>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="H34" s="59">
-        <v>44749</v>
+        <v>44748</v>
       </c>
       <c r="I34" s="59">
-        <v>44750</v>
+        <v>44748</v>
       </c>
       <c r="J34" s="60">
-        <f t="shared" si="15"/>
-        <v>1</v>
+        <f t="shared" si="17"/>
+        <v>0</v>
       </c>
       <c r="K34" s="61">
         <v>0.9</v>
@@ -12622,7 +12861,7 @@
     </row>
     <row r="35" spans="1:12" ht="21" x14ac:dyDescent="0.25">
       <c r="A35" s="56"/>
-      <c r="B35" s="150">
+      <c r="B35" s="112">
         <f t="shared" si="4"/>
         <v>27</v>
       </c>
@@ -12630,7 +12869,7 @@
         <v>109</v>
       </c>
       <c r="D35" s="58" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E35" s="59">
         <v>44749</v>
@@ -12639,7 +12878,7 @@
         <v>44750</v>
       </c>
       <c r="G35" s="58">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="H35" s="59">
@@ -12649,7 +12888,7 @@
         <v>44750</v>
       </c>
       <c r="J35" s="60">
-        <f t="shared" ref="J35:J60" si="18">I35-H35</f>
+        <f t="shared" ref="J35:J60" si="20">I35-H35</f>
         <v>1</v>
       </c>
       <c r="K35" s="61">
@@ -12658,15 +12897,15 @@
     </row>
     <row r="36" spans="1:12" ht="21" x14ac:dyDescent="0.25">
       <c r="A36" s="56"/>
-      <c r="B36" s="150">
+      <c r="B36" s="112">
         <f t="shared" si="4"/>
         <v>28</v>
       </c>
       <c r="C36" s="58" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D36" s="58" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E36" s="59">
         <v>44750</v>
@@ -12675,7 +12914,7 @@
         <v>44751</v>
       </c>
       <c r="G36" s="58">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="H36" s="59">
@@ -12685,7 +12924,7 @@
         <v>44751</v>
       </c>
       <c r="J36" s="60">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>1</v>
       </c>
       <c r="K36" s="61">
@@ -12694,15 +12933,15 @@
     </row>
     <row r="37" spans="1:12" ht="21" x14ac:dyDescent="0.25">
       <c r="A37" s="56"/>
-      <c r="B37" s="150">
+      <c r="B37" s="112">
         <f t="shared" si="4"/>
         <v>29</v>
       </c>
       <c r="C37" s="58" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D37" s="58" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E37" s="59">
         <v>44750</v>
@@ -12711,7 +12950,7 @@
         <v>44751</v>
       </c>
       <c r="G37" s="58">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="H37" s="59">
@@ -12721,7 +12960,7 @@
         <v>44751</v>
       </c>
       <c r="J37" s="60">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>3</v>
       </c>
       <c r="K37" s="61">
@@ -12730,15 +12969,15 @@
     </row>
     <row r="38" spans="1:12" ht="21" x14ac:dyDescent="0.25">
       <c r="A38" s="56"/>
-      <c r="B38" s="150">
+      <c r="B38" s="112">
         <f t="shared" si="4"/>
         <v>30</v>
       </c>
       <c r="C38" s="58" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D38" s="58" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E38" s="59">
         <v>44751</v>
@@ -12747,7 +12986,7 @@
         <v>44752</v>
       </c>
       <c r="G38" s="58">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="H38" s="59">
@@ -12757,7 +12996,7 @@
         <v>44752</v>
       </c>
       <c r="J38" s="60">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>1</v>
       </c>
       <c r="K38" s="61">
@@ -12766,15 +13005,15 @@
     </row>
     <row r="39" spans="1:12" ht="21" x14ac:dyDescent="0.25">
       <c r="A39" s="56"/>
-      <c r="B39" s="150">
+      <c r="B39" s="112">
         <f t="shared" si="4"/>
         <v>31</v>
       </c>
       <c r="C39" s="58" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D39" s="58" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E39" s="59">
         <v>44751</v>
@@ -12783,7 +13022,7 @@
         <v>44752</v>
       </c>
       <c r="G39" s="58">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="H39" s="59">
@@ -12793,7 +13032,7 @@
         <v>44752</v>
       </c>
       <c r="J39" s="60">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>1</v>
       </c>
       <c r="K39" s="61">
@@ -12802,15 +13041,15 @@
     </row>
     <row r="40" spans="1:12" ht="21" x14ac:dyDescent="0.25">
       <c r="A40" s="56"/>
-      <c r="B40" s="150">
+      <c r="B40" s="112">
         <f t="shared" si="4"/>
         <v>32</v>
       </c>
       <c r="C40" s="58" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D40" s="58" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E40" s="59">
         <v>44751</v>
@@ -12819,7 +13058,7 @@
         <v>44752</v>
       </c>
       <c r="G40" s="58">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="H40" s="59">
@@ -12829,7 +13068,7 @@
         <v>44752</v>
       </c>
       <c r="J40" s="60">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>1</v>
       </c>
       <c r="K40" s="61">
@@ -12838,15 +13077,15 @@
     </row>
     <row r="41" spans="1:12" ht="21" x14ac:dyDescent="0.25">
       <c r="A41" s="56"/>
-      <c r="B41" s="150">
+      <c r="B41" s="112">
         <f t="shared" si="4"/>
         <v>33</v>
       </c>
       <c r="C41" s="58" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D41" s="59" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E41" s="59">
         <v>44752</v>
@@ -12855,7 +13094,7 @@
         <v>44753</v>
       </c>
       <c r="G41" s="58">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="H41" s="59">
@@ -12865,7 +13104,7 @@
         <v>44753</v>
       </c>
       <c r="J41" s="60">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>1</v>
       </c>
       <c r="K41" s="61">
@@ -12874,15 +13113,15 @@
     </row>
     <row r="42" spans="1:12" ht="21" x14ac:dyDescent="0.25">
       <c r="A42" s="56"/>
-      <c r="B42" s="150">
+      <c r="B42" s="112">
         <f t="shared" si="4"/>
         <v>34</v>
       </c>
       <c r="C42" s="58" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D42" s="59" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E42" s="59">
         <v>44752</v>
@@ -12891,7 +13130,7 @@
         <v>44753</v>
       </c>
       <c r="G42" s="58">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="H42" s="59">
@@ -12901,7 +13140,7 @@
         <v>44753</v>
       </c>
       <c r="J42" s="60">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>1</v>
       </c>
       <c r="K42" s="61">
@@ -12910,15 +13149,15 @@
     </row>
     <row r="43" spans="1:12" ht="21" x14ac:dyDescent="0.25">
       <c r="A43" s="56"/>
-      <c r="B43" s="150">
+      <c r="B43" s="112">
         <f t="shared" si="4"/>
         <v>35</v>
       </c>
       <c r="C43" s="58" t="s">
-        <v>159</v>
-      </c>
-      <c r="D43" s="151" t="s">
-        <v>129</v>
+        <v>158</v>
+      </c>
+      <c r="D43" s="113" t="s">
+        <v>128</v>
       </c>
       <c r="E43" s="59">
         <v>44752</v>
@@ -12927,7 +13166,7 @@
         <v>44753</v>
       </c>
       <c r="G43" s="58">
-        <f t="shared" ref="G43" si="19">F43-E43</f>
+        <f t="shared" ref="G43" si="21">F43-E43</f>
         <v>1</v>
       </c>
       <c r="H43" s="59">
@@ -12937,7 +13176,7 @@
         <v>44753</v>
       </c>
       <c r="J43" s="60">
-        <f t="shared" ref="J43" si="20">I43-H43</f>
+        <f t="shared" ref="J43" si="22">I43-H43</f>
         <v>1</v>
       </c>
       <c r="K43" s="61">
@@ -12946,15 +13185,15 @@
     </row>
     <row r="44" spans="1:12" ht="21" x14ac:dyDescent="0.25">
       <c r="A44" s="56"/>
-      <c r="B44" s="150">
+      <c r="B44" s="112">
         <f t="shared" si="4"/>
         <v>36</v>
       </c>
       <c r="C44" s="58" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D44" s="59" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E44" s="59">
         <v>44753</v>
@@ -12963,7 +13202,7 @@
         <v>44754</v>
       </c>
       <c r="G44" s="58">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="H44" s="59">
@@ -12973,7 +13212,7 @@
         <v>44754</v>
       </c>
       <c r="J44" s="60">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>1</v>
       </c>
       <c r="K44" s="61">
@@ -12982,15 +13221,15 @@
     </row>
     <row r="45" spans="1:12" ht="21" x14ac:dyDescent="0.25">
       <c r="A45" s="56"/>
-      <c r="B45" s="150">
+      <c r="B45" s="112">
         <f t="shared" si="4"/>
         <v>37</v>
       </c>
       <c r="C45" s="58" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D45" s="59" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E45" s="59">
         <v>44753</v>
@@ -12999,7 +13238,7 @@
         <v>44754</v>
       </c>
       <c r="G45" s="58">
-        <f t="shared" ref="G45" si="21">F45-E45</f>
+        <f t="shared" ref="G45" si="23">F45-E45</f>
         <v>1</v>
       </c>
       <c r="H45" s="59">
@@ -13009,7 +13248,7 @@
         <v>44754</v>
       </c>
       <c r="J45" s="60">
-        <f t="shared" ref="J45" si="22">I45-H45</f>
+        <f t="shared" ref="J45" si="24">I45-H45</f>
         <v>1</v>
       </c>
       <c r="K45" s="61">
@@ -13018,15 +13257,15 @@
     </row>
     <row r="46" spans="1:12" ht="21" x14ac:dyDescent="0.25">
       <c r="A46" s="56"/>
-      <c r="B46" s="150">
+      <c r="B46" s="112">
         <f t="shared" si="4"/>
         <v>38</v>
       </c>
       <c r="C46" s="58" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D46" s="111" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E46" s="59">
         <v>44750</v>
@@ -13035,7 +13274,7 @@
         <v>44751</v>
       </c>
       <c r="G46" s="58">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="H46" s="59">
@@ -13045,7 +13284,7 @@
         <v>44751</v>
       </c>
       <c r="J46" s="60">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>1</v>
       </c>
       <c r="K46" s="61">
@@ -13054,15 +13293,15 @@
     </row>
     <row r="47" spans="1:12" ht="21" x14ac:dyDescent="0.25">
       <c r="A47" s="56"/>
-      <c r="B47" s="150">
+      <c r="B47" s="112">
         <f t="shared" si="4"/>
         <v>39</v>
       </c>
       <c r="C47" s="58" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D47" s="58" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E47" s="105">
         <v>44751</v>
@@ -13071,7 +13310,7 @@
         <v>44752</v>
       </c>
       <c r="G47" s="58">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="H47" s="59">
@@ -13081,27 +13320,27 @@
         <v>44751</v>
       </c>
       <c r="J47" s="60">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>1</v>
       </c>
       <c r="K47" s="61">
         <v>0.9</v>
       </c>
       <c r="L47" s="110" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="48" spans="1:12" ht="21" x14ac:dyDescent="0.25">
       <c r="A48" s="56"/>
-      <c r="B48" s="150">
+      <c r="B48" s="112">
         <f t="shared" si="4"/>
         <v>40</v>
       </c>
       <c r="C48" s="58" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D48" s="58" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E48" s="59">
         <v>44751</v>
@@ -13110,7 +13349,7 @@
         <v>44752</v>
       </c>
       <c r="G48" s="58">
-        <f t="shared" ref="G48:G49" si="23">F48-E48</f>
+        <f t="shared" ref="G48:G49" si="25">F48-E48</f>
         <v>1</v>
       </c>
       <c r="H48" s="59">
@@ -13120,7 +13359,7 @@
         <v>44752</v>
       </c>
       <c r="J48" s="60">
-        <f t="shared" ref="J48:J49" si="24">I48-H48</f>
+        <f t="shared" ref="J48:J49" si="26">I48-H48</f>
         <v>1</v>
       </c>
       <c r="K48" s="61">
@@ -13129,15 +13368,15 @@
     </row>
     <row r="49" spans="1:11" ht="21" x14ac:dyDescent="0.25">
       <c r="A49" s="56"/>
-      <c r="B49" s="150">
+      <c r="B49" s="112">
         <f t="shared" si="4"/>
         <v>41</v>
       </c>
       <c r="C49" s="58" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D49" s="58" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E49" s="59">
         <v>44751</v>
@@ -13146,7 +13385,7 @@
         <v>44752</v>
       </c>
       <c r="G49" s="58">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>1</v>
       </c>
       <c r="H49" s="59">
@@ -13156,7 +13395,7 @@
         <v>44752</v>
       </c>
       <c r="J49" s="60">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>1</v>
       </c>
       <c r="K49" s="61">
@@ -13165,15 +13404,15 @@
     </row>
     <row r="50" spans="1:11" ht="21" x14ac:dyDescent="0.25">
       <c r="A50" s="56"/>
-      <c r="B50" s="150">
+      <c r="B50" s="112">
         <f t="shared" si="4"/>
         <v>42</v>
       </c>
       <c r="C50" s="58" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D50" s="59" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E50" s="59">
         <v>44753</v>
@@ -13182,7 +13421,7 @@
         <v>44754</v>
       </c>
       <c r="G50" s="58">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="H50" s="59">
@@ -13192,7 +13431,7 @@
         <v>44754</v>
       </c>
       <c r="J50" s="60">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>1</v>
       </c>
       <c r="K50" s="61">
@@ -13201,15 +13440,15 @@
     </row>
     <row r="51" spans="1:11" ht="21" x14ac:dyDescent="0.25">
       <c r="A51" s="56"/>
-      <c r="B51" s="150">
+      <c r="B51" s="112">
         <f t="shared" si="4"/>
         <v>43</v>
       </c>
       <c r="C51" s="58" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D51" s="59" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E51" s="59">
         <v>44753</v>
@@ -13218,7 +13457,7 @@
         <v>44754</v>
       </c>
       <c r="G51" s="58">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="H51" s="59">
@@ -13228,7 +13467,7 @@
         <v>44754</v>
       </c>
       <c r="J51" s="60">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>1</v>
       </c>
       <c r="K51" s="61">
@@ -13237,15 +13476,15 @@
     </row>
     <row r="52" spans="1:11" ht="21" x14ac:dyDescent="0.25">
       <c r="A52" s="56"/>
-      <c r="B52" s="150">
+      <c r="B52" s="112">
         <f t="shared" si="4"/>
         <v>44</v>
       </c>
       <c r="C52" s="58" t="s">
-        <v>147</v>
-      </c>
-      <c r="D52" s="151" t="s">
-        <v>129</v>
+        <v>146</v>
+      </c>
+      <c r="D52" s="113" t="s">
+        <v>128</v>
       </c>
       <c r="E52" s="59">
         <v>44753</v>
@@ -13254,7 +13493,7 @@
         <v>44754</v>
       </c>
       <c r="G52" s="58">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="H52" s="59">
@@ -13264,7 +13503,7 @@
         <v>44754</v>
       </c>
       <c r="J52" s="60">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>1</v>
       </c>
       <c r="K52" s="61">
@@ -13273,15 +13512,15 @@
     </row>
     <row r="53" spans="1:11" ht="21" x14ac:dyDescent="0.25">
       <c r="A53" s="56"/>
-      <c r="B53" s="150">
+      <c r="B53" s="112">
         <f t="shared" si="4"/>
         <v>45</v>
       </c>
       <c r="C53" s="58" t="s">
-        <v>148</v>
-      </c>
-      <c r="D53" s="151" t="s">
-        <v>129</v>
+        <v>147</v>
+      </c>
+      <c r="D53" s="113" t="s">
+        <v>128</v>
       </c>
       <c r="E53" s="59">
         <v>44753</v>
@@ -13290,7 +13529,7 @@
         <v>44754</v>
       </c>
       <c r="G53" s="58">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="H53" s="59">
@@ -13300,7 +13539,7 @@
         <v>44754</v>
       </c>
       <c r="J53" s="60">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>1</v>
       </c>
       <c r="K53" s="61">
@@ -13309,15 +13548,15 @@
     </row>
     <row r="54" spans="1:11" ht="21" x14ac:dyDescent="0.25">
       <c r="A54" s="56"/>
-      <c r="B54" s="150">
+      <c r="B54" s="112">
         <f t="shared" si="4"/>
         <v>46</v>
       </c>
       <c r="C54" s="58" t="s">
-        <v>149</v>
-      </c>
-      <c r="D54" s="151" t="s">
-        <v>129</v>
+        <v>148</v>
+      </c>
+      <c r="D54" s="113" t="s">
+        <v>128</v>
       </c>
       <c r="E54" s="59">
         <v>44753</v>
@@ -13326,7 +13565,7 @@
         <v>44754</v>
       </c>
       <c r="G54" s="58">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="H54" s="59">
@@ -13336,7 +13575,7 @@
         <v>44754</v>
       </c>
       <c r="J54" s="60">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>1</v>
       </c>
       <c r="K54" s="61">
@@ -13345,15 +13584,15 @@
     </row>
     <row r="55" spans="1:11" ht="21" x14ac:dyDescent="0.25">
       <c r="A55" s="56"/>
-      <c r="B55" s="150">
+      <c r="B55" s="112">
         <f t="shared" si="4"/>
         <v>47</v>
       </c>
       <c r="C55" s="58" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D55" s="58" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E55" s="59">
         <v>44752</v>
@@ -13362,7 +13601,7 @@
         <v>44753</v>
       </c>
       <c r="G55" s="58">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="H55" s="59">
@@ -13372,7 +13611,7 @@
         <v>44754</v>
       </c>
       <c r="J55" s="60">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>1</v>
       </c>
       <c r="K55" s="61">
@@ -13381,15 +13620,15 @@
     </row>
     <row r="56" spans="1:11" ht="21" x14ac:dyDescent="0.25">
       <c r="A56" s="56"/>
-      <c r="B56" s="150">
+      <c r="B56" s="112">
         <f t="shared" si="4"/>
         <v>48</v>
       </c>
       <c r="C56" s="58" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D56" s="58" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E56" s="59">
         <v>44752</v>
@@ -13398,7 +13637,7 @@
         <v>44753</v>
       </c>
       <c r="G56" s="58">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="H56" s="59">
@@ -13408,7 +13647,7 @@
         <v>44753</v>
       </c>
       <c r="J56" s="60">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>1</v>
       </c>
       <c r="K56" s="61">
@@ -13417,15 +13656,15 @@
     </row>
     <row r="57" spans="1:11" ht="21" x14ac:dyDescent="0.25">
       <c r="A57" s="56"/>
-      <c r="B57" s="150">
+      <c r="B57" s="112">
         <f t="shared" si="4"/>
         <v>49</v>
       </c>
       <c r="C57" s="58" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D57" s="58" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E57" s="59">
         <v>44753</v>
@@ -13434,7 +13673,7 @@
         <v>44754</v>
       </c>
       <c r="G57" s="58">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="H57" s="59">
@@ -13444,7 +13683,7 @@
         <v>44754</v>
       </c>
       <c r="J57" s="60">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>1</v>
       </c>
       <c r="K57" s="61">
@@ -13453,15 +13692,15 @@
     </row>
     <row r="58" spans="1:11" ht="21" x14ac:dyDescent="0.25">
       <c r="A58" s="56"/>
-      <c r="B58" s="150">
+      <c r="B58" s="112">
         <f t="shared" si="4"/>
         <v>50</v>
       </c>
       <c r="C58" s="58" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D58" s="58" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E58" s="59">
         <v>44753</v>
@@ -13470,7 +13709,7 @@
         <v>44754</v>
       </c>
       <c r="G58" s="58">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="H58" s="59">
@@ -13480,7 +13719,7 @@
         <v>44754</v>
       </c>
       <c r="J58" s="60">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>1</v>
       </c>
       <c r="K58" s="61">
@@ -13489,15 +13728,15 @@
     </row>
     <row r="59" spans="1:11" ht="21" x14ac:dyDescent="0.25">
       <c r="A59" s="56"/>
-      <c r="B59" s="150">
+      <c r="B59" s="112">
         <f t="shared" si="4"/>
         <v>51</v>
       </c>
       <c r="C59" s="58" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D59" s="58" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E59" s="59">
         <v>44754</v>
@@ -13506,7 +13745,7 @@
         <v>44755</v>
       </c>
       <c r="G59" s="58">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="H59" s="59">
@@ -13516,7 +13755,7 @@
         <v>44755</v>
       </c>
       <c r="J59" s="60">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>1</v>
       </c>
       <c r="K59" s="61">
@@ -13525,15 +13764,15 @@
     </row>
     <row r="60" spans="1:11" ht="21" x14ac:dyDescent="0.25">
       <c r="A60" s="56"/>
-      <c r="B60" s="150">
+      <c r="B60" s="112">
         <f t="shared" si="4"/>
         <v>52</v>
       </c>
       <c r="C60" s="58" t="s">
-        <v>158</v>
-      </c>
-      <c r="D60" s="151" t="s">
-        <v>129</v>
+        <v>157</v>
+      </c>
+      <c r="D60" s="113" t="s">
+        <v>128</v>
       </c>
       <c r="E60" s="59">
         <v>44752</v>
@@ -13542,7 +13781,7 @@
         <v>44753</v>
       </c>
       <c r="G60" s="58">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="H60" s="59">
@@ -13552,7 +13791,7 @@
         <v>44753</v>
       </c>
       <c r="J60" s="60">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>1</v>
       </c>
       <c r="K60" s="61">
@@ -13578,11 +13817,15 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="H61" s="59"/>
-      <c r="I61" s="59"/>
+      <c r="H61" s="59">
+        <v>44757</v>
+      </c>
+      <c r="I61" s="59">
+        <v>44759</v>
+      </c>
       <c r="J61" s="60">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K61" s="61">
         <v>0</v>
@@ -13613,29 +13856,31 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K62" s="61">
+      <c r="K62" s="107">
+        <f>AVERAGE(K63:K115)</f>
         <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:11" ht="21" x14ac:dyDescent="0.25">
       <c r="A63" s="56"/>
       <c r="B63" s="109">
-        <f>ROW()-62</f>
         <v>1</v>
       </c>
       <c r="C63" s="58" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D63" s="58" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E63" s="59">
-        <v>44747</v>
-      </c>
-      <c r="F63" s="59"/>
+        <v>44757</v>
+      </c>
+      <c r="F63" s="59">
+        <v>44770</v>
+      </c>
       <c r="G63" s="58">
         <f t="shared" si="0"/>
-        <v>-44747</v>
+        <v>13</v>
       </c>
       <c r="H63" s="59"/>
       <c r="I63" s="59"/>
@@ -13644,28 +13889,29 @@
         <v>0</v>
       </c>
       <c r="K63" s="61">
-        <v>0.9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:11" ht="21" x14ac:dyDescent="0.25">
       <c r="A64" s="56"/>
       <c r="B64" s="109">
-        <f t="shared" ref="B64:B87" si="25">ROW()-62</f>
         <v>2</v>
       </c>
       <c r="C64" s="58" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D64" s="58" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E64" s="59">
-        <v>44747</v>
-      </c>
-      <c r="F64" s="59"/>
+        <v>44757</v>
+      </c>
+      <c r="F64" s="59">
+        <v>44770</v>
+      </c>
       <c r="G64" s="58">
         <f t="shared" si="0"/>
-        <v>-44747</v>
+        <v>13</v>
       </c>
       <c r="H64" s="59"/>
       <c r="I64" s="59"/>
@@ -13674,553 +13920,570 @@
         <v>0</v>
       </c>
       <c r="K64" s="61">
-        <v>0.9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:11" ht="21" x14ac:dyDescent="0.25">
       <c r="A65" s="56"/>
       <c r="B65" s="109">
-        <f t="shared" si="25"/>
         <v>3</v>
       </c>
       <c r="C65" s="58" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D65" s="58" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E65" s="59">
-        <v>44747</v>
-      </c>
-      <c r="F65" s="59"/>
+        <v>44757</v>
+      </c>
+      <c r="F65" s="59">
+        <v>44770</v>
+      </c>
       <c r="G65" s="58">
-        <f t="shared" ref="G65:G78" si="26">F65-E65</f>
-        <v>-44747</v>
+        <f t="shared" ref="G65:G77" si="27">F65-E65</f>
+        <v>13</v>
       </c>
       <c r="H65" s="59"/>
       <c r="I65" s="59"/>
       <c r="J65" s="60">
-        <f t="shared" ref="J65:J78" si="27">I65-H65</f>
+        <f t="shared" ref="J65:J77" si="28">I65-H65</f>
         <v>0</v>
       </c>
       <c r="K65" s="61">
-        <v>0.9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:11" ht="21" x14ac:dyDescent="0.25">
       <c r="A66" s="56"/>
       <c r="B66" s="109">
-        <f t="shared" si="25"/>
         <v>4</v>
       </c>
       <c r="C66" s="108" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D66" s="58" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E66" s="59">
-        <v>44748</v>
-      </c>
-      <c r="F66" s="59"/>
+        <v>44757</v>
+      </c>
+      <c r="F66" s="59">
+        <v>44770</v>
+      </c>
       <c r="G66" s="58">
-        <f t="shared" si="26"/>
-        <v>-44748</v>
+        <f t="shared" si="27"/>
+        <v>13</v>
       </c>
       <c r="H66" s="59"/>
       <c r="I66" s="59"/>
       <c r="J66" s="60">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="K66" s="61">
-        <v>0.9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:11" ht="21" x14ac:dyDescent="0.25">
       <c r="A67" s="56"/>
       <c r="B67" s="109">
-        <f t="shared" si="25"/>
         <v>5</v>
       </c>
       <c r="C67" s="58" t="s">
-        <v>109</v>
+        <v>165</v>
       </c>
       <c r="D67" s="58" t="s">
         <v>132</v>
       </c>
       <c r="E67" s="59">
-        <v>44747</v>
-      </c>
-      <c r="F67" s="59"/>
+        <v>44757</v>
+      </c>
+      <c r="F67" s="59">
+        <v>44770</v>
+      </c>
       <c r="G67" s="58">
-        <f t="shared" si="26"/>
-        <v>-44747</v>
+        <f t="shared" si="27"/>
+        <v>13</v>
       </c>
       <c r="H67" s="59"/>
       <c r="I67" s="59"/>
       <c r="J67" s="60">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="K67" s="61">
-        <v>0.9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:11" ht="21" x14ac:dyDescent="0.25">
       <c r="A68" s="56"/>
       <c r="B68" s="109">
-        <f t="shared" si="25"/>
         <v>6</v>
       </c>
       <c r="C68" s="58" t="s">
-        <v>81</v>
+        <v>109</v>
       </c>
       <c r="D68" s="58" t="s">
-        <v>129</v>
-      </c>
-      <c r="E68" s="105">
-        <v>44748</v>
-      </c>
-      <c r="F68" s="106"/>
+        <v>131</v>
+      </c>
+      <c r="E68" s="59">
+        <v>44757</v>
+      </c>
+      <c r="F68" s="59">
+        <v>44770</v>
+      </c>
       <c r="G68" s="58">
-        <f t="shared" si="26"/>
-        <v>-44748</v>
+        <f t="shared" si="27"/>
+        <v>13</v>
       </c>
       <c r="H68" s="59"/>
-      <c r="I68" s="106"/>
+      <c r="I68" s="59"/>
       <c r="J68" s="60">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="K68" s="61">
-        <v>0.9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:11" ht="21" x14ac:dyDescent="0.25">
       <c r="A69" s="56"/>
       <c r="B69" s="109">
-        <f t="shared" si="25"/>
         <v>7</v>
       </c>
       <c r="C69" s="58" t="s">
-        <v>110</v>
+        <v>81</v>
       </c>
       <c r="D69" s="58" t="s">
-        <v>129</v>
-      </c>
-      <c r="E69" s="106">
-        <v>44749</v>
-      </c>
-      <c r="F69" s="59"/>
+        <v>128</v>
+      </c>
+      <c r="E69" s="59">
+        <v>44757</v>
+      </c>
+      <c r="F69" s="59">
+        <v>44770</v>
+      </c>
       <c r="G69" s="58">
-        <f t="shared" si="26"/>
-        <v>-44749</v>
-      </c>
-      <c r="H69" s="106"/>
-      <c r="I69" s="59"/>
+        <f t="shared" si="27"/>
+        <v>13</v>
+      </c>
+      <c r="H69" s="59"/>
+      <c r="I69" s="106"/>
       <c r="J69" s="60">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="K69" s="61">
-        <v>0.9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:11" ht="21" x14ac:dyDescent="0.25">
       <c r="A70" s="56"/>
       <c r="B70" s="109">
-        <f t="shared" si="25"/>
         <v>8</v>
       </c>
       <c r="C70" s="58" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D70" s="58" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E70" s="59">
-        <v>44747</v>
-      </c>
-      <c r="F70" s="59"/>
+        <v>44757</v>
+      </c>
+      <c r="F70" s="59">
+        <v>44770</v>
+      </c>
       <c r="G70" s="58">
-        <f t="shared" si="26"/>
-        <v>-44747</v>
+        <f t="shared" si="27"/>
+        <v>13</v>
       </c>
       <c r="H70" s="59"/>
       <c r="I70" s="59"/>
       <c r="J70" s="60">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="K70" s="61">
-        <v>0.9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:11" ht="21" x14ac:dyDescent="0.25">
       <c r="A71" s="56"/>
       <c r="B71" s="109">
-        <f t="shared" si="25"/>
         <v>9</v>
       </c>
       <c r="C71" s="58" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D71" s="58" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E71" s="59">
-        <v>44747</v>
-      </c>
-      <c r="F71" s="59"/>
+        <v>44757</v>
+      </c>
+      <c r="F71" s="59">
+        <v>44770</v>
+      </c>
       <c r="G71" s="58">
-        <f t="shared" si="26"/>
-        <v>-44747</v>
+        <f t="shared" si="27"/>
+        <v>13</v>
       </c>
       <c r="H71" s="59"/>
       <c r="I71" s="59"/>
       <c r="J71" s="60">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="K71" s="61">
-        <v>0.9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:11" ht="21" x14ac:dyDescent="0.25">
       <c r="A72" s="56"/>
       <c r="B72" s="109">
-        <f t="shared" si="25"/>
         <v>10</v>
       </c>
       <c r="C72" s="58" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D72" s="58" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E72" s="59">
-        <v>44747</v>
-      </c>
-      <c r="F72" s="59"/>
+        <v>44757</v>
+      </c>
+      <c r="F72" s="59">
+        <v>44770</v>
+      </c>
       <c r="G72" s="58">
-        <f t="shared" si="26"/>
-        <v>-44747</v>
+        <f t="shared" si="27"/>
+        <v>13</v>
       </c>
       <c r="H72" s="59"/>
       <c r="I72" s="59"/>
       <c r="J72" s="60">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="K72" s="61">
-        <v>0.9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:11" ht="21" x14ac:dyDescent="0.25">
       <c r="A73" s="56"/>
       <c r="B73" s="109">
-        <f t="shared" si="25"/>
         <v>11</v>
       </c>
       <c r="C73" s="58" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D73" s="58" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E73" s="59">
-        <v>44747</v>
-      </c>
-      <c r="F73" s="59"/>
+        <v>44757</v>
+      </c>
+      <c r="F73" s="59">
+        <v>44770</v>
+      </c>
       <c r="G73" s="58">
-        <f t="shared" si="26"/>
-        <v>-44747</v>
+        <f t="shared" si="27"/>
+        <v>13</v>
       </c>
       <c r="H73" s="59"/>
       <c r="I73" s="59"/>
       <c r="J73" s="60">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="K73" s="61">
-        <v>0.9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:11" ht="21" x14ac:dyDescent="0.25">
       <c r="A74" s="56"/>
       <c r="B74" s="109">
-        <f t="shared" si="25"/>
         <v>12</v>
       </c>
       <c r="C74" s="58" t="s">
         <v>82</v>
       </c>
       <c r="D74" s="58" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E74" s="59">
-        <v>44748</v>
-      </c>
-      <c r="F74" s="59"/>
+        <v>44757</v>
+      </c>
+      <c r="F74" s="59">
+        <v>44770</v>
+      </c>
       <c r="G74" s="58">
-        <f t="shared" si="26"/>
-        <v>-44748</v>
+        <f t="shared" si="27"/>
+        <v>13</v>
       </c>
       <c r="H74" s="59"/>
       <c r="I74" s="59"/>
       <c r="J74" s="60">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="K74" s="61">
-        <v>0.9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:11" ht="21" x14ac:dyDescent="0.25">
       <c r="A75" s="56"/>
       <c r="B75" s="109">
-        <f t="shared" si="25"/>
         <v>13</v>
       </c>
       <c r="C75" s="58" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D75" s="58" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E75" s="59">
-        <v>44749</v>
-      </c>
-      <c r="F75" s="105"/>
+        <v>44757</v>
+      </c>
+      <c r="F75" s="59">
+        <v>44770</v>
+      </c>
       <c r="G75" s="58">
-        <f t="shared" si="26"/>
-        <v>-44749</v>
+        <f t="shared" si="27"/>
+        <v>13</v>
       </c>
       <c r="H75" s="59"/>
       <c r="I75" s="105"/>
       <c r="J75" s="60">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="K75" s="61">
-        <v>0.9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:11" ht="21" x14ac:dyDescent="0.25">
       <c r="A76" s="56"/>
       <c r="B76" s="109">
-        <f t="shared" si="25"/>
         <v>14</v>
       </c>
       <c r="C76" s="58" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D76" s="58" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E76" s="59">
-        <v>44748</v>
-      </c>
-      <c r="F76" s="59"/>
+        <v>44757</v>
+      </c>
+      <c r="F76" s="59">
+        <v>44770</v>
+      </c>
       <c r="G76" s="58">
-        <f t="shared" si="26"/>
-        <v>-44748</v>
+        <f t="shared" si="27"/>
+        <v>13</v>
       </c>
       <c r="H76" s="59"/>
       <c r="I76" s="59"/>
       <c r="J76" s="60">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="K76" s="61">
-        <v>0.9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:11" ht="21" x14ac:dyDescent="0.25">
       <c r="A77" s="56"/>
       <c r="B77" s="109">
-        <f t="shared" si="25"/>
         <v>15</v>
       </c>
       <c r="C77" s="58" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D77" s="58" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E77" s="59">
-        <v>44750</v>
-      </c>
-      <c r="F77" s="59"/>
+        <v>44757</v>
+      </c>
+      <c r="F77" s="59">
+        <v>44770</v>
+      </c>
       <c r="G77" s="58">
-        <f t="shared" si="26"/>
-        <v>-44750</v>
+        <f t="shared" si="27"/>
+        <v>13</v>
       </c>
       <c r="H77" s="59"/>
       <c r="I77" s="59"/>
       <c r="J77" s="60">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="K77" s="61">
-        <v>0.9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:11" ht="21" x14ac:dyDescent="0.25">
       <c r="A78" s="56"/>
       <c r="B78" s="109">
-        <f t="shared" si="25"/>
         <v>16</v>
       </c>
       <c r="C78" s="58" t="s">
-        <v>92</v>
+        <v>126</v>
       </c>
       <c r="D78" s="58" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E78" s="59">
-        <v>44747</v>
-      </c>
-      <c r="F78" s="59"/>
+        <v>44757</v>
+      </c>
+      <c r="F78" s="59">
+        <v>44770</v>
+      </c>
       <c r="G78" s="58">
-        <f t="shared" si="26"/>
-        <v>-44747</v>
+        <f>F78-E78</f>
+        <v>13</v>
       </c>
       <c r="H78" s="59"/>
       <c r="I78" s="59"/>
       <c r="J78" s="60">
-        <f t="shared" si="27"/>
+        <f>I78-H78</f>
         <v>0</v>
       </c>
       <c r="K78" s="61">
-        <v>0.9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:11" ht="21" x14ac:dyDescent="0.25">
       <c r="A79" s="56"/>
       <c r="B79" s="109">
-        <f t="shared" si="25"/>
         <v>17</v>
       </c>
       <c r="C79" s="58" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
       <c r="D79" s="58" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E79" s="59">
-        <v>44747</v>
-      </c>
-      <c r="F79" s="59"/>
+        <v>44757</v>
+      </c>
+      <c r="F79" s="59">
+        <v>44770</v>
+      </c>
       <c r="G79" s="58">
-        <f>F79-E79</f>
-        <v>-44747</v>
+        <f t="shared" ref="G79:G114" si="29">F79-E79</f>
+        <v>13</v>
       </c>
       <c r="H79" s="59"/>
       <c r="I79" s="59"/>
       <c r="J79" s="60">
-        <f>I79-H79</f>
+        <f t="shared" ref="J79:J114" si="30">I79-H79</f>
         <v>0</v>
       </c>
       <c r="K79" s="61">
-        <v>0.9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:11" ht="21" x14ac:dyDescent="0.25">
       <c r="A80" s="56"/>
       <c r="B80" s="109">
-        <f t="shared" si="25"/>
         <v>18</v>
       </c>
       <c r="C80" s="58" t="s">
         <v>115</v>
       </c>
-      <c r="D80" s="58" t="s">
-        <v>134</v>
-      </c>
-      <c r="E80" s="105">
-        <v>44750</v>
-      </c>
-      <c r="F80" s="59"/>
+      <c r="D80" s="105" t="s">
+        <v>132</v>
+      </c>
+      <c r="E80" s="59">
+        <v>44757</v>
+      </c>
+      <c r="F80" s="59">
+        <v>44770</v>
+      </c>
       <c r="G80" s="58">
-        <f t="shared" ref="G80:G114" si="28">F80-E80</f>
-        <v>-44750</v>
+        <f t="shared" si="29"/>
+        <v>13</v>
       </c>
       <c r="H80" s="59"/>
       <c r="I80" s="59"/>
       <c r="J80" s="60">
-        <f t="shared" ref="J80:J114" si="29">I80-H80</f>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="K80" s="61">
-        <v>0.9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:11" ht="21" x14ac:dyDescent="0.25">
       <c r="A81" s="56"/>
       <c r="B81" s="109">
-        <f t="shared" si="25"/>
         <v>19</v>
       </c>
       <c r="C81" s="58" t="s">
-        <v>116</v>
-      </c>
-      <c r="D81" s="58" t="s">
-        <v>133</v>
+        <v>119</v>
+      </c>
+      <c r="D81" s="105" t="s">
+        <v>132</v>
       </c>
       <c r="E81" s="59">
-        <v>44749</v>
-      </c>
-      <c r="F81" s="59"/>
+        <v>44757</v>
+      </c>
+      <c r="F81" s="59">
+        <v>44770</v>
+      </c>
       <c r="G81" s="58">
-        <f t="shared" si="28"/>
-        <v>-44749</v>
+        <f t="shared" si="29"/>
+        <v>13</v>
       </c>
       <c r="H81" s="59"/>
       <c r="I81" s="59"/>
       <c r="J81" s="60">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="K81" s="61">
-        <v>0.9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:11" ht="21" x14ac:dyDescent="0.25">
       <c r="A82" s="56"/>
       <c r="B82" s="109">
-        <f t="shared" si="25"/>
         <v>20</v>
       </c>
       <c r="C82" s="58" t="s">
         <v>120</v>
       </c>
-      <c r="D82" s="58" t="s">
-        <v>133</v>
+      <c r="D82" s="105" t="s">
+        <v>132</v>
       </c>
       <c r="E82" s="59">
-        <v>44750</v>
-      </c>
-      <c r="F82" s="59"/>
+        <v>44757</v>
+      </c>
+      <c r="F82" s="59">
+        <v>44770</v>
+      </c>
       <c r="G82" s="58">
-        <f t="shared" si="28"/>
-        <v>-44750</v>
+        <f t="shared" si="29"/>
+        <v>13</v>
       </c>
       <c r="H82" s="59"/>
       <c r="I82" s="59"/>
       <c r="J82" s="60">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="K82" s="61">
-        <v>0.9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:11" ht="21" x14ac:dyDescent="0.25">
       <c r="A83" s="56"/>
       <c r="B83" s="109">
-        <f t="shared" si="25"/>
         <v>21</v>
       </c>
       <c r="C83" s="58" t="s">
@@ -14230,954 +14493,981 @@
         <v>133</v>
       </c>
       <c r="E83" s="59">
-        <v>44751</v>
-      </c>
-      <c r="F83" s="59"/>
+        <v>44757</v>
+      </c>
+      <c r="F83" s="59">
+        <v>44770</v>
+      </c>
       <c r="G83" s="58">
-        <f t="shared" si="28"/>
-        <v>-44751</v>
+        <f t="shared" si="29"/>
+        <v>13</v>
       </c>
       <c r="H83" s="59"/>
       <c r="I83" s="59"/>
       <c r="J83" s="60">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="K83" s="61">
-        <v>0.9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:11" ht="21" x14ac:dyDescent="0.25">
       <c r="A84" s="56"/>
       <c r="B84" s="109">
-        <f t="shared" si="25"/>
         <v>22</v>
       </c>
       <c r="C84" s="58" t="s">
         <v>122</v>
       </c>
       <c r="D84" s="58" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E84" s="59">
-        <v>44751</v>
-      </c>
-      <c r="F84" s="59"/>
+        <v>44757</v>
+      </c>
+      <c r="F84" s="59">
+        <v>44770</v>
+      </c>
       <c r="G84" s="58">
-        <f t="shared" si="28"/>
-        <v>-44751</v>
+        <f t="shared" si="29"/>
+        <v>13</v>
       </c>
       <c r="H84" s="59"/>
       <c r="I84" s="59"/>
       <c r="J84" s="60">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="K84" s="61">
-        <v>0.9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:11" ht="21" x14ac:dyDescent="0.25">
       <c r="A85" s="56"/>
       <c r="B85" s="109">
-        <f t="shared" si="25"/>
         <v>23</v>
       </c>
       <c r="C85" s="58" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="D85" s="58" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="E85" s="59">
-        <v>44751</v>
-      </c>
-      <c r="F85" s="59"/>
+        <v>44757</v>
+      </c>
+      <c r="F85" s="59">
+        <v>44770</v>
+      </c>
       <c r="G85" s="58">
-        <f t="shared" si="28"/>
-        <v>-44751</v>
+        <f t="shared" si="29"/>
+        <v>13</v>
       </c>
       <c r="H85" s="59"/>
       <c r="I85" s="59"/>
       <c r="J85" s="60">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="K85" s="61">
-        <v>0.9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:11" ht="21" x14ac:dyDescent="0.25">
       <c r="A86" s="56"/>
       <c r="B86" s="109">
-        <f t="shared" si="25"/>
         <v>24</v>
       </c>
       <c r="C86" s="58" t="s">
-        <v>135</v>
-      </c>
-      <c r="D86" s="58" t="s">
-        <v>129</v>
+        <v>136</v>
+      </c>
+      <c r="D86" s="105" t="s">
+        <v>132</v>
       </c>
       <c r="E86" s="59">
-        <v>44751</v>
-      </c>
-      <c r="F86" s="59"/>
+        <v>44757</v>
+      </c>
+      <c r="F86" s="59">
+        <v>44770</v>
+      </c>
       <c r="G86" s="58">
-        <f t="shared" si="28"/>
-        <v>-44751</v>
+        <f t="shared" si="29"/>
+        <v>13</v>
       </c>
       <c r="H86" s="59"/>
       <c r="I86" s="59"/>
       <c r="J86" s="60">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="K86" s="61">
-        <v>0.9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:11" ht="21" x14ac:dyDescent="0.25">
       <c r="A87" s="56"/>
-      <c r="B87" s="109">
-        <f t="shared" si="25"/>
+      <c r="B87" s="112">
         <v>25</v>
       </c>
       <c r="C87" s="58" t="s">
         <v>137</v>
       </c>
       <c r="D87" s="58" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E87" s="59">
-        <v>44751</v>
-      </c>
-      <c r="F87" s="59"/>
+        <v>44757</v>
+      </c>
+      <c r="F87" s="59">
+        <v>44770</v>
+      </c>
       <c r="G87" s="58">
-        <f t="shared" si="28"/>
-        <v>-44751</v>
+        <f t="shared" si="29"/>
+        <v>13</v>
       </c>
       <c r="H87" s="59"/>
       <c r="I87" s="59"/>
       <c r="J87" s="60">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="K87" s="61">
-        <v>0.9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:11" ht="21" x14ac:dyDescent="0.25">
       <c r="A88" s="56"/>
-      <c r="B88" s="150">
-        <f>ROW()-62</f>
+      <c r="B88" s="112">
         <v>26</v>
       </c>
       <c r="C88" s="58" t="s">
-        <v>138</v>
+        <v>109</v>
       </c>
       <c r="D88" s="58" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="E88" s="59">
-        <v>44749</v>
-      </c>
-      <c r="F88" s="59"/>
+        <v>44757</v>
+      </c>
+      <c r="F88" s="59">
+        <v>44770</v>
+      </c>
       <c r="G88" s="58">
-        <f t="shared" si="28"/>
-        <v>-44749</v>
+        <f t="shared" si="29"/>
+        <v>13</v>
       </c>
       <c r="H88" s="59"/>
       <c r="I88" s="59"/>
       <c r="J88" s="60">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="K88" s="61">
-        <v>0.9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:11" ht="21" x14ac:dyDescent="0.25">
       <c r="A89" s="56"/>
-      <c r="B89" s="150">
-        <f t="shared" ref="B89:B114" si="30">ROW()-62</f>
+      <c r="B89" s="112">
         <v>27</v>
       </c>
       <c r="C89" s="58" t="s">
-        <v>109</v>
+        <v>165</v>
       </c>
       <c r="D89" s="58" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E89" s="59">
-        <v>44749</v>
-      </c>
-      <c r="F89" s="59"/>
+        <v>44757</v>
+      </c>
+      <c r="F89" s="59">
+        <v>44770</v>
+      </c>
       <c r="G89" s="58">
-        <f t="shared" si="28"/>
-        <v>-44749</v>
+        <f t="shared" si="29"/>
+        <v>13</v>
       </c>
       <c r="H89" s="59"/>
       <c r="I89" s="59"/>
       <c r="J89" s="60">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="K89" s="61">
-        <v>0.9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:11" ht="21" x14ac:dyDescent="0.25">
       <c r="A90" s="56"/>
-      <c r="B90" s="150">
-        <f t="shared" si="30"/>
+      <c r="B90" s="112">
         <v>28</v>
       </c>
       <c r="C90" s="58" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D90" s="58" t="s">
         <v>131</v>
       </c>
       <c r="E90" s="59">
-        <v>44750</v>
-      </c>
-      <c r="F90" s="59"/>
+        <v>44757</v>
+      </c>
+      <c r="F90" s="59">
+        <v>44770</v>
+      </c>
       <c r="G90" s="58">
-        <f t="shared" si="28"/>
-        <v>-44750</v>
+        <f t="shared" si="29"/>
+        <v>13</v>
       </c>
       <c r="H90" s="59"/>
       <c r="I90" s="59"/>
       <c r="J90" s="60">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="K90" s="61">
-        <v>0.9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:11" ht="21" x14ac:dyDescent="0.25">
       <c r="A91" s="56"/>
-      <c r="B91" s="150">
-        <f t="shared" si="30"/>
+      <c r="B91" s="112">
         <v>29</v>
       </c>
       <c r="C91" s="58" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D91" s="58" t="s">
         <v>131</v>
       </c>
       <c r="E91" s="59">
-        <v>44750</v>
-      </c>
-      <c r="F91" s="59"/>
+        <v>44757</v>
+      </c>
+      <c r="F91" s="59">
+        <v>44770</v>
+      </c>
       <c r="G91" s="58">
-        <f t="shared" si="28"/>
-        <v>-44750</v>
+        <f t="shared" si="29"/>
+        <v>13</v>
       </c>
       <c r="H91" s="59"/>
       <c r="I91" s="59"/>
       <c r="J91" s="60">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="K91" s="61">
-        <v>0.9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:11" ht="21" x14ac:dyDescent="0.25">
       <c r="A92" s="56"/>
-      <c r="B92" s="150">
-        <f t="shared" si="30"/>
+      <c r="B92" s="112">
         <v>30</v>
       </c>
       <c r="C92" s="58" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D92" s="58" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E92" s="59">
-        <v>44751</v>
-      </c>
-      <c r="F92" s="59"/>
+        <v>44757</v>
+      </c>
+      <c r="F92" s="59">
+        <v>44770</v>
+      </c>
       <c r="G92" s="58">
-        <f t="shared" si="28"/>
-        <v>-44751</v>
+        <f t="shared" si="29"/>
+        <v>13</v>
       </c>
       <c r="H92" s="59"/>
       <c r="I92" s="59"/>
       <c r="J92" s="60">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="K92" s="61">
-        <v>0.9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:11" ht="21" x14ac:dyDescent="0.25">
       <c r="A93" s="56"/>
-      <c r="B93" s="150">
-        <f t="shared" si="30"/>
+      <c r="B93" s="112">
         <v>31</v>
       </c>
       <c r="C93" s="58" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D93" s="58" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E93" s="59">
-        <v>44751</v>
-      </c>
-      <c r="F93" s="59"/>
+        <v>44757</v>
+      </c>
+      <c r="F93" s="59">
+        <v>44770</v>
+      </c>
       <c r="G93" s="58">
-        <f t="shared" si="28"/>
-        <v>-44751</v>
+        <f t="shared" si="29"/>
+        <v>13</v>
       </c>
       <c r="H93" s="59"/>
       <c r="I93" s="59"/>
       <c r="J93" s="60">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="K93" s="61">
-        <v>0.9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:11" ht="21" x14ac:dyDescent="0.25">
       <c r="A94" s="56"/>
-      <c r="B94" s="150">
-        <f t="shared" si="30"/>
+      <c r="B94" s="112">
         <v>32</v>
       </c>
       <c r="C94" s="58" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D94" s="58" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E94" s="59">
-        <v>44751</v>
-      </c>
-      <c r="F94" s="59"/>
+        <v>44757</v>
+      </c>
+      <c r="F94" s="59">
+        <v>44770</v>
+      </c>
       <c r="G94" s="58">
-        <f t="shared" si="28"/>
-        <v>-44751</v>
+        <f t="shared" si="29"/>
+        <v>13</v>
       </c>
       <c r="H94" s="59"/>
       <c r="I94" s="59"/>
       <c r="J94" s="60">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="K94" s="61">
-        <v>0.9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:11" ht="21" x14ac:dyDescent="0.25">
       <c r="A95" s="56"/>
-      <c r="B95" s="150">
-        <f t="shared" si="30"/>
+      <c r="B95" s="112">
         <v>33</v>
       </c>
       <c r="C95" s="58" t="s">
-        <v>141</v>
-      </c>
-      <c r="D95" s="59" t="s">
+        <v>140</v>
+      </c>
+      <c r="D95" s="58" t="s">
         <v>133</v>
       </c>
       <c r="E95" s="59">
-        <v>44752</v>
-      </c>
-      <c r="F95" s="59"/>
+        <v>44757</v>
+      </c>
+      <c r="F95" s="59">
+        <v>44770</v>
+      </c>
       <c r="G95" s="58">
-        <f t="shared" si="28"/>
-        <v>-44752</v>
+        <f t="shared" si="29"/>
+        <v>13</v>
       </c>
       <c r="H95" s="59"/>
       <c r="I95" s="59"/>
       <c r="J95" s="60">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="K95" s="61">
-        <v>0.9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:11" ht="21" x14ac:dyDescent="0.25">
       <c r="A96" s="56"/>
-      <c r="B96" s="150">
-        <f t="shared" si="30"/>
+      <c r="B96" s="112">
         <v>34</v>
       </c>
       <c r="C96" s="58" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D96" s="59" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="E96" s="59">
-        <v>44752</v>
-      </c>
-      <c r="F96" s="59"/>
+        <v>44757</v>
+      </c>
+      <c r="F96" s="59">
+        <v>44770</v>
+      </c>
       <c r="G96" s="58">
-        <f t="shared" si="28"/>
-        <v>-44752</v>
+        <f t="shared" si="29"/>
+        <v>13</v>
       </c>
       <c r="H96" s="59"/>
       <c r="I96" s="59"/>
       <c r="J96" s="60">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="K96" s="61">
-        <v>0.9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:12" ht="21" x14ac:dyDescent="0.25">
       <c r="A97" s="56"/>
-      <c r="B97" s="150">
-        <f t="shared" si="30"/>
+      <c r="B97" s="112">
         <v>35</v>
       </c>
       <c r="C97" s="58" t="s">
-        <v>159</v>
-      </c>
-      <c r="D97" s="151" t="s">
+        <v>158</v>
+      </c>
+      <c r="D97" s="59" t="s">
         <v>129</v>
       </c>
       <c r="E97" s="59">
-        <v>44752</v>
-      </c>
-      <c r="F97" s="59"/>
+        <v>44757</v>
+      </c>
+      <c r="F97" s="59">
+        <v>44770</v>
+      </c>
       <c r="G97" s="58">
-        <f t="shared" si="28"/>
-        <v>-44752</v>
+        <f t="shared" si="29"/>
+        <v>13</v>
       </c>
       <c r="H97" s="59"/>
       <c r="I97" s="59"/>
       <c r="J97" s="60">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="K97" s="61">
-        <v>0.9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:12" ht="21" x14ac:dyDescent="0.25">
       <c r="A98" s="56"/>
-      <c r="B98" s="150">
-        <f t="shared" si="30"/>
+      <c r="B98" s="112">
         <v>36</v>
       </c>
       <c r="C98" s="58" t="s">
-        <v>164</v>
-      </c>
-      <c r="D98" s="59" t="s">
-        <v>133</v>
+        <v>163</v>
+      </c>
+      <c r="D98" s="105" t="s">
+        <v>132</v>
       </c>
       <c r="E98" s="59">
-        <v>44753</v>
-      </c>
-      <c r="F98" s="59"/>
+        <v>44757</v>
+      </c>
+      <c r="F98" s="59">
+        <v>44770</v>
+      </c>
       <c r="G98" s="58">
-        <f t="shared" si="28"/>
-        <v>-44753</v>
+        <f t="shared" si="29"/>
+        <v>13</v>
       </c>
       <c r="H98" s="59"/>
       <c r="I98" s="59"/>
       <c r="J98" s="60">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="K98" s="61">
-        <v>0.9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:12" ht="21" x14ac:dyDescent="0.25">
       <c r="A99" s="56"/>
-      <c r="B99" s="150">
-        <f t="shared" si="30"/>
+      <c r="B99" s="112">
         <v>37</v>
       </c>
       <c r="C99" s="58" t="s">
-        <v>142</v>
-      </c>
-      <c r="D99" s="59" t="s">
-        <v>133</v>
+        <v>141</v>
+      </c>
+      <c r="D99" s="58" t="s">
+        <v>131</v>
       </c>
       <c r="E99" s="59">
-        <v>44753</v>
-      </c>
-      <c r="F99" s="59"/>
+        <v>44757</v>
+      </c>
+      <c r="F99" s="59">
+        <v>44770</v>
+      </c>
       <c r="G99" s="58">
-        <f t="shared" si="28"/>
-        <v>-44753</v>
+        <f t="shared" si="29"/>
+        <v>13</v>
       </c>
       <c r="H99" s="59"/>
       <c r="I99" s="59"/>
       <c r="J99" s="60">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="K99" s="61">
-        <v>0.9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:12" ht="21" x14ac:dyDescent="0.25">
       <c r="A100" s="56"/>
-      <c r="B100" s="150">
-        <f t="shared" si="30"/>
+      <c r="B100" s="112">
         <v>38</v>
       </c>
       <c r="C100" s="58" t="s">
-        <v>143</v>
-      </c>
-      <c r="D100" s="111" t="s">
-        <v>132</v>
+        <v>142</v>
+      </c>
+      <c r="D100" s="58" t="s">
+        <v>133</v>
       </c>
       <c r="E100" s="59">
-        <v>44750</v>
-      </c>
-      <c r="F100" s="105"/>
+        <v>44757</v>
+      </c>
+      <c r="F100" s="59">
+        <v>44770</v>
+      </c>
       <c r="G100" s="58">
-        <f t="shared" si="28"/>
-        <v>-44750</v>
+        <f t="shared" si="29"/>
+        <v>13</v>
       </c>
       <c r="H100" s="59"/>
       <c r="I100" s="105"/>
       <c r="J100" s="60">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="K100" s="61">
-        <v>0.9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:12" ht="21" x14ac:dyDescent="0.25">
       <c r="A101" s="56"/>
-      <c r="B101" s="150">
-        <f t="shared" si="30"/>
+      <c r="B101" s="112">
         <v>39</v>
       </c>
       <c r="C101" s="58" t="s">
-        <v>145</v>
-      </c>
-      <c r="D101" s="58" t="s">
-        <v>132</v>
-      </c>
-      <c r="E101" s="105">
-        <v>44751</v>
-      </c>
-      <c r="F101" s="105"/>
+        <v>144</v>
+      </c>
+      <c r="D101" s="59" t="s">
+        <v>129</v>
+      </c>
+      <c r="E101" s="59">
+        <v>44757</v>
+      </c>
+      <c r="F101" s="59">
+        <v>44770</v>
+      </c>
       <c r="G101" s="58">
-        <f t="shared" si="28"/>
-        <v>-44751</v>
+        <f t="shared" si="29"/>
+        <v>13</v>
       </c>
       <c r="H101" s="59"/>
       <c r="I101" s="105"/>
       <c r="J101" s="60">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="K101" s="61">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="L101" s="110" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="102" spans="1:12" ht="21" x14ac:dyDescent="0.25">
       <c r="A102" s="56"/>
-      <c r="B102" s="150">
-        <f t="shared" si="30"/>
+      <c r="B102" s="112">
         <v>40</v>
       </c>
       <c r="C102" s="58" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D102" s="58" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E102" s="59">
-        <v>44751</v>
-      </c>
-      <c r="F102" s="59"/>
+        <v>44757</v>
+      </c>
+      <c r="F102" s="59">
+        <v>44770</v>
+      </c>
       <c r="G102" s="58">
-        <f t="shared" si="28"/>
-        <v>-44751</v>
+        <f t="shared" si="29"/>
+        <v>13</v>
       </c>
       <c r="H102" s="59"/>
       <c r="I102" s="59"/>
       <c r="J102" s="60">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="K102" s="61">
-        <v>0.9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:12" ht="21" x14ac:dyDescent="0.25">
       <c r="A103" s="56"/>
-      <c r="B103" s="150">
-        <f t="shared" si="30"/>
+      <c r="B103" s="112">
         <v>41</v>
       </c>
       <c r="C103" s="58" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D103" s="58" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E103" s="59">
-        <v>44751</v>
-      </c>
-      <c r="F103" s="59"/>
+        <v>44757</v>
+      </c>
+      <c r="F103" s="59">
+        <v>44770</v>
+      </c>
       <c r="G103" s="58">
-        <f t="shared" si="28"/>
-        <v>-44751</v>
+        <f t="shared" si="29"/>
+        <v>13</v>
       </c>
       <c r="H103" s="59"/>
       <c r="I103" s="59"/>
       <c r="J103" s="60">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="K103" s="61">
-        <v>0.9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:12" ht="21" x14ac:dyDescent="0.25">
       <c r="A104" s="56"/>
-      <c r="B104" s="150">
-        <f t="shared" si="30"/>
+      <c r="B104" s="112">
         <v>42</v>
       </c>
       <c r="C104" s="58" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D104" s="59" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="E104" s="59">
-        <v>44753</v>
-      </c>
-      <c r="F104" s="59"/>
+        <v>44757</v>
+      </c>
+      <c r="F104" s="59">
+        <v>44770</v>
+      </c>
       <c r="G104" s="58">
-        <f t="shared" si="28"/>
-        <v>-44753</v>
+        <f t="shared" si="29"/>
+        <v>13</v>
       </c>
       <c r="H104" s="59"/>
       <c r="I104" s="59"/>
       <c r="J104" s="60">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="K104" s="61">
-        <v>0.9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:12" ht="21" x14ac:dyDescent="0.25">
       <c r="A105" s="56"/>
-      <c r="B105" s="150">
-        <f t="shared" si="30"/>
+      <c r="B105" s="112">
         <v>43</v>
       </c>
       <c r="C105" s="58" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D105" s="59" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="E105" s="59">
-        <v>44753</v>
-      </c>
-      <c r="F105" s="59"/>
+        <v>44757</v>
+      </c>
+      <c r="F105" s="59">
+        <v>44770</v>
+      </c>
       <c r="G105" s="58">
-        <f t="shared" si="28"/>
-        <v>-44753</v>
+        <f t="shared" si="29"/>
+        <v>13</v>
       </c>
       <c r="H105" s="59"/>
       <c r="I105" s="59"/>
       <c r="J105" s="60">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="K105" s="61">
-        <v>0.9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:12" ht="21" x14ac:dyDescent="0.25">
       <c r="A106" s="56"/>
-      <c r="B106" s="150">
-        <f t="shared" si="30"/>
+      <c r="B106" s="112">
         <v>44</v>
       </c>
       <c r="C106" s="58" t="s">
-        <v>147</v>
-      </c>
-      <c r="D106" s="151" t="s">
-        <v>129</v>
+        <v>146</v>
+      </c>
+      <c r="D106" s="113" t="s">
+        <v>128</v>
       </c>
       <c r="E106" s="59">
-        <v>44753</v>
-      </c>
-      <c r="F106" s="59"/>
+        <v>44757</v>
+      </c>
+      <c r="F106" s="59">
+        <v>44770</v>
+      </c>
       <c r="G106" s="58">
-        <f t="shared" si="28"/>
-        <v>-44753</v>
+        <f t="shared" si="29"/>
+        <v>13</v>
       </c>
       <c r="H106" s="59"/>
       <c r="I106" s="59"/>
       <c r="J106" s="60">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="K106" s="61">
-        <v>0.9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:12" ht="21" x14ac:dyDescent="0.25">
       <c r="A107" s="56"/>
-      <c r="B107" s="150">
-        <f t="shared" si="30"/>
+      <c r="B107" s="112">
         <v>45</v>
       </c>
       <c r="C107" s="58" t="s">
-        <v>148</v>
-      </c>
-      <c r="D107" s="151" t="s">
-        <v>129</v>
+        <v>147</v>
+      </c>
+      <c r="D107" s="113" t="s">
+        <v>128</v>
       </c>
       <c r="E107" s="59">
-        <v>44753</v>
-      </c>
-      <c r="F107" s="59"/>
+        <v>44757</v>
+      </c>
+      <c r="F107" s="59">
+        <v>44770</v>
+      </c>
       <c r="G107" s="58">
-        <f t="shared" si="28"/>
-        <v>-44753</v>
+        <f t="shared" si="29"/>
+        <v>13</v>
       </c>
       <c r="H107" s="59"/>
       <c r="I107" s="59"/>
       <c r="J107" s="60">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="K107" s="61">
-        <v>0.9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:12" ht="21" x14ac:dyDescent="0.25">
       <c r="A108" s="56"/>
-      <c r="B108" s="150">
-        <f t="shared" si="30"/>
+      <c r="B108" s="112">
         <v>46</v>
       </c>
       <c r="C108" s="58" t="s">
-        <v>149</v>
-      </c>
-      <c r="D108" s="151" t="s">
-        <v>129</v>
+        <v>148</v>
+      </c>
+      <c r="D108" s="113" t="s">
+        <v>128</v>
       </c>
       <c r="E108" s="59">
-        <v>44753</v>
-      </c>
-      <c r="F108" s="59"/>
+        <v>44757</v>
+      </c>
+      <c r="F108" s="59">
+        <v>44770</v>
+      </c>
       <c r="G108" s="58">
-        <f t="shared" si="28"/>
-        <v>-44753</v>
+        <f t="shared" si="29"/>
+        <v>13</v>
       </c>
       <c r="H108" s="59"/>
       <c r="I108" s="59"/>
       <c r="J108" s="60">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="K108" s="61">
-        <v>0.9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:12" ht="21" x14ac:dyDescent="0.25">
       <c r="A109" s="56"/>
-      <c r="B109" s="150">
-        <f t="shared" si="30"/>
+      <c r="B109" s="112">
         <v>47</v>
       </c>
       <c r="C109" s="58" t="s">
-        <v>150</v>
-      </c>
-      <c r="D109" s="58" t="s">
-        <v>134</v>
+        <v>149</v>
+      </c>
+      <c r="D109" s="105" t="s">
+        <v>132</v>
       </c>
       <c r="E109" s="59">
-        <v>44752</v>
-      </c>
-      <c r="F109" s="59"/>
+        <v>44757</v>
+      </c>
+      <c r="F109" s="59">
+        <v>44770</v>
+      </c>
       <c r="G109" s="58">
-        <f t="shared" si="28"/>
-        <v>-44752</v>
+        <f t="shared" si="29"/>
+        <v>13</v>
       </c>
       <c r="H109" s="59"/>
       <c r="I109" s="59"/>
       <c r="J109" s="60">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="K109" s="61">
-        <v>0.9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:12" ht="21" x14ac:dyDescent="0.25">
       <c r="A110" s="56"/>
-      <c r="B110" s="150">
-        <f t="shared" si="30"/>
+      <c r="B110" s="112">
         <v>48</v>
       </c>
       <c r="C110" s="58" t="s">
-        <v>151</v>
-      </c>
-      <c r="D110" s="58" t="s">
-        <v>134</v>
+        <v>150</v>
+      </c>
+      <c r="D110" s="105" t="s">
+        <v>132</v>
       </c>
       <c r="E110" s="59">
-        <v>44752</v>
-      </c>
-      <c r="F110" s="59"/>
+        <v>44757</v>
+      </c>
+      <c r="F110" s="59">
+        <v>44770</v>
+      </c>
       <c r="G110" s="58">
-        <f t="shared" si="28"/>
-        <v>-44752</v>
+        <f t="shared" si="29"/>
+        <v>13</v>
       </c>
       <c r="H110" s="59"/>
       <c r="I110" s="59"/>
       <c r="J110" s="60">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="K110" s="61">
-        <v>0.9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:12" ht="21" x14ac:dyDescent="0.25">
       <c r="A111" s="56"/>
-      <c r="B111" s="150">
-        <f t="shared" si="30"/>
+      <c r="B111" s="112">
         <v>49</v>
       </c>
       <c r="C111" s="58" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D111" s="58" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E111" s="59">
-        <v>44753</v>
-      </c>
-      <c r="F111" s="59"/>
+        <v>44757</v>
+      </c>
+      <c r="F111" s="59">
+        <v>44770</v>
+      </c>
       <c r="G111" s="58">
-        <f t="shared" si="28"/>
-        <v>-44753</v>
+        <f t="shared" si="29"/>
+        <v>13</v>
       </c>
       <c r="H111" s="59"/>
       <c r="I111" s="59"/>
       <c r="J111" s="60">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="K111" s="61">
-        <v>0.9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:12" ht="21" x14ac:dyDescent="0.25">
       <c r="A112" s="56"/>
-      <c r="B112" s="150">
-        <f t="shared" si="30"/>
+      <c r="B112" s="112">
         <v>50</v>
       </c>
       <c r="C112" s="58" t="s">
-        <v>153</v>
-      </c>
-      <c r="D112" s="58" t="s">
-        <v>134</v>
+        <v>152</v>
+      </c>
+      <c r="D112" s="105" t="s">
+        <v>132</v>
       </c>
       <c r="E112" s="59">
-        <v>44753</v>
-      </c>
-      <c r="F112" s="59"/>
+        <v>44757</v>
+      </c>
+      <c r="F112" s="59">
+        <v>44770</v>
+      </c>
       <c r="G112" s="58">
-        <f t="shared" si="28"/>
-        <v>-44753</v>
+        <f t="shared" si="29"/>
+        <v>13</v>
       </c>
       <c r="H112" s="59"/>
       <c r="I112" s="59"/>
       <c r="J112" s="60">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="K112" s="61">
-        <v>0.9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:11" ht="21" x14ac:dyDescent="0.25">
       <c r="A113" s="56"/>
-      <c r="B113" s="150">
-        <f t="shared" si="30"/>
+      <c r="B113" s="112">
         <v>51</v>
       </c>
       <c r="C113" s="58" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D113" s="58" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E113" s="59">
-        <v>44754</v>
-      </c>
-      <c r="F113" s="59"/>
+        <v>44757</v>
+      </c>
+      <c r="F113" s="59">
+        <v>44770</v>
+      </c>
       <c r="G113" s="58">
-        <f t="shared" si="28"/>
-        <v>-44754</v>
+        <f t="shared" si="29"/>
+        <v>13</v>
       </c>
       <c r="H113" s="59"/>
       <c r="I113" s="59"/>
       <c r="J113" s="60">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="K113" s="61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11" ht="21" x14ac:dyDescent="0.25">
+      <c r="A114" s="56"/>
+      <c r="B114" s="112">
+        <v>52</v>
+      </c>
+      <c r="C114" s="58" t="s">
+        <v>157</v>
+      </c>
+      <c r="D114" s="113"/>
+      <c r="E114" s="59"/>
+      <c r="F114" s="59"/>
+      <c r="G114" s="58">
         <f t="shared" si="29"/>
         <v>0</v>
-      </c>
-      <c r="K113" s="61">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="114" spans="1:11" ht="21" x14ac:dyDescent="0.25">
-      <c r="A114" s="56"/>
-      <c r="B114" s="150">
-        <f t="shared" si="30"/>
-        <v>52</v>
-      </c>
-      <c r="C114" s="58" t="s">
-        <v>158</v>
-      </c>
-      <c r="D114" s="151" t="s">
-        <v>129</v>
-      </c>
-      <c r="E114" s="59">
-        <v>44752</v>
-      </c>
-      <c r="F114" s="59"/>
-      <c r="G114" s="58">
-        <f t="shared" si="28"/>
-        <v>-44752</v>
       </c>
       <c r="H114" s="59"/>
       <c r="I114" s="59"/>
       <c r="J114" s="60">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="K114" s="61">
-        <v>0.9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:11" ht="21" x14ac:dyDescent="0.25">
@@ -15251,7 +15541,7 @@
       <c r="F118" s="1"/>
       <c r="G118">
         <f>SUM(G6:G117)</f>
-        <v>-2326887</v>
+        <v>785</v>
       </c>
       <c r="H118" s="1"/>
       <c r="I118" s="1"/>
@@ -15263,7 +15553,7 @@
       </c>
       <c r="G119" s="2">
         <f>G118/30</f>
-        <v>-77562.899999999994</v>
+        <v>26.166666666666668</v>
       </c>
       <c r="H119" s="1"/>
       <c r="I119" s="1"/>
@@ -15361,51 +15651,51 @@
   <sheetData>
     <row r="1" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:17" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="120" t="s">
+      <c r="A2" s="122" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="121"/>
-      <c r="C2" s="124" t="str">
+      <c r="B2" s="123"/>
+      <c r="C2" s="126" t="str">
         <f>Cover!E40</f>
         <v xml:space="preserve">Level Up </v>
       </c>
-      <c r="D2" s="125"/>
-      <c r="E2" s="125"/>
-      <c r="F2" s="125"/>
-      <c r="G2" s="125"/>
-      <c r="H2" s="125"/>
-      <c r="I2" s="125"/>
-      <c r="J2" s="125"/>
-      <c r="K2" s="125"/>
-      <c r="L2" s="125"/>
-      <c r="M2" s="125"/>
-      <c r="N2" s="125"/>
+      <c r="D2" s="127"/>
+      <c r="E2" s="127"/>
+      <c r="F2" s="127"/>
+      <c r="G2" s="127"/>
+      <c r="H2" s="127"/>
+      <c r="I2" s="127"/>
+      <c r="J2" s="127"/>
+      <c r="K2" s="127"/>
+      <c r="L2" s="127"/>
+      <c r="M2" s="127"/>
+      <c r="N2" s="127"/>
       <c r="O2" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="P2" s="128"/>
-      <c r="Q2" s="129"/>
+      <c r="P2" s="130"/>
+      <c r="Q2" s="131"/>
     </row>
     <row r="3" spans="1:17" ht="34" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="122"/>
-      <c r="B3" s="123"/>
-      <c r="C3" s="126"/>
-      <c r="D3" s="127"/>
-      <c r="E3" s="127"/>
-      <c r="F3" s="127"/>
-      <c r="G3" s="127"/>
-      <c r="H3" s="127"/>
-      <c r="I3" s="127"/>
-      <c r="J3" s="127"/>
-      <c r="K3" s="127"/>
-      <c r="L3" s="127"/>
-      <c r="M3" s="127"/>
-      <c r="N3" s="127"/>
+      <c r="A3" s="124"/>
+      <c r="B3" s="125"/>
+      <c r="C3" s="128"/>
+      <c r="D3" s="129"/>
+      <c r="E3" s="129"/>
+      <c r="F3" s="129"/>
+      <c r="G3" s="129"/>
+      <c r="H3" s="129"/>
+      <c r="I3" s="129"/>
+      <c r="J3" s="129"/>
+      <c r="K3" s="129"/>
+      <c r="L3" s="129"/>
+      <c r="M3" s="129"/>
+      <c r="N3" s="129"/>
       <c r="O3" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="P3" s="130"/>
-      <c r="Q3" s="131"/>
+      <c r="P3" s="132"/>
+      <c r="Q3" s="133"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" s="12"/>
@@ -15415,89 +15705,89 @@
       <c r="A5" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="138"/>
-      <c r="E5" s="139"/>
-      <c r="F5" s="139"/>
-      <c r="G5" s="139"/>
-      <c r="H5" s="139"/>
-      <c r="I5" s="139"/>
-      <c r="J5" s="139"/>
-      <c r="K5" s="139"/>
-      <c r="L5" s="139"/>
-      <c r="M5" s="139"/>
-      <c r="N5" s="139"/>
-      <c r="O5" s="139"/>
-      <c r="P5" s="140"/>
+      <c r="D5" s="140"/>
+      <c r="E5" s="141"/>
+      <c r="F5" s="141"/>
+      <c r="G5" s="141"/>
+      <c r="H5" s="141"/>
+      <c r="I5" s="141"/>
+      <c r="J5" s="141"/>
+      <c r="K5" s="141"/>
+      <c r="L5" s="141"/>
+      <c r="M5" s="141"/>
+      <c r="N5" s="141"/>
+      <c r="O5" s="141"/>
+      <c r="P5" s="142"/>
       <c r="Q5" s="13"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="D6" s="141"/>
-      <c r="E6" s="142"/>
-      <c r="F6" s="142"/>
-      <c r="G6" s="142"/>
-      <c r="H6" s="142"/>
-      <c r="I6" s="142"/>
-      <c r="J6" s="142"/>
-      <c r="K6" s="142"/>
-      <c r="L6" s="142"/>
-      <c r="M6" s="142"/>
-      <c r="N6" s="142"/>
-      <c r="O6" s="142"/>
-      <c r="P6" s="143"/>
+      <c r="D6" s="143"/>
+      <c r="E6" s="144"/>
+      <c r="F6" s="144"/>
+      <c r="G6" s="144"/>
+      <c r="H6" s="144"/>
+      <c r="I6" s="144"/>
+      <c r="J6" s="144"/>
+      <c r="K6" s="144"/>
+      <c r="L6" s="144"/>
+      <c r="M6" s="144"/>
+      <c r="N6" s="144"/>
+      <c r="O6" s="144"/>
+      <c r="P6" s="145"/>
       <c r="Q6" s="13"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" s="12"/>
-      <c r="D7" s="141"/>
-      <c r="E7" s="142"/>
-      <c r="F7" s="142"/>
-      <c r="G7" s="142"/>
-      <c r="H7" s="142"/>
-      <c r="I7" s="142"/>
-      <c r="J7" s="142"/>
-      <c r="K7" s="142"/>
-      <c r="L7" s="142"/>
-      <c r="M7" s="142"/>
-      <c r="N7" s="142"/>
-      <c r="O7" s="142"/>
-      <c r="P7" s="143"/>
+      <c r="D7" s="143"/>
+      <c r="E7" s="144"/>
+      <c r="F7" s="144"/>
+      <c r="G7" s="144"/>
+      <c r="H7" s="144"/>
+      <c r="I7" s="144"/>
+      <c r="J7" s="144"/>
+      <c r="K7" s="144"/>
+      <c r="L7" s="144"/>
+      <c r="M7" s="144"/>
+      <c r="N7" s="144"/>
+      <c r="O7" s="144"/>
+      <c r="P7" s="145"/>
       <c r="Q7" s="13"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" s="12"/>
-      <c r="D8" s="141"/>
-      <c r="E8" s="142"/>
-      <c r="F8" s="142"/>
-      <c r="G8" s="142"/>
-      <c r="H8" s="142"/>
-      <c r="I8" s="142"/>
-      <c r="J8" s="142"/>
-      <c r="K8" s="142"/>
-      <c r="L8" s="142"/>
-      <c r="M8" s="142"/>
-      <c r="N8" s="142"/>
-      <c r="O8" s="142"/>
-      <c r="P8" s="143"/>
+      <c r="D8" s="143"/>
+      <c r="E8" s="144"/>
+      <c r="F8" s="144"/>
+      <c r="G8" s="144"/>
+      <c r="H8" s="144"/>
+      <c r="I8" s="144"/>
+      <c r="J8" s="144"/>
+      <c r="K8" s="144"/>
+      <c r="L8" s="144"/>
+      <c r="M8" s="144"/>
+      <c r="N8" s="144"/>
+      <c r="O8" s="144"/>
+      <c r="P8" s="145"/>
       <c r="Q8" s="13"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9" s="12"/>
-      <c r="D9" s="144"/>
-      <c r="E9" s="145"/>
-      <c r="F9" s="145"/>
-      <c r="G9" s="145"/>
-      <c r="H9" s="145"/>
-      <c r="I9" s="145"/>
-      <c r="J9" s="145"/>
-      <c r="K9" s="145"/>
-      <c r="L9" s="145"/>
-      <c r="M9" s="145"/>
-      <c r="N9" s="145"/>
-      <c r="O9" s="145"/>
-      <c r="P9" s="146"/>
+      <c r="D9" s="146"/>
+      <c r="E9" s="147"/>
+      <c r="F9" s="147"/>
+      <c r="G9" s="147"/>
+      <c r="H9" s="147"/>
+      <c r="I9" s="147"/>
+      <c r="J9" s="147"/>
+      <c r="K9" s="147"/>
+      <c r="L9" s="147"/>
+      <c r="M9" s="147"/>
+      <c r="N9" s="147"/>
+      <c r="O9" s="147"/>
+      <c r="P9" s="148"/>
       <c r="Q9" s="13"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.2">
@@ -15505,44 +15795,44 @@
       <c r="Q10" s="13"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A11" s="132" t="s">
+      <c r="A11" s="134" t="s">
         <v>26</v>
       </c>
-      <c r="B11" s="133"/>
-      <c r="C11" s="133"/>
-      <c r="D11" s="133"/>
-      <c r="E11" s="133"/>
-      <c r="F11" s="133"/>
-      <c r="G11" s="133"/>
-      <c r="H11" s="133"/>
-      <c r="I11" s="133"/>
-      <c r="J11" s="133"/>
-      <c r="K11" s="133"/>
-      <c r="L11" s="133"/>
-      <c r="M11" s="133"/>
-      <c r="N11" s="133"/>
-      <c r="O11" s="133"/>
-      <c r="P11" s="133"/>
-      <c r="Q11" s="134"/>
+      <c r="B11" s="135"/>
+      <c r="C11" s="135"/>
+      <c r="D11" s="135"/>
+      <c r="E11" s="135"/>
+      <c r="F11" s="135"/>
+      <c r="G11" s="135"/>
+      <c r="H11" s="135"/>
+      <c r="I11" s="135"/>
+      <c r="J11" s="135"/>
+      <c r="K11" s="135"/>
+      <c r="L11" s="135"/>
+      <c r="M11" s="135"/>
+      <c r="N11" s="135"/>
+      <c r="O11" s="135"/>
+      <c r="P11" s="135"/>
+      <c r="Q11" s="136"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A12" s="135"/>
-      <c r="B12" s="136"/>
-      <c r="C12" s="136"/>
-      <c r="D12" s="136"/>
-      <c r="E12" s="136"/>
-      <c r="F12" s="136"/>
-      <c r="G12" s="136"/>
-      <c r="H12" s="136"/>
-      <c r="I12" s="136"/>
-      <c r="J12" s="136"/>
-      <c r="K12" s="136"/>
-      <c r="L12" s="136"/>
-      <c r="M12" s="136"/>
-      <c r="N12" s="136"/>
-      <c r="O12" s="136"/>
-      <c r="P12" s="136"/>
-      <c r="Q12" s="137"/>
+      <c r="A12" s="137"/>
+      <c r="B12" s="138"/>
+      <c r="C12" s="138"/>
+      <c r="D12" s="138"/>
+      <c r="E12" s="138"/>
+      <c r="F12" s="138"/>
+      <c r="G12" s="138"/>
+      <c r="H12" s="138"/>
+      <c r="I12" s="138"/>
+      <c r="J12" s="138"/>
+      <c r="K12" s="138"/>
+      <c r="L12" s="138"/>
+      <c r="M12" s="138"/>
+      <c r="N12" s="138"/>
+      <c r="O12" s="138"/>
+      <c r="P12" s="138"/>
+      <c r="Q12" s="139"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13" s="27"/>
@@ -15915,7 +16205,7 @@
     </row>
     <row r="85" spans="19:19" x14ac:dyDescent="0.2">
       <c r="S85" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
   </sheetData>
@@ -15947,51 +16237,51 @@
   <sheetData>
     <row r="1" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:17" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="120" t="s">
+      <c r="A2" s="122" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="121"/>
-      <c r="C2" s="124" t="str">
+      <c r="B2" s="123"/>
+      <c r="C2" s="126" t="str">
         <f>Cover!E40</f>
         <v xml:space="preserve">Level Up </v>
       </c>
-      <c r="D2" s="125"/>
-      <c r="E2" s="125"/>
-      <c r="F2" s="125"/>
-      <c r="G2" s="125"/>
-      <c r="H2" s="125"/>
-      <c r="I2" s="125"/>
-      <c r="J2" s="125"/>
-      <c r="K2" s="125"/>
-      <c r="L2" s="125"/>
-      <c r="M2" s="125"/>
-      <c r="N2" s="125"/>
+      <c r="D2" s="127"/>
+      <c r="E2" s="127"/>
+      <c r="F2" s="127"/>
+      <c r="G2" s="127"/>
+      <c r="H2" s="127"/>
+      <c r="I2" s="127"/>
+      <c r="J2" s="127"/>
+      <c r="K2" s="127"/>
+      <c r="L2" s="127"/>
+      <c r="M2" s="127"/>
+      <c r="N2" s="127"/>
       <c r="O2" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="P2" s="128"/>
-      <c r="Q2" s="129"/>
+      <c r="P2" s="130"/>
+      <c r="Q2" s="131"/>
     </row>
     <row r="3" spans="1:17" ht="34" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="122"/>
-      <c r="B3" s="123"/>
-      <c r="C3" s="126"/>
-      <c r="D3" s="127"/>
-      <c r="E3" s="127"/>
-      <c r="F3" s="127"/>
-      <c r="G3" s="127"/>
-      <c r="H3" s="127"/>
-      <c r="I3" s="127"/>
-      <c r="J3" s="127"/>
-      <c r="K3" s="127"/>
-      <c r="L3" s="127"/>
-      <c r="M3" s="127"/>
-      <c r="N3" s="127"/>
+      <c r="A3" s="124"/>
+      <c r="B3" s="125"/>
+      <c r="C3" s="128"/>
+      <c r="D3" s="129"/>
+      <c r="E3" s="129"/>
+      <c r="F3" s="129"/>
+      <c r="G3" s="129"/>
+      <c r="H3" s="129"/>
+      <c r="I3" s="129"/>
+      <c r="J3" s="129"/>
+      <c r="K3" s="129"/>
+      <c r="L3" s="129"/>
+      <c r="M3" s="129"/>
+      <c r="N3" s="129"/>
       <c r="O3" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="P3" s="130"/>
-      <c r="Q3" s="131"/>
+      <c r="P3" s="132"/>
+      <c r="Q3" s="133"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" s="12"/>
@@ -16301,6 +16591,1481 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3159EE78-5C87-5049-AB83-4F3A4AEA608E}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:S62"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="120" zoomScaleNormal="100" zoomScaleSheetLayoutView="120" workbookViewId="0">
+      <selection sqref="A1:B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="15" max="15" width="14.83203125" customWidth="1"/>
+    <col min="16" max="16" width="13.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="152" t="s">
+        <v>166</v>
+      </c>
+      <c r="B1" s="153"/>
+      <c r="C1" s="126" t="str">
+        <f>[1]Cover!A31</f>
+        <v>Food_Lab</v>
+      </c>
+      <c r="D1" s="127"/>
+      <c r="E1" s="127"/>
+      <c r="F1" s="127"/>
+      <c r="G1" s="127"/>
+      <c r="H1" s="127"/>
+      <c r="I1" s="127"/>
+      <c r="J1" s="127"/>
+      <c r="K1" s="127"/>
+      <c r="L1" s="127"/>
+      <c r="M1" s="127"/>
+      <c r="N1" s="127"/>
+      <c r="O1" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="P1" s="130">
+        <v>44555</v>
+      </c>
+      <c r="Q1" s="131"/>
+    </row>
+    <row r="2" spans="1:19" ht="34" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="154"/>
+      <c r="B2" s="155"/>
+      <c r="C2" s="128"/>
+      <c r="D2" s="129"/>
+      <c r="E2" s="129"/>
+      <c r="F2" s="129"/>
+      <c r="G2" s="129"/>
+      <c r="H2" s="129"/>
+      <c r="I2" s="129"/>
+      <c r="J2" s="129"/>
+      <c r="K2" s="129"/>
+      <c r="L2" s="129"/>
+      <c r="M2" s="129"/>
+      <c r="N2" s="129"/>
+      <c r="O2" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="P2" s="132">
+        <f ca="1">NOW()</f>
+        <v>44759.799771412036</v>
+      </c>
+      <c r="Q2" s="133"/>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A3" s="12"/>
+      <c r="Q3" s="13"/>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A4" s="12"/>
+      <c r="Q4" s="13"/>
+    </row>
+    <row r="5" spans="1:19" s="3" customFormat="1" ht="24" x14ac:dyDescent="0.3">
+      <c r="A5" s="50"/>
+      <c r="B5" s="156" t="s">
+        <v>167</v>
+      </c>
+      <c r="C5" s="29"/>
+      <c r="M5" s="29"/>
+      <c r="Q5" s="31"/>
+    </row>
+    <row r="6" spans="1:19" ht="24" x14ac:dyDescent="0.3">
+      <c r="A6" s="157"/>
+      <c r="B6" s="69"/>
+      <c r="C6" s="69">
+        <v>1</v>
+      </c>
+      <c r="D6" s="158" t="s">
+        <v>168</v>
+      </c>
+      <c r="E6" s="158"/>
+      <c r="F6" s="158"/>
+      <c r="G6" s="158"/>
+      <c r="H6" s="158"/>
+      <c r="I6" s="158"/>
+      <c r="J6" s="158"/>
+      <c r="K6" s="69"/>
+      <c r="L6" s="69"/>
+      <c r="M6" s="69"/>
+      <c r="N6" s="69"/>
+      <c r="O6" s="69"/>
+      <c r="P6" s="69"/>
+      <c r="Q6" s="159"/>
+      <c r="R6" s="69"/>
+      <c r="S6" s="69"/>
+    </row>
+    <row r="7" spans="1:19" ht="24" x14ac:dyDescent="0.3">
+      <c r="A7" s="157"/>
+      <c r="B7" s="69"/>
+      <c r="C7" s="69">
+        <v>2</v>
+      </c>
+      <c r="D7" s="158" t="s">
+        <v>169</v>
+      </c>
+      <c r="E7" s="158"/>
+      <c r="F7" s="158"/>
+      <c r="G7" s="158"/>
+      <c r="H7" s="158"/>
+      <c r="I7" s="158"/>
+      <c r="J7" s="158"/>
+      <c r="K7" s="69"/>
+      <c r="L7" s="69"/>
+      <c r="M7" s="69"/>
+      <c r="N7" s="69"/>
+      <c r="O7" s="69"/>
+      <c r="P7" s="69"/>
+      <c r="Q7" s="159"/>
+      <c r="R7" s="69"/>
+      <c r="S7" s="69"/>
+    </row>
+    <row r="8" spans="1:19" ht="24" x14ac:dyDescent="0.3">
+      <c r="A8" s="157"/>
+      <c r="B8" s="69"/>
+      <c r="C8" s="69">
+        <v>3</v>
+      </c>
+      <c r="D8" s="158" t="s">
+        <v>170</v>
+      </c>
+      <c r="E8" s="158"/>
+      <c r="F8" s="158"/>
+      <c r="G8" s="158"/>
+      <c r="H8" s="158"/>
+      <c r="I8" s="158"/>
+      <c r="J8" s="158"/>
+      <c r="K8" s="69"/>
+      <c r="L8" s="69"/>
+      <c r="M8" s="69"/>
+      <c r="N8" s="69"/>
+      <c r="O8" s="69"/>
+      <c r="P8" s="69"/>
+      <c r="Q8" s="159"/>
+      <c r="R8" s="69"/>
+      <c r="S8" s="69"/>
+    </row>
+    <row r="9" spans="1:19" ht="24" x14ac:dyDescent="0.3">
+      <c r="A9" s="157"/>
+      <c r="B9" s="69"/>
+      <c r="C9" s="69">
+        <v>4</v>
+      </c>
+      <c r="D9" s="158" t="s">
+        <v>171</v>
+      </c>
+      <c r="E9" s="158"/>
+      <c r="F9" s="158"/>
+      <c r="G9" s="158"/>
+      <c r="H9" s="158"/>
+      <c r="I9" s="158"/>
+      <c r="J9" s="158"/>
+      <c r="K9" s="69"/>
+      <c r="L9" s="69"/>
+      <c r="M9" s="69"/>
+      <c r="N9" s="69"/>
+      <c r="O9" s="69"/>
+      <c r="P9" s="69"/>
+      <c r="Q9" s="159"/>
+      <c r="R9" s="69"/>
+      <c r="S9" s="69"/>
+    </row>
+    <row r="10" spans="1:19" ht="24" x14ac:dyDescent="0.3">
+      <c r="A10" s="157"/>
+      <c r="B10" s="69"/>
+      <c r="C10" s="69">
+        <v>5</v>
+      </c>
+      <c r="D10" s="158" t="s">
+        <v>172</v>
+      </c>
+      <c r="E10" s="158"/>
+      <c r="F10" s="158"/>
+      <c r="G10" s="158"/>
+      <c r="H10" s="158"/>
+      <c r="I10" s="158"/>
+      <c r="J10" s="158"/>
+      <c r="K10" s="69"/>
+      <c r="L10" s="69"/>
+      <c r="M10" s="69"/>
+      <c r="N10" s="69"/>
+      <c r="O10" s="69"/>
+      <c r="P10" s="69"/>
+      <c r="Q10" s="159"/>
+      <c r="R10" s="69"/>
+      <c r="S10" s="69"/>
+    </row>
+    <row r="11" spans="1:19" ht="24" x14ac:dyDescent="0.3">
+      <c r="A11" s="157"/>
+      <c r="B11" s="69"/>
+      <c r="C11" s="69">
+        <v>6</v>
+      </c>
+      <c r="D11" s="158" t="s">
+        <v>173</v>
+      </c>
+      <c r="E11" s="158"/>
+      <c r="F11" s="158"/>
+      <c r="G11" s="158"/>
+      <c r="H11" s="158"/>
+      <c r="I11" s="158"/>
+      <c r="J11" s="158"/>
+      <c r="K11" s="69"/>
+      <c r="L11" s="69"/>
+      <c r="M11" s="69"/>
+      <c r="N11" s="69"/>
+      <c r="O11" s="69"/>
+      <c r="P11" s="69"/>
+      <c r="Q11" s="159"/>
+      <c r="R11" s="69"/>
+      <c r="S11" s="69"/>
+    </row>
+    <row r="12" spans="1:19" ht="24" x14ac:dyDescent="0.3">
+      <c r="A12" s="157"/>
+      <c r="B12" s="69"/>
+      <c r="C12" s="69"/>
+      <c r="D12" s="160" t="s">
+        <v>174</v>
+      </c>
+      <c r="E12" s="160"/>
+      <c r="F12" s="160"/>
+      <c r="G12" s="160"/>
+      <c r="H12" s="160"/>
+      <c r="I12" s="69"/>
+      <c r="J12" s="69"/>
+      <c r="K12" s="69"/>
+      <c r="L12" s="69"/>
+      <c r="M12" s="69"/>
+      <c r="N12" s="69"/>
+      <c r="O12" s="69"/>
+      <c r="P12" s="69"/>
+      <c r="Q12" s="159"/>
+      <c r="R12" s="69"/>
+      <c r="S12" s="69"/>
+    </row>
+    <row r="13" spans="1:19" ht="24" x14ac:dyDescent="0.3">
+      <c r="A13" s="157"/>
+      <c r="B13" s="69"/>
+      <c r="C13" s="69"/>
+      <c r="D13" s="160" t="s">
+        <v>175</v>
+      </c>
+      <c r="E13" s="160"/>
+      <c r="F13" s="160"/>
+      <c r="G13" s="160"/>
+      <c r="H13" s="160"/>
+      <c r="I13" s="69"/>
+      <c r="J13" s="69"/>
+      <c r="K13" s="69"/>
+      <c r="L13" s="69"/>
+      <c r="M13" s="69"/>
+      <c r="N13" s="69"/>
+      <c r="O13" s="69"/>
+      <c r="P13" s="69"/>
+      <c r="Q13" s="159"/>
+      <c r="R13" s="69"/>
+      <c r="S13" s="69"/>
+    </row>
+    <row r="14" spans="1:19" ht="24" x14ac:dyDescent="0.3">
+      <c r="A14" s="157"/>
+      <c r="B14" s="69"/>
+      <c r="C14" s="69"/>
+      <c r="D14" s="160" t="s">
+        <v>176</v>
+      </c>
+      <c r="E14" s="160"/>
+      <c r="F14" s="160"/>
+      <c r="G14" s="160"/>
+      <c r="H14" s="160"/>
+      <c r="I14" s="69"/>
+      <c r="J14" s="69"/>
+      <c r="K14" s="69"/>
+      <c r="L14" s="69"/>
+      <c r="M14" s="69"/>
+      <c r="N14" s="69"/>
+      <c r="O14" s="69"/>
+      <c r="P14" s="69"/>
+      <c r="Q14" s="159"/>
+      <c r="R14" s="69"/>
+      <c r="S14" s="69"/>
+    </row>
+    <row r="15" spans="1:19" ht="24" x14ac:dyDescent="0.3">
+      <c r="A15" s="157"/>
+      <c r="B15" s="69"/>
+      <c r="C15" s="69"/>
+      <c r="D15" s="160" t="s">
+        <v>177</v>
+      </c>
+      <c r="E15" s="160"/>
+      <c r="F15" s="160"/>
+      <c r="G15" s="160"/>
+      <c r="H15" s="160"/>
+      <c r="I15" s="69"/>
+      <c r="J15" s="69"/>
+      <c r="K15" s="69"/>
+      <c r="L15" s="69"/>
+      <c r="M15" s="69"/>
+      <c r="N15" s="69"/>
+      <c r="O15" s="69"/>
+      <c r="P15" s="69"/>
+      <c r="Q15" s="159"/>
+      <c r="R15" s="69"/>
+      <c r="S15" s="69"/>
+    </row>
+    <row r="16" spans="1:19" ht="24" x14ac:dyDescent="0.3">
+      <c r="A16" s="157"/>
+      <c r="B16" s="69"/>
+      <c r="C16" s="69"/>
+      <c r="D16" s="160" t="s">
+        <v>178</v>
+      </c>
+      <c r="E16" s="160"/>
+      <c r="F16" s="160"/>
+      <c r="G16" s="160"/>
+      <c r="H16" s="160"/>
+      <c r="I16" s="69"/>
+      <c r="J16" s="69"/>
+      <c r="K16" s="69"/>
+      <c r="L16" s="69"/>
+      <c r="M16" s="69"/>
+      <c r="N16" s="69"/>
+      <c r="O16" s="69"/>
+      <c r="P16" s="69"/>
+      <c r="Q16" s="159"/>
+      <c r="R16" s="69"/>
+      <c r="S16" s="69"/>
+    </row>
+    <row r="17" spans="1:19" ht="24" x14ac:dyDescent="0.3">
+      <c r="A17" s="157"/>
+      <c r="B17" s="69"/>
+      <c r="C17" s="69"/>
+      <c r="D17" s="160" t="s">
+        <v>179</v>
+      </c>
+      <c r="E17" s="160"/>
+      <c r="F17" s="160"/>
+      <c r="G17" s="160"/>
+      <c r="H17" s="160"/>
+      <c r="I17" s="69"/>
+      <c r="J17" s="69"/>
+      <c r="K17" s="69"/>
+      <c r="L17" s="69"/>
+      <c r="M17" s="69"/>
+      <c r="N17" s="69"/>
+      <c r="O17" s="69"/>
+      <c r="P17" s="69"/>
+      <c r="Q17" s="159"/>
+      <c r="R17" s="69"/>
+      <c r="S17" s="69"/>
+    </row>
+    <row r="18" spans="1:19" ht="24" x14ac:dyDescent="0.3">
+      <c r="A18" s="157"/>
+      <c r="B18" s="69"/>
+      <c r="C18" s="69"/>
+      <c r="D18" s="160" t="s">
+        <v>180</v>
+      </c>
+      <c r="E18" s="160"/>
+      <c r="F18" s="160"/>
+      <c r="G18" s="160"/>
+      <c r="H18" s="160"/>
+      <c r="I18" s="69"/>
+      <c r="J18" s="69"/>
+      <c r="K18" s="69"/>
+      <c r="L18" s="69"/>
+      <c r="M18" s="69"/>
+      <c r="N18" s="69"/>
+      <c r="O18" s="69"/>
+      <c r="P18" s="69"/>
+      <c r="Q18" s="159"/>
+      <c r="R18" s="69"/>
+      <c r="S18" s="69"/>
+    </row>
+    <row r="19" spans="1:19" ht="24" x14ac:dyDescent="0.3">
+      <c r="A19" s="157"/>
+      <c r="B19" s="69"/>
+      <c r="C19" s="69">
+        <v>7</v>
+      </c>
+      <c r="D19" s="158" t="s">
+        <v>181</v>
+      </c>
+      <c r="E19" s="160"/>
+      <c r="F19" s="160"/>
+      <c r="G19" s="160"/>
+      <c r="H19" s="160"/>
+      <c r="I19" s="69"/>
+      <c r="J19" s="69"/>
+      <c r="K19" s="69"/>
+      <c r="L19" s="69"/>
+      <c r="M19" s="69"/>
+      <c r="N19" s="69"/>
+      <c r="O19" s="69"/>
+      <c r="P19" s="69"/>
+      <c r="Q19" s="159"/>
+      <c r="R19" s="69"/>
+      <c r="S19" s="69"/>
+    </row>
+    <row r="20" spans="1:19" ht="24" x14ac:dyDescent="0.3">
+      <c r="A20" s="157"/>
+      <c r="B20" s="69"/>
+      <c r="C20" s="69">
+        <v>8</v>
+      </c>
+      <c r="D20" s="158" t="s">
+        <v>182</v>
+      </c>
+      <c r="E20" s="160"/>
+      <c r="F20" s="160"/>
+      <c r="G20" s="160"/>
+      <c r="H20" s="160"/>
+      <c r="I20" s="69"/>
+      <c r="J20" s="69"/>
+      <c r="K20" s="69"/>
+      <c r="L20" s="69"/>
+      <c r="M20" s="69"/>
+      <c r="N20" s="69"/>
+      <c r="O20" s="69"/>
+      <c r="P20" s="69"/>
+      <c r="Q20" s="159"/>
+      <c r="R20" s="69"/>
+      <c r="S20" s="69"/>
+    </row>
+    <row r="21" spans="1:19" ht="24" x14ac:dyDescent="0.3">
+      <c r="A21" s="157"/>
+      <c r="B21" s="69"/>
+      <c r="C21" s="69">
+        <v>9</v>
+      </c>
+      <c r="D21" s="158" t="s">
+        <v>183</v>
+      </c>
+      <c r="E21" s="160"/>
+      <c r="F21" s="160"/>
+      <c r="G21" s="160"/>
+      <c r="H21" s="160"/>
+      <c r="I21" s="69"/>
+      <c r="J21" s="69"/>
+      <c r="K21" s="69"/>
+      <c r="L21" s="69"/>
+      <c r="M21" s="69"/>
+      <c r="N21" s="69"/>
+      <c r="O21" s="69"/>
+      <c r="P21" s="69"/>
+      <c r="Q21" s="159"/>
+      <c r="R21" s="69"/>
+      <c r="S21" s="69"/>
+    </row>
+    <row r="22" spans="1:19" ht="24" x14ac:dyDescent="0.3">
+      <c r="A22" s="157"/>
+      <c r="C22" s="69"/>
+      <c r="D22" s="69"/>
+      <c r="E22" s="69"/>
+      <c r="F22" s="69"/>
+      <c r="G22" s="69"/>
+      <c r="H22" s="69"/>
+      <c r="I22" s="69"/>
+      <c r="J22" s="69"/>
+      <c r="K22" s="69"/>
+      <c r="L22" s="69"/>
+      <c r="M22" s="69"/>
+      <c r="N22" s="69"/>
+      <c r="O22" s="69"/>
+      <c r="P22" s="69"/>
+      <c r="Q22" s="159"/>
+      <c r="R22" s="69"/>
+      <c r="S22" s="69"/>
+    </row>
+    <row r="23" spans="1:19" ht="24" x14ac:dyDescent="0.3">
+      <c r="A23" s="157"/>
+      <c r="B23" s="156" t="s">
+        <v>184</v>
+      </c>
+      <c r="C23" s="69"/>
+      <c r="D23" s="69"/>
+      <c r="E23" s="69"/>
+      <c r="F23" s="69"/>
+      <c r="G23" s="69"/>
+      <c r="H23" s="69"/>
+      <c r="I23" s="69"/>
+      <c r="J23" s="69"/>
+      <c r="K23" s="69"/>
+      <c r="L23" s="69"/>
+      <c r="M23" s="69"/>
+      <c r="N23" s="69"/>
+      <c r="O23" s="69"/>
+      <c r="P23" s="69"/>
+      <c r="Q23" s="159"/>
+      <c r="R23" s="69"/>
+      <c r="S23" s="69"/>
+    </row>
+    <row r="24" spans="1:19" ht="24" x14ac:dyDescent="0.3">
+      <c r="A24" s="157"/>
+      <c r="B24" s="69"/>
+      <c r="C24" s="69">
+        <v>1</v>
+      </c>
+      <c r="D24" s="158" t="s">
+        <v>185</v>
+      </c>
+      <c r="E24" s="158"/>
+      <c r="F24" s="158"/>
+      <c r="G24" s="158"/>
+      <c r="H24" s="69"/>
+      <c r="I24" s="69"/>
+      <c r="J24" s="69"/>
+      <c r="K24" s="69"/>
+      <c r="L24" s="69"/>
+      <c r="M24" s="69"/>
+      <c r="N24" s="69"/>
+      <c r="O24" s="69"/>
+      <c r="P24" s="69"/>
+      <c r="Q24" s="159"/>
+      <c r="R24" s="69"/>
+      <c r="S24" s="69"/>
+    </row>
+    <row r="25" spans="1:19" ht="24" x14ac:dyDescent="0.3">
+      <c r="A25" s="157"/>
+      <c r="B25" s="69"/>
+      <c r="C25" s="69">
+        <v>2</v>
+      </c>
+      <c r="D25" s="158" t="s">
+        <v>186</v>
+      </c>
+      <c r="E25" s="158"/>
+      <c r="F25" s="158"/>
+      <c r="G25" s="158"/>
+      <c r="H25" s="69"/>
+      <c r="I25" s="69"/>
+      <c r="J25" s="69"/>
+      <c r="K25" s="69"/>
+      <c r="L25" s="69"/>
+      <c r="M25" s="69"/>
+      <c r="N25" s="69"/>
+      <c r="O25" s="69"/>
+      <c r="P25" s="69"/>
+      <c r="Q25" s="159"/>
+      <c r="R25" s="69"/>
+      <c r="S25" s="69"/>
+    </row>
+    <row r="26" spans="1:19" ht="24" x14ac:dyDescent="0.3">
+      <c r="A26" s="157"/>
+      <c r="B26" s="69"/>
+      <c r="C26" s="69">
+        <v>3</v>
+      </c>
+      <c r="D26" s="158" t="s">
+        <v>187</v>
+      </c>
+      <c r="E26" s="158"/>
+      <c r="F26" s="158"/>
+      <c r="G26" s="158"/>
+      <c r="H26" s="69"/>
+      <c r="I26" s="69"/>
+      <c r="J26" s="69"/>
+      <c r="K26" s="69"/>
+      <c r="L26" s="69"/>
+      <c r="M26" s="69"/>
+      <c r="N26" s="69"/>
+      <c r="O26" s="69"/>
+      <c r="P26" s="69"/>
+      <c r="Q26" s="159"/>
+      <c r="R26" s="69"/>
+      <c r="S26" s="69"/>
+    </row>
+    <row r="27" spans="1:19" ht="24" x14ac:dyDescent="0.3">
+      <c r="A27" s="157"/>
+      <c r="B27" s="69"/>
+      <c r="C27" s="69">
+        <v>4</v>
+      </c>
+      <c r="D27" s="158" t="s">
+        <v>188</v>
+      </c>
+      <c r="E27" s="69"/>
+      <c r="F27" s="69"/>
+      <c r="G27" s="69"/>
+      <c r="H27" s="69"/>
+      <c r="I27" s="69"/>
+      <c r="J27" s="69"/>
+      <c r="K27" s="69"/>
+      <c r="L27" s="69"/>
+      <c r="M27" s="69"/>
+      <c r="N27" s="69"/>
+      <c r="O27" s="69"/>
+      <c r="P27" s="69"/>
+      <c r="Q27" s="159"/>
+      <c r="R27" s="69"/>
+      <c r="S27" s="69"/>
+    </row>
+    <row r="28" spans="1:19" ht="24" x14ac:dyDescent="0.3">
+      <c r="A28" s="157"/>
+      <c r="B28" s="69"/>
+      <c r="C28" s="69"/>
+      <c r="D28" s="69"/>
+      <c r="E28" s="69"/>
+      <c r="F28" s="69"/>
+      <c r="G28" s="69"/>
+      <c r="H28" s="69"/>
+      <c r="I28" s="69"/>
+      <c r="J28" s="69"/>
+      <c r="K28" s="69"/>
+      <c r="L28" s="69"/>
+      <c r="M28" s="69"/>
+      <c r="N28" s="69"/>
+      <c r="O28" s="69"/>
+      <c r="P28" s="69"/>
+      <c r="Q28" s="159"/>
+      <c r="R28" s="69"/>
+      <c r="S28" s="69"/>
+    </row>
+    <row r="29" spans="1:19" ht="24" x14ac:dyDescent="0.3">
+      <c r="A29" s="157"/>
+      <c r="B29" s="156" t="s">
+        <v>189</v>
+      </c>
+      <c r="C29" s="69"/>
+      <c r="D29" s="69"/>
+      <c r="E29" s="69"/>
+      <c r="F29" s="69"/>
+      <c r="G29" s="69"/>
+      <c r="H29" s="69"/>
+      <c r="I29" s="69"/>
+      <c r="J29" s="69"/>
+      <c r="K29" s="69"/>
+      <c r="L29" s="69"/>
+      <c r="M29" s="69"/>
+      <c r="N29" s="69"/>
+      <c r="O29" s="69"/>
+      <c r="P29" s="69"/>
+      <c r="Q29" s="159"/>
+      <c r="R29" s="69"/>
+      <c r="S29" s="69"/>
+    </row>
+    <row r="30" spans="1:19" ht="24" x14ac:dyDescent="0.3">
+      <c r="A30" s="157"/>
+      <c r="B30" s="69"/>
+      <c r="C30" s="69">
+        <v>1</v>
+      </c>
+      <c r="D30" s="158" t="s">
+        <v>190</v>
+      </c>
+      <c r="E30" s="69"/>
+      <c r="F30" s="69"/>
+      <c r="G30" s="69"/>
+      <c r="H30" s="69"/>
+      <c r="I30" s="69"/>
+      <c r="J30" s="69"/>
+      <c r="K30" s="69"/>
+      <c r="L30" s="69"/>
+      <c r="M30" s="69"/>
+      <c r="N30" s="69"/>
+      <c r="O30" s="69"/>
+      <c r="P30" s="69"/>
+      <c r="Q30" s="159"/>
+      <c r="R30" s="69"/>
+      <c r="S30" s="69"/>
+    </row>
+    <row r="31" spans="1:19" ht="24" x14ac:dyDescent="0.3">
+      <c r="A31" s="157"/>
+      <c r="B31" s="69"/>
+      <c r="C31" s="69">
+        <v>2</v>
+      </c>
+      <c r="D31" s="158" t="s">
+        <v>191</v>
+      </c>
+      <c r="E31" s="69"/>
+      <c r="F31" s="69"/>
+      <c r="G31" s="69"/>
+      <c r="H31" s="69"/>
+      <c r="I31" s="69"/>
+      <c r="J31" s="69"/>
+      <c r="K31" s="69"/>
+      <c r="L31" s="69"/>
+      <c r="M31" s="69"/>
+      <c r="N31" s="69"/>
+      <c r="O31" s="69"/>
+      <c r="P31" s="69"/>
+      <c r="Q31" s="159"/>
+      <c r="R31" s="69"/>
+      <c r="S31" s="69"/>
+    </row>
+    <row r="32" spans="1:19" ht="24" x14ac:dyDescent="0.3">
+      <c r="A32" s="157"/>
+      <c r="B32" s="69"/>
+      <c r="C32" s="69">
+        <v>3</v>
+      </c>
+      <c r="D32" s="158" t="s">
+        <v>192</v>
+      </c>
+      <c r="E32" s="69"/>
+      <c r="F32" s="69"/>
+      <c r="G32" s="69"/>
+      <c r="H32" s="69"/>
+      <c r="I32" s="69"/>
+      <c r="J32" s="69"/>
+      <c r="K32" s="69"/>
+      <c r="L32" s="69"/>
+      <c r="M32" s="69"/>
+      <c r="N32" s="69"/>
+      <c r="O32" s="69"/>
+      <c r="P32" s="69"/>
+      <c r="Q32" s="159"/>
+      <c r="R32" s="69"/>
+      <c r="S32" s="69"/>
+    </row>
+    <row r="33" spans="1:19" ht="24" x14ac:dyDescent="0.3">
+      <c r="A33" s="157"/>
+      <c r="B33" s="69"/>
+      <c r="C33" s="69">
+        <v>4</v>
+      </c>
+      <c r="D33" s="158" t="s">
+        <v>193</v>
+      </c>
+      <c r="E33" s="69"/>
+      <c r="F33" s="69"/>
+      <c r="G33" s="69"/>
+      <c r="H33" s="69"/>
+      <c r="I33" s="69"/>
+      <c r="J33" s="69"/>
+      <c r="K33" s="69"/>
+      <c r="L33" s="69"/>
+      <c r="M33" s="69"/>
+      <c r="N33" s="69"/>
+      <c r="O33" s="69"/>
+      <c r="P33" s="69"/>
+      <c r="Q33" s="159"/>
+      <c r="R33" s="69"/>
+      <c r="S33" s="69"/>
+    </row>
+    <row r="34" spans="1:19" ht="24" x14ac:dyDescent="0.3">
+      <c r="A34" s="157"/>
+      <c r="B34" s="69"/>
+      <c r="C34" s="69">
+        <v>5</v>
+      </c>
+      <c r="D34" s="158" t="s">
+        <v>194</v>
+      </c>
+      <c r="E34" s="69"/>
+      <c r="F34" s="69"/>
+      <c r="G34" s="69"/>
+      <c r="H34" s="69"/>
+      <c r="I34" s="69"/>
+      <c r="J34" s="69"/>
+      <c r="K34" s="69"/>
+      <c r="L34" s="69"/>
+      <c r="M34" s="69"/>
+      <c r="N34" s="69"/>
+      <c r="O34" s="69"/>
+      <c r="P34" s="69"/>
+      <c r="Q34" s="159"/>
+      <c r="R34" s="69"/>
+      <c r="S34" s="69"/>
+    </row>
+    <row r="35" spans="1:19" ht="24" x14ac:dyDescent="0.3">
+      <c r="A35" s="157"/>
+      <c r="B35" s="69"/>
+      <c r="C35" s="69"/>
+      <c r="D35" s="69"/>
+      <c r="E35" s="69"/>
+      <c r="F35" s="69"/>
+      <c r="G35" s="69"/>
+      <c r="H35" s="69"/>
+      <c r="I35" s="69"/>
+      <c r="J35" s="69"/>
+      <c r="K35" s="69"/>
+      <c r="L35" s="69"/>
+      <c r="M35" s="69"/>
+      <c r="N35" s="69"/>
+      <c r="O35" s="69"/>
+      <c r="P35" s="69"/>
+      <c r="Q35" s="159"/>
+      <c r="R35" s="69"/>
+      <c r="S35" s="69"/>
+    </row>
+    <row r="36" spans="1:19" ht="24" x14ac:dyDescent="0.3">
+      <c r="A36" s="157"/>
+      <c r="B36" s="156" t="s">
+        <v>195</v>
+      </c>
+      <c r="C36" s="69"/>
+      <c r="D36" s="69"/>
+      <c r="E36" s="69"/>
+      <c r="F36" s="69"/>
+      <c r="G36" s="69"/>
+      <c r="H36" s="69"/>
+      <c r="I36" s="69"/>
+      <c r="J36" s="69"/>
+      <c r="K36" s="69"/>
+      <c r="L36" s="69"/>
+      <c r="M36" s="69"/>
+      <c r="N36" s="69"/>
+      <c r="O36" s="69"/>
+      <c r="P36" s="69"/>
+      <c r="Q36" s="159"/>
+      <c r="R36" s="69"/>
+      <c r="S36" s="69"/>
+    </row>
+    <row r="37" spans="1:19" ht="24" x14ac:dyDescent="0.3">
+      <c r="A37" s="157"/>
+      <c r="B37" s="69"/>
+      <c r="C37" s="69">
+        <v>1</v>
+      </c>
+      <c r="D37" s="158" t="s">
+        <v>196</v>
+      </c>
+      <c r="E37" s="69"/>
+      <c r="F37" s="69"/>
+      <c r="G37" s="69"/>
+      <c r="H37" s="69"/>
+      <c r="I37" s="69"/>
+      <c r="J37" s="69"/>
+      <c r="K37" s="69"/>
+      <c r="L37" s="69"/>
+      <c r="M37" s="69"/>
+      <c r="N37" s="69"/>
+      <c r="O37" s="69"/>
+      <c r="P37" s="69"/>
+      <c r="Q37" s="159"/>
+      <c r="R37" s="69"/>
+      <c r="S37" s="69"/>
+    </row>
+    <row r="38" spans="1:19" ht="24" x14ac:dyDescent="0.3">
+      <c r="A38" s="157"/>
+      <c r="B38" s="69"/>
+      <c r="C38" s="69">
+        <v>2</v>
+      </c>
+      <c r="D38" s="158" t="s">
+        <v>197</v>
+      </c>
+      <c r="E38" s="69"/>
+      <c r="F38" s="69"/>
+      <c r="G38" s="69"/>
+      <c r="H38" s="69"/>
+      <c r="I38" s="69"/>
+      <c r="J38" s="69"/>
+      <c r="K38" s="69"/>
+      <c r="L38" s="69"/>
+      <c r="M38" s="69"/>
+      <c r="N38" s="69"/>
+      <c r="O38" s="69"/>
+      <c r="P38" s="69"/>
+      <c r="Q38" s="159"/>
+      <c r="R38" s="69"/>
+      <c r="S38" s="69"/>
+    </row>
+    <row r="39" spans="1:19" ht="24" x14ac:dyDescent="0.3">
+      <c r="A39" s="157"/>
+      <c r="B39" s="69"/>
+      <c r="C39" s="69">
+        <v>3</v>
+      </c>
+      <c r="D39" s="158" t="s">
+        <v>198</v>
+      </c>
+      <c r="E39" s="69"/>
+      <c r="F39" s="69"/>
+      <c r="G39" s="69"/>
+      <c r="H39" s="69"/>
+      <c r="I39" s="69"/>
+      <c r="J39" s="69"/>
+      <c r="K39" s="69"/>
+      <c r="L39" s="69"/>
+      <c r="M39" s="69"/>
+      <c r="N39" s="69"/>
+      <c r="O39" s="69"/>
+      <c r="P39" s="69"/>
+      <c r="Q39" s="159"/>
+      <c r="R39" s="69"/>
+      <c r="S39" s="69"/>
+    </row>
+    <row r="40" spans="1:19" ht="24" x14ac:dyDescent="0.3">
+      <c r="A40" s="157"/>
+      <c r="B40" s="69"/>
+      <c r="C40" s="69"/>
+      <c r="D40" s="69"/>
+      <c r="E40" s="69"/>
+      <c r="F40" s="69"/>
+      <c r="G40" s="69"/>
+      <c r="H40" s="69"/>
+      <c r="I40" s="69"/>
+      <c r="J40" s="69"/>
+      <c r="K40" s="69"/>
+      <c r="L40" s="69"/>
+      <c r="M40" s="69"/>
+      <c r="N40" s="69"/>
+      <c r="O40" s="69"/>
+      <c r="P40" s="69"/>
+      <c r="Q40" s="159"/>
+      <c r="R40" s="69"/>
+      <c r="S40" s="69"/>
+    </row>
+    <row r="41" spans="1:19" ht="24" x14ac:dyDescent="0.3">
+      <c r="A41" s="157"/>
+      <c r="B41" s="156" t="s">
+        <v>199</v>
+      </c>
+      <c r="C41" s="69"/>
+      <c r="D41" s="69"/>
+      <c r="E41" s="69"/>
+      <c r="F41" s="69"/>
+      <c r="G41" s="69"/>
+      <c r="H41" s="69"/>
+      <c r="I41" s="69"/>
+      <c r="J41" s="69"/>
+      <c r="K41" s="69"/>
+      <c r="L41" s="69"/>
+      <c r="M41" s="69"/>
+      <c r="N41" s="69"/>
+      <c r="O41" s="69"/>
+      <c r="P41" s="69"/>
+      <c r="Q41" s="159"/>
+      <c r="R41" s="69"/>
+      <c r="S41" s="69"/>
+    </row>
+    <row r="42" spans="1:19" ht="24" x14ac:dyDescent="0.3">
+      <c r="A42" s="157"/>
+      <c r="B42" s="69"/>
+      <c r="C42" s="69">
+        <v>1</v>
+      </c>
+      <c r="D42" s="158" t="s">
+        <v>200</v>
+      </c>
+      <c r="E42" s="69"/>
+      <c r="F42" s="69"/>
+      <c r="G42" s="69"/>
+      <c r="H42" s="69"/>
+      <c r="I42" s="69"/>
+      <c r="J42" s="69"/>
+      <c r="K42" s="69"/>
+      <c r="L42" s="69"/>
+      <c r="M42" s="69"/>
+      <c r="N42" s="69"/>
+      <c r="O42" s="69"/>
+      <c r="P42" s="69"/>
+      <c r="Q42" s="159"/>
+      <c r="R42" s="69"/>
+      <c r="S42" s="69"/>
+    </row>
+    <row r="43" spans="1:19" ht="24" x14ac:dyDescent="0.3">
+      <c r="A43" s="157"/>
+      <c r="B43" s="69"/>
+      <c r="C43" s="69"/>
+      <c r="D43" s="69"/>
+      <c r="E43" s="69"/>
+      <c r="F43" s="69"/>
+      <c r="G43" s="69"/>
+      <c r="H43" s="69"/>
+      <c r="I43" s="69"/>
+      <c r="J43" s="69"/>
+      <c r="K43" s="69"/>
+      <c r="L43" s="69"/>
+      <c r="M43" s="69"/>
+      <c r="N43" s="69"/>
+      <c r="O43" s="69"/>
+      <c r="P43" s="69"/>
+      <c r="Q43" s="159"/>
+      <c r="R43" s="69"/>
+      <c r="S43" s="69"/>
+    </row>
+    <row r="44" spans="1:19" ht="24" x14ac:dyDescent="0.3">
+      <c r="A44" s="157"/>
+      <c r="B44" s="156" t="s">
+        <v>201</v>
+      </c>
+      <c r="C44" s="69"/>
+      <c r="D44" s="69"/>
+      <c r="E44" s="69"/>
+      <c r="F44" s="69"/>
+      <c r="G44" s="69"/>
+      <c r="H44" s="69"/>
+      <c r="I44" s="69"/>
+      <c r="J44" s="69"/>
+      <c r="K44" s="69"/>
+      <c r="L44" s="69"/>
+      <c r="M44" s="69"/>
+      <c r="N44" s="69"/>
+      <c r="O44" s="69"/>
+      <c r="P44" s="69"/>
+      <c r="Q44" s="159"/>
+      <c r="R44" s="69"/>
+      <c r="S44" s="69"/>
+    </row>
+    <row r="45" spans="1:19" ht="24" x14ac:dyDescent="0.3">
+      <c r="A45" s="157"/>
+      <c r="B45" s="69"/>
+      <c r="C45" s="69">
+        <v>1</v>
+      </c>
+      <c r="D45" s="158" t="s">
+        <v>202</v>
+      </c>
+      <c r="E45" s="158"/>
+      <c r="F45" s="69"/>
+      <c r="G45" s="69"/>
+      <c r="H45" s="69"/>
+      <c r="I45" s="69"/>
+      <c r="J45" s="69"/>
+      <c r="K45" s="69"/>
+      <c r="L45" s="69"/>
+      <c r="M45" s="69"/>
+      <c r="N45" s="69"/>
+      <c r="O45" s="69"/>
+      <c r="P45" s="69"/>
+      <c r="Q45" s="159"/>
+      <c r="R45" s="69"/>
+      <c r="S45" s="69"/>
+    </row>
+    <row r="46" spans="1:19" ht="24" x14ac:dyDescent="0.3">
+      <c r="A46" s="157"/>
+      <c r="B46" s="69"/>
+      <c r="C46" s="69">
+        <v>2</v>
+      </c>
+      <c r="D46" s="158" t="s">
+        <v>203</v>
+      </c>
+      <c r="E46" s="158"/>
+      <c r="F46" s="69"/>
+      <c r="G46" s="69"/>
+      <c r="H46" s="69"/>
+      <c r="I46" s="69"/>
+      <c r="J46" s="69"/>
+      <c r="K46" s="69"/>
+      <c r="L46" s="69"/>
+      <c r="M46" s="69"/>
+      <c r="N46" s="69"/>
+      <c r="O46" s="69"/>
+      <c r="P46" s="69"/>
+      <c r="Q46" s="159"/>
+      <c r="R46" s="69"/>
+      <c r="S46" s="69"/>
+    </row>
+    <row r="47" spans="1:19" ht="24" x14ac:dyDescent="0.3">
+      <c r="A47" s="157"/>
+      <c r="B47" s="69"/>
+      <c r="C47" s="69">
+        <v>3</v>
+      </c>
+      <c r="D47" s="158" t="s">
+        <v>204</v>
+      </c>
+      <c r="E47" s="158"/>
+      <c r="F47" s="69"/>
+      <c r="G47" s="69"/>
+      <c r="H47" s="69"/>
+      <c r="I47" s="69"/>
+      <c r="J47" s="69"/>
+      <c r="K47" s="69"/>
+      <c r="L47" s="69"/>
+      <c r="M47" s="69"/>
+      <c r="N47" s="69"/>
+      <c r="O47" s="69"/>
+      <c r="P47" s="69"/>
+      <c r="Q47" s="159"/>
+      <c r="R47" s="69"/>
+      <c r="S47" s="69"/>
+    </row>
+    <row r="48" spans="1:19" ht="24" x14ac:dyDescent="0.3">
+      <c r="A48" s="157"/>
+      <c r="B48" s="69"/>
+      <c r="C48" s="69"/>
+      <c r="D48" s="69"/>
+      <c r="E48" s="69"/>
+      <c r="F48" s="69"/>
+      <c r="G48" s="69"/>
+      <c r="H48" s="69"/>
+      <c r="I48" s="69"/>
+      <c r="J48" s="69"/>
+      <c r="K48" s="69"/>
+      <c r="L48" s="69"/>
+      <c r="M48" s="69"/>
+      <c r="N48" s="69"/>
+      <c r="O48" s="69"/>
+      <c r="P48" s="69"/>
+      <c r="Q48" s="159"/>
+      <c r="R48" s="69"/>
+      <c r="S48" s="69"/>
+    </row>
+    <row r="49" spans="1:19" ht="24" x14ac:dyDescent="0.3">
+      <c r="A49" s="157"/>
+      <c r="B49" s="156" t="s">
+        <v>205</v>
+      </c>
+      <c r="C49" s="69"/>
+      <c r="D49" s="69"/>
+      <c r="E49" s="69"/>
+      <c r="F49" s="69"/>
+      <c r="G49" s="69"/>
+      <c r="H49" s="69"/>
+      <c r="I49" s="69"/>
+      <c r="J49" s="69"/>
+      <c r="K49" s="69"/>
+      <c r="L49" s="69"/>
+      <c r="M49" s="69"/>
+      <c r="N49" s="69"/>
+      <c r="O49" s="69"/>
+      <c r="P49" s="69"/>
+      <c r="Q49" s="159"/>
+      <c r="R49" s="69"/>
+      <c r="S49" s="69"/>
+    </row>
+    <row r="50" spans="1:19" ht="24" x14ac:dyDescent="0.3">
+      <c r="A50" s="157"/>
+      <c r="B50" s="69"/>
+      <c r="C50" s="69">
+        <v>1</v>
+      </c>
+      <c r="D50" s="158" t="s">
+        <v>206</v>
+      </c>
+      <c r="E50" s="158"/>
+      <c r="F50" s="158"/>
+      <c r="G50" s="158"/>
+      <c r="H50" s="158"/>
+      <c r="I50" s="69"/>
+      <c r="J50" s="69"/>
+      <c r="K50" s="69"/>
+      <c r="L50" s="69"/>
+      <c r="M50" s="69"/>
+      <c r="N50" s="69"/>
+      <c r="O50" s="69"/>
+      <c r="P50" s="69"/>
+      <c r="Q50" s="159"/>
+      <c r="R50" s="69"/>
+      <c r="S50" s="69"/>
+    </row>
+    <row r="51" spans="1:19" ht="24" x14ac:dyDescent="0.3">
+      <c r="A51" s="157"/>
+      <c r="B51" s="69" t="s">
+        <v>207</v>
+      </c>
+      <c r="C51" s="69">
+        <v>2</v>
+      </c>
+      <c r="D51" s="158" t="s">
+        <v>208</v>
+      </c>
+      <c r="E51" s="158"/>
+      <c r="F51" s="158"/>
+      <c r="G51" s="158"/>
+      <c r="H51" s="158"/>
+      <c r="I51" s="69"/>
+      <c r="J51" s="69"/>
+      <c r="K51" s="69"/>
+      <c r="L51" s="69"/>
+      <c r="M51" s="69"/>
+      <c r="N51" s="69"/>
+      <c r="O51" s="69"/>
+      <c r="P51" s="69"/>
+      <c r="Q51" s="159"/>
+      <c r="R51" s="69"/>
+      <c r="S51" s="69"/>
+    </row>
+    <row r="52" spans="1:19" ht="24" x14ac:dyDescent="0.3">
+      <c r="A52" s="157"/>
+      <c r="B52" s="69"/>
+      <c r="C52" s="69">
+        <v>3</v>
+      </c>
+      <c r="D52" s="158" t="s">
+        <v>209</v>
+      </c>
+      <c r="E52" s="158"/>
+      <c r="F52" s="158"/>
+      <c r="G52" s="158"/>
+      <c r="H52" s="158"/>
+      <c r="I52" s="69"/>
+      <c r="J52" s="69"/>
+      <c r="K52" s="69"/>
+      <c r="L52" s="69"/>
+      <c r="M52" s="69"/>
+      <c r="N52" s="69"/>
+      <c r="O52" s="69"/>
+      <c r="P52" s="69"/>
+      <c r="Q52" s="159"/>
+      <c r="R52" s="69"/>
+      <c r="S52" s="69"/>
+    </row>
+    <row r="53" spans="1:19" ht="24" x14ac:dyDescent="0.3">
+      <c r="A53" s="157"/>
+      <c r="B53" s="69"/>
+      <c r="C53" s="69">
+        <v>4</v>
+      </c>
+      <c r="D53" s="158" t="s">
+        <v>210</v>
+      </c>
+      <c r="E53" s="158"/>
+      <c r="F53" s="158"/>
+      <c r="G53" s="158"/>
+      <c r="H53" s="158"/>
+      <c r="I53" s="69"/>
+      <c r="J53" s="69"/>
+      <c r="K53" s="69"/>
+      <c r="L53" s="69"/>
+      <c r="M53" s="69"/>
+      <c r="N53" s="69"/>
+      <c r="O53" s="69"/>
+      <c r="P53" s="69"/>
+      <c r="Q53" s="159"/>
+      <c r="R53" s="69"/>
+      <c r="S53" s="69"/>
+    </row>
+    <row r="54" spans="1:19" ht="24" x14ac:dyDescent="0.3">
+      <c r="A54" s="157"/>
+      <c r="B54" s="69" t="s">
+        <v>207</v>
+      </c>
+      <c r="C54" s="69">
+        <v>5</v>
+      </c>
+      <c r="D54" s="158" t="s">
+        <v>211</v>
+      </c>
+      <c r="E54" s="158"/>
+      <c r="F54" s="158"/>
+      <c r="G54" s="158"/>
+      <c r="H54" s="158"/>
+      <c r="I54" s="69"/>
+      <c r="J54" s="69"/>
+      <c r="K54" s="69"/>
+      <c r="L54" s="69"/>
+      <c r="M54" s="69"/>
+      <c r="N54" s="69"/>
+      <c r="O54" s="69"/>
+      <c r="P54" s="69"/>
+      <c r="Q54" s="159"/>
+      <c r="R54" s="69"/>
+      <c r="S54" s="69"/>
+    </row>
+    <row r="55" spans="1:19" ht="24" x14ac:dyDescent="0.3">
+      <c r="A55" s="157"/>
+      <c r="B55" s="69" t="s">
+        <v>207</v>
+      </c>
+      <c r="C55" s="69">
+        <v>6</v>
+      </c>
+      <c r="D55" s="158" t="s">
+        <v>212</v>
+      </c>
+      <c r="E55" s="158"/>
+      <c r="F55" s="158"/>
+      <c r="G55" s="158"/>
+      <c r="H55" s="158"/>
+      <c r="I55" s="69"/>
+      <c r="J55" s="69"/>
+      <c r="K55" s="69"/>
+      <c r="L55" s="69"/>
+      <c r="M55" s="69"/>
+      <c r="N55" s="69"/>
+      <c r="O55" s="69"/>
+      <c r="P55" s="69"/>
+      <c r="Q55" s="159"/>
+      <c r="R55" s="69"/>
+      <c r="S55" s="69"/>
+    </row>
+    <row r="56" spans="1:19" ht="24" x14ac:dyDescent="0.3">
+      <c r="A56" s="157"/>
+      <c r="B56" s="69" t="s">
+        <v>207</v>
+      </c>
+      <c r="C56" s="69">
+        <v>7</v>
+      </c>
+      <c r="D56" s="158" t="s">
+        <v>198</v>
+      </c>
+      <c r="E56" s="69"/>
+      <c r="F56" s="69"/>
+      <c r="G56" s="69"/>
+      <c r="H56" s="69"/>
+      <c r="I56" s="69"/>
+      <c r="J56" s="69"/>
+      <c r="K56" s="69"/>
+      <c r="L56" s="69"/>
+      <c r="M56" s="69"/>
+      <c r="N56" s="69"/>
+      <c r="O56" s="69"/>
+      <c r="P56" s="69"/>
+      <c r="Q56" s="159"/>
+      <c r="R56" s="69"/>
+      <c r="S56" s="69"/>
+    </row>
+    <row r="57" spans="1:19" ht="24" x14ac:dyDescent="0.3">
+      <c r="A57" s="157"/>
+      <c r="B57" s="69"/>
+      <c r="C57" s="69">
+        <v>8</v>
+      </c>
+      <c r="D57" s="158" t="s">
+        <v>213</v>
+      </c>
+      <c r="E57" s="69"/>
+      <c r="F57" s="69"/>
+      <c r="G57" s="69"/>
+      <c r="H57" s="69"/>
+      <c r="I57" s="69"/>
+      <c r="J57" s="69"/>
+      <c r="K57" s="69"/>
+      <c r="L57" s="69"/>
+      <c r="M57" s="69"/>
+      <c r="N57" s="69"/>
+      <c r="O57" s="69"/>
+      <c r="P57" s="69"/>
+      <c r="Q57" s="159"/>
+      <c r="R57" s="69"/>
+      <c r="S57" s="69"/>
+    </row>
+    <row r="58" spans="1:19" ht="24" x14ac:dyDescent="0.3">
+      <c r="A58" s="157"/>
+      <c r="B58" s="69"/>
+      <c r="C58" s="69">
+        <v>9</v>
+      </c>
+      <c r="D58" s="158" t="s">
+        <v>214</v>
+      </c>
+      <c r="E58" s="69"/>
+      <c r="F58" s="69"/>
+      <c r="G58" s="69"/>
+      <c r="H58" s="69"/>
+      <c r="I58" s="69"/>
+      <c r="J58" s="69"/>
+      <c r="K58" s="69"/>
+      <c r="L58" s="69"/>
+      <c r="M58" s="69"/>
+      <c r="N58" s="69"/>
+      <c r="O58" s="69"/>
+      <c r="P58" s="69"/>
+      <c r="Q58" s="159"/>
+      <c r="R58" s="69"/>
+      <c r="S58" s="69"/>
+    </row>
+    <row r="59" spans="1:19" ht="24" x14ac:dyDescent="0.3">
+      <c r="A59" s="157"/>
+      <c r="B59" s="69" t="s">
+        <v>207</v>
+      </c>
+      <c r="C59" s="69">
+        <v>10</v>
+      </c>
+      <c r="D59" s="158" t="s">
+        <v>215</v>
+      </c>
+      <c r="E59" s="69"/>
+      <c r="F59" s="69"/>
+      <c r="G59" s="69"/>
+      <c r="H59" s="69"/>
+      <c r="I59" s="69"/>
+      <c r="J59" s="69"/>
+      <c r="K59" s="69"/>
+      <c r="L59" s="69"/>
+      <c r="M59" s="69"/>
+      <c r="N59" s="69"/>
+      <c r="O59" s="69"/>
+      <c r="P59" s="69"/>
+      <c r="Q59" s="159"/>
+      <c r="R59" s="69"/>
+      <c r="S59" s="69"/>
+    </row>
+    <row r="60" spans="1:19" ht="24" x14ac:dyDescent="0.3">
+      <c r="A60" s="157"/>
+      <c r="B60" s="69"/>
+      <c r="C60" s="69">
+        <v>11</v>
+      </c>
+      <c r="D60" s="158" t="s">
+        <v>216</v>
+      </c>
+      <c r="E60" s="69"/>
+      <c r="F60" s="69"/>
+      <c r="G60" s="69"/>
+      <c r="H60" s="69"/>
+      <c r="I60" s="69"/>
+      <c r="J60" s="69"/>
+      <c r="K60" s="69"/>
+      <c r="L60" s="69"/>
+      <c r="M60" s="69"/>
+      <c r="N60" s="69"/>
+      <c r="O60" s="69"/>
+      <c r="P60" s="69"/>
+      <c r="Q60" s="159"/>
+      <c r="R60" s="69"/>
+      <c r="S60" s="69"/>
+    </row>
+    <row r="61" spans="1:19" ht="24" x14ac:dyDescent="0.3">
+      <c r="A61" s="157"/>
+      <c r="B61" s="69"/>
+      <c r="C61" s="69"/>
+      <c r="D61" s="69"/>
+      <c r="E61" s="69"/>
+      <c r="F61" s="69"/>
+      <c r="G61" s="69"/>
+      <c r="H61" s="69"/>
+      <c r="I61" s="69"/>
+      <c r="J61" s="69"/>
+      <c r="K61" s="69"/>
+      <c r="L61" s="69"/>
+      <c r="M61" s="69"/>
+      <c r="N61" s="69"/>
+      <c r="O61" s="69"/>
+      <c r="P61" s="69"/>
+      <c r="Q61" s="159"/>
+      <c r="R61" s="69"/>
+      <c r="S61" s="69"/>
+    </row>
+    <row r="62" spans="1:19" ht="25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A62" s="161"/>
+      <c r="B62" s="162"/>
+      <c r="C62" s="162"/>
+      <c r="D62" s="162"/>
+      <c r="E62" s="162"/>
+      <c r="F62" s="162"/>
+      <c r="G62" s="162"/>
+      <c r="H62" s="162"/>
+      <c r="I62" s="162"/>
+      <c r="J62" s="162"/>
+      <c r="K62" s="162"/>
+      <c r="L62" s="162"/>
+      <c r="M62" s="162"/>
+      <c r="N62" s="162"/>
+      <c r="O62" s="162"/>
+      <c r="P62" s="162"/>
+      <c r="Q62" s="163"/>
+      <c r="R62" s="69"/>
+      <c r="S62" s="69"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:N2"/>
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="P2:Q2"/>
+  </mergeCells>
+  <printOptions horizontalCentered="1" verticalCentered="1"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="48" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DA57DD3-54BE-0B47-9A75-C513CCBC9952}">
   <dimension ref="A1:O30"/>
   <sheetViews>
@@ -16321,47 +18086,47 @@
   <sheetData>
     <row r="1" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="120" t="s">
+      <c r="A2" s="122" t="s">
         <v>41</v>
       </c>
-      <c r="B2" s="121"/>
-      <c r="C2" s="124" t="str">
+      <c r="B2" s="123"/>
+      <c r="C2" s="126" t="str">
         <f>Cover!E40</f>
         <v xml:space="preserve">Level Up </v>
       </c>
-      <c r="D2" s="125"/>
-      <c r="E2" s="125"/>
-      <c r="F2" s="125"/>
-      <c r="G2" s="125"/>
-      <c r="H2" s="125"/>
-      <c r="I2" s="125"/>
-      <c r="J2" s="125"/>
-      <c r="K2" s="125"/>
-      <c r="L2" s="125"/>
+      <c r="D2" s="127"/>
+      <c r="E2" s="127"/>
+      <c r="F2" s="127"/>
+      <c r="G2" s="127"/>
+      <c r="H2" s="127"/>
+      <c r="I2" s="127"/>
+      <c r="J2" s="127"/>
+      <c r="K2" s="127"/>
+      <c r="L2" s="127"/>
       <c r="M2" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="N2" s="128"/>
-      <c r="O2" s="129"/>
+      <c r="N2" s="130"/>
+      <c r="O2" s="131"/>
     </row>
     <row r="3" spans="1:15" ht="34" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="122"/>
-      <c r="B3" s="123"/>
-      <c r="C3" s="126"/>
-      <c r="D3" s="127"/>
-      <c r="E3" s="127"/>
-      <c r="F3" s="127"/>
-      <c r="G3" s="127"/>
-      <c r="H3" s="127"/>
-      <c r="I3" s="127"/>
-      <c r="J3" s="127"/>
-      <c r="K3" s="127"/>
-      <c r="L3" s="127"/>
+      <c r="A3" s="124"/>
+      <c r="B3" s="125"/>
+      <c r="C3" s="128"/>
+      <c r="D3" s="129"/>
+      <c r="E3" s="129"/>
+      <c r="F3" s="129"/>
+      <c r="G3" s="129"/>
+      <c r="H3" s="129"/>
+      <c r="I3" s="129"/>
+      <c r="J3" s="129"/>
+      <c r="K3" s="129"/>
+      <c r="L3" s="129"/>
       <c r="M3" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="N3" s="130"/>
-      <c r="O3" s="131"/>
+      <c r="N3" s="132"/>
+      <c r="O3" s="133"/>
     </row>
     <row r="4" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="12"/>
@@ -16767,7 +18532,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{185544AF-FB57-2245-BC6B-CF7A87323523}">
   <dimension ref="D2:N15"/>
   <sheetViews>
@@ -16803,19 +18568,19 @@
     </row>
     <row r="3" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D3" s="78"/>
-      <c r="E3" s="148">
+      <c r="E3" s="150">
         <v>1</v>
       </c>
       <c r="F3" s="79" t="s">
         <v>72</v>
       </c>
-      <c r="G3" s="148">
+      <c r="G3" s="150">
         <v>2</v>
       </c>
       <c r="H3" s="80" t="s">
         <v>73</v>
       </c>
-      <c r="I3" s="148">
+      <c r="I3" s="150">
         <v>3</v>
       </c>
       <c r="J3" s="81" t="s">
@@ -16825,15 +18590,15 @@
     </row>
     <row r="4" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D4" s="78"/>
-      <c r="E4" s="148"/>
+      <c r="E4" s="150"/>
       <c r="F4" s="74" t="s">
         <v>46</v>
       </c>
-      <c r="G4" s="148"/>
+      <c r="G4" s="150"/>
       <c r="H4" s="74" t="s">
         <v>48</v>
       </c>
-      <c r="I4" s="148"/>
+      <c r="I4" s="150"/>
       <c r="J4" s="74" t="s">
         <v>51</v>
       </c>
@@ -16844,15 +18609,15 @@
     </row>
     <row r="5" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D5" s="78"/>
-      <c r="E5" s="148"/>
+      <c r="E5" s="150"/>
       <c r="F5" s="74" t="s">
         <v>47</v>
       </c>
-      <c r="G5" s="148"/>
+      <c r="G5" s="150"/>
       <c r="H5" s="74" t="s">
         <v>75</v>
       </c>
-      <c r="I5" s="148"/>
+      <c r="I5" s="150"/>
       <c r="J5" s="74" t="s">
         <v>50</v>
       </c>
@@ -16886,13 +18651,13 @@
     </row>
     <row r="8" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D8" s="78"/>
-      <c r="E8" s="148">
+      <c r="E8" s="150">
         <v>4</v>
       </c>
       <c r="F8" s="86" t="s">
         <v>76</v>
       </c>
-      <c r="G8" s="148">
+      <c r="G8" s="150">
         <v>5</v>
       </c>
       <c r="H8" s="87" t="s">
@@ -16902,11 +18667,11 @@
     </row>
     <row r="9" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D9" s="78"/>
-      <c r="E9" s="148"/>
+      <c r="E9" s="150"/>
       <c r="F9" s="74" t="s">
         <v>48</v>
       </c>
-      <c r="G9" s="148"/>
+      <c r="G9" s="150"/>
       <c r="H9" s="74" t="s">
         <v>75</v>
       </c>
@@ -16914,9 +18679,9 @@
     </row>
     <row r="10" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D10" s="83"/>
-      <c r="E10" s="149"/>
+      <c r="E10" s="151"/>
       <c r="F10" s="84"/>
-      <c r="G10" s="149"/>
+      <c r="G10" s="151"/>
       <c r="H10" s="84"/>
       <c r="I10" s="84"/>
       <c r="J10" s="84"/>
@@ -16940,14 +18705,14 @@
     </row>
     <row r="12" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D12" s="78"/>
-      <c r="F12" s="147" t="s">
+      <c r="F12" s="149" t="s">
         <v>79</v>
       </c>
-      <c r="G12" s="147"/>
-      <c r="H12" s="147"/>
-      <c r="I12" s="147"/>
-      <c r="J12" s="147"/>
-      <c r="K12" s="147"/>
+      <c r="G12" s="149"/>
+      <c r="H12" s="149"/>
+      <c r="I12" s="149"/>
+      <c r="J12" s="149"/>
+      <c r="K12" s="149"/>
       <c r="N12" s="82"/>
     </row>
     <row r="13" spans="4:14" x14ac:dyDescent="0.3">
